--- a/conformancelib/testdata/85b_test_definitions_PIV-I_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV-I_ICAM_Test_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\python_den\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229AA95D-F4FF-440B-BA37-DEB798213056}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97705374-AFB4-4D8E-A88B-8C120DCFD451}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="1515" windowWidth="28755" windowHeight="17760" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6705" yWindow="960" windowWidth="28755" windowHeight="17760" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3770" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3766" uniqueCount="1302">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -2979,9 +2979,6 @@
   </si>
   <si>
     <t>Validate that the signature algorithm value for RSA with PKCS #1 v1.5 padding specifies the rsaEncryption OID (as per Section 3.2 of RFC 3370) and for ECDSA and RSA with PSS padding, the signatureAlgorithm is in accordance with Table 3-3 of SP 800-78.</t>
-  </si>
-  <si>
-    <t>1.2.840.113549.1.1.5, 1.2.840.113549.1.1.11, 1.2.840.113549.1.1.10, 1.2.840.10045.4.3.2, 1.2.840.10045.4.3.3</t>
   </si>
   <si>
     <t>CMS_Test_14</t>
@@ -3889,16 +3886,7 @@
     <t>Ensure that RSA key has 2048- or 3072-bit modulus (Table 3-1)</t>
   </si>
   <si>
-    <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID:1.2.840.113549.1.1.1+NULL|1.2.840.10045.2.1+1.2.840.10045.3.1.7,
-X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:1.2.840.113549.1.1.1+NULL|1.2.840.10045.2.1+1.2.840.10045.3.1.7,
-X509_CERTIFICATE_FOR_DIGITAL_CERTIFICATE_OID:1.2.840.113549.1.1.1+NULL|1.2.840.10045.2.1+1.2.840.10045.3.1.7|1.2.840.10045.2.1+1.3.132.0.34,
-X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID:1.2.840.113549.1.1.1+NULL|1.2.840.10045.2.1+1.2.840.10045.3.1.7|1.2.840.10045.2.1+1.3.132.0.34</t>
-  </si>
-  <si>
     <t>Ensure that ECDSA key is curve P-256 or P-384 (Table 3-2)</t>
-  </si>
-  <si>
-    <t>1.2.840.113549.1.1.1:1.2.840.113549.1.1.10,1.2.840.113549.1.1.1:1.2.840.113549.1.1.11,1.2.840.10045.2.1:1.2.840.10045.3.1.7,1.2.840.10045.2.1:1.3.132.0.34</t>
   </si>
   <si>
     <t>If the algorithm value is id-RSASSA-PSS, verify that the signature-&gt;parameters field is populated with SHA-256 (OID = 2.16.840.1.101.3.4.2.1). For the other RSA algorithms, the parameters field is populated with NULL. For ECDSA, the parameters field is absent. (Table 3-3)</t>
@@ -4055,7 +4043,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4127,6 +4115,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -4185,7 +4185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4366,6 +4366,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8453,9 +8459,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G471"/>
   <sheetViews>
-    <sheetView topLeftCell="A406" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C422" sqref="C422:D424"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -8484,13 +8488,13 @@
         <v>55</v>
       </c>
       <c r="E1" s="38" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F1" s="38" t="s">
         <v>1123</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>1124</v>
-      </c>
       <c r="G1" s="38" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8498,7 +8502,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C2" s="40" t="s">
         <v>0</v>
@@ -8528,10 +8532,10 @@
         <v>56</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>1125</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>1126</v>
       </c>
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
@@ -8553,10 +8557,10 @@
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
@@ -8574,7 +8578,7 @@
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G6" s="42"/>
     </row>
@@ -8593,7 +8597,7 @@
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G7" s="42"/>
     </row>
@@ -8612,7 +8616,7 @@
       </c>
       <c r="E8" s="42"/>
       <c r="F8" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G8" s="42"/>
     </row>
@@ -8631,7 +8635,7 @@
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G9" s="42"/>
     </row>
@@ -8650,7 +8654,7 @@
       </c>
       <c r="E10" s="42"/>
       <c r="F10" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G10" s="42"/>
     </row>
@@ -8669,7 +8673,7 @@
       </c>
       <c r="E11" s="42"/>
       <c r="F11" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G11" s="42"/>
     </row>
@@ -8688,7 +8692,7 @@
       </c>
       <c r="E12" s="42"/>
       <c r="F12" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G12" s="42"/>
     </row>
@@ -8707,7 +8711,7 @@
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G13" s="42"/>
     </row>
@@ -8726,7 +8730,7 @@
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G14" s="42"/>
     </row>
@@ -8745,7 +8749,7 @@
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G15" s="42"/>
     </row>
@@ -8769,10 +8773,10 @@
         <v>56</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
@@ -8794,10 +8798,10 @@
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30">
@@ -8815,7 +8819,7 @@
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G19" s="42"/>
     </row>
@@ -8834,7 +8838,7 @@
       </c>
       <c r="E20" s="42"/>
       <c r="F20" s="42" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G20" s="42"/>
     </row>
@@ -8853,7 +8857,7 @@
       </c>
       <c r="E21" s="42"/>
       <c r="F21" s="42" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G21" s="42"/>
     </row>
@@ -8872,7 +8876,7 @@
       </c>
       <c r="E22" s="42"/>
       <c r="F22" s="42" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G22" s="42"/>
     </row>
@@ -8884,14 +8888,14 @@
         <v>98</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>100</v>
       </c>
       <c r="E23" s="42"/>
       <c r="F23" s="42" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G23" s="42"/>
     </row>
@@ -8903,14 +8907,14 @@
         <v>101</v>
       </c>
       <c r="C24" s="43" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D24" s="43" t="s">
         <v>1131</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>1132</v>
       </c>
       <c r="E24" s="43"/>
       <c r="F24" s="43" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G24" s="43"/>
     </row>
@@ -8929,7 +8933,7 @@
       </c>
       <c r="E25" s="42"/>
       <c r="F25" s="42" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G25" s="42"/>
     </row>
@@ -8941,14 +8945,14 @@
         <v>107</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D26" s="42" t="s">
         <v>106</v>
       </c>
       <c r="E26" s="42"/>
       <c r="F26" s="42" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G26" s="42"/>
     </row>
@@ -8960,14 +8964,14 @@
         <v>110</v>
       </c>
       <c r="C27" s="43" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D27" s="43" t="s">
         <v>1133</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>1134</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="43" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G27" s="43"/>
     </row>
@@ -8979,14 +8983,14 @@
         <v>113</v>
       </c>
       <c r="C28" s="43" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>1135</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>1136</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="43" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G28" s="43"/>
     </row>
@@ -8995,34 +8999,34 @@
         <v>56</v>
       </c>
       <c r="B29" s="43" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C29" s="43" t="s">
         <v>1137</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="D29" s="43" t="s">
         <v>1138</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>1139</v>
       </c>
       <c r="E29" s="43"/>
       <c r="F29" s="43" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G29" s="43"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="43"/>
       <c r="B30" s="43" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C30" s="43" t="s">
         <v>1140</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="D30" s="43" t="s">
         <v>1141</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>1142</v>
       </c>
       <c r="E30" s="43"/>
       <c r="F30" s="43" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G30" s="43"/>
     </row>
@@ -9031,17 +9035,17 @@
         <v>56</v>
       </c>
       <c r="B31" s="42" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C31" s="42" t="s">
         <v>1143</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>1144</v>
       </c>
       <c r="D31" s="42" t="s">
         <v>109</v>
       </c>
       <c r="E31" s="42"/>
       <c r="F31" s="42" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G31" s="42"/>
     </row>
@@ -9050,7 +9054,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C32" s="42" t="s">
         <v>111</v>
@@ -9060,7 +9064,7 @@
       </c>
       <c r="E32" s="42"/>
       <c r="F32" s="42" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G32" s="42"/>
     </row>
@@ -9069,17 +9073,17 @@
         <v>56</v>
       </c>
       <c r="B33" s="43" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C33" s="43" t="s">
         <v>1146</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="D33" s="43" t="s">
         <v>1147</v>
-      </c>
-      <c r="D33" s="43" t="s">
-        <v>1148</v>
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="43" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G33" s="43"/>
     </row>
@@ -9088,17 +9092,17 @@
         <v>56</v>
       </c>
       <c r="B34" s="43" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C34" s="43" t="s">
         <v>1149</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="D34" s="43" t="s">
         <v>1150</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>1151</v>
       </c>
       <c r="E34" s="43"/>
       <c r="F34" s="43" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G34" s="43"/>
     </row>
@@ -9107,17 +9111,17 @@
         <v>56</v>
       </c>
       <c r="B35" s="43" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C35" s="43" t="s">
         <v>1152</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="D35" s="43" t="s">
         <v>1153</v>
-      </c>
-      <c r="D35" s="43" t="s">
-        <v>1154</v>
       </c>
       <c r="E35" s="43"/>
       <c r="F35" s="43" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G35" s="43"/>
     </row>
@@ -9126,17 +9130,17 @@
         <v>56</v>
       </c>
       <c r="B36" s="43" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C36" s="43" t="s">
         <v>1155</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="D36" s="43" t="s">
         <v>1156</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>1157</v>
       </c>
       <c r="E36" s="43"/>
       <c r="F36" s="43" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G36" s="43"/>
     </row>
@@ -9145,7 +9149,7 @@
         <v>56</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C37" s="42" t="s">
         <v>114</v>
@@ -9155,7 +9159,7 @@
       </c>
       <c r="E37" s="42"/>
       <c r="F37" s="42" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G37" s="42"/>
     </row>
@@ -9174,7 +9178,7 @@
       </c>
       <c r="E38" s="42"/>
       <c r="F38" s="42" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G38" s="42"/>
     </row>
@@ -9193,7 +9197,7 @@
       </c>
       <c r="E39" s="42"/>
       <c r="F39" s="42" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G39" s="42"/>
     </row>
@@ -9212,7 +9216,7 @@
       </c>
       <c r="E40" s="42"/>
       <c r="F40" s="42" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G40" s="42"/>
     </row>
@@ -9231,7 +9235,7 @@
       </c>
       <c r="E41" s="42"/>
       <c r="F41" s="42" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G41" s="42"/>
     </row>
@@ -9240,7 +9244,7 @@
         <v>127</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C42" s="42" t="s">
         <v>129</v>
@@ -9250,7 +9254,7 @@
       </c>
       <c r="E42" s="42"/>
       <c r="F42" s="42" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G42" s="42"/>
     </row>
@@ -9274,10 +9278,10 @@
         <v>56</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D44" s="41"/>
       <c r="E44" s="41"/>
@@ -9299,10 +9303,10 @@
       </c>
       <c r="E45" s="42"/>
       <c r="F45" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30">
@@ -9320,7 +9324,7 @@
       </c>
       <c r="E46" s="42"/>
       <c r="F46" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G46" s="42"/>
     </row>
@@ -9339,7 +9343,7 @@
       </c>
       <c r="E47" s="42"/>
       <c r="F47" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G47" s="42"/>
     </row>
@@ -9358,7 +9362,7 @@
       </c>
       <c r="E48" s="42"/>
       <c r="F48" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G48" s="42"/>
     </row>
@@ -9377,7 +9381,7 @@
       </c>
       <c r="E49" s="42"/>
       <c r="F49" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G49" s="42"/>
     </row>
@@ -9396,7 +9400,7 @@
       </c>
       <c r="E50" s="42"/>
       <c r="F50" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G50" s="42"/>
     </row>
@@ -9415,7 +9419,7 @@
       </c>
       <c r="E51" s="42"/>
       <c r="F51" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G51" s="42"/>
     </row>
@@ -9434,7 +9438,7 @@
       </c>
       <c r="E52" s="42"/>
       <c r="F52" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G52" s="42"/>
     </row>
@@ -9453,7 +9457,7 @@
       </c>
       <c r="E53" s="42"/>
       <c r="F53" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G53" s="42"/>
     </row>
@@ -9462,7 +9466,7 @@
         <v>127</v>
       </c>
       <c r="B54" s="42" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C54" s="42" t="s">
         <v>129</v>
@@ -9472,7 +9476,7 @@
       </c>
       <c r="E54" s="42"/>
       <c r="F54" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G54" s="42"/>
     </row>
@@ -9496,10 +9500,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="42" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D56" s="41"/>
       <c r="E56" s="41"/>
@@ -9521,10 +9525,10 @@
       </c>
       <c r="E57" s="42"/>
       <c r="F57" s="42" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G57" s="42" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="30">
@@ -9542,7 +9546,7 @@
       </c>
       <c r="E58" s="42"/>
       <c r="F58" s="42" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G58" s="42"/>
     </row>
@@ -9561,7 +9565,7 @@
       </c>
       <c r="E59" s="42"/>
       <c r="F59" s="42" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G59" s="42"/>
     </row>
@@ -9580,7 +9584,7 @@
       </c>
       <c r="E60" s="42"/>
       <c r="F60" s="42" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G60" s="42"/>
     </row>
@@ -9599,7 +9603,7 @@
       </c>
       <c r="E61" s="42"/>
       <c r="F61" s="42" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G61" s="42"/>
     </row>
@@ -9618,7 +9622,7 @@
       </c>
       <c r="E62" s="42"/>
       <c r="F62" s="42" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G62" s="42"/>
     </row>
@@ -9637,7 +9641,7 @@
       </c>
       <c r="E63" s="42"/>
       <c r="F63" s="42" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G63" s="42"/>
     </row>
@@ -9656,7 +9660,7 @@
       </c>
       <c r="E64" s="42"/>
       <c r="F64" s="42" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G64" s="42"/>
     </row>
@@ -9675,7 +9679,7 @@
       </c>
       <c r="E65" s="42"/>
       <c r="F65" s="42" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G65" s="42"/>
     </row>
@@ -9699,10 +9703,10 @@
         <v>56</v>
       </c>
       <c r="B67" s="42" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D67" s="41"/>
       <c r="E67" s="41"/>
@@ -9724,10 +9728,10 @@
       </c>
       <c r="E68" s="42"/>
       <c r="F68" s="42" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G68" s="42" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30">
@@ -9745,7 +9749,7 @@
       </c>
       <c r="E69" s="42"/>
       <c r="F69" s="42" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G69" s="42"/>
     </row>
@@ -9764,7 +9768,7 @@
       </c>
       <c r="E70" s="42"/>
       <c r="F70" s="42" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G70" s="42"/>
     </row>
@@ -9783,7 +9787,7 @@
       </c>
       <c r="E71" s="42"/>
       <c r="F71" s="42" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G71" s="42"/>
     </row>
@@ -9802,7 +9806,7 @@
       </c>
       <c r="E72" s="42"/>
       <c r="F72" s="42" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G72" s="42"/>
     </row>
@@ -9821,7 +9825,7 @@
       </c>
       <c r="E73" s="42"/>
       <c r="F73" s="42" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G73" s="42"/>
     </row>
@@ -9833,14 +9837,14 @@
         <v>172</v>
       </c>
       <c r="C74" s="43" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D74" s="43" t="s">
         <v>1167</v>
-      </c>
-      <c r="D74" s="43" t="s">
-        <v>1168</v>
       </c>
       <c r="E74" s="43"/>
       <c r="F74" s="43" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G74" s="43"/>
     </row>
@@ -9852,14 +9856,14 @@
         <v>175</v>
       </c>
       <c r="C75" s="43" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D75" s="43" t="s">
         <v>1169</v>
-      </c>
-      <c r="D75" s="43" t="s">
-        <v>1170</v>
       </c>
       <c r="E75" s="43"/>
       <c r="F75" s="43" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G75" s="43"/>
     </row>
@@ -9878,7 +9882,7 @@
       </c>
       <c r="E76" s="42"/>
       <c r="F76" s="42" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G76" s="42"/>
     </row>
@@ -9887,7 +9891,7 @@
         <v>56</v>
       </c>
       <c r="B77" s="42" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C77" s="42" t="s">
         <v>176</v>
@@ -9897,7 +9901,7 @@
       </c>
       <c r="E77" s="42"/>
       <c r="F77" s="42" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G77" s="42"/>
     </row>
@@ -9906,7 +9910,7 @@
         <v>56</v>
       </c>
       <c r="B78" s="42" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C78" s="42" t="s">
         <v>179</v>
@@ -9916,7 +9920,7 @@
       </c>
       <c r="E78" s="42"/>
       <c r="F78" s="42" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G78" s="42"/>
     </row>
@@ -9925,7 +9929,7 @@
         <v>127</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C79" s="42" t="s">
         <v>129</v>
@@ -9935,7 +9939,7 @@
       </c>
       <c r="E79" s="42"/>
       <c r="F79" s="42" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G79" s="42"/>
     </row>
@@ -9944,7 +9948,7 @@
         <v>56</v>
       </c>
       <c r="B80" s="42" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C80" s="41" t="s">
         <v>6</v>
@@ -9959,10 +9963,10 @@
         <v>56</v>
       </c>
       <c r="B81" s="42" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D81" s="41"/>
       <c r="E81" s="41"/>
@@ -9984,10 +9988,10 @@
       </c>
       <c r="E82" s="42"/>
       <c r="F82" s="42" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G82" s="42" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="30">
@@ -10005,7 +10009,7 @@
       </c>
       <c r="E83" s="42"/>
       <c r="F83" s="42" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G83" s="42"/>
     </row>
@@ -10024,7 +10028,7 @@
       </c>
       <c r="E84" s="42"/>
       <c r="F84" s="42" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G84" s="42"/>
     </row>
@@ -10043,7 +10047,7 @@
       </c>
       <c r="E85" s="42"/>
       <c r="F85" s="42" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G85" s="42"/>
     </row>
@@ -10062,7 +10066,7 @@
       </c>
       <c r="E86" s="42"/>
       <c r="F86" s="42" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G86" s="42"/>
     </row>
@@ -10081,7 +10085,7 @@
       </c>
       <c r="E87" s="42"/>
       <c r="F87" s="42" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G87" s="42"/>
     </row>
@@ -10100,7 +10104,7 @@
       </c>
       <c r="E88" s="42"/>
       <c r="F88" s="42" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G88" s="42"/>
     </row>
@@ -10109,7 +10113,7 @@
         <v>127</v>
       </c>
       <c r="B89" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C89" s="42" t="s">
         <v>129</v>
@@ -10119,7 +10123,7 @@
       </c>
       <c r="E89" s="42"/>
       <c r="F89" s="42" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G89" s="42"/>
     </row>
@@ -10143,10 +10147,10 @@
         <v>56</v>
       </c>
       <c r="B91" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C91" s="41" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D91" s="41"/>
       <c r="E91" s="41"/>
@@ -10168,10 +10172,10 @@
       </c>
       <c r="E92" s="42"/>
       <c r="F92" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G92" s="42" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="30">
@@ -10189,7 +10193,7 @@
       </c>
       <c r="E93" s="42"/>
       <c r="F93" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G93" s="42"/>
     </row>
@@ -10208,7 +10212,7 @@
       </c>
       <c r="E94" s="42"/>
       <c r="F94" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G94" s="42"/>
     </row>
@@ -10227,7 +10231,7 @@
       </c>
       <c r="E95" s="42"/>
       <c r="F95" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G95" s="42"/>
     </row>
@@ -10246,7 +10250,7 @@
       </c>
       <c r="E96" s="42"/>
       <c r="F96" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G96" s="42"/>
     </row>
@@ -10265,7 +10269,7 @@
       </c>
       <c r="E97" s="42"/>
       <c r="F97" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G97" s="42"/>
     </row>
@@ -10284,7 +10288,7 @@
       </c>
       <c r="E98" s="42"/>
       <c r="F98" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G98" s="42"/>
     </row>
@@ -10303,7 +10307,7 @@
       </c>
       <c r="E99" s="42"/>
       <c r="F99" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G99" s="42"/>
     </row>
@@ -10322,7 +10326,7 @@
       </c>
       <c r="E100" s="42"/>
       <c r="F100" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G100" s="42"/>
     </row>
@@ -10331,7 +10335,7 @@
         <v>127</v>
       </c>
       <c r="B101" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C101" s="42" t="s">
         <v>129</v>
@@ -10341,7 +10345,7 @@
       </c>
       <c r="E101" s="42"/>
       <c r="F101" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G101" s="42"/>
     </row>
@@ -10365,10 +10369,10 @@
         <v>56</v>
       </c>
       <c r="B103" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C103" s="41" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D103" s="41"/>
       <c r="E103" s="41"/>
@@ -10390,10 +10394,10 @@
       </c>
       <c r="E104" s="42"/>
       <c r="F104" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G104" s="42" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="30">
@@ -10411,7 +10415,7 @@
       </c>
       <c r="E105" s="42"/>
       <c r="F105" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G105" s="42"/>
     </row>
@@ -10430,7 +10434,7 @@
       </c>
       <c r="E106" s="42"/>
       <c r="F106" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G106" s="42"/>
     </row>
@@ -10449,7 +10453,7 @@
       </c>
       <c r="E107" s="42"/>
       <c r="F107" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G107" s="42"/>
     </row>
@@ -10468,7 +10472,7 @@
       </c>
       <c r="E108" s="42"/>
       <c r="F108" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G108" s="42"/>
     </row>
@@ -10487,7 +10491,7 @@
       </c>
       <c r="E109" s="42"/>
       <c r="F109" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G109" s="42"/>
     </row>
@@ -10506,7 +10510,7 @@
       </c>
       <c r="E110" s="42"/>
       <c r="F110" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G110" s="42"/>
     </row>
@@ -10525,7 +10529,7 @@
       </c>
       <c r="E111" s="42"/>
       <c r="F111" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G111" s="42"/>
     </row>
@@ -10544,7 +10548,7 @@
       </c>
       <c r="E112" s="42"/>
       <c r="F112" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G112" s="42"/>
     </row>
@@ -10553,7 +10557,7 @@
         <v>127</v>
       </c>
       <c r="B113" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C113" s="42" t="s">
         <v>129</v>
@@ -10563,7 +10567,7 @@
       </c>
       <c r="E113" s="42"/>
       <c r="F113" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G113" s="42"/>
     </row>
@@ -10587,10 +10591,10 @@
         <v>56</v>
       </c>
       <c r="B115" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C115" s="41" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D115" s="41"/>
       <c r="E115" s="41"/>
@@ -10612,10 +10616,10 @@
       </c>
       <c r="E116" s="42"/>
       <c r="F116" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G116" s="42" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="30">
@@ -10633,7 +10637,7 @@
       </c>
       <c r="E117" s="42"/>
       <c r="F117" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G117" s="42"/>
     </row>
@@ -10652,7 +10656,7 @@
       </c>
       <c r="E118" s="42"/>
       <c r="F118" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G118" s="42"/>
     </row>
@@ -10671,7 +10675,7 @@
       </c>
       <c r="E119" s="42"/>
       <c r="F119" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G119" s="42"/>
     </row>
@@ -10690,7 +10694,7 @@
       </c>
       <c r="E120" s="42"/>
       <c r="F120" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G120" s="42"/>
     </row>
@@ -10709,7 +10713,7 @@
       </c>
       <c r="E121" s="42"/>
       <c r="F121" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G121" s="42"/>
     </row>
@@ -10728,7 +10732,7 @@
       </c>
       <c r="E122" s="42"/>
       <c r="F122" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G122" s="42"/>
     </row>
@@ -10747,7 +10751,7 @@
       </c>
       <c r="E123" s="42"/>
       <c r="F123" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G123" s="42"/>
     </row>
@@ -10766,7 +10770,7 @@
       </c>
       <c r="E124" s="42"/>
       <c r="F124" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G124" s="42"/>
     </row>
@@ -10775,7 +10779,7 @@
         <v>127</v>
       </c>
       <c r="B125" s="42" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C125" s="42" t="s">
         <v>129</v>
@@ -10785,7 +10789,7 @@
       </c>
       <c r="E125" s="42"/>
       <c r="F125" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G125" s="42"/>
     </row>
@@ -10794,7 +10798,7 @@
         <v>56</v>
       </c>
       <c r="B126" s="42" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C126" s="41" t="s">
         <v>10</v>
@@ -10809,10 +10813,10 @@
         <v>56</v>
       </c>
       <c r="B127" s="42" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C127" s="41" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D127" s="41"/>
       <c r="E127" s="41"/>
@@ -10834,10 +10838,10 @@
       </c>
       <c r="E128" s="42"/>
       <c r="F128" s="42" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G128" s="42" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="30">
@@ -10855,7 +10859,7 @@
       </c>
       <c r="E129" s="42"/>
       <c r="F129" s="42" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G129" s="42"/>
     </row>
@@ -10874,7 +10878,7 @@
       </c>
       <c r="E130" s="42"/>
       <c r="F130" s="42" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G130" s="42"/>
     </row>
@@ -10893,7 +10897,7 @@
       </c>
       <c r="E131" s="42"/>
       <c r="F131" s="42" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G131" s="42"/>
     </row>
@@ -10912,7 +10916,7 @@
       </c>
       <c r="E132" s="42"/>
       <c r="F132" s="42" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G132" s="42"/>
     </row>
@@ -10924,14 +10928,14 @@
         <v>238</v>
       </c>
       <c r="C133" s="42" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D133" s="42" t="s">
         <v>240</v>
       </c>
       <c r="E133" s="42"/>
       <c r="F133" s="42" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G133" s="42"/>
     </row>
@@ -10943,14 +10947,14 @@
         <v>241</v>
       </c>
       <c r="C134" s="43" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D134" s="43" t="s">
         <v>1191</v>
-      </c>
-      <c r="D134" s="43" t="s">
-        <v>1192</v>
       </c>
       <c r="E134" s="43"/>
       <c r="F134" s="43" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G134" s="43"/>
     </row>
@@ -10969,7 +10973,7 @@
       </c>
       <c r="E135" s="42"/>
       <c r="F135" s="42" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G135" s="42"/>
     </row>
@@ -10978,7 +10982,7 @@
         <v>56</v>
       </c>
       <c r="B136" s="42" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C136" s="42" t="s">
         <v>245</v>
@@ -10988,7 +10992,7 @@
       </c>
       <c r="E136" s="42"/>
       <c r="F136" s="42" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G136" s="42"/>
     </row>
@@ -11012,10 +11016,10 @@
         <v>56</v>
       </c>
       <c r="B138" s="42" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C138" s="41" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D138" s="41"/>
       <c r="E138" s="41"/>
@@ -11039,10 +11043,10 @@
         <v>249</v>
       </c>
       <c r="F139" s="42" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G139" s="42" t="s">
         <v>1195</v>
-      </c>
-      <c r="G139" s="42" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="30">
@@ -11062,7 +11066,7 @@
         <v>249</v>
       </c>
       <c r="F140" s="42" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G140" s="42"/>
     </row>
@@ -11083,7 +11087,7 @@
         <v>249</v>
       </c>
       <c r="F141" s="42" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G141" s="42"/>
     </row>
@@ -11104,7 +11108,7 @@
         <v>249</v>
       </c>
       <c r="F142" s="42" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G142" s="42"/>
     </row>
@@ -11116,7 +11120,7 @@
         <v>256</v>
       </c>
       <c r="C143" s="42" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D143" s="42" t="s">
         <v>258</v>
@@ -11125,7 +11129,7 @@
         <v>249</v>
       </c>
       <c r="F143" s="42" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G143" s="42"/>
     </row>
@@ -11137,7 +11141,7 @@
         <v>259</v>
       </c>
       <c r="C144" s="42" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D144" s="42" t="s">
         <v>255</v>
@@ -11146,7 +11150,7 @@
         <v>249</v>
       </c>
       <c r="F144" s="42" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G144" s="42"/>
     </row>
@@ -11158,14 +11162,14 @@
         <v>261</v>
       </c>
       <c r="C145" s="43" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D145" s="43" t="s">
         <v>1199</v>
-      </c>
-      <c r="D145" s="43" t="s">
-        <v>1200</v>
       </c>
       <c r="E145" s="43"/>
       <c r="F145" s="43" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G145" s="43"/>
     </row>
@@ -11174,19 +11178,19 @@
         <v>56</v>
       </c>
       <c r="B146" s="42" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C146" s="42" t="s">
         <v>260</v>
       </c>
       <c r="D146" s="42" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E146" s="42" t="s">
         <v>249</v>
       </c>
       <c r="F146" s="42" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G146" s="42"/>
     </row>
@@ -11195,7 +11199,7 @@
         <v>56</v>
       </c>
       <c r="B147" s="42" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C147" s="42" t="s">
         <v>262</v>
@@ -11207,7 +11211,7 @@
         <v>249</v>
       </c>
       <c r="F147" s="42" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G147" s="42"/>
     </row>
@@ -11216,19 +11220,19 @@
         <v>127</v>
       </c>
       <c r="B148" s="42" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C148" s="42" t="s">
         <v>129</v>
       </c>
       <c r="D148" s="42" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E148" s="42" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F148" s="42" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G148" s="42"/>
     </row>
@@ -11237,7 +11241,7 @@
         <v>127</v>
       </c>
       <c r="B149" s="42" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C149" s="42" t="s">
         <v>266</v>
@@ -11247,7 +11251,7 @@
       </c>
       <c r="E149" s="42"/>
       <c r="F149" s="42" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G149" s="42"/>
     </row>
@@ -11296,14 +11300,14 @@
         <v>14</v>
       </c>
       <c r="D152" s="42" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E152" s="42" t="s">
         <v>270</v>
       </c>
       <c r="F152" s="42"/>
       <c r="G152" s="42" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="30">
@@ -11317,14 +11321,14 @@
         <v>15</v>
       </c>
       <c r="D153" s="42" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E153" s="42" t="s">
         <v>270</v>
       </c>
       <c r="F153" s="42"/>
       <c r="G153" s="42" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="30">
@@ -11338,14 +11342,14 @@
         <v>272</v>
       </c>
       <c r="D154" s="42" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E154" s="42" t="s">
         <v>273</v>
       </c>
       <c r="F154" s="42"/>
       <c r="G154" s="42" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="30">
@@ -11404,7 +11408,7 @@
         <v>56</v>
       </c>
       <c r="B158" s="39" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C158" s="40" t="s">
         <v>19</v>
@@ -11460,7 +11464,7 @@
       <c r="E161" s="42"/>
       <c r="F161" s="42"/>
       <c r="G161" s="42" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -11545,7 +11549,7 @@
       <c r="E166" s="42"/>
       <c r="F166" s="42"/>
       <c r="G166" s="42" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="30">
@@ -11590,7 +11594,7 @@
         <v>290</v>
       </c>
       <c r="C169" s="42" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D169" s="42" t="s">
         <v>924</v>
@@ -11781,7 +11785,7 @@
       <c r="E180" s="42"/>
       <c r="F180" s="42"/>
       <c r="G180" s="42" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -11866,7 +11870,7 @@
       <c r="E185" s="42"/>
       <c r="F185" s="42"/>
       <c r="G185" s="42" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="30">
@@ -11911,7 +11915,7 @@
         <v>317</v>
       </c>
       <c r="C188" s="42" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D188" s="42" t="s">
         <v>924</v>
@@ -12102,7 +12106,7 @@
       <c r="E199" s="42"/>
       <c r="F199" s="42"/>
       <c r="G199" s="42" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -12187,7 +12191,7 @@
       <c r="E204" s="42"/>
       <c r="F204" s="42"/>
       <c r="G204" s="42" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="30">
@@ -12423,7 +12427,7 @@
       <c r="E218" s="42"/>
       <c r="F218" s="42"/>
       <c r="G218" s="42" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="30">
@@ -12536,13 +12540,13 @@
         <v>368</v>
       </c>
       <c r="C225" s="42" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D225" s="42" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E225" s="42" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F225" s="42"/>
       <c r="G225" s="42"/>
@@ -12558,10 +12562,10 @@
         <v>371</v>
       </c>
       <c r="D226" s="42" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E226" s="42" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F226" s="42"/>
       <c r="G226" s="42"/>
@@ -12574,7 +12578,7 @@
         <v>372</v>
       </c>
       <c r="C227" s="42" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D227" s="42">
         <v>76.16</v>
@@ -12648,7 +12652,7 @@
       <c r="E231" s="42"/>
       <c r="F231" s="42"/>
       <c r="G231" s="42" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -12716,7 +12720,7 @@
         <v>955</v>
       </c>
       <c r="E235" s="42" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F235" s="42"/>
       <c r="G235" s="42"/>
@@ -12854,7 +12858,7 @@
       <c r="E243" s="42"/>
       <c r="F243" s="42"/>
       <c r="G243" s="42" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -13009,7 +13013,7 @@
         <v>56</v>
       </c>
       <c r="B253" s="39" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C253" s="40" t="s">
         <v>35</v>
@@ -13065,7 +13069,7 @@
       <c r="E256" s="42"/>
       <c r="F256" s="42"/>
       <c r="G256" s="47" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="30">
@@ -13099,7 +13103,7 @@
         <v>425</v>
       </c>
       <c r="E258" s="49" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F258" s="42"/>
       <c r="G258" s="47"/>
@@ -13180,13 +13184,13 @@
         <v>438</v>
       </c>
       <c r="C263" s="47" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D263" s="42" t="s">
         <v>440</v>
       </c>
       <c r="E263" s="49" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F263" s="42"/>
       <c r="G263" s="47"/>
@@ -13196,13 +13200,13 @@
         <v>56</v>
       </c>
       <c r="B264" s="42" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C264" s="47" t="s">
         <v>1212</v>
       </c>
-      <c r="C264" s="47" t="s">
+      <c r="D264" s="42" t="s">
         <v>1213</v>
-      </c>
-      <c r="D264" s="42" t="s">
-        <v>1214</v>
       </c>
       <c r="E264" s="42"/>
       <c r="F264" s="42"/>
@@ -13256,7 +13260,7 @@
         <v>449</v>
       </c>
       <c r="E267" s="49" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F267" s="42"/>
       <c r="G267" s="47"/>
@@ -13266,7 +13270,7 @@
         <v>56</v>
       </c>
       <c r="B268" s="42" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C268" s="47" t="s">
         <v>451</v>
@@ -13324,7 +13328,7 @@
       <c r="E271" s="42"/>
       <c r="F271" s="42"/>
       <c r="G271" s="47" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -13474,7 +13478,7 @@
         <v>473</v>
       </c>
       <c r="D280" s="42" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E280" s="42"/>
       <c r="F280" s="42"/>
@@ -13628,7 +13632,7 @@
       <c r="E289" s="42"/>
       <c r="F289" s="42"/>
       <c r="G289" s="47" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -13778,7 +13782,7 @@
         <v>473</v>
       </c>
       <c r="D298" s="42" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E298" s="42"/>
       <c r="F298" s="42"/>
@@ -13964,7 +13968,7 @@
       <c r="E309" s="50"/>
       <c r="F309" s="50"/>
       <c r="G309" s="42" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -14115,7 +14119,7 @@
       <c r="E318" s="42"/>
       <c r="F318" s="42"/>
       <c r="G318" s="42" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -14208,7 +14212,7 @@
         <v>56</v>
       </c>
       <c r="B324" s="42" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C324" s="42" t="s">
         <v>466</v>
@@ -14225,7 +14229,7 @@
         <v>56</v>
       </c>
       <c r="B325" s="42" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C325" s="42" t="s">
         <v>468</v>
@@ -14265,7 +14269,7 @@
         <v>473</v>
       </c>
       <c r="D327" s="42" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E327" s="42"/>
       <c r="F327" s="42"/>
@@ -14344,7 +14348,7 @@
         <v>56</v>
       </c>
       <c r="B332" s="42" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C332" s="42" t="s">
         <v>484</v>
@@ -14361,7 +14365,7 @@
         <v>56</v>
       </c>
       <c r="B333" s="42" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C333" s="42" t="s">
         <v>487</v>
@@ -14378,7 +14382,7 @@
         <v>56</v>
       </c>
       <c r="B334" s="39" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C334" s="53" t="s">
         <v>40</v>
@@ -14432,13 +14436,13 @@
         <v>78.3</v>
       </c>
       <c r="E337" s="42" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F337" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G337" s="47" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="60">
@@ -14455,10 +14459,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E338" s="42" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F338" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G338" s="47"/>
     </row>
@@ -14470,14 +14474,14 @@
         <v>552</v>
       </c>
       <c r="C339" s="47" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D339" s="42">
         <v>78.099999999999994</v>
       </c>
       <c r="E339" s="42"/>
       <c r="F339" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G339" s="47"/>
     </row>
@@ -14511,10 +14515,10 @@
       </c>
       <c r="E341" s="42"/>
       <c r="F341" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G341" s="47" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -14532,7 +14536,7 @@
       </c>
       <c r="E342" s="42"/>
       <c r="F342" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G342" s="47"/>
     </row>
@@ -14551,7 +14555,7 @@
       </c>
       <c r="E343" s="42"/>
       <c r="F343" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G343" s="42"/>
     </row>
@@ -14570,7 +14574,7 @@
       </c>
       <c r="E344" s="42"/>
       <c r="F344" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G344" s="47"/>
     </row>
@@ -14604,10 +14608,10 @@
       </c>
       <c r="E346" s="42"/>
       <c r="F346" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G346" s="47" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="30">
@@ -14625,7 +14629,7 @@
       </c>
       <c r="E347" s="42"/>
       <c r="F347" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G347" s="47"/>
     </row>
@@ -14637,14 +14641,14 @@
         <v>575</v>
       </c>
       <c r="C348" s="47" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D348" s="42" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E348" s="42"/>
       <c r="F348" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G348" s="47"/>
     </row>
@@ -14663,7 +14667,7 @@
       </c>
       <c r="E349" s="42"/>
       <c r="F349" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G349" s="47"/>
     </row>
@@ -14682,7 +14686,7 @@
       </c>
       <c r="E350" s="42"/>
       <c r="F350" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G350" s="47"/>
     </row>
@@ -14716,10 +14720,10 @@
       </c>
       <c r="E352" s="42"/>
       <c r="F352" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G352" s="47" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="60">
@@ -14737,7 +14741,7 @@
       </c>
       <c r="E353" s="42"/>
       <c r="F353" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G353" s="47"/>
     </row>
@@ -14752,11 +14756,11 @@
         <v>592</v>
       </c>
       <c r="D354" s="42" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E354" s="42"/>
       <c r="F354" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G354" s="42"/>
     </row>
@@ -14775,7 +14779,7 @@
       </c>
       <c r="E355" s="42"/>
       <c r="F355" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G355" s="47"/>
     </row>
@@ -14794,7 +14798,7 @@
       </c>
       <c r="E356" s="42"/>
       <c r="F356" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G356" s="47"/>
     </row>
@@ -14828,10 +14832,10 @@
       </c>
       <c r="E358" s="42"/>
       <c r="F358" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G358" s="42" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -14845,11 +14849,11 @@
         <v>604</v>
       </c>
       <c r="D359" s="42" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E359" s="42"/>
       <c r="F359" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G359" s="42"/>
     </row>
@@ -14883,10 +14887,10 @@
       </c>
       <c r="E361" s="42"/>
       <c r="F361" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G361" s="47" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="30">
@@ -14900,11 +14904,11 @@
         <v>609</v>
       </c>
       <c r="D362" s="42" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E362" s="50"/>
       <c r="F362" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G362" s="47"/>
     </row>
@@ -14923,7 +14927,7 @@
       </c>
       <c r="E363" s="42"/>
       <c r="F363" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G363" s="47"/>
     </row>
@@ -14938,11 +14942,11 @@
         <v>613</v>
       </c>
       <c r="D364" s="42" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E364" s="42"/>
       <c r="F364" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G364" s="47"/>
     </row>
@@ -14957,13 +14961,13 @@
         <v>615</v>
       </c>
       <c r="D365" s="42" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E365" s="42" t="s">
         <v>616</v>
       </c>
       <c r="F365" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G365" s="42"/>
     </row>
@@ -15008,16 +15012,16 @@
         <v>549</v>
       </c>
       <c r="D368" s="42" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E368" s="42" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F368" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G368" s="47" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="75">
@@ -15031,13 +15035,13 @@
         <v>620</v>
       </c>
       <c r="D369" s="42" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E369" s="42" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F369" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G369" s="47"/>
     </row>
@@ -15055,10 +15059,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E370" s="42" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F370" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G370" s="47"/>
     </row>
@@ -15107,10 +15111,10 @@
       </c>
       <c r="E373" s="42"/>
       <c r="F373" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G373" s="47" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="30">
@@ -15128,7 +15132,7 @@
       </c>
       <c r="E374" s="42"/>
       <c r="F374" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G374" s="47"/>
     </row>
@@ -15147,7 +15151,7 @@
       </c>
       <c r="E375" s="42"/>
       <c r="F375" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G375" s="47"/>
     </row>
@@ -15166,7 +15170,7 @@
       </c>
       <c r="E376" s="42"/>
       <c r="F376" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G376" s="47"/>
     </row>
@@ -15185,7 +15189,7 @@
       </c>
       <c r="E377" s="42"/>
       <c r="F377" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G377" s="47"/>
     </row>
@@ -15204,7 +15208,7 @@
       </c>
       <c r="E378" s="42"/>
       <c r="F378" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G378" s="47"/>
     </row>
@@ -15238,10 +15242,10 @@
       </c>
       <c r="E380" s="42"/>
       <c r="F380" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G380" s="47" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -15255,13 +15259,13 @@
         <v>604</v>
       </c>
       <c r="D381" s="42" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E381" s="42" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F381" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G381" s="42"/>
     </row>
@@ -15295,10 +15299,10 @@
       </c>
       <c r="E383" s="42"/>
       <c r="F383" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G383" s="47" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="30">
@@ -15312,11 +15316,11 @@
         <v>645</v>
       </c>
       <c r="D384" s="42" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E384" s="50"/>
       <c r="F384" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G384" s="47"/>
     </row>
@@ -15335,7 +15339,7 @@
       </c>
       <c r="E385" s="42"/>
       <c r="F385" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G385" s="47"/>
     </row>
@@ -15350,11 +15354,11 @@
         <v>613</v>
       </c>
       <c r="D386" s="42" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E386" s="42"/>
       <c r="F386" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G386" s="42"/>
     </row>
@@ -15369,13 +15373,13 @@
         <v>615</v>
       </c>
       <c r="D387" s="42" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E387" s="42" t="s">
         <v>616</v>
       </c>
       <c r="F387" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G387" s="42"/>
     </row>
@@ -15423,13 +15427,13 @@
         <v>78.3</v>
       </c>
       <c r="E390" s="42" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F390" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G390" s="47" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="60">
@@ -15443,13 +15447,13 @@
         <v>653</v>
       </c>
       <c r="D391" s="42" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E391" s="42" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F391" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G391" s="42"/>
     </row>
@@ -15467,10 +15471,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E392" s="42" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F392" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G392" s="47"/>
     </row>
@@ -15515,14 +15519,14 @@
         <v>659</v>
       </c>
       <c r="D395" s="42" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E395" s="42"/>
       <c r="F395" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G395" s="47" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="396" spans="1:7" ht="45">
@@ -15540,7 +15544,7 @@
       </c>
       <c r="E396" s="42"/>
       <c r="F396" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G396" s="47"/>
     </row>
@@ -15559,7 +15563,7 @@
       </c>
       <c r="E397" s="42"/>
       <c r="F397" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G397" s="47"/>
     </row>
@@ -15578,7 +15582,7 @@
       </c>
       <c r="E398" s="42"/>
       <c r="F398" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G398" s="47"/>
     </row>
@@ -15597,7 +15601,7 @@
       </c>
       <c r="E399" s="42"/>
       <c r="F399" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G399" s="47"/>
     </row>
@@ -15616,7 +15620,7 @@
       </c>
       <c r="E400" s="42"/>
       <c r="F400" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G400" s="47"/>
     </row>
@@ -15650,10 +15654,10 @@
       </c>
       <c r="E402" s="42"/>
       <c r="F402" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G402" s="47" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -15667,13 +15671,13 @@
         <v>604</v>
       </c>
       <c r="D403" s="42" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E403" s="42" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F403" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G403" s="42"/>
     </row>
@@ -15707,10 +15711,10 @@
       </c>
       <c r="E405" s="42"/>
       <c r="F405" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G405" s="47" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="30">
@@ -15724,11 +15728,11 @@
         <v>645</v>
       </c>
       <c r="D406" s="42" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E406" s="50"/>
       <c r="F406" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G406" s="47"/>
     </row>
@@ -15747,7 +15751,7 @@
       </c>
       <c r="E407" s="42"/>
       <c r="F407" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G407" s="47"/>
     </row>
@@ -15762,11 +15766,11 @@
         <v>613</v>
       </c>
       <c r="D408" s="42" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E408" s="42"/>
       <c r="F408" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G408" s="42"/>
     </row>
@@ -15781,13 +15785,13 @@
         <v>615</v>
       </c>
       <c r="D409" s="42" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E409" s="42" t="s">
         <v>616</v>
       </c>
       <c r="F409" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G409" s="42"/>
     </row>
@@ -15835,13 +15839,13 @@
         <v>78.3</v>
       </c>
       <c r="E412" s="6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F412" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G412" s="47" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="413" spans="1:7" ht="90">
@@ -15858,10 +15862,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E413" s="42" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F413" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G413" s="47"/>
     </row>
@@ -15879,10 +15883,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E414" s="42" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F414" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G414" s="47"/>
     </row>
@@ -15931,10 +15935,10 @@
       </c>
       <c r="E417" s="42"/>
       <c r="F417" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G417" s="42" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -15952,7 +15956,7 @@
       </c>
       <c r="E418" s="42"/>
       <c r="F418" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G418" s="47"/>
     </row>
@@ -15971,7 +15975,7 @@
       </c>
       <c r="E419" s="42"/>
       <c r="F419" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G419" s="47"/>
     </row>
@@ -15990,7 +15994,7 @@
       </c>
       <c r="E420" s="42"/>
       <c r="F420" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G420" s="42"/>
     </row>
@@ -16017,17 +16021,17 @@
         <v>695</v>
       </c>
       <c r="C422" s="61" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="D422" s="42" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E422" s="42"/>
       <c r="F422" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G422" s="42" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="423" spans="1:7" ht="30">
@@ -16038,14 +16042,14 @@
         <v>698</v>
       </c>
       <c r="C423" s="61" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="D423" s="42" t="s">
         <v>697</v>
       </c>
       <c r="E423" s="42"/>
       <c r="F423" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G423" s="42"/>
     </row>
@@ -16064,7 +16068,7 @@
       </c>
       <c r="E424" s="42"/>
       <c r="F424" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G424" s="42"/>
     </row>
@@ -16098,10 +16102,10 @@
       </c>
       <c r="E426" s="42"/>
       <c r="F426" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G426" s="47" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -16119,7 +16123,7 @@
       </c>
       <c r="E427" s="42"/>
       <c r="F427" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G427" s="47"/>
     </row>
@@ -16138,7 +16142,7 @@
       </c>
       <c r="E428" s="42"/>
       <c r="F428" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G428" s="47"/>
     </row>
@@ -16157,7 +16161,7 @@
       </c>
       <c r="E429" s="42"/>
       <c r="F429" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G429" s="42"/>
     </row>
@@ -16176,7 +16180,7 @@
       </c>
       <c r="E430" s="42"/>
       <c r="F430" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G430" s="47"/>
     </row>
@@ -16195,7 +16199,7 @@
       </c>
       <c r="E431" s="42"/>
       <c r="F431" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G431" s="47"/>
     </row>
@@ -16212,7 +16216,7 @@
       <c r="D432" s="44"/>
       <c r="E432" s="44"/>
       <c r="F432" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G432" s="44"/>
     </row>
@@ -16231,10 +16235,10 @@
       </c>
       <c r="E433" s="42"/>
       <c r="F433" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G433" s="47" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="434" spans="1:7" ht="60">
@@ -16252,7 +16256,7 @@
       </c>
       <c r="E434" s="42"/>
       <c r="F434" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G434" s="47"/>
     </row>
@@ -16271,7 +16275,7 @@
       </c>
       <c r="E435" s="42"/>
       <c r="F435" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G435" s="47" t="s">
         <v>586</v>
@@ -16292,7 +16296,7 @@
       </c>
       <c r="E436" s="42"/>
       <c r="F436" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G436" s="47"/>
     </row>
@@ -16309,7 +16313,7 @@
       <c r="D437" s="44"/>
       <c r="E437" s="44"/>
       <c r="F437" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G437" s="44"/>
     </row>
@@ -16328,10 +16332,10 @@
       </c>
       <c r="E438" s="42"/>
       <c r="F438" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G438" s="47" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -16345,13 +16349,13 @@
         <v>604</v>
       </c>
       <c r="D439" s="42" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E439" s="42" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F439" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G439" s="42"/>
     </row>
@@ -16363,12 +16367,12 @@
         <v>720</v>
       </c>
       <c r="C440" s="44" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D440" s="44"/>
       <c r="E440" s="44"/>
       <c r="F440" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G440" s="44"/>
     </row>
@@ -16383,13 +16387,13 @@
         <v>615</v>
       </c>
       <c r="D441" s="42" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E441" s="42" t="s">
         <v>616</v>
       </c>
       <c r="F441" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G441" s="42"/>
     </row>
@@ -16406,7 +16410,7 @@
       <c r="D442" s="44"/>
       <c r="E442" s="44"/>
       <c r="F442" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G442" s="41"/>
     </row>
@@ -16425,7 +16429,7 @@
         <v>268</v>
       </c>
       <c r="F443" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G443" s="47"/>
     </row>
@@ -16444,7 +16448,7 @@
         <v>268</v>
       </c>
       <c r="F444" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G444" s="47"/>
     </row>
@@ -16463,7 +16467,7 @@
         <v>268</v>
       </c>
       <c r="F445" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G445" s="47"/>
     </row>
@@ -16480,7 +16484,7 @@
       <c r="D446" s="44"/>
       <c r="E446" s="41"/>
       <c r="F446" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G446" s="41"/>
     </row>
@@ -16499,7 +16503,7 @@
         <v>268</v>
       </c>
       <c r="F447" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G447" s="47"/>
     </row>
@@ -16518,7 +16522,7 @@
         <v>268</v>
       </c>
       <c r="F448" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G448" s="47"/>
     </row>
@@ -16535,7 +16539,7 @@
       <c r="D449" s="44"/>
       <c r="E449" s="44"/>
       <c r="F449" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G449" s="41"/>
     </row>
@@ -16552,7 +16556,7 @@
       <c r="D450" s="44"/>
       <c r="E450" s="44"/>
       <c r="F450" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G450" s="44"/>
     </row>
@@ -16571,10 +16575,10 @@
       </c>
       <c r="E451" s="42"/>
       <c r="F451" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G451" s="47" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="452" spans="1:7" ht="30">
@@ -16592,7 +16596,7 @@
       </c>
       <c r="E452" s="42"/>
       <c r="F452" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G452" s="47"/>
     </row>
@@ -16611,7 +16615,7 @@
       </c>
       <c r="E453" s="42"/>
       <c r="F453" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G453" s="47"/>
     </row>
@@ -16628,7 +16632,7 @@
       <c r="D454" s="44"/>
       <c r="E454" s="44"/>
       <c r="F454" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G454" s="44"/>
     </row>
@@ -16645,7 +16649,7 @@
       <c r="D455" s="44"/>
       <c r="E455" s="44"/>
       <c r="F455" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G455" s="44"/>
     </row>
@@ -16664,10 +16668,10 @@
       </c>
       <c r="E456" s="42"/>
       <c r="F456" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G456" s="47" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -16685,7 +16689,7 @@
       </c>
       <c r="E457" s="42"/>
       <c r="F457" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G457" s="47"/>
     </row>
@@ -16700,11 +16704,11 @@
         <v>741</v>
       </c>
       <c r="D458" s="42" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E458" s="42"/>
       <c r="F458" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G458" s="42"/>
     </row>
@@ -16723,7 +16727,7 @@
       </c>
       <c r="E459" s="42"/>
       <c r="F459" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G459" s="42"/>
     </row>
@@ -16735,12 +16739,12 @@
         <v>744</v>
       </c>
       <c r="C460" s="42" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D460" s="42"/>
       <c r="E460" s="42"/>
       <c r="F460" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G460" s="42"/>
     </row>
@@ -16749,7 +16753,7 @@
         <v>56</v>
       </c>
       <c r="B461" s="42" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C461" s="42" t="s">
         <v>745</v>
@@ -16759,7 +16763,7 @@
       </c>
       <c r="E461" s="42"/>
       <c r="F461" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G461" s="42"/>
     </row>
@@ -16768,17 +16772,17 @@
         <v>56</v>
       </c>
       <c r="B462" s="42" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C462" s="42" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D462" s="42" t="s">
         <v>700</v>
       </c>
       <c r="E462" s="42"/>
       <c r="F462" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G462" s="42"/>
     </row>
@@ -16795,7 +16799,7 @@
       <c r="D463" s="44"/>
       <c r="E463" s="44"/>
       <c r="F463" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G463" s="44"/>
     </row>
@@ -16814,10 +16818,10 @@
       </c>
       <c r="E464" s="42"/>
       <c r="F464" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G464" s="47" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -16831,11 +16835,11 @@
         <v>604</v>
       </c>
       <c r="D465" s="42" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E465" s="42"/>
       <c r="F465" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G465" s="42"/>
     </row>
@@ -16852,7 +16856,7 @@
       <c r="D466" s="44"/>
       <c r="E466" s="44"/>
       <c r="F466" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G466" s="44"/>
     </row>
@@ -16871,10 +16875,10 @@
       </c>
       <c r="E467" s="42"/>
       <c r="F467" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G467" s="47" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="468" spans="1:7" ht="30">
@@ -16892,7 +16896,7 @@
       </c>
       <c r="E468" s="42"/>
       <c r="F468" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G468" s="47"/>
     </row>
@@ -16911,7 +16915,7 @@
       </c>
       <c r="E469" s="42"/>
       <c r="F469" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G469" s="47"/>
     </row>
@@ -16926,11 +16930,11 @@
         <v>613</v>
       </c>
       <c r="D470" s="42" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E470" s="42"/>
       <c r="F470" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G470" s="42"/>
     </row>
@@ -16945,11 +16949,11 @@
         <v>615</v>
       </c>
       <c r="D471" s="42" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E471" s="42"/>
       <c r="F471" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G471" s="42"/>
     </row>
@@ -17005,7 +17009,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>763</v>
@@ -17024,7 +17028,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>765</v>
@@ -17043,7 +17047,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>766</v>
@@ -17064,7 +17068,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>767</v>
@@ -17083,7 +17087,7 @@
         <v>770</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>771</v>
@@ -17111,9 +17115,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G55"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -17862,7 +17864,7 @@
         <v>267</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>829</v>
@@ -17881,13 +17883,13 @@
         <v>258</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C40" s="57" t="s">
         <v>830</v>
       </c>
       <c r="D40" s="57" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
@@ -17900,13 +17902,13 @@
         <v>255</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>831</v>
       </c>
       <c r="D41" s="56" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
@@ -17919,7 +17921,7 @@
         <v>263</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>832</v>
@@ -17935,16 +17937,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="58" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B43" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C43" s="58" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D43" s="58" t="s">
         <v>1231</v>
-      </c>
-      <c r="D43" s="58" t="s">
-        <v>1232</v>
       </c>
       <c r="E43" s="58"/>
       <c r="F43" s="58" t="s">
@@ -17954,16 +17956,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="58" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B44" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C44" s="58" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D44" s="58" t="s">
         <v>1233</v>
-      </c>
-      <c r="D44" s="58" t="s">
-        <v>1234</v>
       </c>
       <c r="E44" s="58"/>
       <c r="F44" s="58" t="s">
@@ -17973,16 +17975,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="58" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B45" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C45" s="58" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D45" s="58" t="s">
         <v>1235</v>
-      </c>
-      <c r="D45" s="58" t="s">
-        <v>1236</v>
       </c>
       <c r="E45" s="58"/>
       <c r="F45" s="58" t="s">
@@ -17992,16 +17994,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="58" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B46" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C46" s="58" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D46" s="58" t="s">
         <v>1237</v>
-      </c>
-      <c r="D46" s="58" t="s">
-        <v>1238</v>
       </c>
       <c r="E46" s="58"/>
       <c r="F46" s="58" t="s">
@@ -18011,16 +18013,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="58" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B47" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C47" s="58" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D47" s="58" t="s">
         <v>1239</v>
-      </c>
-      <c r="D47" s="58" t="s">
-        <v>1240</v>
       </c>
       <c r="E47" s="58"/>
       <c r="F47" s="58" t="s">
@@ -18030,16 +18032,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="58" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B48" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C48" s="58" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D48" s="58" t="s">
         <v>1241</v>
-      </c>
-      <c r="D48" s="58" t="s">
-        <v>1242</v>
       </c>
       <c r="E48" s="58"/>
       <c r="F48" s="58" t="s">
@@ -18049,16 +18051,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="58" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B49" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C49" s="58" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D49" s="58" t="s">
         <v>1243</v>
-      </c>
-      <c r="D49" s="58" t="s">
-        <v>1244</v>
       </c>
       <c r="E49" s="58"/>
       <c r="F49" s="58" t="s">
@@ -18068,16 +18070,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="58" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B50" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C50" s="58" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D50" s="58" t="s">
         <v>1245</v>
-      </c>
-      <c r="D50" s="58" t="s">
-        <v>1246</v>
       </c>
       <c r="E50" s="58"/>
       <c r="F50" s="58" t="s">
@@ -18087,16 +18089,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="58" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B51" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C51" s="58" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D51" s="58" t="s">
         <v>1247</v>
-      </c>
-      <c r="D51" s="58" t="s">
-        <v>1248</v>
       </c>
       <c r="E51" s="58"/>
       <c r="F51" s="58" t="s">
@@ -18106,16 +18108,16 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="58" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B52" s="58" t="s">
         <v>814</v>
       </c>
       <c r="C52" s="58" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D52" s="58" t="s">
         <v>1249</v>
-      </c>
-      <c r="D52" s="58" t="s">
-        <v>1250</v>
       </c>
       <c r="E52" s="58"/>
       <c r="F52" s="58" t="s">
@@ -18125,16 +18127,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="58" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B53" s="58" t="s">
         <v>814</v>
       </c>
       <c r="C53" s="58" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D53" s="58" t="s">
         <v>1251</v>
-      </c>
-      <c r="D53" s="58" t="s">
-        <v>1252</v>
       </c>
       <c r="E53" s="58"/>
       <c r="F53" s="58" t="s">
@@ -18144,16 +18146,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="58" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B54" s="58" t="s">
         <v>822</v>
       </c>
       <c r="C54" s="58" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D54" s="58" t="s">
         <v>1253</v>
-      </c>
-      <c r="D54" s="58" t="s">
-        <v>1254</v>
       </c>
       <c r="E54" s="58"/>
       <c r="F54" s="58" t="s">
@@ -18163,16 +18165,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="58" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C55" s="58" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D55" s="58" t="s">
         <v>1255</v>
-      </c>
-      <c r="D55" s="58" t="s">
-        <v>1256</v>
       </c>
       <c r="E55" s="58"/>
       <c r="F55" s="58" t="s">
@@ -18194,9 +18196,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:IV49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G49"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -18750,16 +18750,16 @@
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1">
       <c r="A16" s="57" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>835</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
@@ -18769,16 +18769,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="57" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>835</v>
       </c>
       <c r="C17" s="57" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D17" s="57" t="s">
         <v>1059</v>
-      </c>
-      <c r="D17" s="57" t="s">
-        <v>1060</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
@@ -18797,7 +18797,7 @@
         <v>869</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
@@ -19376,7 +19376,7 @@
         <v>956</v>
       </c>
       <c r="D49" s="57" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -19645,8 +19645,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="A1:G30"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -19691,7 +19691,7 @@
         <v>419</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C2" s="55" t="s">
         <v>957</v>
@@ -19710,7 +19710,7 @@
         <v>422</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C3" s="55" t="s">
         <v>959</v>
@@ -19729,7 +19729,7 @@
         <v>425</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C4" s="55" t="s">
         <v>961</v>
@@ -19748,7 +19748,7 @@
         <v>440</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C5" s="55" t="s">
         <v>963</v>
@@ -19767,7 +19767,7 @@
         <v>428</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C6" s="55" t="s">
         <v>965</v>
@@ -19786,7 +19786,7 @@
         <v>431</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C7" s="55" t="s">
         <v>967</v>
@@ -19805,7 +19805,7 @@
         <v>434</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C8" s="55" t="s">
         <v>969</v>
@@ -19824,7 +19824,7 @@
         <v>437</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C9" s="55" t="s">
         <v>971</v>
@@ -19843,7 +19843,7 @@
         <v>443</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C10" s="55" t="s">
         <v>973</v>
@@ -19862,7 +19862,7 @@
         <v>975</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C11" s="55" t="s">
         <v>976</v>
@@ -19881,7 +19881,7 @@
         <v>446</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C12" s="55" t="s">
         <v>978</v>
@@ -19900,7 +19900,7 @@
         <v>449</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C13" s="55" t="s">
         <v>980</v>
@@ -19908,14 +19908,12 @@
       <c r="D13" s="55" t="s">
         <v>981</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>982</v>
-      </c>
+      <c r="E13" s="62"/>
       <c r="F13" s="55" t="s">
         <v>764</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="31.5" customHeight="1">
@@ -19923,13 +19921,13 @@
         <v>452</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C14" s="55" t="s">
+        <v>982</v>
+      </c>
+      <c r="D14" s="55" t="s">
         <v>983</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>984</v>
       </c>
       <c r="E14" s="55"/>
       <c r="F14" s="55" t="s">
@@ -19942,22 +19940,22 @@
         <v>485</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C15" s="55" t="s">
+        <v>984</v>
+      </c>
+      <c r="D15" s="55" t="s">
         <v>985</v>
       </c>
-      <c r="D15" s="55" t="s">
-        <v>986</v>
-      </c>
       <c r="E15" s="55" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F15" s="55" t="s">
         <v>764</v>
       </c>
       <c r="G15" s="55" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="47.25" customHeight="1">
@@ -19965,13 +19963,13 @@
         <v>476</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C16" s="55" t="s">
+        <v>986</v>
+      </c>
+      <c r="D16" s="55" t="s">
         <v>987</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>988</v>
       </c>
       <c r="E16" s="55"/>
       <c r="F16" s="55" t="s">
@@ -19984,22 +19982,22 @@
         <v>488</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C17" s="55" t="s">
+        <v>988</v>
+      </c>
+      <c r="D17" s="55" t="s">
         <v>989</v>
       </c>
-      <c r="D17" s="55" t="s">
-        <v>990</v>
-      </c>
       <c r="E17" s="55" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F17" s="55" t="s">
         <v>764</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1">
@@ -20007,10 +20005,10 @@
         <v>515</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>514</v>
@@ -20026,10 +20024,10 @@
         <v>518</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>517</v>
@@ -20045,13 +20043,13 @@
         <v>521</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C20" s="55" t="s">
+        <v>992</v>
+      </c>
+      <c r="D20" s="55" t="s">
         <v>993</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>994</v>
       </c>
       <c r="E20" s="55"/>
       <c r="F20" s="55" t="s">
@@ -20064,13 +20062,13 @@
         <v>524</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C21" s="55" t="s">
+        <v>994</v>
+      </c>
+      <c r="D21" s="55" t="s">
         <v>995</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>996</v>
       </c>
       <c r="E21" s="55"/>
       <c r="F21" s="55" t="s">
@@ -20083,13 +20081,13 @@
         <v>529</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C22" s="55" t="s">
+        <v>996</v>
+      </c>
+      <c r="D22" s="55" t="s">
         <v>997</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>998</v>
       </c>
       <c r="E22" s="55"/>
       <c r="F22" s="55" t="s">
@@ -20102,10 +20100,10 @@
         <v>471</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D23" s="55" t="s">
         <v>526</v>
@@ -20116,16 +20114,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="58" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B24" s="58" t="s">
         <v>1262</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="C24" s="58" t="s">
         <v>1263</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="D24" s="58" t="s">
         <v>1264</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>1265</v>
       </c>
       <c r="E24" s="58"/>
       <c r="F24" s="58"/>
@@ -20133,16 +20131,16 @@
     </row>
     <row r="25" spans="1:7" ht="45">
       <c r="A25" s="58" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C25" s="58" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D25" s="58" t="s">
         <v>1266</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>1267</v>
       </c>
       <c r="E25" s="58"/>
       <c r="F25" s="58"/>
@@ -20150,16 +20148,16 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="58" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C26" s="58" t="s">
         <v>1268</v>
       </c>
-      <c r="B26" s="58" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C26" s="58" t="s">
+      <c r="D26" s="58" t="s">
         <v>1269</v>
-      </c>
-      <c r="D26" s="58" t="s">
-        <v>1270</v>
       </c>
       <c r="E26" s="58"/>
       <c r="F26" s="58"/>
@@ -20167,16 +20165,16 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="58" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C27" s="58" t="s">
         <v>1271</v>
       </c>
-      <c r="B27" s="58" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C27" s="58" t="s">
+      <c r="D27" s="58" t="s">
         <v>1272</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>1273</v>
       </c>
       <c r="E27" s="58"/>
       <c r="F27" s="58"/>
@@ -20184,16 +20182,16 @@
     </row>
     <row r="28" spans="1:7" ht="30">
       <c r="A28" s="58" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C28" s="58" t="s">
         <v>1274</v>
       </c>
-      <c r="B28" s="58" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C28" s="58" t="s">
+      <c r="D28" s="58" t="s">
         <v>1275</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>1276</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="58"/>
@@ -20201,16 +20199,16 @@
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" s="58" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C29" s="58" t="s">
         <v>1277</v>
       </c>
-      <c r="B29" s="58" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C29" s="58" t="s">
+      <c r="D29" s="58" t="s">
         <v>1278</v>
-      </c>
-      <c r="D29" s="58" t="s">
-        <v>1279</v>
       </c>
       <c r="E29" s="58"/>
       <c r="F29" s="58"/>
@@ -20218,16 +20216,16 @@
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="58" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C30" s="58" t="s">
         <v>1280</v>
       </c>
-      <c r="B30" s="58" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C30" s="58" t="s">
+      <c r="D30" s="58" t="s">
         <v>1281</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>1282</v>
       </c>
       <c r="E30" s="58"/>
       <c r="F30" s="58"/>
@@ -20247,7 +20245,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:IX4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -20293,22 +20293,20 @@
         <v>762</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="110.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="54" t="s">
+        <v>999</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C2" s="54" t="s">
         <v>1000</v>
       </c>
-      <c r="B2" s="54" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>1001</v>
-      </c>
       <c r="D2" s="54" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1284</v>
-      </c>
+        <v>1282</v>
+      </c>
+      <c r="E2" s="62"/>
       <c r="F2" s="57" t="s">
         <v>764</v>
       </c>
@@ -20318,22 +20316,20 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="31.5">
+    <row r="3" spans="1:9">
       <c r="A3" s="55" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>1286</v>
-      </c>
+        <v>1283</v>
+      </c>
+      <c r="E3" s="63"/>
       <c r="F3" s="6" t="s">
         <v>764</v>
       </c>
@@ -20345,20 +20341,18 @@
     </row>
     <row r="4" spans="1:9" ht="78.75">
       <c r="A4" s="55" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C4" s="55" t="s">
         <v>1003</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>1004</v>
-      </c>
       <c r="D4" s="54" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1227</v>
-      </c>
+        <v>1284</v>
+      </c>
+      <c r="E4" s="62"/>
       <c r="F4" s="6" t="s">
         <v>764</v>
       </c>
@@ -20672,16 +20666,16 @@
     </row>
     <row r="2" spans="1:256" ht="31.5" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1005</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>1007</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>1008</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="6" t="s">
@@ -20694,13 +20688,13 @@
         <v>627</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>1009</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1010</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="6" t="s">
@@ -20713,13 +20707,13 @@
         <v>557</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>1011</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1012</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="6" t="s">
@@ -20732,13 +20726,13 @@
         <v>560</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>1013</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>1014</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="6" t="s">
@@ -20751,13 +20745,13 @@
         <v>563</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>1015</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>1016</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="6" t="s">
@@ -20770,22 +20764,22 @@
         <v>566</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>1017</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>1018</v>
-      </c>
       <c r="E7" s="21" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G7" s="57" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.5" customHeight="1">
@@ -20793,13 +20787,13 @@
         <v>571</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>1019</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>1020</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="6" t="s">
@@ -20812,13 +20806,13 @@
         <v>574</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>1021</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>1022</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="6" t="s">
@@ -20831,13 +20825,13 @@
         <v>577</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>1023</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>1024</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="6" t="s">
@@ -20850,13 +20844,13 @@
         <v>580</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>1025</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>1026</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="6" t="s">
@@ -20869,10 +20863,10 @@
         <v>583</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>582</v>
@@ -20888,22 +20882,22 @@
         <v>586</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>1028</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>1029</v>
-      </c>
       <c r="E13" s="21" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G13" s="57" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1">
@@ -20911,22 +20905,22 @@
         <v>595</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>1030</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>1031</v>
-      </c>
       <c r="E14" s="60" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="31.5" customHeight="1">
@@ -20934,13 +20928,13 @@
         <v>598</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>1032</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>1033</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="6" t="s">
@@ -20953,13 +20947,13 @@
         <v>630</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>1034</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>1035</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="6" t="s">
@@ -20969,16 +20963,16 @@
     </row>
     <row r="17" spans="1:256" ht="31.5" customHeight="1">
       <c r="A17" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>1036</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>1037</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>1038</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="6" t="s">
@@ -20991,13 +20985,13 @@
         <v>662</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>1039</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>1040</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="6" t="s">
@@ -21007,25 +21001,25 @@
     </row>
     <row r="19" spans="1:256" ht="31.5" customHeight="1">
       <c r="A19" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>1042</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>1043</v>
-      </c>
       <c r="E19" s="21" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G19" s="57" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="20" spans="1:256" ht="17.100000000000001" customHeight="1">
@@ -21033,13 +21027,13 @@
         <v>697</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>1044</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>1045</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="6" t="s">
@@ -21052,56 +21046,56 @@
         <v>700</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>1046</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="21" t="s">
         <v>1047</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>1048</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="22" spans="1:256" ht="31.5" customHeight="1">
       <c r="A22" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>1050</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>1051</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>1052</v>
-      </c>
       <c r="E22" s="21" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>783</v>
       </c>
       <c r="G22" s="57" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="23" spans="1:256" s="36" customFormat="1" ht="31.5">
       <c r="A23" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>1070</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>1071</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>609</v>
@@ -21361,13 +21355,13 @@
     </row>
     <row r="24" spans="1:256" s="36" customFormat="1">
       <c r="A24" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>613</v>
@@ -21627,13 +21621,13 @@
     </row>
     <row r="25" spans="1:256" s="36" customFormat="1">
       <c r="A25" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>604</v>
@@ -21893,13 +21887,13 @@
     </row>
     <row r="26" spans="1:256" s="36" customFormat="1" ht="31.5">
       <c r="A26" s="6" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>615</v>
@@ -22159,13 +22153,13 @@
     </row>
     <row r="27" spans="1:256" s="36" customFormat="1">
       <c r="A27" s="59" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>741</v>
@@ -22727,40 +22721,40 @@
     </row>
     <row r="2" spans="1:256" ht="31.5">
       <c r="A2" s="56" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="31.5">
       <c r="A3" s="56" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="B3" s="56" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>1293</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>1296</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>783</v>
@@ -22769,19 +22763,19 @@
     </row>
     <row r="4" spans="1:256" ht="31.5">
       <c r="A4" s="6" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>783</v>

--- a/conformancelib/testdata/85b_test_definitions_PIV-I_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV-I_ICAM_Test_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\python_den\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97705374-AFB4-4D8E-A88B-8C120DCFD451}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D784D534-C04A-4E60-98D5-3A612C45A971}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="960" windowWidth="28755" windowHeight="17760" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="1605" windowWidth="26190" windowHeight="12315" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3766" uniqueCount="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3777" uniqueCount="1308">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3941,6 +3941,24 @@
   </si>
   <si>
     <t>78.2</t>
+  </si>
+  <si>
+    <t>Recorded length matches actual BDB length</t>
+  </si>
+  <si>
+    <t>76.48</t>
+  </si>
+  <si>
+    <t>sp800_76Test_48</t>
+  </si>
+  <si>
+    <t>Recorded length matches actual SB length</t>
+  </si>
+  <si>
+    <t>9.1.1.5</t>
+  </si>
+  <si>
+    <t>The Patron Header Version field has a value of 0x03.</t>
   </si>
 </sst>
 </file>
@@ -4128,7 +4146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -4180,12 +4198,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4372,6 +4403,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8457,9 +8494,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G471"/>
+  <dimension ref="A1:G472"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -11448,7 +11487,7 @@
       <c r="F160" s="41"/>
       <c r="G160" s="44"/>
     </row>
-    <row r="161" spans="1:7" ht="30">
+    <row r="161" spans="1:7">
       <c r="A161" s="42" t="s">
         <v>56</v>
       </c>
@@ -11456,7 +11495,7 @@
         <v>275</v>
       </c>
       <c r="C161" s="42" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D161" s="42">
         <v>76.099999999999994</v>
@@ -11475,7 +11514,7 @@
         <v>277</v>
       </c>
       <c r="C162" s="42" t="s">
-        <v>278</v>
+        <v>1302</v>
       </c>
       <c r="D162" s="42">
         <v>76.2</v>
@@ -11492,10 +11531,10 @@
         <v>279</v>
       </c>
       <c r="C163" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="D163" s="42">
-        <v>76.3</v>
+        <v>282</v>
+      </c>
+      <c r="D163" s="42" t="s">
+        <v>839</v>
       </c>
       <c r="E163" s="42"/>
       <c r="F163" s="42"/>
@@ -11509,129 +11548,129 @@
         <v>281</v>
       </c>
       <c r="C164" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="D164" s="42">
-        <v>76.400000000000006</v>
+        <v>1305</v>
+      </c>
+      <c r="D164" s="42" t="s">
+        <v>1303</v>
       </c>
       <c r="E164" s="42"/>
       <c r="F164" s="42"/>
       <c r="G164" s="42"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" ht="45">
       <c r="A165" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B165" s="42" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C165" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="D165" s="42" t="s">
+        <v>841</v>
+      </c>
+      <c r="E165" s="42"/>
+      <c r="F165" s="42"/>
+      <c r="G165" s="42" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B166" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="C165" s="44" t="s">
+      <c r="C166" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D165" s="44"/>
-      <c r="E165" s="44"/>
-      <c r="F165" s="44"/>
-      <c r="G165" s="44"/>
-    </row>
-    <row r="166" spans="1:7" ht="45">
-      <c r="A166" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B166" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="C166" s="42" t="s">
-        <v>285</v>
-      </c>
-      <c r="D166" s="42">
-        <v>76.5</v>
-      </c>
-      <c r="E166" s="42"/>
-      <c r="F166" s="42"/>
-      <c r="G166" s="42" t="s">
-        <v>1099</v>
-      </c>
+      <c r="D166" s="44"/>
+      <c r="E166" s="44"/>
+      <c r="F166" s="44"/>
+      <c r="G166" s="44"/>
     </row>
     <row r="167" spans="1:7" ht="30">
       <c r="A167" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B167" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="C167" s="42" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D167" s="42" t="s">
+        <v>843</v>
+      </c>
+      <c r="E167" s="65"/>
+      <c r="F167" s="65"/>
+      <c r="G167" s="65"/>
+    </row>
+    <row r="168" spans="1:7" ht="30">
+      <c r="A168" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B168" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="C167" s="42" t="s">
+      <c r="C168" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="D167" s="42">
+      <c r="D168" s="42">
         <v>76.599999999999994</v>
-      </c>
-      <c r="E167" s="42"/>
-      <c r="F167" s="42"/>
-      <c r="G167" s="42"/>
-    </row>
-    <row r="168" spans="1:7" ht="45">
-      <c r="A168" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B168" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="C168" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="D168" s="42">
-        <v>76.7</v>
       </c>
       <c r="E168" s="42"/>
       <c r="F168" s="42"/>
       <c r="G168" s="42"/>
     </row>
-    <row r="169" spans="1:7" ht="30">
+    <row r="169" spans="1:7" ht="45">
       <c r="A169" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B169" s="42" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C169" s="42" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D169" s="42" t="s">
-        <v>924</v>
+        <v>289</v>
+      </c>
+      <c r="D169" s="42">
+        <v>76.7</v>
       </c>
       <c r="E169" s="42"/>
       <c r="F169" s="42"/>
       <c r="G169" s="42"/>
     </row>
-    <row r="170" spans="1:7" ht="45">
+    <row r="170" spans="1:7" ht="30">
       <c r="A170" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B170" s="42" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C170" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="D170" s="42">
-        <v>76.39</v>
+        <v>1077</v>
+      </c>
+      <c r="D170" s="42" t="s">
+        <v>924</v>
       </c>
       <c r="E170" s="42"/>
       <c r="F170" s="42"/>
       <c r="G170" s="42"/>
     </row>
-    <row r="171" spans="1:7" ht="30">
+    <row r="171" spans="1:7" ht="45">
       <c r="A171" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B171" s="42" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C171" s="42" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D171" s="42">
-        <v>76.400000000000006</v>
+        <v>76.39</v>
       </c>
       <c r="E171" s="42"/>
       <c r="F171" s="42"/>
@@ -11642,181 +11681,181 @@
         <v>56</v>
       </c>
       <c r="B172" s="42" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C172" s="42" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D172" s="42">
-        <v>76.41</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E172" s="42"/>
       <c r="F172" s="42"/>
       <c r="G172" s="42"/>
     </row>
-    <row r="173" spans="1:7" ht="75">
+    <row r="173" spans="1:7" ht="30">
       <c r="A173" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B173" s="42" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C173" s="42" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D173" s="42">
-        <v>76.42</v>
+        <v>76.41</v>
       </c>
       <c r="E173" s="42"/>
       <c r="F173" s="42"/>
       <c r="G173" s="42"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" ht="75">
       <c r="A174" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B174" s="42" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C174" s="42" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="D174" s="42">
-        <v>76.430000000000007</v>
+        <v>76.42</v>
       </c>
       <c r="E174" s="42"/>
       <c r="F174" s="42"/>
       <c r="G174" s="42"/>
     </row>
-    <row r="175" spans="1:7" ht="75">
+    <row r="175" spans="1:7">
       <c r="A175" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B175" s="42" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C175" s="42" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="D175" s="42">
-        <v>76.44</v>
+        <v>76.430000000000007</v>
       </c>
       <c r="E175" s="42"/>
       <c r="F175" s="42"/>
       <c r="G175" s="42"/>
     </row>
-    <row r="176" spans="1:7" ht="45">
+    <row r="176" spans="1:7" ht="75">
       <c r="A176" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B176" s="42" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C176" s="42" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D176" s="42">
-        <v>76.45</v>
+        <v>76.44</v>
       </c>
       <c r="E176" s="42"/>
       <c r="F176" s="42"/>
       <c r="G176" s="42"/>
     </row>
-    <row r="177" spans="1:7" ht="30">
+    <row r="177" spans="1:7" ht="45">
       <c r="A177" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B177" s="42" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C177" s="42" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D177" s="42">
-        <v>76.459999999999994</v>
+        <v>76.45</v>
       </c>
       <c r="E177" s="42"/>
       <c r="F177" s="42"/>
       <c r="G177" s="42"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" ht="30">
       <c r="A178" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B178" s="42">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C178" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="D178" s="44"/>
-      <c r="E178" s="44"/>
-      <c r="F178" s="44"/>
-      <c r="G178" s="45"/>
+      <c r="B178" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="C178" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="D178" s="42">
+        <v>76.459999999999994</v>
+      </c>
+      <c r="E178" s="42"/>
+      <c r="F178" s="42"/>
+      <c r="G178" s="42"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B179" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="C179" s="44" t="s">
-        <v>24</v>
+      <c r="B179" s="42">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C179" s="45" t="s">
+        <v>23</v>
       </c>
       <c r="D179" s="44"/>
       <c r="E179" s="44"/>
       <c r="F179" s="44"/>
-      <c r="G179" s="44"/>
-    </row>
-    <row r="180" spans="1:7" ht="30">
+      <c r="G179" s="45"/>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B180" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="C180" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D180" s="44"/>
+      <c r="E180" s="44"/>
+      <c r="F180" s="44"/>
+      <c r="G180" s="44"/>
+    </row>
+    <row r="181" spans="1:7" ht="30">
+      <c r="A181" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B181" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="C180" s="42" t="s">
+      <c r="C181" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="D180" s="42">
+      <c r="D181" s="42">
         <v>76.099999999999994</v>
-      </c>
-      <c r="E180" s="42"/>
-      <c r="F180" s="42"/>
-      <c r="G180" s="42" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B181" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="C181" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="D181" s="42">
-        <v>76.2</v>
       </c>
       <c r="E181" s="42"/>
       <c r="F181" s="42"/>
-      <c r="G181" s="42"/>
+      <c r="G181" s="42" t="s">
+        <v>1098</v>
+      </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B182" s="42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C182" s="42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D182" s="42">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="E182" s="42"/>
       <c r="F182" s="42"/>
@@ -11827,13 +11866,13 @@
         <v>56</v>
       </c>
       <c r="B183" s="42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C183" s="42" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D183" s="42">
-        <v>76.400000000000006</v>
+        <v>76.3</v>
       </c>
       <c r="E183" s="42"/>
       <c r="F183" s="42"/>
@@ -11844,115 +11883,115 @@
         <v>56</v>
       </c>
       <c r="B184" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="C184" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="D184" s="42">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="E184" s="42"/>
+      <c r="F184" s="42"/>
+      <c r="G184" s="42"/>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B185" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="C184" s="44" t="s">
+      <c r="C185" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D184" s="44"/>
-      <c r="E184" s="44"/>
-      <c r="F184" s="44"/>
-      <c r="G184" s="44"/>
-    </row>
-    <row r="185" spans="1:7" ht="45">
-      <c r="A185" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B185" s="42" t="s">
+      <c r="D185" s="44"/>
+      <c r="E185" s="44"/>
+      <c r="F185" s="44"/>
+      <c r="G185" s="44"/>
+    </row>
+    <row r="186" spans="1:7" ht="45">
+      <c r="A186" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B186" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="C185" s="42" t="s">
+      <c r="C186" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="D185" s="42">
+      <c r="D186" s="42">
         <v>76.5</v>
-      </c>
-      <c r="E185" s="42"/>
-      <c r="F185" s="42"/>
-      <c r="G185" s="42" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="30">
-      <c r="A186" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B186" s="42" t="s">
-        <v>315</v>
-      </c>
-      <c r="C186" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="D186" s="42">
-        <v>76.599999999999994</v>
       </c>
       <c r="E186" s="42"/>
       <c r="F186" s="42"/>
-      <c r="G186" s="42"/>
-    </row>
-    <row r="187" spans="1:7" ht="45">
+      <c r="G186" s="42" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="30">
       <c r="A187" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B187" s="42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C187" s="42" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D187" s="42">
-        <v>76.7</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="E187" s="42"/>
       <c r="F187" s="42"/>
       <c r="G187" s="42"/>
     </row>
-    <row r="188" spans="1:7" ht="30">
+    <row r="188" spans="1:7" ht="45">
       <c r="A188" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B188" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C188" s="42" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D188" s="42" t="s">
-        <v>924</v>
+        <v>289</v>
+      </c>
+      <c r="D188" s="42">
+        <v>76.7</v>
       </c>
       <c r="E188" s="42"/>
       <c r="F188" s="42"/>
       <c r="G188" s="42"/>
     </row>
-    <row r="189" spans="1:7" ht="45">
+    <row r="189" spans="1:7" ht="30">
       <c r="A189" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B189" s="42" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C189" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="D189" s="42">
-        <v>76.39</v>
+        <v>1076</v>
+      </c>
+      <c r="D189" s="42" t="s">
+        <v>924</v>
       </c>
       <c r="E189" s="42"/>
       <c r="F189" s="42"/>
       <c r="G189" s="42"/>
     </row>
-    <row r="190" spans="1:7" ht="30">
+    <row r="190" spans="1:7" ht="45">
       <c r="A190" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B190" s="42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C190" s="42" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D190" s="42">
-        <v>76.400000000000006</v>
+        <v>76.39</v>
       </c>
       <c r="E190" s="42"/>
       <c r="F190" s="42"/>
@@ -11963,181 +12002,181 @@
         <v>56</v>
       </c>
       <c r="B191" s="42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C191" s="42" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="D191" s="42">
-        <v>76.41</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E191" s="42"/>
       <c r="F191" s="42"/>
       <c r="G191" s="42"/>
     </row>
-    <row r="192" spans="1:7" ht="45">
+    <row r="192" spans="1:7" ht="30">
       <c r="A192" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B192" s="42" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C192" s="42" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D192" s="42">
-        <v>76.42</v>
+        <v>76.41</v>
       </c>
       <c r="E192" s="42"/>
       <c r="F192" s="42"/>
       <c r="G192" s="42"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" ht="45">
       <c r="A193" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B193" s="42" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C193" s="42" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D193" s="42">
-        <v>76.430000000000007</v>
+        <v>76.42</v>
       </c>
       <c r="E193" s="42"/>
       <c r="F193" s="42"/>
       <c r="G193" s="42"/>
     </row>
-    <row r="194" spans="1:7" ht="75">
+    <row r="194" spans="1:7">
       <c r="A194" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B194" s="42" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C194" s="42" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="D194" s="42">
-        <v>76.44</v>
+        <v>76.430000000000007</v>
       </c>
       <c r="E194" s="42"/>
       <c r="F194" s="42"/>
       <c r="G194" s="42"/>
     </row>
-    <row r="195" spans="1:7" ht="45">
+    <row r="195" spans="1:7" ht="75">
       <c r="A195" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B195" s="42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C195" s="42" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D195" s="42">
-        <v>76.45</v>
+        <v>76.44</v>
       </c>
       <c r="E195" s="42"/>
       <c r="F195" s="42"/>
       <c r="G195" s="42"/>
     </row>
-    <row r="196" spans="1:7" ht="30">
+    <row r="196" spans="1:7" ht="45">
       <c r="A196" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B196" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C196" s="42" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D196" s="42">
-        <v>76.459999999999994</v>
+        <v>76.45</v>
       </c>
       <c r="E196" s="42"/>
       <c r="F196" s="42"/>
       <c r="G196" s="42"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" ht="30">
       <c r="A197" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B197" s="42">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C197" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D197" s="44"/>
-      <c r="E197" s="44"/>
-      <c r="F197" s="44"/>
-      <c r="G197" s="44"/>
+      <c r="B197" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="C197" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="D197" s="42">
+        <v>76.459999999999994</v>
+      </c>
+      <c r="E197" s="42"/>
+      <c r="F197" s="42"/>
+      <c r="G197" s="42"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B198" s="42" t="s">
-        <v>330</v>
-      </c>
-      <c r="C198" s="44" t="s">
-        <v>27</v>
+      <c r="B198" s="42">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C198" s="41" t="s">
+        <v>26</v>
       </c>
       <c r="D198" s="44"/>
       <c r="E198" s="44"/>
       <c r="F198" s="44"/>
       <c r="G198" s="44"/>
     </row>
-    <row r="199" spans="1:7" ht="30">
+    <row r="199" spans="1:7">
       <c r="A199" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B199" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="C199" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D199" s="44"/>
+      <c r="E199" s="44"/>
+      <c r="F199" s="44"/>
+      <c r="G199" s="44"/>
+    </row>
+    <row r="200" spans="1:7" ht="30">
+      <c r="A200" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B200" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="C199" s="42" t="s">
+      <c r="C200" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="D199" s="42">
+      <c r="D200" s="42">
         <v>76.099999999999994</v>
-      </c>
-      <c r="E199" s="42"/>
-      <c r="F199" s="42"/>
-      <c r="G199" s="42" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B200" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="C200" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="D200" s="42">
-        <v>76.2</v>
       </c>
       <c r="E200" s="42"/>
       <c r="F200" s="42"/>
-      <c r="G200" s="42"/>
+      <c r="G200" s="42" t="s">
+        <v>1098</v>
+      </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B201" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C201" s="42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D201" s="42">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="E201" s="42"/>
       <c r="F201" s="42"/>
@@ -12148,13 +12187,13 @@
         <v>56</v>
       </c>
       <c r="B202" s="42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C202" s="42" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D202" s="42">
-        <v>76.400000000000006</v>
+        <v>76.3</v>
       </c>
       <c r="E202" s="42"/>
       <c r="F202" s="42"/>
@@ -12165,64 +12204,64 @@
         <v>56</v>
       </c>
       <c r="B203" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="C203" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="D203" s="42">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="E203" s="42"/>
+      <c r="F203" s="42"/>
+      <c r="G203" s="42"/>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B204" s="42" t="s">
         <v>335</v>
       </c>
-      <c r="C203" s="44" t="s">
+      <c r="C204" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D203" s="44"/>
-      <c r="E203" s="44"/>
-      <c r="F203" s="44"/>
-      <c r="G203" s="44"/>
-    </row>
-    <row r="204" spans="1:7" ht="45">
-      <c r="A204" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B204" s="42" t="s">
+      <c r="D204" s="44"/>
+      <c r="E204" s="44"/>
+      <c r="F204" s="44"/>
+      <c r="G204" s="44"/>
+    </row>
+    <row r="205" spans="1:7" ht="45">
+      <c r="A205" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B205" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="C204" s="42" t="s">
+      <c r="C205" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="D204" s="42" t="s">
+      <c r="D205" s="42" t="s">
         <v>843</v>
-      </c>
-      <c r="E204" s="42"/>
-      <c r="F204" s="42"/>
-      <c r="G204" s="42" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="30">
-      <c r="A205" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B205" s="42" t="s">
-        <v>338</v>
-      </c>
-      <c r="C205" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="D205" s="42">
-        <v>76.599999999999994</v>
       </c>
       <c r="E205" s="42"/>
       <c r="F205" s="42"/>
-      <c r="G205" s="42"/>
+      <c r="G205" s="42" t="s">
+        <v>1100</v>
+      </c>
     </row>
     <row r="206" spans="1:7" ht="30">
       <c r="A206" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B206" s="42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C206" s="42" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="D206" s="42">
-        <v>76.7</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="E206" s="42"/>
       <c r="F206" s="42"/>
@@ -12233,47 +12272,47 @@
         <v>56</v>
       </c>
       <c r="B207" s="42" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C207" s="42" t="s">
-        <v>342</v>
-      </c>
-      <c r="D207" s="42" t="s">
-        <v>924</v>
+        <v>340</v>
+      </c>
+      <c r="D207" s="42">
+        <v>76.7</v>
       </c>
       <c r="E207" s="42"/>
       <c r="F207" s="42"/>
       <c r="G207" s="42"/>
     </row>
-    <row r="208" spans="1:7" ht="45">
+    <row r="208" spans="1:7" ht="30">
       <c r="A208" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B208" s="42" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="C208" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="D208" s="42">
-        <v>76.39</v>
+        <v>342</v>
+      </c>
+      <c r="D208" s="42" t="s">
+        <v>924</v>
       </c>
       <c r="E208" s="42"/>
       <c r="F208" s="42"/>
       <c r="G208" s="42"/>
     </row>
-    <row r="209" spans="1:7" ht="30">
+    <row r="209" spans="1:7" ht="45">
       <c r="A209" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B209" s="42" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="C209" s="42" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D209" s="42">
-        <v>76.400000000000006</v>
+        <v>76.39</v>
       </c>
       <c r="E209" s="42"/>
       <c r="F209" s="42"/>
@@ -12284,198 +12323,198 @@
         <v>56</v>
       </c>
       <c r="B210" s="42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C210" s="42" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="D210" s="42">
-        <v>76.41</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E210" s="42"/>
       <c r="F210" s="42"/>
       <c r="G210" s="42"/>
     </row>
-    <row r="211" spans="1:7" ht="45">
+    <row r="211" spans="1:7" ht="30">
       <c r="A211" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B211" s="42" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C211" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D211" s="42">
-        <v>76.42</v>
+        <v>76.41</v>
       </c>
       <c r="E211" s="42"/>
       <c r="F211" s="42"/>
       <c r="G211" s="42"/>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" ht="45">
       <c r="A212" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B212" s="42" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C212" s="42" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="D212" s="42">
-        <v>76.430000000000007</v>
+        <v>76.42</v>
       </c>
       <c r="E212" s="42"/>
       <c r="F212" s="42"/>
       <c r="G212" s="42"/>
     </row>
-    <row r="213" spans="1:7" ht="75">
+    <row r="213" spans="1:7">
       <c r="A213" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B213" s="42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C213" s="42" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="D213" s="42">
-        <v>76.44</v>
+        <v>76.430000000000007</v>
       </c>
       <c r="E213" s="42"/>
       <c r="F213" s="42"/>
       <c r="G213" s="42"/>
     </row>
-    <row r="214" spans="1:7" ht="45">
+    <row r="214" spans="1:7" ht="75">
       <c r="A214" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B214" s="42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C214" s="42" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D214" s="42">
-        <v>76.45</v>
+        <v>76.44</v>
       </c>
       <c r="E214" s="42"/>
       <c r="F214" s="42"/>
       <c r="G214" s="42"/>
     </row>
-    <row r="215" spans="1:7" ht="30">
+    <row r="215" spans="1:7" ht="45">
       <c r="A215" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B215" s="42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C215" s="42" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D215" s="42">
-        <v>76.459999999999994</v>
+        <v>76.45</v>
       </c>
       <c r="E215" s="42"/>
       <c r="F215" s="42"/>
       <c r="G215" s="42"/>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" ht="30">
       <c r="A216" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B216" s="42">
-        <v>9.4</v>
-      </c>
-      <c r="C216" s="45" t="s">
-        <v>352</v>
-      </c>
-      <c r="D216" s="44"/>
-      <c r="E216" s="44"/>
-      <c r="F216" s="44"/>
-      <c r="G216" s="46"/>
+      <c r="B216" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="C216" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="D216" s="42">
+        <v>76.459999999999994</v>
+      </c>
+      <c r="E216" s="42"/>
+      <c r="F216" s="42"/>
+      <c r="G216" s="42"/>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B217" s="42" t="s">
-        <v>353</v>
-      </c>
-      <c r="C217" s="44" t="s">
-        <v>354</v>
+      <c r="B217" s="42">
+        <v>9.4</v>
+      </c>
+      <c r="C217" s="45" t="s">
+        <v>352</v>
       </c>
       <c r="D217" s="44"/>
       <c r="E217" s="44"/>
       <c r="F217" s="44"/>
-      <c r="G217" s="44"/>
-    </row>
-    <row r="218" spans="1:7" ht="60">
+      <c r="G217" s="46"/>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B218" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="C218" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="D218" s="44"/>
+      <c r="E218" s="44"/>
+      <c r="F218" s="44"/>
+      <c r="G218" s="44"/>
+    </row>
+    <row r="219" spans="1:7" ht="60">
+      <c r="A219" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B219" s="42" t="s">
         <v>355</v>
       </c>
-      <c r="C218" s="42" t="s">
+      <c r="C219" s="42" t="s">
         <v>356</v>
       </c>
-      <c r="D218" s="42">
+      <c r="D219" s="42">
         <v>76.900000000000006</v>
-      </c>
-      <c r="E218" s="42"/>
-      <c r="F218" s="42"/>
-      <c r="G218" s="42" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="30">
-      <c r="A219" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B219" s="42" t="s">
-        <v>357</v>
-      </c>
-      <c r="C219" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="D219" s="42">
-        <v>76.099999999999994</v>
       </c>
       <c r="E219" s="42"/>
       <c r="F219" s="42"/>
-      <c r="G219" s="42"/>
+      <c r="G219" s="42" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="220" spans="1:7" ht="30">
       <c r="A220" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B220" s="42" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C220" s="42" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D220" s="42">
-        <v>76.11</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="E220" s="42"/>
       <c r="F220" s="42"/>
       <c r="G220" s="42"/>
     </row>
-    <row r="221" spans="1:7" ht="60">
+    <row r="221" spans="1:7" ht="30">
       <c r="A221" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B221" s="42" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C221" s="42" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D221" s="42">
-        <v>76.12</v>
+        <v>76.11</v>
       </c>
       <c r="E221" s="42"/>
       <c r="F221" s="42"/>
@@ -12486,7 +12525,7 @@
         <v>56</v>
       </c>
       <c r="B222" s="42" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C222" s="42" t="s">
         <v>362</v>
@@ -12498,56 +12537,54 @@
       <c r="F222" s="42"/>
       <c r="G222" s="42"/>
     </row>
-    <row r="223" spans="1:7" ht="30">
+    <row r="223" spans="1:7" ht="60">
       <c r="A223" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B223" s="42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C223" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="D223" s="42" t="s">
-        <v>864</v>
+        <v>362</v>
+      </c>
+      <c r="D223" s="42">
+        <v>76.12</v>
       </c>
       <c r="E223" s="42"/>
       <c r="F223" s="42"/>
       <c r="G223" s="42"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" ht="30">
       <c r="A224" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B224" s="42" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C224" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="D224" s="42">
-        <v>76.14</v>
+        <v>365</v>
+      </c>
+      <c r="D224" s="42" t="s">
+        <v>864</v>
       </c>
       <c r="E224" s="42"/>
       <c r="F224" s="42"/>
       <c r="G224" s="42"/>
     </row>
-    <row r="225" spans="1:7" ht="45">
+    <row r="225" spans="1:7">
       <c r="A225" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B225" s="42" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C225" s="42" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D225" s="42" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E225" s="42" t="s">
-        <v>1062</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="D225" s="42">
+        <v>76.14</v>
+      </c>
+      <c r="E225" s="42"/>
       <c r="F225" s="42"/>
       <c r="G225" s="42"/>
     </row>
@@ -12556,10 +12593,10 @@
         <v>56</v>
       </c>
       <c r="B226" s="42" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C226" s="42" t="s">
-        <v>371</v>
+        <v>1056</v>
       </c>
       <c r="D226" s="42" t="s">
         <v>1201</v>
@@ -12570,20 +12607,22 @@
       <c r="F226" s="42"/>
       <c r="G226" s="42"/>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" ht="45">
       <c r="A227" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B227" s="42" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C227" s="42" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D227" s="42">
-        <v>76.16</v>
-      </c>
-      <c r="E227" s="42"/>
+        <v>371</v>
+      </c>
+      <c r="D227" s="42" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E227" s="42" t="s">
+        <v>1062</v>
+      </c>
       <c r="F227" s="42"/>
       <c r="G227" s="42"/>
     </row>
@@ -12592,13 +12631,13 @@
         <v>56</v>
       </c>
       <c r="B228" s="42" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C228" s="42" t="s">
-        <v>376</v>
+        <v>1063</v>
       </c>
       <c r="D228" s="42">
-        <v>76.17</v>
+        <v>76.16</v>
       </c>
       <c r="E228" s="42"/>
       <c r="F228" s="42"/>
@@ -12609,13 +12648,13 @@
         <v>56</v>
       </c>
       <c r="B229" s="42" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C229" s="42" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D229" s="42">
-        <v>76.180000000000007</v>
+        <v>76.17</v>
       </c>
       <c r="E229" s="42"/>
       <c r="F229" s="42"/>
@@ -12626,119 +12665,119 @@
         <v>56</v>
       </c>
       <c r="B230" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="C230" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="D230" s="42">
+        <v>76.180000000000007</v>
+      </c>
+      <c r="E230" s="42"/>
+      <c r="F230" s="42"/>
+      <c r="G230" s="42"/>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B231" s="42" t="s">
         <v>379</v>
       </c>
-      <c r="C230" s="44" t="s">
+      <c r="C231" s="44" t="s">
         <v>380</v>
       </c>
-      <c r="D230" s="44"/>
-      <c r="E230" s="44"/>
-      <c r="F230" s="44"/>
-      <c r="G230" s="44"/>
-    </row>
-    <row r="231" spans="1:7" ht="45">
-      <c r="A231" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B231" s="42" t="s">
+      <c r="D231" s="44"/>
+      <c r="E231" s="44"/>
+      <c r="F231" s="44"/>
+      <c r="G231" s="44"/>
+    </row>
+    <row r="232" spans="1:7" ht="45">
+      <c r="A232" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B232" s="42" t="s">
         <v>381</v>
       </c>
-      <c r="C231" s="42" t="s">
+      <c r="C232" s="42" t="s">
         <v>382</v>
       </c>
-      <c r="D231" s="42">
+      <c r="D232" s="42">
         <v>76.19</v>
-      </c>
-      <c r="E231" s="42"/>
-      <c r="F231" s="42"/>
-      <c r="G231" s="42" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B232" s="42" t="s">
-        <v>383</v>
-      </c>
-      <c r="C232" s="42" t="s">
-        <v>384</v>
-      </c>
-      <c r="D232" s="42" t="s">
-        <v>877</v>
       </c>
       <c r="E232" s="42"/>
       <c r="F232" s="42"/>
-      <c r="G232" s="42"/>
-    </row>
-    <row r="233" spans="1:7" ht="30">
+      <c r="G232" s="42" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B233" s="42" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C233" s="42" t="s">
-        <v>386</v>
-      </c>
-      <c r="D233" s="42">
-        <v>76.209999999999994</v>
+        <v>384</v>
+      </c>
+      <c r="D233" s="42" t="s">
+        <v>877</v>
       </c>
       <c r="E233" s="42"/>
       <c r="F233" s="42"/>
       <c r="G233" s="42"/>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" ht="30">
       <c r="A234" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B234" s="42" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C234" s="42" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D234" s="42">
-        <v>76.22</v>
+        <v>76.209999999999994</v>
       </c>
       <c r="E234" s="42"/>
       <c r="F234" s="42"/>
       <c r="G234" s="42"/>
     </row>
-    <row r="235" spans="1:7" ht="30">
+    <row r="235" spans="1:7">
       <c r="A235" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B235" s="42" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C235" s="42" t="s">
-        <v>390</v>
-      </c>
-      <c r="D235" s="42" t="s">
-        <v>955</v>
-      </c>
-      <c r="E235" s="42" t="s">
-        <v>1087</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="D235" s="42">
+        <v>76.22</v>
+      </c>
+      <c r="E235" s="42"/>
       <c r="F235" s="42"/>
       <c r="G235" s="42"/>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" ht="30">
       <c r="A236" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B236" s="42" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C236" s="42" t="s">
-        <v>392</v>
-      </c>
-      <c r="D236" s="42">
-        <v>76.23</v>
-      </c>
-      <c r="E236" s="42"/>
+        <v>390</v>
+      </c>
+      <c r="D236" s="42" t="s">
+        <v>955</v>
+      </c>
+      <c r="E236" s="42" t="s">
+        <v>1087</v>
+      </c>
       <c r="F236" s="42"/>
       <c r="G236" s="42"/>
     </row>
@@ -12747,47 +12786,47 @@
         <v>56</v>
       </c>
       <c r="B237" s="42" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C237" s="42" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D237" s="42">
-        <v>76.239999999999995</v>
+        <v>76.23</v>
       </c>
       <c r="E237" s="42"/>
       <c r="F237" s="42"/>
       <c r="G237" s="42"/>
     </row>
-    <row r="238" spans="1:7" ht="30">
+    <row r="238" spans="1:7">
       <c r="A238" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B238" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C238" s="42" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D238" s="42">
-        <v>76.25</v>
+        <v>76.239999999999995</v>
       </c>
       <c r="E238" s="42"/>
       <c r="F238" s="42"/>
       <c r="G238" s="42"/>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" ht="30">
       <c r="A239" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B239" s="42" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C239" s="42" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D239" s="42">
-        <v>76.260000000000005</v>
+        <v>76.25</v>
       </c>
       <c r="E239" s="42"/>
       <c r="F239" s="42"/>
@@ -12798,13 +12837,13 @@
         <v>56</v>
       </c>
       <c r="B240" s="42" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C240" s="42" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D240" s="42">
-        <v>76.27</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="E240" s="42"/>
       <c r="F240" s="42"/>
@@ -12815,13 +12854,13 @@
         <v>56</v>
       </c>
       <c r="B241" s="42" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C241" s="42" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D241" s="42">
-        <v>76.28</v>
+        <v>76.27</v>
       </c>
       <c r="E241" s="42"/>
       <c r="F241" s="42"/>
@@ -12832,125 +12871,125 @@
         <v>56</v>
       </c>
       <c r="B242" s="42" t="s">
-        <v>403</v>
-      </c>
-      <c r="C242" s="44" t="s">
-        <v>404</v>
-      </c>
-      <c r="D242" s="44"/>
-      <c r="E242" s="44"/>
-      <c r="F242" s="44"/>
-      <c r="G242" s="44"/>
+        <v>401</v>
+      </c>
+      <c r="C242" s="42" t="s">
+        <v>402</v>
+      </c>
+      <c r="D242" s="42">
+        <v>76.28</v>
+      </c>
+      <c r="E242" s="42"/>
+      <c r="F242" s="42"/>
+      <c r="G242" s="42"/>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B243" s="42" t="s">
-        <v>405</v>
-      </c>
-      <c r="C243" s="42" t="s">
-        <v>406</v>
-      </c>
-      <c r="D243" s="42">
-        <v>76.239999999999995</v>
-      </c>
-      <c r="E243" s="42"/>
-      <c r="F243" s="42"/>
-      <c r="G243" s="42" t="s">
-        <v>1102</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="C243" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D243" s="44"/>
+      <c r="E243" s="44"/>
+      <c r="F243" s="44"/>
+      <c r="G243" s="44"/>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B244" s="42" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C244" s="42" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D244" s="42">
-        <v>76.28</v>
+        <v>76.239999999999995</v>
       </c>
       <c r="E244" s="42"/>
       <c r="F244" s="42"/>
-      <c r="G244" s="42"/>
+      <c r="G244" s="42" t="s">
+        <v>1102</v>
+      </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B245" s="42">
+      <c r="B245" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="C245" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="D245" s="42">
+        <v>76.28</v>
+      </c>
+      <c r="E245" s="42"/>
+      <c r="F245" s="42"/>
+      <c r="G245" s="42"/>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B246" s="42">
         <v>9.5</v>
       </c>
-      <c r="C245" s="41" t="s">
+      <c r="C246" s="41" t="s">
         <v>409</v>
       </c>
-      <c r="D245" s="44"/>
-      <c r="E245" s="44"/>
-      <c r="F245" s="44"/>
-      <c r="G245" s="44"/>
-    </row>
-    <row r="246" spans="1:7" ht="30">
-      <c r="A246" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B246" s="42" t="s">
+      <c r="D246" s="44"/>
+      <c r="E246" s="44"/>
+      <c r="F246" s="44"/>
+      <c r="G246" s="44"/>
+    </row>
+    <row r="247" spans="1:7" ht="30">
+      <c r="A247" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B247" s="42" t="s">
         <v>410</v>
       </c>
-      <c r="C246" s="47" t="s">
+      <c r="C247" s="47" t="s">
         <v>411</v>
       </c>
-      <c r="D246" s="42"/>
-      <c r="E246" s="42" t="s">
+      <c r="D247" s="42"/>
+      <c r="E247" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="F246" s="42"/>
-      <c r="G246" s="42"/>
-    </row>
-    <row r="247" spans="1:7">
-      <c r="A247" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B247" s="42">
-        <v>9.6</v>
-      </c>
-      <c r="C247" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D247" s="42"/>
-      <c r="E247" s="42"/>
       <c r="F247" s="42"/>
-      <c r="G247" s="46"/>
+      <c r="G247" s="42"/>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B248" s="42" t="s">
-        <v>412</v>
-      </c>
-      <c r="C248" s="47" t="s">
-        <v>30</v>
+      <c r="B248" s="42">
+        <v>9.6</v>
+      </c>
+      <c r="C248" s="45" t="s">
+        <v>29</v>
       </c>
       <c r="D248" s="42"/>
-      <c r="E248" s="42" t="s">
-        <v>268</v>
-      </c>
+      <c r="E248" s="42"/>
       <c r="F248" s="42"/>
-      <c r="G248" s="42"/>
+      <c r="G248" s="46"/>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B249" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C249" s="47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D249" s="42"/>
       <c r="E249" s="42" t="s">
@@ -12963,43 +13002,43 @@
       <c r="A250" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B250" s="42">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="C250" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D250" s="44"/>
-      <c r="E250" s="44"/>
-      <c r="F250" s="44"/>
-      <c r="G250" s="44"/>
+      <c r="B250" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="C250" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D250" s="42"/>
+      <c r="E250" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="F250" s="42"/>
+      <c r="G250" s="42"/>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B251" s="42" t="s">
-        <v>414</v>
-      </c>
-      <c r="C251" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D251" s="42"/>
-      <c r="E251" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="F251" s="42"/>
-      <c r="G251" s="42"/>
+      <c r="B251" s="42">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C251" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D251" s="44"/>
+      <c r="E251" s="44"/>
+      <c r="F251" s="44"/>
+      <c r="G251" s="44"/>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B252" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C252" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D252" s="42"/>
       <c r="E252" s="42" t="s">
@@ -13012,99 +13051,97 @@
       <c r="A253" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B253" s="39" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C253" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D253" s="44"/>
-      <c r="E253" s="44"/>
-      <c r="F253" s="44"/>
-      <c r="G253" s="48"/>
+      <c r="B253" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="C253" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D253" s="42"/>
+      <c r="E253" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="F253" s="42"/>
+      <c r="G253" s="42"/>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B254" s="42">
-        <v>10.1</v>
-      </c>
-      <c r="C254" s="41" t="s">
-        <v>2</v>
+      <c r="B254" s="39" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C254" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="D254" s="44"/>
       <c r="E254" s="44"/>
       <c r="F254" s="44"/>
-      <c r="G254" s="44"/>
+      <c r="G254" s="48"/>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B255" s="42" t="s">
-        <v>416</v>
-      </c>
-      <c r="C255" s="44" t="s">
-        <v>36</v>
+      <c r="B255" s="42">
+        <v>10.1</v>
+      </c>
+      <c r="C255" s="41" t="s">
+        <v>2</v>
       </c>
       <c r="D255" s="44"/>
       <c r="E255" s="44"/>
       <c r="F255" s="44"/>
       <c r="G255" s="44"/>
     </row>
-    <row r="256" spans="1:7" ht="60">
+    <row r="256" spans="1:7">
       <c r="A256" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B256" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="C256" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D256" s="44"/>
+      <c r="E256" s="44"/>
+      <c r="F256" s="44"/>
+      <c r="G256" s="44"/>
+    </row>
+    <row r="257" spans="1:7" ht="60">
+      <c r="A257" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B257" s="42" t="s">
         <v>417</v>
       </c>
-      <c r="C256" s="47" t="s">
+      <c r="C257" s="47" t="s">
         <v>418</v>
       </c>
-      <c r="D256" s="42" t="s">
+      <c r="D257" s="42" t="s">
         <v>419</v>
-      </c>
-      <c r="E256" s="42"/>
-      <c r="F256" s="42"/>
-      <c r="G256" s="47" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" ht="30">
-      <c r="A257" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B257" s="42" t="s">
-        <v>420</v>
-      </c>
-      <c r="C257" s="47" t="s">
-        <v>421</v>
-      </c>
-      <c r="D257" s="42" t="s">
-        <v>422</v>
       </c>
       <c r="E257" s="42"/>
       <c r="F257" s="42"/>
-      <c r="G257" s="47"/>
-    </row>
-    <row r="258" spans="1:7" ht="45">
+      <c r="G257" s="47" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="30">
       <c r="A258" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B258" s="42" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C258" s="47" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D258" s="42" t="s">
-        <v>425</v>
-      </c>
-      <c r="E258" s="49" t="s">
-        <v>1209</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="E258" s="42"/>
       <c r="F258" s="42"/>
       <c r="G258" s="47"/>
     </row>
@@ -13113,304 +13150,306 @@
         <v>56</v>
       </c>
       <c r="B259" s="42" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C259" s="47" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D259" s="42" t="s">
-        <v>428</v>
-      </c>
-      <c r="E259" s="42"/>
+        <v>425</v>
+      </c>
+      <c r="E259" s="49" t="s">
+        <v>1209</v>
+      </c>
       <c r="F259" s="42"/>
       <c r="G259" s="47"/>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" ht="45">
       <c r="A260" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B260" s="42" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C260" s="47" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D260" s="42" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E260" s="42"/>
       <c r="F260" s="42"/>
       <c r="G260" s="47"/>
     </row>
-    <row r="261" spans="1:7" ht="30">
+    <row r="261" spans="1:7">
       <c r="A261" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B261" s="42" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C261" s="47" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D261" s="42" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E261" s="42"/>
       <c r="F261" s="42"/>
       <c r="G261" s="47"/>
     </row>
-    <row r="262" spans="1:7" ht="60">
+    <row r="262" spans="1:7" ht="30">
       <c r="A262" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B262" s="42" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C262" s="47" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D262" s="42" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E262" s="42"/>
       <c r="F262" s="42"/>
       <c r="G262" s="47"/>
     </row>
-    <row r="263" spans="1:7" ht="30">
+    <row r="263" spans="1:7" ht="60">
       <c r="A263" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B263" s="42" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C263" s="47" t="s">
-        <v>1210</v>
+        <v>436</v>
       </c>
       <c r="D263" s="42" t="s">
-        <v>440</v>
-      </c>
-      <c r="E263" s="49" t="s">
-        <v>1209</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="E263" s="42"/>
       <c r="F263" s="42"/>
       <c r="G263" s="47"/>
     </row>
-    <row r="264" spans="1:7" ht="45">
+    <row r="264" spans="1:7" ht="30">
       <c r="A264" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B264" s="42" t="s">
-        <v>1211</v>
+        <v>438</v>
       </c>
       <c r="C264" s="47" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="D264" s="42" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E264" s="42"/>
+        <v>440</v>
+      </c>
+      <c r="E264" s="49" t="s">
+        <v>1209</v>
+      </c>
       <c r="F264" s="42"/>
       <c r="G264" s="47"/>
     </row>
-    <row r="265" spans="1:7" ht="105">
+    <row r="265" spans="1:7" ht="45">
       <c r="A265" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B265" s="42" t="s">
-        <v>441</v>
+        <v>1211</v>
       </c>
       <c r="C265" s="47" t="s">
-        <v>442</v>
+        <v>1212</v>
       </c>
       <c r="D265" s="42" t="s">
-        <v>443</v>
+        <v>1213</v>
       </c>
       <c r="E265" s="42"/>
       <c r="F265" s="42"/>
       <c r="G265" s="47"/>
     </row>
-    <row r="266" spans="1:7" ht="75">
+    <row r="266" spans="1:7" ht="105">
       <c r="A266" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B266" s="42" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C266" s="47" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D266" s="42" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E266" s="42"/>
       <c r="F266" s="42"/>
       <c r="G266" s="47"/>
     </row>
-    <row r="267" spans="1:7" ht="105">
+    <row r="267" spans="1:7" ht="75">
       <c r="A267" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B267" s="42" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C267" s="47" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D267" s="42" t="s">
-        <v>449</v>
-      </c>
-      <c r="E267" s="49" t="s">
-        <v>1209</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="E267" s="42"/>
       <c r="F267" s="42"/>
       <c r="G267" s="47"/>
     </row>
-    <row r="268" spans="1:7" ht="30">
+    <row r="268" spans="1:7" ht="105">
       <c r="A268" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B268" s="42" t="s">
-        <v>1214</v>
+        <v>450</v>
       </c>
       <c r="C268" s="47" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D268" s="42" t="s">
-        <v>452</v>
-      </c>
-      <c r="E268" s="42"/>
+        <v>449</v>
+      </c>
+      <c r="E268" s="49" t="s">
+        <v>1209</v>
+      </c>
       <c r="F268" s="42"/>
       <c r="G268" s="47"/>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" ht="30">
       <c r="A269" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B269" s="42">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C269" s="41" t="s">
-        <v>453</v>
-      </c>
-      <c r="D269" s="44"/>
-      <c r="E269" s="44"/>
-      <c r="F269" s="44"/>
-      <c r="G269" s="44"/>
+      <c r="B269" s="42" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C269" s="47" t="s">
+        <v>451</v>
+      </c>
+      <c r="D269" s="42" t="s">
+        <v>452</v>
+      </c>
+      <c r="E269" s="42"/>
+      <c r="F269" s="42"/>
+      <c r="G269" s="47"/>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B270" s="42" t="s">
-        <v>454</v>
-      </c>
-      <c r="C270" s="44" t="s">
-        <v>36</v>
+      <c r="B270" s="42">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C270" s="41" t="s">
+        <v>453</v>
       </c>
       <c r="D270" s="44"/>
       <c r="E270" s="44"/>
       <c r="F270" s="44"/>
       <c r="G270" s="44"/>
     </row>
-    <row r="271" spans="1:7" ht="60">
+    <row r="271" spans="1:7">
       <c r="A271" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B271" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="C271" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D271" s="44"/>
+      <c r="E271" s="44"/>
+      <c r="F271" s="44"/>
+      <c r="G271" s="44"/>
+    </row>
+    <row r="272" spans="1:7" ht="60">
+      <c r="A272" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B272" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="C271" s="47" t="s">
+      <c r="C272" s="47" t="s">
         <v>456</v>
       </c>
-      <c r="D271" s="42" t="s">
+      <c r="D272" s="42" t="s">
         <v>419</v>
-      </c>
-      <c r="E271" s="42"/>
-      <c r="F271" s="42"/>
-      <c r="G271" s="47" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7">
-      <c r="A272" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B272" s="42" t="s">
-        <v>457</v>
-      </c>
-      <c r="C272" s="47" t="s">
-        <v>458</v>
-      </c>
-      <c r="D272" s="42" t="s">
-        <v>422</v>
       </c>
       <c r="E272" s="42"/>
       <c r="F272" s="42"/>
-      <c r="G272" s="47"/>
-    </row>
-    <row r="273" spans="1:7" ht="30">
+      <c r="G272" s="47" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B273" s="42" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C273" s="47" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D273" s="42" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E273" s="42"/>
       <c r="F273" s="42"/>
       <c r="G273" s="47"/>
     </row>
-    <row r="274" spans="1:7" ht="45">
+    <row r="274" spans="1:7" ht="30">
       <c r="A274" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B274" s="42" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C274" s="47" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D274" s="42" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E274" s="42"/>
       <c r="F274" s="42"/>
       <c r="G274" s="47"/>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" ht="45">
       <c r="A275" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B275" s="42" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C275" s="47" t="s">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="D275" s="42" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E275" s="42"/>
       <c r="F275" s="42"/>
       <c r="G275" s="47"/>
     </row>
-    <row r="276" spans="1:7" ht="30">
+    <row r="276" spans="1:7">
       <c r="A276" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B276" s="42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C276" s="47" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D276" s="42" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E276" s="42"/>
       <c r="F276" s="42"/>
@@ -13421,300 +13460,300 @@
         <v>56</v>
       </c>
       <c r="B277" s="42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C277" s="47" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="D277" s="42" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E277" s="42"/>
       <c r="F277" s="42"/>
       <c r="G277" s="47"/>
     </row>
-    <row r="278" spans="1:7" ht="45">
+    <row r="278" spans="1:7" ht="30">
       <c r="A278" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B278" s="42" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C278" s="47" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D278" s="42" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E278" s="42"/>
       <c r="F278" s="42"/>
       <c r="G278" s="47"/>
     </row>
-    <row r="279" spans="1:7" ht="30">
+    <row r="279" spans="1:7" ht="45">
       <c r="A279" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B279" s="42" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C279" s="47" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D279" s="42" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="E279" s="42"/>
       <c r="F279" s="42"/>
       <c r="G279" s="47"/>
     </row>
-    <row r="280" spans="1:7" ht="45">
+    <row r="280" spans="1:7" ht="30">
       <c r="A280" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B280" s="42" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C280" s="47" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D280" s="42" t="s">
-        <v>1213</v>
+        <v>471</v>
       </c>
       <c r="E280" s="42"/>
       <c r="F280" s="42"/>
       <c r="G280" s="47"/>
     </row>
-    <row r="281" spans="1:7" ht="60">
+    <row r="281" spans="1:7" ht="45">
       <c r="A281" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B281" s="42" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C281" s="47" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D281" s="42" t="s">
-        <v>476</v>
+        <v>1213</v>
       </c>
       <c r="E281" s="42"/>
       <c r="F281" s="42"/>
       <c r="G281" s="47"/>
     </row>
-    <row r="282" spans="1:7" ht="75">
+    <row r="282" spans="1:7" ht="60">
       <c r="A282" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B282" s="42" t="s">
-        <v>477</v>
-      </c>
-      <c r="C282" s="42" t="s">
-        <v>478</v>
+        <v>474</v>
+      </c>
+      <c r="C282" s="47" t="s">
+        <v>475</v>
       </c>
       <c r="D282" s="42" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="E282" s="42"/>
       <c r="F282" s="42"/>
-      <c r="G282" s="42"/>
-    </row>
-    <row r="283" spans="1:7" ht="90">
+      <c r="G282" s="47"/>
+    </row>
+    <row r="283" spans="1:7" ht="75">
       <c r="A283" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B283" s="42" t="s">
-        <v>479</v>
-      </c>
-      <c r="C283" s="47" t="s">
-        <v>480</v>
+        <v>477</v>
+      </c>
+      <c r="C283" s="42" t="s">
+        <v>478</v>
       </c>
       <c r="D283" s="42" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E283" s="42"/>
       <c r="F283" s="42"/>
-      <c r="G283" s="47"/>
-    </row>
-    <row r="284" spans="1:7" ht="105">
+      <c r="G283" s="42"/>
+    </row>
+    <row r="284" spans="1:7" ht="90">
       <c r="A284" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B284" s="42" t="s">
-        <v>481</v>
-      </c>
-      <c r="C284" s="42" t="s">
-        <v>482</v>
+        <v>479</v>
+      </c>
+      <c r="C284" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="D284" s="42" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E284" s="42"/>
       <c r="F284" s="42"/>
-      <c r="G284" s="42"/>
+      <c r="G284" s="47"/>
     </row>
     <row r="285" spans="1:7" ht="105">
       <c r="A285" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B285" s="42" t="s">
-        <v>483</v>
-      </c>
-      <c r="C285" s="47" t="s">
-        <v>484</v>
+        <v>481</v>
+      </c>
+      <c r="C285" s="42" t="s">
+        <v>482</v>
       </c>
       <c r="D285" s="42" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="E285" s="42"/>
       <c r="F285" s="42"/>
-      <c r="G285" s="47"/>
-    </row>
-    <row r="286" spans="1:7" ht="75">
+      <c r="G285" s="42"/>
+    </row>
+    <row r="286" spans="1:7" ht="105">
       <c r="A286" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B286" s="42" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C286" s="47" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D286" s="42" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E286" s="42"/>
       <c r="F286" s="42"/>
       <c r="G286" s="47"/>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" ht="75">
       <c r="A287" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B287" s="42">
-        <v>10.3</v>
-      </c>
-      <c r="C287" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D287" s="44"/>
-      <c r="E287" s="44"/>
-      <c r="F287" s="44"/>
-      <c r="G287" s="44"/>
+      <c r="B287" s="42" t="s">
+        <v>486</v>
+      </c>
+      <c r="C287" s="47" t="s">
+        <v>487</v>
+      </c>
+      <c r="D287" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="E287" s="42"/>
+      <c r="F287" s="42"/>
+      <c r="G287" s="47"/>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B288" s="42" t="s">
-        <v>489</v>
-      </c>
-      <c r="C288" s="44" t="s">
-        <v>36</v>
+      <c r="B288" s="42">
+        <v>10.3</v>
+      </c>
+      <c r="C288" s="41" t="s">
+        <v>37</v>
       </c>
       <c r="D288" s="44"/>
       <c r="E288" s="44"/>
       <c r="F288" s="44"/>
       <c r="G288" s="44"/>
     </row>
-    <row r="289" spans="1:7" ht="60">
+    <row r="289" spans="1:7">
       <c r="A289" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B289" s="42" t="s">
+        <v>489</v>
+      </c>
+      <c r="C289" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D289" s="44"/>
+      <c r="E289" s="44"/>
+      <c r="F289" s="44"/>
+      <c r="G289" s="44"/>
+    </row>
+    <row r="290" spans="1:7" ht="60">
+      <c r="A290" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B290" s="42" t="s">
         <v>490</v>
       </c>
-      <c r="C289" s="47" t="s">
+      <c r="C290" s="47" t="s">
         <v>456</v>
       </c>
-      <c r="D289" s="42" t="s">
+      <c r="D290" s="42" t="s">
         <v>419</v>
-      </c>
-      <c r="E289" s="42"/>
-      <c r="F289" s="42"/>
-      <c r="G289" s="47" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
-      <c r="A290" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B290" s="42" t="s">
-        <v>491</v>
-      </c>
-      <c r="C290" s="47" t="s">
-        <v>458</v>
-      </c>
-      <c r="D290" s="42" t="s">
-        <v>422</v>
       </c>
       <c r="E290" s="42"/>
       <c r="F290" s="42"/>
-      <c r="G290" s="47"/>
-    </row>
-    <row r="291" spans="1:7" ht="30">
+      <c r="G290" s="47" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B291" s="42" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C291" s="47" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D291" s="42" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E291" s="42"/>
       <c r="F291" s="42"/>
       <c r="G291" s="47"/>
     </row>
-    <row r="292" spans="1:7" ht="45">
+    <row r="292" spans="1:7" ht="30">
       <c r="A292" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B292" s="42" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C292" s="47" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D292" s="42" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E292" s="42"/>
       <c r="F292" s="42"/>
       <c r="G292" s="47"/>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" ht="45">
       <c r="A293" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B293" s="42" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C293" s="47" t="s">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="D293" s="42" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E293" s="42"/>
       <c r="F293" s="42"/>
       <c r="G293" s="47"/>
     </row>
-    <row r="294" spans="1:7" ht="30">
+    <row r="294" spans="1:7">
       <c r="A294" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B294" s="42" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C294" s="47" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D294" s="42" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E294" s="42"/>
       <c r="F294" s="42"/>
@@ -13725,483 +13764,483 @@
         <v>56</v>
       </c>
       <c r="B295" s="42" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C295" s="47" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="D295" s="42" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E295" s="42"/>
       <c r="F295" s="42"/>
       <c r="G295" s="47"/>
     </row>
-    <row r="296" spans="1:7" ht="45">
+    <row r="296" spans="1:7" ht="30">
       <c r="A296" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B296" s="42" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C296" s="47" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D296" s="42" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E296" s="42"/>
       <c r="F296" s="42"/>
       <c r="G296" s="47"/>
     </row>
-    <row r="297" spans="1:7" ht="30">
+    <row r="297" spans="1:7" ht="45">
       <c r="A297" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B297" s="42" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C297" s="47" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D297" s="42" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="E297" s="42"/>
       <c r="F297" s="42"/>
       <c r="G297" s="47"/>
     </row>
-    <row r="298" spans="1:7" ht="45">
+    <row r="298" spans="1:7" ht="30">
       <c r="A298" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B298" s="42" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C298" s="47" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D298" s="42" t="s">
-        <v>1213</v>
+        <v>471</v>
       </c>
       <c r="E298" s="42"/>
       <c r="F298" s="42"/>
       <c r="G298" s="47"/>
     </row>
-    <row r="299" spans="1:7" ht="60">
+    <row r="299" spans="1:7" ht="45">
       <c r="A299" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B299" s="42" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C299" s="47" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D299" s="42" t="s">
-        <v>476</v>
+        <v>1213</v>
       </c>
       <c r="E299" s="42"/>
       <c r="F299" s="42"/>
       <c r="G299" s="47"/>
     </row>
-    <row r="300" spans="1:7" ht="75">
+    <row r="300" spans="1:7" ht="60">
       <c r="A300" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B300" s="42" t="s">
-        <v>501</v>
-      </c>
-      <c r="C300" s="42" t="s">
-        <v>478</v>
+        <v>500</v>
+      </c>
+      <c r="C300" s="47" t="s">
+        <v>475</v>
       </c>
       <c r="D300" s="42" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="E300" s="42"/>
       <c r="F300" s="42"/>
-      <c r="G300" s="42"/>
-    </row>
-    <row r="301" spans="1:7" ht="90">
+      <c r="G300" s="47"/>
+    </row>
+    <row r="301" spans="1:7" ht="75">
       <c r="A301" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B301" s="42" t="s">
-        <v>502</v>
-      </c>
-      <c r="C301" s="47" t="s">
-        <v>480</v>
+        <v>501</v>
+      </c>
+      <c r="C301" s="42" t="s">
+        <v>478</v>
       </c>
       <c r="D301" s="42" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E301" s="42"/>
       <c r="F301" s="42"/>
-      <c r="G301" s="47"/>
-    </row>
-    <row r="302" spans="1:7" ht="105">
+      <c r="G301" s="42"/>
+    </row>
+    <row r="302" spans="1:7" ht="90">
       <c r="A302" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B302" s="42" t="s">
-        <v>503</v>
-      </c>
-      <c r="C302" s="42" t="s">
-        <v>482</v>
+        <v>502</v>
+      </c>
+      <c r="C302" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="D302" s="42" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E302" s="42"/>
       <c r="F302" s="42"/>
-      <c r="G302" s="42"/>
+      <c r="G302" s="47"/>
     </row>
     <row r="303" spans="1:7" ht="105">
       <c r="A303" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B303" s="42" t="s">
-        <v>504</v>
-      </c>
-      <c r="C303" s="47" t="s">
-        <v>484</v>
+        <v>503</v>
+      </c>
+      <c r="C303" s="42" t="s">
+        <v>482</v>
       </c>
       <c r="D303" s="42" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="E303" s="42"/>
       <c r="F303" s="42"/>
-      <c r="G303" s="47"/>
-    </row>
-    <row r="304" spans="1:7" ht="75">
+      <c r="G303" s="42"/>
+    </row>
+    <row r="304" spans="1:7" ht="105">
       <c r="A304" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B304" s="42" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C304" s="47" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D304" s="42" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E304" s="42"/>
       <c r="F304" s="42"/>
       <c r="G304" s="47"/>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" ht="75">
       <c r="A305" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B305" s="42">
-        <v>10.4</v>
-      </c>
-      <c r="C305" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D305" s="44"/>
-      <c r="E305" s="44"/>
-      <c r="F305" s="44"/>
-      <c r="G305" s="44"/>
+      <c r="B305" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="C305" s="47" t="s">
+        <v>487</v>
+      </c>
+      <c r="D305" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="E305" s="42"/>
+      <c r="F305" s="42"/>
+      <c r="G305" s="47"/>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B306" s="42" t="s">
-        <v>506</v>
-      </c>
-      <c r="C306" s="44" t="s">
-        <v>38</v>
+      <c r="B306" s="42">
+        <v>10.4</v>
+      </c>
+      <c r="C306" s="41" t="s">
+        <v>10</v>
       </c>
       <c r="D306" s="44"/>
       <c r="E306" s="44"/>
       <c r="F306" s="44"/>
       <c r="G306" s="44"/>
     </row>
-    <row r="307" spans="1:7" ht="45">
+    <row r="307" spans="1:7">
       <c r="A307" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B307" s="42" t="s">
+        <v>506</v>
+      </c>
+      <c r="C307" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D307" s="44"/>
+      <c r="E307" s="44"/>
+      <c r="F307" s="44"/>
+      <c r="G307" s="44"/>
+    </row>
+    <row r="308" spans="1:7" ht="45">
+      <c r="A308" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B308" s="42" t="s">
         <v>507</v>
       </c>
-      <c r="C307" s="47" t="s">
+      <c r="C308" s="47" t="s">
         <v>508</v>
       </c>
-      <c r="D307" s="42" t="s">
+      <c r="D308" s="42" t="s">
         <v>509</v>
       </c>
-      <c r="E307" s="42"/>
-      <c r="F307" s="42"/>
-      <c r="G307" s="47"/>
-    </row>
-    <row r="308" spans="1:7">
-      <c r="A308" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B308" s="42" t="s">
+      <c r="E308" s="42"/>
+      <c r="F308" s="42"/>
+      <c r="G308" s="47"/>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B309" s="42" t="s">
         <v>510</v>
       </c>
-      <c r="C308" s="44" t="s">
+      <c r="C309" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D308" s="44"/>
-      <c r="E308" s="44"/>
-      <c r="F308" s="44"/>
-      <c r="G308" s="44"/>
-    </row>
-    <row r="309" spans="1:7" ht="45">
-      <c r="A309" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B309" s="42" t="s">
+      <c r="D309" s="44"/>
+      <c r="E309" s="44"/>
+      <c r="F309" s="44"/>
+      <c r="G309" s="44"/>
+    </row>
+    <row r="310" spans="1:7" ht="45">
+      <c r="A310" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B310" s="42" t="s">
         <v>511</v>
       </c>
-      <c r="C309" s="42" t="s">
+      <c r="C310" s="42" t="s">
         <v>512</v>
       </c>
-      <c r="D309" s="42" t="s">
+      <c r="D310" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="E309" s="50"/>
-      <c r="F309" s="50"/>
-      <c r="G309" s="42" t="s">
+      <c r="E310" s="50"/>
+      <c r="F310" s="50"/>
+      <c r="G310" s="42" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="310" spans="1:7">
-      <c r="A310" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B310" s="42" t="s">
-        <v>513</v>
-      </c>
-      <c r="C310" s="47" t="s">
-        <v>514</v>
-      </c>
-      <c r="D310" s="42" t="s">
-        <v>515</v>
-      </c>
-      <c r="E310" s="42"/>
-      <c r="F310" s="42"/>
-      <c r="G310" s="47"/>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B311" s="42" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C311" s="47" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D311" s="42" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E311" s="42"/>
       <c r="F311" s="42"/>
       <c r="G311" s="47"/>
     </row>
-    <row r="312" spans="1:7" ht="45">
+    <row r="312" spans="1:7">
       <c r="A312" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B312" s="42" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C312" s="47" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D312" s="42" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E312" s="42"/>
       <c r="F312" s="42"/>
       <c r="G312" s="47"/>
     </row>
-    <row r="313" spans="1:7" ht="30">
+    <row r="313" spans="1:7" ht="45">
       <c r="A313" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B313" s="42" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C313" s="47" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D313" s="42" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E313" s="42"/>
       <c r="F313" s="42"/>
       <c r="G313" s="47"/>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" ht="30">
       <c r="A314" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B314" s="42" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C314" s="47" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D314" s="42" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="E314" s="42"/>
       <c r="F314" s="42"/>
       <c r="G314" s="47"/>
     </row>
-    <row r="315" spans="1:7" ht="105">
+    <row r="315" spans="1:7">
       <c r="A315" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B315" s="42" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C315" s="47" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D315" s="42" t="s">
-        <v>529</v>
+        <v>471</v>
       </c>
       <c r="E315" s="42"/>
       <c r="F315" s="42"/>
       <c r="G315" s="47"/>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" ht="105">
       <c r="A316" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B316" s="42">
-        <v>10.5</v>
-      </c>
-      <c r="C316" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="D316" s="44"/>
-      <c r="E316" s="44"/>
-      <c r="F316" s="44"/>
-      <c r="G316" s="52"/>
+      <c r="B316" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="C316" s="47" t="s">
+        <v>528</v>
+      </c>
+      <c r="D316" s="42" t="s">
+        <v>529</v>
+      </c>
+      <c r="E316" s="42"/>
+      <c r="F316" s="42"/>
+      <c r="G316" s="47"/>
     </row>
     <row r="317" spans="1:7">
       <c r="A317" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B317" s="42" t="s">
-        <v>530</v>
-      </c>
-      <c r="C317" s="52" t="s">
-        <v>36</v>
+      <c r="B317" s="42">
+        <v>10.5</v>
+      </c>
+      <c r="C317" s="51" t="s">
+        <v>39</v>
       </c>
       <c r="D317" s="44"/>
       <c r="E317" s="44"/>
       <c r="F317" s="44"/>
       <c r="G317" s="52"/>
     </row>
-    <row r="318" spans="1:7" ht="60">
+    <row r="318" spans="1:7">
       <c r="A318" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B318" s="42" t="s">
+        <v>530</v>
+      </c>
+      <c r="C318" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D318" s="44"/>
+      <c r="E318" s="44"/>
+      <c r="F318" s="44"/>
+      <c r="G318" s="52"/>
+    </row>
+    <row r="319" spans="1:7" ht="60">
+      <c r="A319" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B319" s="42" t="s">
         <v>531</v>
       </c>
-      <c r="C318" s="42" t="s">
+      <c r="C319" s="42" t="s">
         <v>456</v>
       </c>
-      <c r="D318" s="42" t="s">
+      <c r="D319" s="42" t="s">
         <v>419</v>
-      </c>
-      <c r="E318" s="42"/>
-      <c r="F318" s="42"/>
-      <c r="G318" s="42" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7">
-      <c r="A319" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B319" s="42" t="s">
-        <v>532</v>
-      </c>
-      <c r="C319" s="42" t="s">
-        <v>458</v>
-      </c>
-      <c r="D319" s="42" t="s">
-        <v>422</v>
       </c>
       <c r="E319" s="42"/>
       <c r="F319" s="42"/>
-      <c r="G319" s="42"/>
-    </row>
-    <row r="320" spans="1:7" ht="30">
+      <c r="G319" s="42" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
       <c r="A320" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B320" s="42" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C320" s="42" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D320" s="42" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="E320" s="42"/>
       <c r="F320" s="42"/>
       <c r="G320" s="42"/>
     </row>
-    <row r="321" spans="1:7" ht="45">
+    <row r="321" spans="1:7" ht="30">
       <c r="A321" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B321" s="42" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C321" s="42" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D321" s="42" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="E321" s="42"/>
       <c r="F321" s="42"/>
       <c r="G321" s="42"/>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" ht="45">
       <c r="A322" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B322" s="42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C322" s="42" t="s">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="D322" s="42" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E322" s="42"/>
       <c r="F322" s="42"/>
       <c r="G322" s="42"/>
     </row>
-    <row r="323" spans="1:7" ht="30">
+    <row r="323" spans="1:7">
       <c r="A323" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B323" s="42" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C323" s="42" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D323" s="42" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E323" s="42"/>
       <c r="F323" s="42"/>
@@ -14212,132 +14251,132 @@
         <v>56</v>
       </c>
       <c r="B324" s="42" t="s">
-        <v>1215</v>
+        <v>536</v>
       </c>
       <c r="C324" s="42" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="D324" s="42" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E324" s="42"/>
       <c r="F324" s="42"/>
       <c r="G324" s="42"/>
     </row>
-    <row r="325" spans="1:7" ht="45">
+    <row r="325" spans="1:7" ht="30">
       <c r="A325" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B325" s="42" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C325" s="42" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D325" s="42" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E325" s="42"/>
       <c r="F325" s="42"/>
       <c r="G325" s="42"/>
     </row>
-    <row r="326" spans="1:7" ht="30">
+    <row r="326" spans="1:7" ht="45">
       <c r="A326" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B326" s="42" t="s">
-        <v>541</v>
+        <v>1216</v>
       </c>
       <c r="C326" s="42" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D326" s="42" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="E326" s="42"/>
       <c r="F326" s="42"/>
       <c r="G326" s="42"/>
     </row>
-    <row r="327" spans="1:7" ht="45">
+    <row r="327" spans="1:7" ht="30">
       <c r="A327" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B327" s="42" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C327" s="42" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D327" s="42" t="s">
-        <v>1213</v>
+        <v>471</v>
       </c>
       <c r="E327" s="42"/>
       <c r="F327" s="42"/>
       <c r="G327" s="42"/>
     </row>
-    <row r="328" spans="1:7" ht="60">
+    <row r="328" spans="1:7" ht="45">
       <c r="A328" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B328" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C328" s="42" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D328" s="42" t="s">
-        <v>476</v>
+        <v>1213</v>
       </c>
       <c r="E328" s="42"/>
       <c r="F328" s="42"/>
       <c r="G328" s="42"/>
     </row>
-    <row r="329" spans="1:7" ht="75">
+    <row r="329" spans="1:7" ht="60">
       <c r="A329" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B329" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C329" s="42" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D329" s="42" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="E329" s="42"/>
       <c r="F329" s="42"/>
       <c r="G329" s="42"/>
     </row>
-    <row r="330" spans="1:7" ht="90">
+    <row r="330" spans="1:7" ht="75">
       <c r="A330" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B330" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C330" s="42" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D330" s="42" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E330" s="42"/>
       <c r="F330" s="42"/>
       <c r="G330" s="42"/>
     </row>
-    <row r="331" spans="1:7" ht="105">
+    <row r="331" spans="1:7" ht="90">
       <c r="A331" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B331" s="42" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C331" s="42" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D331" s="42" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E331" s="42"/>
       <c r="F331" s="42"/>
@@ -14348,303 +14387,301 @@
         <v>56</v>
       </c>
       <c r="B332" s="42" t="s">
-        <v>1217</v>
+        <v>546</v>
       </c>
       <c r="C332" s="42" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D332" s="42" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="E332" s="42"/>
       <c r="F332" s="42"/>
       <c r="G332" s="42"/>
     </row>
-    <row r="333" spans="1:7" ht="75">
+    <row r="333" spans="1:7" ht="105">
       <c r="A333" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B333" s="42" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C333" s="42" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D333" s="42" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E333" s="42"/>
       <c r="F333" s="42"/>
       <c r="G333" s="42"/>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" ht="75">
       <c r="A334" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B334" s="39" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C334" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D334" s="44"/>
-      <c r="E334" s="44"/>
-      <c r="F334" s="44"/>
-      <c r="G334" s="53"/>
+      <c r="B334" s="42" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C334" s="42" t="s">
+        <v>487</v>
+      </c>
+      <c r="D334" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="E334" s="42"/>
+      <c r="F334" s="42"/>
+      <c r="G334" s="42"/>
     </row>
     <row r="335" spans="1:7">
       <c r="A335" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B335" s="42">
-        <v>11.1</v>
-      </c>
-      <c r="C335" s="51" t="s">
-        <v>41</v>
+      <c r="B335" s="39" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C335" s="53" t="s">
+        <v>40</v>
       </c>
       <c r="D335" s="44"/>
       <c r="E335" s="44"/>
       <c r="F335" s="44"/>
-      <c r="G335" s="52"/>
+      <c r="G335" s="53"/>
     </row>
     <row r="336" spans="1:7">
       <c r="A336" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B336" s="42" t="s">
-        <v>547</v>
-      </c>
-      <c r="C336" s="52" t="s">
-        <v>42</v>
+      <c r="B336" s="42">
+        <v>11.1</v>
+      </c>
+      <c r="C336" s="51" t="s">
+        <v>41</v>
       </c>
       <c r="D336" s="44"/>
       <c r="E336" s="44"/>
       <c r="F336" s="44"/>
       <c r="G336" s="52"/>
     </row>
-    <row r="337" spans="1:7" ht="120">
+    <row r="337" spans="1:7">
       <c r="A337" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B337" s="42" t="s">
+        <v>547</v>
+      </c>
+      <c r="C337" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D337" s="44"/>
+      <c r="E337" s="44"/>
+      <c r="F337" s="44"/>
+      <c r="G337" s="52"/>
+    </row>
+    <row r="338" spans="1:7" ht="120">
+      <c r="A338" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B338" s="42" t="s">
         <v>548</v>
       </c>
-      <c r="C337" s="47" t="s">
+      <c r="C338" s="47" t="s">
         <v>549</v>
       </c>
-      <c r="D337" s="42">
+      <c r="D338" s="42">
         <v>78.3</v>
       </c>
-      <c r="E337" s="42" t="s">
+      <c r="E338" s="42" t="s">
         <v>1209</v>
-      </c>
-      <c r="F337" s="42" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G337" s="47" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" ht="60">
-      <c r="A338" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B338" s="42" t="s">
-        <v>550</v>
-      </c>
-      <c r="C338" s="47" t="s">
-        <v>551</v>
-      </c>
-      <c r="D338" s="42">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E338" s="42" t="s">
-        <v>1220</v>
       </c>
       <c r="F338" s="42" t="s">
         <v>1160</v>
       </c>
-      <c r="G338" s="47"/>
-    </row>
-    <row r="339" spans="1:7" ht="30">
+      <c r="G338" s="47" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" ht="60">
       <c r="A339" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B339" s="42" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C339" s="47" t="s">
-        <v>1221</v>
+        <v>551</v>
       </c>
       <c r="D339" s="42">
         <v>78.099999999999994</v>
       </c>
-      <c r="E339" s="42"/>
+      <c r="E339" s="42" t="s">
+        <v>1220</v>
+      </c>
       <c r="F339" s="42" t="s">
         <v>1160</v>
       </c>
       <c r="G339" s="47"/>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" ht="30">
       <c r="A340" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B340" s="42" t="s">
-        <v>554</v>
-      </c>
-      <c r="C340" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D340" s="44"/>
-      <c r="E340" s="44"/>
-      <c r="F340" s="44"/>
-      <c r="G340" s="44"/>
+        <v>552</v>
+      </c>
+      <c r="C340" s="47" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D340" s="42">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E340" s="42"/>
+      <c r="F340" s="42" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G340" s="47"/>
     </row>
     <row r="341" spans="1:7">
       <c r="A341" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B341" s="42" t="s">
-        <v>555</v>
-      </c>
-      <c r="C341" s="47" t="s">
-        <v>556</v>
-      </c>
-      <c r="D341" s="42" t="s">
-        <v>557</v>
-      </c>
-      <c r="E341" s="42"/>
-      <c r="F341" s="42" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G341" s="47" t="s">
-        <v>1107</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="C341" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D341" s="44"/>
+      <c r="E341" s="44"/>
+      <c r="F341" s="44"/>
+      <c r="G341" s="44"/>
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B342" s="42" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C342" s="47" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D342" s="42" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E342" s="42"/>
       <c r="F342" s="42" t="s">
         <v>1160</v>
       </c>
-      <c r="G342" s="47"/>
+      <c r="G342" s="47" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B343" s="42" t="s">
-        <v>561</v>
-      </c>
-      <c r="C343" s="42" t="s">
-        <v>562</v>
+        <v>558</v>
+      </c>
+      <c r="C343" s="47" t="s">
+        <v>559</v>
       </c>
       <c r="D343" s="42" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E343" s="42"/>
       <c r="F343" s="42" t="s">
         <v>1160</v>
       </c>
-      <c r="G343" s="42"/>
-    </row>
-    <row r="344" spans="1:7" ht="45">
+      <c r="G343" s="47"/>
+    </row>
+    <row r="344" spans="1:7">
       <c r="A344" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B344" s="42" t="s">
-        <v>564</v>
-      </c>
-      <c r="C344" s="47" t="s">
-        <v>565</v>
+        <v>561</v>
+      </c>
+      <c r="C344" s="42" t="s">
+        <v>562</v>
       </c>
       <c r="D344" s="42" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E344" s="42"/>
       <c r="F344" s="42" t="s">
         <v>1160</v>
       </c>
-      <c r="G344" s="47"/>
-    </row>
-    <row r="345" spans="1:7">
+      <c r="G344" s="42"/>
+    </row>
+    <row r="345" spans="1:7" ht="45">
       <c r="A345" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B345" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="C345" s="47" t="s">
+        <v>565</v>
+      </c>
+      <c r="D345" s="42" t="s">
+        <v>566</v>
+      </c>
+      <c r="E345" s="42"/>
+      <c r="F345" s="42" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G345" s="47"/>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B346" s="42" t="s">
         <v>567</v>
       </c>
-      <c r="C345" s="44" t="s">
+      <c r="C346" s="44" t="s">
         <v>568</v>
       </c>
-      <c r="D345" s="44"/>
-      <c r="E345" s="44"/>
-      <c r="F345" s="44"/>
-      <c r="G345" s="44"/>
-    </row>
-    <row r="346" spans="1:7" ht="30">
-      <c r="A346" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B346" s="42" t="s">
-        <v>569</v>
-      </c>
-      <c r="C346" s="47" t="s">
-        <v>570</v>
-      </c>
-      <c r="D346" s="42" t="s">
-        <v>571</v>
-      </c>
-      <c r="E346" s="42"/>
-      <c r="F346" s="42" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G346" s="47" t="s">
-        <v>1108</v>
-      </c>
+      <c r="D346" s="44"/>
+      <c r="E346" s="44"/>
+      <c r="F346" s="44"/>
+      <c r="G346" s="44"/>
     </row>
     <row r="347" spans="1:7" ht="30">
       <c r="A347" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B347" s="42" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C347" s="47" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D347" s="42" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E347" s="42"/>
       <c r="F347" s="42" t="s">
         <v>1160</v>
       </c>
-      <c r="G347" s="47"/>
-    </row>
-    <row r="348" spans="1:7">
+      <c r="G347" s="47" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" ht="30">
       <c r="A348" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B348" s="42" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C348" s="47" t="s">
-        <v>1068</v>
+        <v>573</v>
       </c>
       <c r="D348" s="42" t="s">
-        <v>1067</v>
+        <v>574</v>
       </c>
       <c r="E348" s="42"/>
       <c r="F348" s="42" t="s">
@@ -14657,13 +14694,13 @@
         <v>56</v>
       </c>
       <c r="B349" s="42" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C349" s="47" t="s">
-        <v>579</v>
+        <v>1068</v>
       </c>
       <c r="D349" s="42" t="s">
-        <v>580</v>
+        <v>1067</v>
       </c>
       <c r="E349" s="42"/>
       <c r="F349" s="42" t="s">
@@ -14671,18 +14708,18 @@
       </c>
       <c r="G349" s="47"/>
     </row>
-    <row r="350" spans="1:7" ht="45">
+    <row r="350" spans="1:7">
       <c r="A350" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B350" s="42" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C350" s="47" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D350" s="42" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E350" s="42"/>
       <c r="F350" s="42" t="s">
@@ -14690,51 +14727,49 @@
       </c>
       <c r="G350" s="47"/>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" ht="45">
       <c r="A351" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B351" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="C351" s="47" t="s">
+        <v>582</v>
+      </c>
+      <c r="D351" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="E351" s="42"/>
+      <c r="F351" s="42" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G351" s="47"/>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B352" s="42" t="s">
         <v>584</v>
       </c>
-      <c r="C351" s="44" t="s">
+      <c r="C352" s="44" t="s">
         <v>585</v>
       </c>
-      <c r="D351" s="44"/>
-      <c r="E351" s="44"/>
-      <c r="F351" s="44"/>
-      <c r="G351" s="44"/>
-    </row>
-    <row r="352" spans="1:7" ht="90">
-      <c r="A352" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B352" s="42" t="s">
+      <c r="D352" s="44"/>
+      <c r="E352" s="44"/>
+      <c r="F352" s="44"/>
+      <c r="G352" s="44"/>
+    </row>
+    <row r="353" spans="1:7" ht="90">
+      <c r="A353" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B353" s="42" t="s">
         <v>587</v>
       </c>
-      <c r="C352" s="47" t="s">
+      <c r="C353" s="47" t="s">
         <v>588</v>
-      </c>
-      <c r="D352" s="42" t="s">
-        <v>586</v>
-      </c>
-      <c r="E352" s="42"/>
-      <c r="F352" s="42" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G352" s="47" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" ht="60">
-      <c r="A353" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B353" s="42" t="s">
-        <v>589</v>
-      </c>
-      <c r="C353" s="47" t="s">
-        <v>590</v>
       </c>
       <c r="D353" s="42" t="s">
         <v>586</v>
@@ -14743,58 +14778,60 @@
       <c r="F353" s="42" t="s">
         <v>1160</v>
       </c>
-      <c r="G353" s="47"/>
-    </row>
-    <row r="354" spans="1:7" ht="30">
+      <c r="G353" s="47" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" ht="60">
       <c r="A354" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B354" s="42" t="s">
-        <v>591</v>
-      </c>
-      <c r="C354" s="42" t="s">
-        <v>592</v>
+        <v>589</v>
+      </c>
+      <c r="C354" s="47" t="s">
+        <v>590</v>
       </c>
       <c r="D354" s="42" t="s">
-        <v>1201</v>
+        <v>586</v>
       </c>
       <c r="E354" s="42"/>
       <c r="F354" s="42" t="s">
         <v>1160</v>
       </c>
-      <c r="G354" s="42"/>
-    </row>
-    <row r="355" spans="1:7" ht="45">
+      <c r="G354" s="47"/>
+    </row>
+    <row r="355" spans="1:7" ht="30">
       <c r="A355" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B355" s="42" t="s">
-        <v>593</v>
-      </c>
-      <c r="C355" s="47" t="s">
-        <v>594</v>
+        <v>591</v>
+      </c>
+      <c r="C355" s="42" t="s">
+        <v>592</v>
       </c>
       <c r="D355" s="42" t="s">
-        <v>595</v>
+        <v>1201</v>
       </c>
       <c r="E355" s="42"/>
       <c r="F355" s="42" t="s">
         <v>1160</v>
       </c>
-      <c r="G355" s="47"/>
-    </row>
-    <row r="356" spans="1:7" ht="30">
+      <c r="G355" s="42"/>
+    </row>
+    <row r="356" spans="1:7" ht="45">
       <c r="A356" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B356" s="42" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C356" s="47" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D356" s="42" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E356" s="42"/>
       <c r="F356" s="42" t="s">
@@ -14802,147 +14839,147 @@
       </c>
       <c r="G356" s="47"/>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" ht="30">
       <c r="A357" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B357" s="42" t="s">
-        <v>599</v>
-      </c>
-      <c r="C357" s="44" t="s">
-        <v>600</v>
-      </c>
-      <c r="D357" s="44"/>
-      <c r="E357" s="44"/>
-      <c r="F357" s="44"/>
-      <c r="G357" s="44"/>
+        <v>596</v>
+      </c>
+      <c r="C357" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="D357" s="42" t="s">
+        <v>598</v>
+      </c>
+      <c r="E357" s="42"/>
+      <c r="F357" s="42" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G357" s="47"/>
     </row>
     <row r="358" spans="1:7">
       <c r="A358" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B358" s="42" t="s">
-        <v>601</v>
-      </c>
-      <c r="C358" s="47" t="s">
-        <v>602</v>
-      </c>
-      <c r="D358" s="42" t="s">
-        <v>577</v>
-      </c>
-      <c r="E358" s="42"/>
-      <c r="F358" s="42" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G358" s="42" t="s">
-        <v>1109</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="C358" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="D358" s="44"/>
+      <c r="E358" s="44"/>
+      <c r="F358" s="44"/>
+      <c r="G358" s="44"/>
     </row>
     <row r="359" spans="1:7">
       <c r="A359" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B359" s="42" t="s">
-        <v>603</v>
-      </c>
-      <c r="C359" s="42" t="s">
-        <v>604</v>
+        <v>601</v>
+      </c>
+      <c r="C359" s="47" t="s">
+        <v>602</v>
       </c>
       <c r="D359" s="42" t="s">
-        <v>1064</v>
+        <v>577</v>
       </c>
       <c r="E359" s="42"/>
       <c r="F359" s="42" t="s">
         <v>1160</v>
       </c>
-      <c r="G359" s="42"/>
+      <c r="G359" s="42" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="360" spans="1:7">
       <c r="A360" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B360" s="42" t="s">
+        <v>603</v>
+      </c>
+      <c r="C360" s="42" t="s">
+        <v>604</v>
+      </c>
+      <c r="D360" s="42" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E360" s="42"/>
+      <c r="F360" s="42" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G360" s="42"/>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B361" s="42" t="s">
         <v>605</v>
       </c>
-      <c r="C360" s="44" t="s">
+      <c r="C361" s="44" t="s">
         <v>606</v>
       </c>
-      <c r="D360" s="44"/>
-      <c r="E360" s="44"/>
-      <c r="F360" s="44"/>
-      <c r="G360" s="44"/>
-    </row>
-    <row r="361" spans="1:7" ht="30">
-      <c r="A361" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B361" s="42" t="s">
-        <v>607</v>
-      </c>
-      <c r="C361" s="47" t="s">
-        <v>570</v>
-      </c>
-      <c r="D361" s="42" t="s">
-        <v>571</v>
-      </c>
-      <c r="E361" s="42"/>
-      <c r="F361" s="42" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G361" s="47" t="s">
-        <v>1110</v>
-      </c>
+      <c r="D361" s="44"/>
+      <c r="E361" s="44"/>
+      <c r="F361" s="44"/>
+      <c r="G361" s="44"/>
     </row>
     <row r="362" spans="1:7" ht="30">
       <c r="A362" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B362" s="42" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C362" s="47" t="s">
-        <v>609</v>
+        <v>570</v>
       </c>
       <c r="D362" s="42" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E362" s="50"/>
+        <v>571</v>
+      </c>
+      <c r="E362" s="42"/>
       <c r="F362" s="42" t="s">
         <v>1160</v>
       </c>
-      <c r="G362" s="47"/>
+      <c r="G362" s="47" t="s">
+        <v>1110</v>
+      </c>
     </row>
     <row r="363" spans="1:7" ht="30">
       <c r="A363" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B363" s="42" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C363" s="47" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D363" s="42" t="s">
-        <v>577</v>
-      </c>
-      <c r="E363" s="42"/>
+        <v>1069</v>
+      </c>
+      <c r="E363" s="50"/>
       <c r="F363" s="42" t="s">
         <v>1160</v>
       </c>
       <c r="G363" s="47"/>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" ht="30">
       <c r="A364" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B364" s="42" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C364" s="47" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D364" s="42" t="s">
-        <v>1067</v>
+        <v>577</v>
       </c>
       <c r="E364" s="42"/>
       <c r="F364" s="42" t="s">
@@ -14950,204 +14987,204 @@
       </c>
       <c r="G364" s="47"/>
     </row>
-    <row r="365" spans="1:7" ht="30">
+    <row r="365" spans="1:7">
       <c r="A365" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B365" s="42" t="s">
-        <v>614</v>
-      </c>
-      <c r="C365" s="42" t="s">
-        <v>615</v>
+        <v>612</v>
+      </c>
+      <c r="C365" s="47" t="s">
+        <v>613</v>
       </c>
       <c r="D365" s="42" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E365" s="42" t="s">
-        <v>616</v>
-      </c>
+        <v>1067</v>
+      </c>
+      <c r="E365" s="42"/>
       <c r="F365" s="42" t="s">
         <v>1160</v>
       </c>
-      <c r="G365" s="42"/>
-    </row>
-    <row r="366" spans="1:7">
+      <c r="G365" s="47"/>
+    </row>
+    <row r="366" spans="1:7" ht="30">
       <c r="A366" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B366" s="42">
-        <v>11.2</v>
-      </c>
-      <c r="C366" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D366" s="44"/>
-      <c r="E366" s="44"/>
-      <c r="F366" s="44"/>
-      <c r="G366" s="44"/>
+      <c r="B366" s="42" t="s">
+        <v>614</v>
+      </c>
+      <c r="C366" s="42" t="s">
+        <v>615</v>
+      </c>
+      <c r="D366" s="42" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E366" s="42" t="s">
+        <v>616</v>
+      </c>
+      <c r="F366" s="42" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G366" s="42"/>
     </row>
     <row r="367" spans="1:7">
       <c r="A367" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B367" s="42" t="s">
-        <v>617</v>
-      </c>
-      <c r="C367" s="44" t="s">
-        <v>42</v>
+      <c r="B367" s="42">
+        <v>11.2</v>
+      </c>
+      <c r="C367" s="41" t="s">
+        <v>44</v>
       </c>
       <c r="D367" s="44"/>
       <c r="E367" s="44"/>
       <c r="F367" s="44"/>
       <c r="G367" s="44"/>
     </row>
-    <row r="368" spans="1:7" ht="120">
+    <row r="368" spans="1:7">
       <c r="A368" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B368" s="42" t="s">
+        <v>617</v>
+      </c>
+      <c r="C368" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D368" s="44"/>
+      <c r="E368" s="44"/>
+      <c r="F368" s="44"/>
+      <c r="G368" s="44"/>
+    </row>
+    <row r="369" spans="1:7" ht="120">
+      <c r="A369" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B369" s="42" t="s">
         <v>618</v>
       </c>
-      <c r="C368" s="47" t="s">
+      <c r="C369" s="47" t="s">
         <v>549</v>
       </c>
-      <c r="D368" s="42" t="s">
+      <c r="D369" s="42" t="s">
         <v>1002</v>
       </c>
-      <c r="E368" s="42" t="s">
+      <c r="E369" s="42" t="s">
         <v>1209</v>
-      </c>
-      <c r="F368" s="42" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G368" s="47" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" ht="75">
-      <c r="A369" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B369" s="42" t="s">
-        <v>619</v>
-      </c>
-      <c r="C369" s="47" t="s">
-        <v>620</v>
-      </c>
-      <c r="D369" s="42" t="s">
-        <v>999</v>
-      </c>
-      <c r="E369" s="42" t="s">
-        <v>1223</v>
       </c>
       <c r="F369" s="42" t="s">
         <v>1178</v>
       </c>
-      <c r="G369" s="47"/>
-    </row>
-    <row r="370" spans="1:7" ht="30">
+      <c r="G369" s="47" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" ht="75">
       <c r="A370" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B370" s="42" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C370" s="47" t="s">
-        <v>553</v>
-      </c>
-      <c r="D370" s="42">
-        <v>78.099999999999994</v>
+        <v>620</v>
+      </c>
+      <c r="D370" s="42" t="s">
+        <v>999</v>
       </c>
       <c r="E370" s="42" t="s">
-        <v>1209</v>
+        <v>1223</v>
       </c>
       <c r="F370" s="42" t="s">
         <v>1178</v>
       </c>
       <c r="G370" s="47"/>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" ht="30">
       <c r="A371" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B371" s="42" t="s">
-        <v>622</v>
-      </c>
-      <c r="C371" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D371" s="44"/>
-      <c r="E371" s="44"/>
-      <c r="F371" s="44"/>
-      <c r="G371" s="44"/>
+        <v>621</v>
+      </c>
+      <c r="C371" s="47" t="s">
+        <v>553</v>
+      </c>
+      <c r="D371" s="42">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E371" s="42" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F371" s="42" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G371" s="47"/>
     </row>
     <row r="372" spans="1:7">
       <c r="A372" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B372" s="42" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C372" s="44" t="s">
-        <v>624</v>
+        <v>43</v>
       </c>
       <c r="D372" s="44"/>
       <c r="E372" s="44"/>
       <c r="F372" s="44"/>
       <c r="G372" s="44"/>
     </row>
-    <row r="373" spans="1:7" ht="30">
+    <row r="373" spans="1:7">
       <c r="A373" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B373" s="42" t="s">
-        <v>625</v>
-      </c>
-      <c r="C373" s="42" t="s">
-        <v>626</v>
-      </c>
-      <c r="D373" s="42" t="s">
-        <v>627</v>
-      </c>
-      <c r="E373" s="42"/>
-      <c r="F373" s="42" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G373" s="47" t="s">
-        <v>1111</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="C373" s="44" t="s">
+        <v>624</v>
+      </c>
+      <c r="D373" s="44"/>
+      <c r="E373" s="44"/>
+      <c r="F373" s="44"/>
+      <c r="G373" s="44"/>
     </row>
     <row r="374" spans="1:7" ht="30">
       <c r="A374" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B374" s="42" t="s">
-        <v>628</v>
-      </c>
-      <c r="C374" s="47" t="s">
-        <v>629</v>
+        <v>625</v>
+      </c>
+      <c r="C374" s="42" t="s">
+        <v>626</v>
       </c>
       <c r="D374" s="42" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E374" s="42"/>
       <c r="F374" s="42" t="s">
         <v>1178</v>
       </c>
-      <c r="G374" s="47"/>
-    </row>
-    <row r="375" spans="1:7" ht="45">
+      <c r="G374" s="47" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" ht="30">
       <c r="A375" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B375" s="42" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C375" s="47" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D375" s="42" t="s">
-        <v>583</v>
+        <v>630</v>
       </c>
       <c r="E375" s="42"/>
       <c r="F375" s="42" t="s">
@@ -15160,13 +15197,13 @@
         <v>56</v>
       </c>
       <c r="B376" s="42" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C376" s="47" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D376" s="42" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="E376" s="42"/>
       <c r="F376" s="42" t="s">
@@ -15174,18 +15211,18 @@
       </c>
       <c r="G376" s="47"/>
     </row>
-    <row r="377" spans="1:7" ht="30">
+    <row r="377" spans="1:7" ht="45">
       <c r="A377" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B377" s="42" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C377" s="47" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D377" s="42" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E377" s="42"/>
       <c r="F377" s="42" t="s">
@@ -15193,18 +15230,18 @@
       </c>
       <c r="G377" s="47"/>
     </row>
-    <row r="378" spans="1:7" ht="45">
+    <row r="378" spans="1:7" ht="30">
       <c r="A378" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B378" s="42" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C378" s="47" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D378" s="42" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
       <c r="E378" s="42"/>
       <c r="F378" s="42" t="s">
@@ -15212,354 +15249,354 @@
       </c>
       <c r="G378" s="47"/>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" ht="45">
       <c r="A379" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B379" s="42" t="s">
-        <v>639</v>
-      </c>
-      <c r="C379" s="44" t="s">
-        <v>600</v>
-      </c>
-      <c r="D379" s="44"/>
-      <c r="E379" s="44"/>
-      <c r="F379" s="44"/>
-      <c r="G379" s="44"/>
+        <v>637</v>
+      </c>
+      <c r="C379" s="47" t="s">
+        <v>638</v>
+      </c>
+      <c r="D379" s="42" t="s">
+        <v>566</v>
+      </c>
+      <c r="E379" s="42"/>
+      <c r="F379" s="42" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G379" s="47"/>
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B380" s="42" t="s">
-        <v>640</v>
-      </c>
-      <c r="C380" s="47" t="s">
-        <v>602</v>
-      </c>
-      <c r="D380" s="42" t="s">
-        <v>577</v>
-      </c>
-      <c r="E380" s="42"/>
-      <c r="F380" s="42" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G380" s="47" t="s">
-        <v>1109</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="C380" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="D380" s="44"/>
+      <c r="E380" s="44"/>
+      <c r="F380" s="44"/>
+      <c r="G380" s="44"/>
     </row>
     <row r="381" spans="1:7">
       <c r="A381" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B381" s="42" t="s">
-        <v>641</v>
-      </c>
-      <c r="C381" s="42" t="s">
-        <v>604</v>
+        <v>640</v>
+      </c>
+      <c r="C381" s="47" t="s">
+        <v>602</v>
       </c>
       <c r="D381" s="42" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E381" s="42" t="s">
-        <v>1224</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="E381" s="42"/>
       <c r="F381" s="42" t="s">
         <v>1178</v>
       </c>
-      <c r="G381" s="42"/>
+      <c r="G381" s="47" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B382" s="42" t="s">
+        <v>641</v>
+      </c>
+      <c r="C382" s="42" t="s">
+        <v>604</v>
+      </c>
+      <c r="D382" s="42" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E382" s="42" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F382" s="42" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G382" s="42"/>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="A383" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B383" s="42" t="s">
         <v>642</v>
       </c>
-      <c r="C382" s="44" t="s">
+      <c r="C383" s="44" t="s">
         <v>606</v>
       </c>
-      <c r="D382" s="44"/>
-      <c r="E382" s="44"/>
-      <c r="F382" s="44"/>
-      <c r="G382" s="44"/>
-    </row>
-    <row r="383" spans="1:7" ht="30">
-      <c r="A383" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B383" s="42" t="s">
-        <v>643</v>
-      </c>
-      <c r="C383" s="47" t="s">
-        <v>570</v>
-      </c>
-      <c r="D383" s="42" t="s">
-        <v>571</v>
-      </c>
-      <c r="E383" s="42"/>
-      <c r="F383" s="42" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G383" s="47" t="s">
-        <v>1110</v>
-      </c>
+      <c r="D383" s="44"/>
+      <c r="E383" s="44"/>
+      <c r="F383" s="44"/>
+      <c r="G383" s="44"/>
     </row>
     <row r="384" spans="1:7" ht="30">
       <c r="A384" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B384" s="42" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C384" s="47" t="s">
-        <v>645</v>
+        <v>570</v>
       </c>
       <c r="D384" s="42" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E384" s="50"/>
+        <v>571</v>
+      </c>
+      <c r="E384" s="42"/>
       <c r="F384" s="42" t="s">
         <v>1178</v>
       </c>
-      <c r="G384" s="47"/>
+      <c r="G384" s="47" t="s">
+        <v>1110</v>
+      </c>
     </row>
     <row r="385" spans="1:7" ht="30">
       <c r="A385" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B385" s="42" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C385" s="47" t="s">
-        <v>611</v>
+        <v>645</v>
       </c>
       <c r="D385" s="42" t="s">
-        <v>577</v>
-      </c>
-      <c r="E385" s="42"/>
+        <v>1069</v>
+      </c>
+      <c r="E385" s="50"/>
       <c r="F385" s="42" t="s">
         <v>1178</v>
       </c>
       <c r="G385" s="47"/>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" ht="30">
       <c r="A386" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B386" s="42" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C386" s="47" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D386" s="42" t="s">
-        <v>1067</v>
+        <v>577</v>
       </c>
       <c r="E386" s="42"/>
       <c r="F386" s="42" t="s">
         <v>1178</v>
       </c>
-      <c r="G386" s="42"/>
-    </row>
-    <row r="387" spans="1:7" ht="30">
+      <c r="G386" s="47"/>
+    </row>
+    <row r="387" spans="1:7">
       <c r="A387" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B387" s="42" t="s">
-        <v>648</v>
-      </c>
-      <c r="C387" s="42" t="s">
-        <v>615</v>
+        <v>647</v>
+      </c>
+      <c r="C387" s="47" t="s">
+        <v>613</v>
       </c>
       <c r="D387" s="42" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E387" s="42" t="s">
-        <v>616</v>
-      </c>
+        <v>1067</v>
+      </c>
+      <c r="E387" s="42"/>
       <c r="F387" s="42" t="s">
         <v>1178</v>
       </c>
       <c r="G387" s="42"/>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" ht="30">
       <c r="A388" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B388" s="42">
-        <v>11.3</v>
-      </c>
-      <c r="C388" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D388" s="44"/>
-      <c r="E388" s="44"/>
-      <c r="F388" s="44"/>
-      <c r="G388" s="44"/>
+      <c r="B388" s="42" t="s">
+        <v>648</v>
+      </c>
+      <c r="C388" s="42" t="s">
+        <v>615</v>
+      </c>
+      <c r="D388" s="42" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E388" s="42" t="s">
+        <v>616</v>
+      </c>
+      <c r="F388" s="42" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G388" s="42"/>
     </row>
     <row r="389" spans="1:7">
       <c r="A389" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B389" s="42" t="s">
-        <v>649</v>
-      </c>
-      <c r="C389" s="44" t="s">
-        <v>42</v>
+      <c r="B389" s="42">
+        <v>11.3</v>
+      </c>
+      <c r="C389" s="41" t="s">
+        <v>45</v>
       </c>
       <c r="D389" s="44"/>
       <c r="E389" s="44"/>
       <c r="F389" s="44"/>
       <c r="G389" s="44"/>
     </row>
-    <row r="390" spans="1:7" ht="105">
+    <row r="390" spans="1:7">
       <c r="A390" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B390" s="42" t="s">
+        <v>649</v>
+      </c>
+      <c r="C390" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D390" s="44"/>
+      <c r="E390" s="44"/>
+      <c r="F390" s="44"/>
+      <c r="G390" s="44"/>
+    </row>
+    <row r="391" spans="1:7" ht="105">
+      <c r="A391" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B391" s="42" t="s">
         <v>650</v>
       </c>
-      <c r="C390" s="47" t="s">
+      <c r="C391" s="47" t="s">
         <v>651</v>
       </c>
-      <c r="D390" s="42">
+      <c r="D391" s="42">
         <v>78.3</v>
       </c>
-      <c r="E390" s="42" t="s">
+      <c r="E391" s="42" t="s">
         <v>1209</v>
-      </c>
-      <c r="F390" s="42" t="s">
-        <v>1181</v>
-      </c>
-      <c r="G390" s="47" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7" ht="60">
-      <c r="A391" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B391" s="42" t="s">
-        <v>652</v>
-      </c>
-      <c r="C391" s="42" t="s">
-        <v>653</v>
-      </c>
-      <c r="D391" s="42" t="s">
-        <v>999</v>
-      </c>
-      <c r="E391" s="42" t="s">
-        <v>1225</v>
       </c>
       <c r="F391" s="42" t="s">
         <v>1181</v>
       </c>
-      <c r="G391" s="42"/>
-    </row>
-    <row r="392" spans="1:7" ht="30">
+      <c r="G391" s="47" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" ht="60">
       <c r="A392" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B392" s="42" t="s">
-        <v>654</v>
-      </c>
-      <c r="C392" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="D392" s="42">
-        <v>78.099999999999994</v>
+        <v>652</v>
+      </c>
+      <c r="C392" s="42" t="s">
+        <v>653</v>
+      </c>
+      <c r="D392" s="42" t="s">
+        <v>999</v>
       </c>
       <c r="E392" s="42" t="s">
-        <v>1209</v>
+        <v>1225</v>
       </c>
       <c r="F392" s="42" t="s">
         <v>1181</v>
       </c>
-      <c r="G392" s="47"/>
-    </row>
-    <row r="393" spans="1:7">
+      <c r="G392" s="42"/>
+    </row>
+    <row r="393" spans="1:7" ht="30">
       <c r="A393" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B393" s="42" t="s">
-        <v>656</v>
-      </c>
-      <c r="C393" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D393" s="44"/>
-      <c r="E393" s="44"/>
-      <c r="F393" s="44"/>
-      <c r="G393" s="44"/>
+        <v>654</v>
+      </c>
+      <c r="C393" s="47" t="s">
+        <v>655</v>
+      </c>
+      <c r="D393" s="42">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E393" s="42" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F393" s="42" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G393" s="47"/>
     </row>
     <row r="394" spans="1:7">
       <c r="A394" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B394" s="42" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C394" s="44" t="s">
-        <v>624</v>
+        <v>43</v>
       </c>
       <c r="D394" s="44"/>
       <c r="E394" s="44"/>
       <c r="F394" s="44"/>
       <c r="G394" s="44"/>
     </row>
-    <row r="395" spans="1:7" ht="45">
+    <row r="395" spans="1:7">
       <c r="A395" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B395" s="42" t="s">
-        <v>658</v>
-      </c>
-      <c r="C395" s="47" t="s">
-        <v>659</v>
-      </c>
-      <c r="D395" s="42" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E395" s="42"/>
-      <c r="F395" s="42" t="s">
-        <v>1181</v>
-      </c>
-      <c r="G395" s="47" t="s">
-        <v>1112</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="C395" s="44" t="s">
+        <v>624</v>
+      </c>
+      <c r="D395" s="44"/>
+      <c r="E395" s="44"/>
+      <c r="F395" s="44"/>
+      <c r="G395" s="44"/>
     </row>
     <row r="396" spans="1:7" ht="45">
       <c r="A396" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B396" s="42" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C396" s="47" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D396" s="42" t="s">
-        <v>662</v>
+        <v>1035</v>
       </c>
       <c r="E396" s="42"/>
       <c r="F396" s="42" t="s">
         <v>1181</v>
       </c>
-      <c r="G396" s="47"/>
-    </row>
-    <row r="397" spans="1:7">
+      <c r="G396" s="47" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" ht="45">
       <c r="A397" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B397" s="42" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C397" s="47" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D397" s="42" t="s">
-        <v>560</v>
+        <v>662</v>
       </c>
       <c r="E397" s="42"/>
       <c r="F397" s="42" t="s">
@@ -15567,18 +15604,18 @@
       </c>
       <c r="G397" s="47"/>
     </row>
-    <row r="398" spans="1:7" ht="45">
+    <row r="398" spans="1:7">
       <c r="A398" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B398" s="42" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C398" s="47" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D398" s="42" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="E398" s="42"/>
       <c r="F398" s="42" t="s">
@@ -15586,18 +15623,18 @@
       </c>
       <c r="G398" s="47"/>
     </row>
-    <row r="399" spans="1:7" ht="30">
+    <row r="399" spans="1:7" ht="45">
       <c r="A399" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B399" s="42" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C399" s="47" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D399" s="42" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="E399" s="42"/>
       <c r="F399" s="42" t="s">
@@ -15605,18 +15642,18 @@
       </c>
       <c r="G399" s="47"/>
     </row>
-    <row r="400" spans="1:7" ht="45">
+    <row r="400" spans="1:7" ht="30">
       <c r="A400" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B400" s="42" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C400" s="47" t="s">
-        <v>638</v>
+        <v>668</v>
       </c>
       <c r="D400" s="42" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
       <c r="E400" s="42"/>
       <c r="F400" s="42" t="s">
@@ -15624,296 +15661,300 @@
       </c>
       <c r="G400" s="47"/>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" ht="45">
       <c r="A401" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B401" s="42" t="s">
-        <v>670</v>
-      </c>
-      <c r="C401" s="44" t="s">
-        <v>600</v>
-      </c>
-      <c r="D401" s="44"/>
-      <c r="E401" s="44"/>
-      <c r="F401" s="44"/>
-      <c r="G401" s="44"/>
+        <v>669</v>
+      </c>
+      <c r="C401" s="47" t="s">
+        <v>638</v>
+      </c>
+      <c r="D401" s="42" t="s">
+        <v>566</v>
+      </c>
+      <c r="E401" s="42"/>
+      <c r="F401" s="42" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G401" s="47"/>
     </row>
     <row r="402" spans="1:7">
       <c r="A402" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B402" s="42" t="s">
-        <v>671</v>
-      </c>
-      <c r="C402" s="47" t="s">
-        <v>602</v>
-      </c>
-      <c r="D402" s="42" t="s">
-        <v>577</v>
-      </c>
-      <c r="E402" s="42"/>
-      <c r="F402" s="42" t="s">
-        <v>1181</v>
-      </c>
-      <c r="G402" s="47" t="s">
-        <v>1109</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="C402" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="D402" s="44"/>
+      <c r="E402" s="44"/>
+      <c r="F402" s="44"/>
+      <c r="G402" s="44"/>
     </row>
     <row r="403" spans="1:7">
       <c r="A403" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B403" s="42" t="s">
-        <v>672</v>
-      </c>
-      <c r="C403" s="42" t="s">
-        <v>604</v>
+        <v>671</v>
+      </c>
+      <c r="C403" s="47" t="s">
+        <v>602</v>
       </c>
       <c r="D403" s="42" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E403" s="42" t="s">
-        <v>1224</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="E403" s="42"/>
       <c r="F403" s="42" t="s">
         <v>1181</v>
       </c>
-      <c r="G403" s="42"/>
+      <c r="G403" s="47" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="404" spans="1:7">
       <c r="A404" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B404" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="C404" s="42" t="s">
+        <v>604</v>
+      </c>
+      <c r="D404" s="42" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E404" s="42" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F404" s="42" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G404" s="42"/>
+    </row>
+    <row r="405" spans="1:7">
+      <c r="A405" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B405" s="42" t="s">
         <v>673</v>
       </c>
-      <c r="C404" s="44" t="s">
+      <c r="C405" s="44" t="s">
         <v>606</v>
       </c>
-      <c r="D404" s="44"/>
-      <c r="E404" s="44"/>
-      <c r="F404" s="44"/>
-      <c r="G404" s="44"/>
-    </row>
-    <row r="405" spans="1:7" ht="30">
-      <c r="A405" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B405" s="42" t="s">
-        <v>674</v>
-      </c>
-      <c r="C405" s="47" t="s">
-        <v>570</v>
-      </c>
-      <c r="D405" s="42" t="s">
-        <v>571</v>
-      </c>
-      <c r="E405" s="42"/>
-      <c r="F405" s="42" t="s">
-        <v>1181</v>
-      </c>
-      <c r="G405" s="47" t="s">
-        <v>1110</v>
-      </c>
+      <c r="D405" s="44"/>
+      <c r="E405" s="44"/>
+      <c r="F405" s="44"/>
+      <c r="G405" s="44"/>
     </row>
     <row r="406" spans="1:7" ht="30">
       <c r="A406" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B406" s="42" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C406" s="47" t="s">
-        <v>645</v>
+        <v>570</v>
       </c>
       <c r="D406" s="42" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E406" s="50"/>
+        <v>571</v>
+      </c>
+      <c r="E406" s="42"/>
       <c r="F406" s="42" t="s">
         <v>1181</v>
       </c>
-      <c r="G406" s="47"/>
+      <c r="G406" s="47" t="s">
+        <v>1110</v>
+      </c>
     </row>
     <row r="407" spans="1:7" ht="30">
       <c r="A407" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B407" s="42" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C407" s="47" t="s">
-        <v>611</v>
+        <v>645</v>
       </c>
       <c r="D407" s="42" t="s">
-        <v>577</v>
-      </c>
-      <c r="E407" s="42"/>
+        <v>1069</v>
+      </c>
+      <c r="E407" s="50"/>
       <c r="F407" s="42" t="s">
         <v>1181</v>
       </c>
       <c r="G407" s="47"/>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" ht="30">
       <c r="A408" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B408" s="42" t="s">
-        <v>677</v>
-      </c>
-      <c r="C408" s="42" t="s">
-        <v>613</v>
+        <v>676</v>
+      </c>
+      <c r="C408" s="47" t="s">
+        <v>611</v>
       </c>
       <c r="D408" s="42" t="s">
-        <v>1067</v>
+        <v>577</v>
       </c>
       <c r="E408" s="42"/>
       <c r="F408" s="42" t="s">
         <v>1181</v>
       </c>
-      <c r="G408" s="42"/>
-    </row>
-    <row r="409" spans="1:7" ht="30">
+      <c r="G408" s="47"/>
+    </row>
+    <row r="409" spans="1:7">
       <c r="A409" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B409" s="42" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C409" s="42" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D409" s="42" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E409" s="42" t="s">
-        <v>616</v>
-      </c>
+        <v>1067</v>
+      </c>
+      <c r="E409" s="42"/>
       <c r="F409" s="42" t="s">
         <v>1181</v>
       </c>
       <c r="G409" s="42"/>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" ht="30">
       <c r="A410" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B410" s="42">
-        <v>11.4</v>
-      </c>
-      <c r="C410" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D410" s="44"/>
-      <c r="E410" s="44"/>
-      <c r="F410" s="44"/>
-      <c r="G410" s="44"/>
+      <c r="B410" s="42" t="s">
+        <v>678</v>
+      </c>
+      <c r="C410" s="42" t="s">
+        <v>615</v>
+      </c>
+      <c r="D410" s="42" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E410" s="42" t="s">
+        <v>616</v>
+      </c>
+      <c r="F410" s="42" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G410" s="42"/>
     </row>
     <row r="411" spans="1:7">
       <c r="A411" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B411" s="42" t="s">
-        <v>679</v>
-      </c>
-      <c r="C411" s="44" t="s">
-        <v>42</v>
+      <c r="B411" s="42">
+        <v>11.4</v>
+      </c>
+      <c r="C411" s="41" t="s">
+        <v>46</v>
       </c>
       <c r="D411" s="44"/>
       <c r="E411" s="44"/>
       <c r="F411" s="44"/>
       <c r="G411" s="44"/>
     </row>
-    <row r="412" spans="1:7" ht="105">
+    <row r="412" spans="1:7">
       <c r="A412" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B412" s="42" t="s">
+        <v>679</v>
+      </c>
+      <c r="C412" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D412" s="44"/>
+      <c r="E412" s="44"/>
+      <c r="F412" s="44"/>
+      <c r="G412" s="44"/>
+    </row>
+    <row r="413" spans="1:7" ht="105">
+      <c r="A413" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B413" s="42" t="s">
         <v>680</v>
       </c>
-      <c r="C412" s="47" t="s">
+      <c r="C413" s="47" t="s">
         <v>651</v>
       </c>
-      <c r="D412" s="42">
+      <c r="D413" s="42">
         <v>78.3</v>
       </c>
-      <c r="E412" s="6" t="s">
+      <c r="E413" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="F412" s="42" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G412" s="47" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7" ht="90">
-      <c r="A413" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B413" s="42" t="s">
-        <v>681</v>
-      </c>
-      <c r="C413" s="47" t="s">
-        <v>682</v>
-      </c>
-      <c r="D413" s="42">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E413" s="42" t="s">
-        <v>1227</v>
       </c>
       <c r="F413" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G413" s="47"/>
-    </row>
-    <row r="414" spans="1:7" ht="30">
+      <c r="G413" s="47" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" ht="90">
       <c r="A414" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B414" s="42" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C414" s="47" t="s">
-        <v>655</v>
+        <v>682</v>
       </c>
       <c r="D414" s="42">
         <v>78.099999999999994</v>
       </c>
       <c r="E414" s="42" t="s">
-        <v>1209</v>
+        <v>1227</v>
       </c>
       <c r="F414" s="42" t="s">
         <v>1184</v>
       </c>
       <c r="G414" s="47"/>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" ht="30">
       <c r="A415" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B415" s="42" t="s">
-        <v>684</v>
-      </c>
-      <c r="C415" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D415" s="44"/>
-      <c r="E415" s="44"/>
-      <c r="F415" s="44"/>
-      <c r="G415" s="44"/>
+        <v>683</v>
+      </c>
+      <c r="C415" s="47" t="s">
+        <v>655</v>
+      </c>
+      <c r="D415" s="42">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E415" s="42" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F415" s="42" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G415" s="47"/>
     </row>
     <row r="416" spans="1:7">
       <c r="A416" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B416" s="42" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C416" s="44" t="s">
-        <v>624</v>
+        <v>43</v>
       </c>
       <c r="D416" s="44"/>
       <c r="E416" s="44"/>
@@ -15925,53 +15966,49 @@
         <v>56</v>
       </c>
       <c r="B417" s="42" t="s">
-        <v>686</v>
-      </c>
-      <c r="C417" s="42" t="s">
-        <v>626</v>
-      </c>
-      <c r="D417" s="42" t="s">
-        <v>627</v>
-      </c>
-      <c r="E417" s="42"/>
-      <c r="F417" s="42" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G417" s="42" t="s">
-        <v>1113</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="C417" s="44" t="s">
+        <v>624</v>
+      </c>
+      <c r="D417" s="44"/>
+      <c r="E417" s="44"/>
+      <c r="F417" s="44"/>
+      <c r="G417" s="44"/>
     </row>
     <row r="418" spans="1:7">
       <c r="A418" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B418" s="42" t="s">
-        <v>687</v>
-      </c>
-      <c r="C418" s="47" t="s">
-        <v>688</v>
+        <v>686</v>
+      </c>
+      <c r="C418" s="42" t="s">
+        <v>626</v>
       </c>
       <c r="D418" s="42" t="s">
-        <v>557</v>
+        <v>627</v>
       </c>
       <c r="E418" s="42"/>
       <c r="F418" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G418" s="47"/>
+      <c r="G418" s="42" t="s">
+        <v>1113</v>
+      </c>
     </row>
     <row r="419" spans="1:7">
       <c r="A419" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B419" s="42" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C419" s="47" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D419" s="42" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E419" s="42"/>
       <c r="F419" s="42" t="s">
@@ -15979,92 +16016,92 @@
       </c>
       <c r="G419" s="47"/>
     </row>
-    <row r="420" spans="1:7" ht="30">
+    <row r="420" spans="1:7">
       <c r="A420" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B420" s="42" t="s">
-        <v>691</v>
-      </c>
-      <c r="C420" s="42" t="s">
-        <v>692</v>
+        <v>689</v>
+      </c>
+      <c r="C420" s="47" t="s">
+        <v>690</v>
       </c>
       <c r="D420" s="42" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E420" s="42"/>
       <c r="F420" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G420" s="42"/>
-    </row>
-    <row r="421" spans="1:7">
+      <c r="G420" s="47"/>
+    </row>
+    <row r="421" spans="1:7" ht="30">
       <c r="A421" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B421" s="42" t="s">
+        <v>691</v>
+      </c>
+      <c r="C421" s="42" t="s">
+        <v>692</v>
+      </c>
+      <c r="D421" s="42" t="s">
+        <v>566</v>
+      </c>
+      <c r="E421" s="42"/>
+      <c r="F421" s="42" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G421" s="42"/>
+    </row>
+    <row r="422" spans="1:7">
+      <c r="A422" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B422" s="42" t="s">
         <v>693</v>
       </c>
-      <c r="C421" s="44" t="s">
+      <c r="C422" s="44" t="s">
         <v>694</v>
       </c>
-      <c r="D421" s="44"/>
-      <c r="E421" s="44"/>
-      <c r="F421" s="44"/>
-      <c r="G421" s="44"/>
-    </row>
-    <row r="422" spans="1:7" ht="30">
-      <c r="A422" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B422" s="42" t="s">
-        <v>695</v>
-      </c>
-      <c r="C422" s="61" t="s">
-        <v>1298</v>
-      </c>
-      <c r="D422" s="42" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E422" s="42"/>
-      <c r="F422" s="42" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G422" s="42" t="s">
-        <v>1114</v>
-      </c>
+      <c r="D422" s="44"/>
+      <c r="E422" s="44"/>
+      <c r="F422" s="44"/>
+      <c r="G422" s="44"/>
     </row>
     <row r="423" spans="1:7" ht="30">
       <c r="A423" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B423" s="42" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C423" s="61" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D423" s="42" t="s">
-        <v>697</v>
+        <v>1040</v>
       </c>
       <c r="E423" s="42"/>
       <c r="F423" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G423" s="42"/>
+      <c r="G423" s="42" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="424" spans="1:7" ht="30">
       <c r="A424" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B424" s="42" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C424" s="61" t="s">
-        <v>702</v>
+        <v>1299</v>
       </c>
       <c r="D424" s="42" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E424" s="42"/>
       <c r="F424" s="42" t="s">
@@ -16072,73 +16109,73 @@
       </c>
       <c r="G424" s="42"/>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" ht="30">
       <c r="A425" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B425" s="42" t="s">
+        <v>701</v>
+      </c>
+      <c r="C425" s="61" t="s">
+        <v>702</v>
+      </c>
+      <c r="D425" s="42" t="s">
+        <v>700</v>
+      </c>
+      <c r="E425" s="42"/>
+      <c r="F425" s="42" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G425" s="42"/>
+    </row>
+    <row r="426" spans="1:7">
+      <c r="A426" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B426" s="42" t="s">
         <v>703</v>
       </c>
-      <c r="C425" s="44" t="s">
+      <c r="C426" s="44" t="s">
         <v>606</v>
       </c>
-      <c r="D425" s="44"/>
-      <c r="E425" s="44"/>
-      <c r="F425" s="44"/>
-      <c r="G425" s="44"/>
-    </row>
-    <row r="426" spans="1:7" ht="30">
-      <c r="A426" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B426" s="42" t="s">
+      <c r="D426" s="44"/>
+      <c r="E426" s="44"/>
+      <c r="F426" s="44"/>
+      <c r="G426" s="44"/>
+    </row>
+    <row r="427" spans="1:7" ht="30">
+      <c r="A427" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B427" s="42" t="s">
         <v>704</v>
       </c>
-      <c r="C426" s="47" t="s">
+      <c r="C427" s="47" t="s">
         <v>570</v>
       </c>
-      <c r="D426" s="42" t="s">
+      <c r="D427" s="42" t="s">
         <v>571</v>
-      </c>
-      <c r="E426" s="42"/>
-      <c r="F426" s="42" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G426" s="47" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7">
-      <c r="A427" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B427" s="42" t="s">
-        <v>705</v>
-      </c>
-      <c r="C427" s="47" t="s">
-        <v>706</v>
-      </c>
-      <c r="D427" s="42" t="s">
-        <v>574</v>
       </c>
       <c r="E427" s="42"/>
       <c r="F427" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G427" s="47"/>
-    </row>
-    <row r="428" spans="1:7" ht="30">
+      <c r="G427" s="47" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7">
       <c r="A428" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B428" s="42" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C428" s="47" t="s">
-        <v>611</v>
+        <v>706</v>
       </c>
       <c r="D428" s="42" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E428" s="42"/>
       <c r="F428" s="42" t="s">
@@ -16146,15 +16183,15 @@
       </c>
       <c r="G428" s="47"/>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" ht="30">
       <c r="A429" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B429" s="42" t="s">
-        <v>708</v>
-      </c>
-      <c r="C429" s="42" t="s">
-        <v>613</v>
+        <v>707</v>
+      </c>
+      <c r="C429" s="47" t="s">
+        <v>611</v>
       </c>
       <c r="D429" s="42" t="s">
         <v>577</v>
@@ -16163,39 +16200,39 @@
       <c r="F429" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G429" s="42"/>
+      <c r="G429" s="47"/>
     </row>
     <row r="430" spans="1:7">
       <c r="A430" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B430" s="42" t="s">
-        <v>709</v>
-      </c>
-      <c r="C430" s="47" t="s">
-        <v>579</v>
+        <v>708</v>
+      </c>
+      <c r="C430" s="42" t="s">
+        <v>613</v>
       </c>
       <c r="D430" s="42" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E430" s="42"/>
       <c r="F430" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G430" s="47"/>
-    </row>
-    <row r="431" spans="1:7" ht="45">
+      <c r="G430" s="42"/>
+    </row>
+    <row r="431" spans="1:7">
       <c r="A431" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B431" s="42" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C431" s="47" t="s">
-        <v>666</v>
+        <v>579</v>
       </c>
       <c r="D431" s="42" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E431" s="42"/>
       <c r="F431" s="42" t="s">
@@ -16203,53 +16240,51 @@
       </c>
       <c r="G431" s="47"/>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" ht="45">
       <c r="A432" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B432" s="42" t="s">
-        <v>711</v>
-      </c>
-      <c r="C432" s="44" t="s">
-        <v>585</v>
-      </c>
-      <c r="D432" s="44"/>
-      <c r="E432" s="44"/>
+        <v>710</v>
+      </c>
+      <c r="C432" s="47" t="s">
+        <v>666</v>
+      </c>
+      <c r="D432" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="E432" s="42"/>
       <c r="F432" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G432" s="44"/>
-    </row>
-    <row r="433" spans="1:7" ht="90">
+      <c r="G432" s="47"/>
+    </row>
+    <row r="433" spans="1:7">
       <c r="A433" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B433" s="42" t="s">
-        <v>712</v>
-      </c>
-      <c r="C433" s="47" t="s">
-        <v>588</v>
-      </c>
-      <c r="D433" s="42" t="s">
-        <v>586</v>
-      </c>
-      <c r="E433" s="42"/>
+        <v>711</v>
+      </c>
+      <c r="C433" s="44" t="s">
+        <v>585</v>
+      </c>
+      <c r="D433" s="44"/>
+      <c r="E433" s="44"/>
       <c r="F433" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G433" s="47" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7" ht="60">
+      <c r="G433" s="44"/>
+    </row>
+    <row r="434" spans="1:7" ht="90">
       <c r="A434" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B434" s="42" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C434" s="47" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D434" s="42" t="s">
         <v>586</v>
@@ -16258,17 +16293,19 @@
       <c r="F434" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G434" s="47"/>
-    </row>
-    <row r="435" spans="1:7" ht="30">
+      <c r="G434" s="47" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" ht="60">
       <c r="A435" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B435" s="42" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C435" s="47" t="s">
-        <v>715</v>
+        <v>590</v>
       </c>
       <c r="D435" s="42" t="s">
         <v>586</v>
@@ -16277,171 +16314,171 @@
       <c r="F435" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G435" s="47" t="s">
-        <v>586</v>
-      </c>
+      <c r="G435" s="47"/>
     </row>
     <row r="436" spans="1:7" ht="30">
       <c r="A436" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B436" s="42" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C436" s="47" t="s">
-        <v>668</v>
+        <v>715</v>
       </c>
       <c r="D436" s="42" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="E436" s="42"/>
       <c r="F436" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G436" s="47"/>
-    </row>
-    <row r="437" spans="1:7">
+      <c r="G436" s="47" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" ht="30">
       <c r="A437" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B437" s="42" t="s">
-        <v>717</v>
-      </c>
-      <c r="C437" s="44" t="s">
-        <v>600</v>
-      </c>
-      <c r="D437" s="44"/>
-      <c r="E437" s="44"/>
+        <v>716</v>
+      </c>
+      <c r="C437" s="47" t="s">
+        <v>668</v>
+      </c>
+      <c r="D437" s="42" t="s">
+        <v>598</v>
+      </c>
+      <c r="E437" s="42"/>
       <c r="F437" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G437" s="44"/>
+      <c r="G437" s="47"/>
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B438" s="42" t="s">
-        <v>718</v>
-      </c>
-      <c r="C438" s="47" t="s">
-        <v>602</v>
-      </c>
-      <c r="D438" s="42" t="s">
-        <v>577</v>
-      </c>
-      <c r="E438" s="42"/>
+        <v>717</v>
+      </c>
+      <c r="C438" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="D438" s="44"/>
+      <c r="E438" s="44"/>
       <c r="F438" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G438" s="47" t="s">
-        <v>1109</v>
-      </c>
+      <c r="G438" s="44"/>
     </row>
     <row r="439" spans="1:7">
       <c r="A439" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B439" s="42" t="s">
-        <v>719</v>
-      </c>
-      <c r="C439" s="42" t="s">
-        <v>604</v>
+        <v>718</v>
+      </c>
+      <c r="C439" s="47" t="s">
+        <v>602</v>
       </c>
       <c r="D439" s="42" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E439" s="42" t="s">
-        <v>1224</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="E439" s="42"/>
       <c r="F439" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G439" s="42"/>
+      <c r="G439" s="47" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="440" spans="1:7">
       <c r="A440" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B440" s="42" t="s">
-        <v>720</v>
-      </c>
-      <c r="C440" s="44" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D440" s="44"/>
-      <c r="E440" s="44"/>
+        <v>719</v>
+      </c>
+      <c r="C440" s="42" t="s">
+        <v>604</v>
+      </c>
+      <c r="D440" s="42" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E440" s="42" t="s">
+        <v>1224</v>
+      </c>
       <c r="F440" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G440" s="44"/>
-    </row>
-    <row r="441" spans="1:7" ht="30">
+      <c r="G440" s="42"/>
+    </row>
+    <row r="441" spans="1:7">
       <c r="A441" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B441" s="42" t="s">
-        <v>725</v>
-      </c>
-      <c r="C441" s="42" t="s">
-        <v>615</v>
-      </c>
-      <c r="D441" s="42" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E441" s="42" t="s">
-        <v>616</v>
-      </c>
+        <v>720</v>
+      </c>
+      <c r="C441" s="44" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D441" s="44"/>
+      <c r="E441" s="44"/>
       <c r="F441" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G441" s="42"/>
-    </row>
-    <row r="442" spans="1:7">
+      <c r="G441" s="44"/>
+    </row>
+    <row r="442" spans="1:7" ht="30">
       <c r="A442" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B442" s="42">
-        <v>11.5</v>
-      </c>
-      <c r="C442" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D442" s="44"/>
-      <c r="E442" s="44"/>
+      <c r="B442" s="42" t="s">
+        <v>725</v>
+      </c>
+      <c r="C442" s="42" t="s">
+        <v>615</v>
+      </c>
+      <c r="D442" s="42" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E442" s="42" t="s">
+        <v>616</v>
+      </c>
       <c r="F442" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G442" s="41"/>
+      <c r="G442" s="42"/>
     </row>
     <row r="443" spans="1:7">
       <c r="A443" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B443" s="42" t="s">
-        <v>726</v>
-      </c>
-      <c r="C443" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D443" s="42"/>
-      <c r="E443" s="47" t="s">
-        <v>268</v>
-      </c>
+      <c r="B443" s="42">
+        <v>11.5</v>
+      </c>
+      <c r="C443" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D443" s="44"/>
+      <c r="E443" s="44"/>
       <c r="F443" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G443" s="47"/>
+      <c r="G443" s="41"/>
     </row>
     <row r="444" spans="1:7">
       <c r="A444" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B444" s="42" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C444" s="47" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D444" s="42"/>
       <c r="E444" s="47" t="s">
@@ -16457,10 +16494,10 @@
         <v>56</v>
       </c>
       <c r="B445" s="42" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C445" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D445" s="42"/>
       <c r="E445" s="47" t="s">
@@ -16475,47 +16512,47 @@
       <c r="A446" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B446" s="42">
-        <v>11.6</v>
-      </c>
-      <c r="C446" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D446" s="44"/>
-      <c r="E446" s="41"/>
+      <c r="B446" s="42" t="s">
+        <v>728</v>
+      </c>
+      <c r="C446" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D446" s="42"/>
+      <c r="E446" s="47" t="s">
+        <v>268</v>
+      </c>
       <c r="F446" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G446" s="41"/>
+      <c r="G446" s="47"/>
     </row>
     <row r="447" spans="1:7">
       <c r="A447" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B447" s="42" t="s">
-        <v>729</v>
-      </c>
-      <c r="C447" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D447" s="42"/>
-      <c r="E447" s="47" t="s">
-        <v>268</v>
-      </c>
+      <c r="B447" s="42">
+        <v>11.6</v>
+      </c>
+      <c r="C447" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D447" s="44"/>
+      <c r="E447" s="41"/>
       <c r="F447" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G447" s="47"/>
+      <c r="G447" s="41"/>
     </row>
     <row r="448" spans="1:7">
       <c r="A448" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B448" s="42" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C448" s="47" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D448" s="42"/>
       <c r="E448" s="47" t="s">
@@ -16530,85 +16567,85 @@
       <c r="A449" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B449" s="42">
-        <v>11.7</v>
-      </c>
-      <c r="C449" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D449" s="44"/>
-      <c r="E449" s="44"/>
+      <c r="B449" s="42" t="s">
+        <v>730</v>
+      </c>
+      <c r="C449" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D449" s="42"/>
+      <c r="E449" s="47" t="s">
+        <v>268</v>
+      </c>
       <c r="F449" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G449" s="41"/>
+      <c r="G449" s="47"/>
     </row>
     <row r="450" spans="1:7">
       <c r="A450" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B450" s="42" t="s">
-        <v>731</v>
-      </c>
-      <c r="C450" s="44" t="s">
-        <v>42</v>
+      <c r="B450" s="42">
+        <v>11.7</v>
+      </c>
+      <c r="C450" s="41" t="s">
+        <v>51</v>
       </c>
       <c r="D450" s="44"/>
       <c r="E450" s="44"/>
       <c r="F450" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G450" s="44"/>
-    </row>
-    <row r="451" spans="1:7" ht="105">
+      <c r="G450" s="41"/>
+    </row>
+    <row r="451" spans="1:7">
       <c r="A451" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B451" s="42" t="s">
-        <v>732</v>
-      </c>
-      <c r="C451" s="47" t="s">
-        <v>651</v>
-      </c>
-      <c r="D451" s="42">
-        <v>78.3</v>
-      </c>
-      <c r="E451" s="42"/>
+        <v>731</v>
+      </c>
+      <c r="C451" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D451" s="44"/>
+      <c r="E451" s="44"/>
       <c r="F451" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G451" s="47" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7" ht="30">
+      <c r="G451" s="44"/>
+    </row>
+    <row r="452" spans="1:7" ht="105">
       <c r="A452" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B452" s="42" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C452" s="47" t="s">
-        <v>682</v>
+        <v>651</v>
       </c>
       <c r="D452" s="42">
-        <v>78.099999999999994</v>
+        <v>78.3</v>
       </c>
       <c r="E452" s="42"/>
       <c r="F452" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G452" s="47"/>
+      <c r="G452" s="47" t="s">
+        <v>1106</v>
+      </c>
     </row>
     <row r="453" spans="1:7" ht="30">
       <c r="A453" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B453" s="42" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C453" s="47" t="s">
-        <v>655</v>
+        <v>682</v>
       </c>
       <c r="D453" s="42">
         <v>78.099999999999994</v>
@@ -16619,32 +16656,34 @@
       </c>
       <c r="G453" s="47"/>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" ht="30">
       <c r="A454" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B454" s="42" t="s">
-        <v>735</v>
-      </c>
-      <c r="C454" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D454" s="44"/>
-      <c r="E454" s="44"/>
+        <v>734</v>
+      </c>
+      <c r="C454" s="47" t="s">
+        <v>655</v>
+      </c>
+      <c r="D454" s="42">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E454" s="42"/>
       <c r="F454" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G454" s="44"/>
+      <c r="G454" s="47"/>
     </row>
     <row r="455" spans="1:7">
       <c r="A455" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B455" s="42" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C455" s="44" t="s">
-        <v>624</v>
+        <v>43</v>
       </c>
       <c r="D455" s="44"/>
       <c r="E455" s="44"/>
@@ -16653,77 +16692,75 @@
       </c>
       <c r="G455" s="44"/>
     </row>
-    <row r="456" spans="1:7" ht="30">
+    <row r="456" spans="1:7">
       <c r="A456" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B456" s="42" t="s">
-        <v>737</v>
-      </c>
-      <c r="C456" s="47" t="s">
-        <v>738</v>
-      </c>
-      <c r="D456" s="42" t="s">
-        <v>557</v>
-      </c>
-      <c r="E456" s="42"/>
+        <v>736</v>
+      </c>
+      <c r="C456" s="44" t="s">
+        <v>624</v>
+      </c>
+      <c r="D456" s="44"/>
+      <c r="E456" s="44"/>
       <c r="F456" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G456" s="47" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="457" spans="1:7">
+      <c r="G456" s="44"/>
+    </row>
+    <row r="457" spans="1:7" ht="30">
       <c r="A457" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B457" s="42" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C457" s="47" t="s">
-        <v>690</v>
+        <v>738</v>
       </c>
       <c r="D457" s="42" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E457" s="42"/>
       <c r="F457" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G457" s="47"/>
-    </row>
-    <row r="458" spans="1:7" ht="30">
+      <c r="G457" s="47" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7">
       <c r="A458" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B458" s="42" t="s">
-        <v>740</v>
-      </c>
-      <c r="C458" s="42" t="s">
-        <v>741</v>
+        <v>739</v>
+      </c>
+      <c r="C458" s="47" t="s">
+        <v>690</v>
       </c>
       <c r="D458" s="42" t="s">
-        <v>1066</v>
+        <v>560</v>
       </c>
       <c r="E458" s="42"/>
       <c r="F458" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G458" s="42"/>
-    </row>
-    <row r="459" spans="1:7" ht="45">
+      <c r="G458" s="47"/>
+    </row>
+    <row r="459" spans="1:7" ht="30">
       <c r="A459" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B459" s="42" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C459" s="42" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D459" s="42" t="s">
-        <v>598</v>
+        <v>1066</v>
       </c>
       <c r="E459" s="42"/>
       <c r="F459" s="42" t="s">
@@ -16731,54 +16768,54 @@
       </c>
       <c r="G459" s="42"/>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" ht="45">
       <c r="A460" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B460" s="42" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C460" s="42" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D460" s="42"/>
+        <v>743</v>
+      </c>
+      <c r="D460" s="42" t="s">
+        <v>598</v>
+      </c>
       <c r="E460" s="42"/>
       <c r="F460" s="42" t="s">
         <v>1184</v>
       </c>
       <c r="G460" s="42"/>
     </row>
-    <row r="461" spans="1:7" ht="60">
+    <row r="461" spans="1:7">
       <c r="A461" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B461" s="42" t="s">
-        <v>1082</v>
+        <v>744</v>
       </c>
       <c r="C461" s="42" t="s">
-        <v>745</v>
-      </c>
-      <c r="D461" s="42" t="s">
-        <v>566</v>
-      </c>
+        <v>1081</v>
+      </c>
+      <c r="D461" s="42"/>
       <c r="E461" s="42"/>
       <c r="F461" s="42" t="s">
         <v>1184</v>
       </c>
       <c r="G461" s="42"/>
     </row>
-    <row r="462" spans="1:7" ht="30">
+    <row r="462" spans="1:7" ht="60">
       <c r="A462" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B462" s="42" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C462" s="42" t="s">
-        <v>1080</v>
+        <v>745</v>
       </c>
       <c r="D462" s="42" t="s">
-        <v>700</v>
+        <v>566</v>
       </c>
       <c r="E462" s="42"/>
       <c r="F462" s="42" t="s">
@@ -16786,132 +16823,132 @@
       </c>
       <c r="G462" s="42"/>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" ht="30">
       <c r="A463" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B463" s="42" t="s">
-        <v>747</v>
-      </c>
-      <c r="C463" s="44" t="s">
-        <v>600</v>
-      </c>
-      <c r="D463" s="44"/>
-      <c r="E463" s="44"/>
+        <v>1083</v>
+      </c>
+      <c r="C463" s="42" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D463" s="42" t="s">
+        <v>700</v>
+      </c>
+      <c r="E463" s="42"/>
       <c r="F463" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G463" s="44"/>
+      <c r="G463" s="42"/>
     </row>
     <row r="464" spans="1:7">
       <c r="A464" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B464" s="42" t="s">
-        <v>748</v>
-      </c>
-      <c r="C464" s="47" t="s">
-        <v>602</v>
-      </c>
-      <c r="D464" s="42" t="s">
-        <v>577</v>
-      </c>
-      <c r="E464" s="42"/>
+        <v>747</v>
+      </c>
+      <c r="C464" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="D464" s="44"/>
+      <c r="E464" s="44"/>
       <c r="F464" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G464" s="47" t="s">
-        <v>1109</v>
-      </c>
+      <c r="G464" s="44"/>
     </row>
     <row r="465" spans="1:7">
       <c r="A465" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B465" s="42" t="s">
-        <v>749</v>
-      </c>
-      <c r="C465" s="42" t="s">
-        <v>604</v>
+        <v>748</v>
+      </c>
+      <c r="C465" s="47" t="s">
+        <v>602</v>
       </c>
       <c r="D465" s="42" t="s">
-        <v>1064</v>
+        <v>577</v>
       </c>
       <c r="E465" s="42"/>
       <c r="F465" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G465" s="42"/>
+      <c r="G465" s="47" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="466" spans="1:7">
       <c r="A466" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B466" s="42" t="s">
-        <v>750</v>
-      </c>
-      <c r="C466" s="44" t="s">
-        <v>606</v>
-      </c>
-      <c r="D466" s="44"/>
-      <c r="E466" s="44"/>
+        <v>749</v>
+      </c>
+      <c r="C466" s="42" t="s">
+        <v>604</v>
+      </c>
+      <c r="D466" s="42" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E466" s="42"/>
       <c r="F466" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G466" s="44"/>
-    </row>
-    <row r="467" spans="1:7" ht="30">
+      <c r="G466" s="42"/>
+    </row>
+    <row r="467" spans="1:7">
       <c r="A467" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B467" s="42" t="s">
-        <v>751</v>
-      </c>
-      <c r="C467" s="47" t="s">
-        <v>570</v>
-      </c>
-      <c r="D467" s="42" t="s">
-        <v>571</v>
-      </c>
-      <c r="E467" s="42"/>
+        <v>750</v>
+      </c>
+      <c r="C467" s="44" t="s">
+        <v>606</v>
+      </c>
+      <c r="D467" s="44"/>
+      <c r="E467" s="44"/>
       <c r="F467" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G467" s="47" t="s">
-        <v>1118</v>
-      </c>
+      <c r="G467" s="44"/>
     </row>
     <row r="468" spans="1:7" ht="30">
       <c r="A468" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B468" s="42" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C468" s="47" t="s">
-        <v>645</v>
+        <v>570</v>
       </c>
       <c r="D468" s="42" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E468" s="42"/>
       <c r="F468" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G468" s="47"/>
+      <c r="G468" s="47" t="s">
+        <v>1118</v>
+      </c>
     </row>
     <row r="469" spans="1:7" ht="30">
       <c r="A469" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B469" s="42" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C469" s="47" t="s">
-        <v>611</v>
+        <v>645</v>
       </c>
       <c r="D469" s="42" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E469" s="42"/>
       <c r="F469" s="42" t="s">
@@ -16919,43 +16956,62 @@
       </c>
       <c r="G469" s="47"/>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" ht="30">
       <c r="A470" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B470" s="42" t="s">
-        <v>754</v>
-      </c>
-      <c r="C470" s="42" t="s">
-        <v>613</v>
+        <v>753</v>
+      </c>
+      <c r="C470" s="47" t="s">
+        <v>611</v>
       </c>
       <c r="D470" s="42" t="s">
-        <v>1067</v>
+        <v>577</v>
       </c>
       <c r="E470" s="42"/>
       <c r="F470" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G470" s="42"/>
-    </row>
-    <row r="471" spans="1:7" ht="30">
+      <c r="G470" s="47"/>
+    </row>
+    <row r="471" spans="1:7">
       <c r="A471" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B471" s="42" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C471" s="42" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D471" s="42" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="E471" s="42"/>
       <c r="F471" s="42" t="s">
         <v>1184</v>
       </c>
       <c r="G471" s="42"/>
+    </row>
+    <row r="472" spans="1:7" ht="30">
+      <c r="A472" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B472" s="42" t="s">
+        <v>755</v>
+      </c>
+      <c r="C472" s="42" t="s">
+        <v>615</v>
+      </c>
+      <c r="D472" s="42" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E472" s="42"/>
+      <c r="F472" s="42" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G472" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -18194,9 +18250,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:IV49"/>
+  <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -18512,7 +18570,7 @@
         <v>838</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>280</v>
+        <v>1302</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
@@ -19372,10 +19430,10 @@
       <c r="B49" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="64" t="s">
         <v>956</v>
       </c>
-      <c r="D49" s="57" t="s">
+      <c r="D49" s="64" t="s">
         <v>1057</v>
       </c>
       <c r="E49" s="6"/>
@@ -19631,6 +19689,20 @@
       <c r="IU49" s="31"/>
       <c r="IV49" s="31"/>
     </row>
+    <row r="50" spans="1:256">
+      <c r="A50" s="57" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>1305</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -20245,7 +20317,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:IX4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>

--- a/conformancelib/testdata/85b_test_definitions_PIV-I_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV-I_ICAM_Test_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\gsa-devel\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D784D534-C04A-4E60-98D5-3A612C45A971}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3EF5A7-7234-4986-85D6-BB292FF3BECC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="1605" windowWidth="26190" windowHeight="12315" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3777" uniqueCount="1308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3777" uniqueCount="1309">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3959,6 +3959,9 @@
   </si>
   <si>
     <t>The Patron Header Version field has a value of 0x03.</t>
+  </si>
+  <si>
+    <t>9.3.2.5</t>
   </si>
 </sst>
 </file>
@@ -4802,13 +4805,13 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="57.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57.3984375" style="4" customWidth="1"/>
     <col min="3" max="5" width="10.5" style="4" customWidth="1"/>
-    <col min="6" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="17" customWidth="1"/>
+    <col min="6" max="256" width="8.8984375" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="17" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -5465,7 +5468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="31.5">
+    <row r="74" spans="1:5" ht="31.2">
       <c r="A74" s="3" t="s">
         <v>197</v>
       </c>
@@ -5553,7 +5556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="31.5">
+    <row r="85" spans="1:2" ht="31.2">
       <c r="A85" s="3" t="s">
         <v>208</v>
       </c>
@@ -5641,7 +5644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31.5">
+    <row r="96" spans="1:2" ht="31.2">
       <c r="A96" s="3" t="s">
         <v>219</v>
       </c>
@@ -5729,7 +5732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" ht="31.2">
       <c r="A107" s="3" t="s">
         <v>230</v>
       </c>
@@ -5785,7 +5788,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="31.5">
+    <row r="114" spans="1:2" ht="31.2">
       <c r="A114" s="3" t="s">
         <v>244</v>
       </c>
@@ -5801,7 +5804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="28.5">
+    <row r="116" spans="1:2" ht="27.6">
       <c r="A116" s="3" t="s">
         <v>247</v>
       </c>
@@ -5841,7 +5844,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="47.25">
+    <row r="121" spans="1:2" ht="46.8">
       <c r="A121" s="3" t="s">
         <v>256</v>
       </c>
@@ -5857,7 +5860,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="63">
+    <row r="123" spans="1:2" ht="62.4">
       <c r="A123" s="3" t="s">
         <v>261</v>
       </c>
@@ -6009,7 +6012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="31.5">
+    <row r="142" spans="1:2" ht="31.2">
       <c r="A142" s="3" t="s">
         <v>284</v>
       </c>
@@ -6025,7 +6028,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="31.5">
+    <row r="144" spans="1:2" ht="31.2">
       <c r="A144" s="3" t="s">
         <v>288</v>
       </c>
@@ -6033,7 +6036,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="47.25">
+    <row r="145" spans="1:2" ht="46.8">
       <c r="A145" s="3" t="s">
         <v>290</v>
       </c>
@@ -6041,7 +6044,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="47.25">
+    <row r="146" spans="1:2" ht="46.8">
       <c r="A146" s="3" t="s">
         <v>292</v>
       </c>
@@ -6065,7 +6068,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="47.25">
+    <row r="149" spans="1:2" ht="46.8">
       <c r="A149" s="3" t="s">
         <v>298</v>
       </c>
@@ -6081,7 +6084,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="63">
+    <row r="151" spans="1:2" ht="62.4">
       <c r="A151" s="3" t="s">
         <v>302</v>
       </c>
@@ -6089,7 +6092,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="31.5">
+    <row r="152" spans="1:2" ht="31.2">
       <c r="A152" s="3" t="s">
         <v>304</v>
       </c>
@@ -6097,7 +6100,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="31.5">
+    <row r="153" spans="1:2" ht="31.2">
       <c r="A153" s="3" t="s">
         <v>306</v>
       </c>
@@ -6161,7 +6164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="31.5">
+    <row r="161" spans="1:2" ht="31.2">
       <c r="A161" s="3" t="s">
         <v>314</v>
       </c>
@@ -6177,7 +6180,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="31.5">
+    <row r="163" spans="1:2" ht="31.2">
       <c r="A163" s="3" t="s">
         <v>316</v>
       </c>
@@ -6185,7 +6188,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="31.5">
+    <row r="164" spans="1:2" ht="31.2">
       <c r="A164" s="3" t="s">
         <v>317</v>
       </c>
@@ -6193,7 +6196,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="47.25">
+    <row r="165" spans="1:2" ht="46.8">
       <c r="A165" s="3" t="s">
         <v>319</v>
       </c>
@@ -6217,7 +6220,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="31.5">
+    <row r="168" spans="1:2" ht="31.2">
       <c r="A168" s="3" t="s">
         <v>323</v>
       </c>
@@ -6233,7 +6236,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="63">
+    <row r="170" spans="1:2" ht="62.4">
       <c r="A170" s="3" t="s">
         <v>327</v>
       </c>
@@ -6241,7 +6244,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="31.5">
+    <row r="171" spans="1:2" ht="31.2">
       <c r="A171" s="3" t="s">
         <v>328</v>
       </c>
@@ -6249,7 +6252,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="31.5">
+    <row r="172" spans="1:2" ht="31.2">
       <c r="A172" s="3" t="s">
         <v>329</v>
       </c>
@@ -6345,7 +6348,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="47.25">
+    <row r="184" spans="1:2" ht="46.8">
       <c r="A184" s="3" t="s">
         <v>319</v>
       </c>
@@ -6361,7 +6364,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" ht="31.2">
       <c r="A186" s="3" t="s">
         <v>344</v>
       </c>
@@ -6369,7 +6372,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="31.5">
+    <row r="187" spans="1:2" ht="31.2">
       <c r="A187" s="3" t="s">
         <v>346</v>
       </c>
@@ -6385,7 +6388,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="63">
+    <row r="189" spans="1:2" ht="62.4">
       <c r="A189" s="3" t="s">
         <v>349</v>
       </c>
@@ -6393,7 +6396,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="31.5">
+    <row r="190" spans="1:2" ht="31.2">
       <c r="A190" s="3" t="s">
         <v>350</v>
       </c>
@@ -6401,7 +6404,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="31.5">
+    <row r="191" spans="1:2" ht="31.2">
       <c r="A191" s="3" t="s">
         <v>351</v>
       </c>
@@ -6449,7 +6452,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="47.25">
+    <row r="197" spans="1:2" ht="46.8">
       <c r="A197" s="3" t="s">
         <v>361</v>
       </c>
@@ -6457,7 +6460,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="47.25">
+    <row r="198" spans="1:2" ht="46.8">
       <c r="A198" s="3" t="s">
         <v>363</v>
       </c>
@@ -6481,7 +6484,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="31.5">
+    <row r="201" spans="1:2" ht="31.2">
       <c r="A201" s="3" t="s">
         <v>368</v>
       </c>
@@ -6489,7 +6492,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="31.5">
+    <row r="202" spans="1:2" ht="31.2">
       <c r="A202" s="3" t="s">
         <v>370</v>
       </c>
@@ -6593,7 +6596,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="31.5">
+    <row r="215" spans="1:2" ht="31.2">
       <c r="A215" s="3" t="s">
         <v>395</v>
       </c>
@@ -6737,7 +6740,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="47.25">
+    <row r="233" spans="1:2" ht="46.8">
       <c r="A233" s="3" t="s">
         <v>417</v>
       </c>
@@ -6753,7 +6756,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="31.5">
+    <row r="235" spans="1:2" ht="31.2">
       <c r="A235" s="3" t="s">
         <v>423</v>
       </c>
@@ -6761,7 +6764,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="31.5">
+    <row r="236" spans="1:2" ht="31.2">
       <c r="A236" s="3" t="s">
         <v>426</v>
       </c>
@@ -6777,7 +6780,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" ht="31.2">
       <c r="A238" s="3" t="s">
         <v>432</v>
       </c>
@@ -6785,7 +6788,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="47.25">
+    <row r="239" spans="1:2" ht="62.4">
       <c r="A239" s="3" t="s">
         <v>435</v>
       </c>
@@ -6793,7 +6796,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="47.25">
+    <row r="240" spans="1:2" ht="46.8">
       <c r="A240" s="3" t="s">
         <v>438</v>
       </c>
@@ -6801,7 +6804,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="78.75">
+    <row r="241" spans="1:2" ht="78">
       <c r="A241" s="3" t="s">
         <v>441</v>
       </c>
@@ -6809,7 +6812,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="47.25">
+    <row r="242" spans="1:2" ht="62.4">
       <c r="A242" s="3" t="s">
         <v>444</v>
       </c>
@@ -6817,7 +6820,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="78.75">
+    <row r="243" spans="1:2" ht="78">
       <c r="A243" s="3" t="s">
         <v>447</v>
       </c>
@@ -6825,7 +6828,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="31.5">
+    <row r="244" spans="1:2" ht="31.2">
       <c r="A244" s="3" t="s">
         <v>450</v>
       </c>
@@ -6849,7 +6852,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="47.25">
+    <row r="247" spans="1:2" ht="46.8">
       <c r="A247" s="3" t="s">
         <v>455</v>
       </c>
@@ -6865,7 +6868,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="31.5">
+    <row r="249" spans="1:2" ht="31.2">
       <c r="A249" s="3" t="s">
         <v>459</v>
       </c>
@@ -6873,7 +6876,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="31.5">
+    <row r="250" spans="1:2" ht="31.2">
       <c r="A250" s="3" t="s">
         <v>461</v>
       </c>
@@ -6889,7 +6892,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" ht="31.2">
       <c r="A252" s="3" t="s">
         <v>464</v>
       </c>
@@ -6905,7 +6908,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="31.5">
+    <row r="254" spans="1:2" ht="31.2">
       <c r="A254" s="3" t="s">
         <v>467</v>
       </c>
@@ -6913,7 +6916,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="31.5">
+    <row r="255" spans="1:2" ht="31.2">
       <c r="A255" s="3" t="s">
         <v>469</v>
       </c>
@@ -6921,7 +6924,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="31.5">
+    <row r="256" spans="1:2" ht="31.2">
       <c r="A256" s="3" t="s">
         <v>472</v>
       </c>
@@ -6929,7 +6932,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="47.25">
+    <row r="257" spans="1:2" ht="46.8">
       <c r="A257" s="3" t="s">
         <v>474</v>
       </c>
@@ -6937,7 +6940,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="47.25">
+    <row r="258" spans="1:2" ht="62.4">
       <c r="A258" s="3" t="s">
         <v>477</v>
       </c>
@@ -6945,7 +6948,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="63">
+    <row r="259" spans="1:2" ht="62.4">
       <c r="A259" s="3" t="s">
         <v>479</v>
       </c>
@@ -6953,7 +6956,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="78.75">
+    <row r="260" spans="1:2" ht="78">
       <c r="A260" s="3" t="s">
         <v>481</v>
       </c>
@@ -6961,7 +6964,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="78.75">
+    <row r="261" spans="1:2" ht="78">
       <c r="A261" s="3" t="s">
         <v>483</v>
       </c>
@@ -6969,7 +6972,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="47.25">
+    <row r="262" spans="1:2" ht="46.8">
       <c r="A262" s="3" t="s">
         <v>486</v>
       </c>
@@ -6993,7 +6996,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="47.25">
+    <row r="265" spans="1:2" ht="46.8">
       <c r="A265" s="3" t="s">
         <v>490</v>
       </c>
@@ -7009,7 +7012,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="31.5">
+    <row r="267" spans="1:2" ht="31.2">
       <c r="A267" s="3" t="s">
         <v>492</v>
       </c>
@@ -7017,7 +7020,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="31.5">
+    <row r="268" spans="1:2" ht="31.2">
       <c r="A268" s="3" t="s">
         <v>493</v>
       </c>
@@ -7033,7 +7036,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" ht="31.2">
       <c r="A270" s="3" t="s">
         <v>495</v>
       </c>
@@ -7049,7 +7052,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="31.5">
+    <row r="272" spans="1:2" ht="31.2">
       <c r="A272" s="3" t="s">
         <v>497</v>
       </c>
@@ -7057,7 +7060,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="31.5">
+    <row r="273" spans="1:2" ht="31.2">
       <c r="A273" s="3" t="s">
         <v>498</v>
       </c>
@@ -7065,7 +7068,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="31.5">
+    <row r="274" spans="1:2" ht="31.2">
       <c r="A274" s="3" t="s">
         <v>499</v>
       </c>
@@ -7073,7 +7076,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="47.25">
+    <row r="275" spans="1:2" ht="46.8">
       <c r="A275" s="3" t="s">
         <v>500</v>
       </c>
@@ -7081,7 +7084,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="47.25">
+    <row r="276" spans="1:2" ht="62.4">
       <c r="A276" s="3" t="s">
         <v>501</v>
       </c>
@@ -7089,7 +7092,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="63">
+    <row r="277" spans="1:2" ht="62.4">
       <c r="A277" s="3" t="s">
         <v>502</v>
       </c>
@@ -7097,7 +7100,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="78.75">
+    <row r="278" spans="1:2" ht="78">
       <c r="A278" s="3" t="s">
         <v>503</v>
       </c>
@@ -7105,7 +7108,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="78.75">
+    <row r="279" spans="1:2" ht="78">
       <c r="A279" s="3" t="s">
         <v>504</v>
       </c>
@@ -7113,7 +7116,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="47.25">
+    <row r="280" spans="1:2" ht="46.8">
       <c r="A280" s="3" t="s">
         <v>505</v>
       </c>
@@ -7137,7 +7140,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="31.5">
+    <row r="283" spans="1:2" ht="31.2">
       <c r="A283" s="3" t="s">
         <v>507</v>
       </c>
@@ -7153,7 +7156,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="31.5">
+    <row r="285" spans="1:2" ht="31.2">
       <c r="A285" s="3" t="s">
         <v>511</v>
       </c>
@@ -7177,7 +7180,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="47.25">
+    <row r="288" spans="1:2" ht="46.8">
       <c r="A288" s="3" t="s">
         <v>519</v>
       </c>
@@ -7201,7 +7204,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="78.75">
+    <row r="291" spans="1:2" ht="78">
       <c r="A291" s="3" t="s">
         <v>527</v>
       </c>
@@ -7225,7 +7228,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="47.25">
+    <row r="294" spans="1:2" ht="46.8">
       <c r="A294" s="3" t="s">
         <v>531</v>
       </c>
@@ -7241,7 +7244,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="31.5">
+    <row r="296" spans="1:2" ht="31.2">
       <c r="A296" s="3" t="s">
         <v>533</v>
       </c>
@@ -7249,7 +7252,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="31.5">
+    <row r="297" spans="1:2" ht="31.2">
       <c r="A297" s="3" t="s">
         <v>534</v>
       </c>
@@ -7265,7 +7268,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" ht="31.2">
       <c r="A299" s="3" t="s">
         <v>536</v>
       </c>
@@ -7281,7 +7284,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="31.5">
+    <row r="301" spans="1:2" ht="31.2">
       <c r="A301" s="3" t="s">
         <v>538</v>
       </c>
@@ -7289,7 +7292,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="31.5">
+    <row r="302" spans="1:2" ht="31.2">
       <c r="A302" s="3" t="s">
         <v>539</v>
       </c>
@@ -7297,7 +7300,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="31.5">
+    <row r="303" spans="1:2" ht="31.2">
       <c r="A303" s="3" t="s">
         <v>540</v>
       </c>
@@ -7305,7 +7308,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="47.25">
+    <row r="304" spans="1:2" ht="46.8">
       <c r="A304" s="3" t="s">
         <v>541</v>
       </c>
@@ -7313,7 +7316,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="47.25">
+    <row r="305" spans="1:2" ht="62.4">
       <c r="A305" s="3" t="s">
         <v>542</v>
       </c>
@@ -7321,7 +7324,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="63">
+    <row r="306" spans="1:2" ht="62.4">
       <c r="A306" s="3" t="s">
         <v>543</v>
       </c>
@@ -7329,7 +7332,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="78.75">
+    <row r="307" spans="1:2" ht="78">
       <c r="A307" s="3" t="s">
         <v>544</v>
       </c>
@@ -7337,7 +7340,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="78.75">
+    <row r="308" spans="1:2" ht="78">
       <c r="A308" s="3" t="s">
         <v>545</v>
       </c>
@@ -7345,7 +7348,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="47.25">
+    <row r="309" spans="1:2" ht="46.8">
       <c r="A309" s="3" t="s">
         <v>546</v>
       </c>
@@ -7377,7 +7380,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="94.5">
+    <row r="313" spans="1:2" ht="93.6">
       <c r="A313" s="3" t="s">
         <v>548</v>
       </c>
@@ -7385,7 +7388,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="31.5">
+    <row r="314" spans="1:2" ht="31.2">
       <c r="A314" s="3" t="s">
         <v>550</v>
       </c>
@@ -7433,7 +7436,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="31.5">
+    <row r="320" spans="1:2" ht="31.2">
       <c r="A320" s="3" t="s">
         <v>564</v>
       </c>
@@ -7465,7 +7468,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="31.5">
+    <row r="324" spans="1:2" ht="46.8">
       <c r="A324" s="3" t="s">
         <v>575</v>
       </c>
@@ -7481,7 +7484,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="31.5">
+    <row r="326" spans="1:2" ht="31.2">
       <c r="A326" s="3" t="s">
         <v>581</v>
       </c>
@@ -7497,7 +7500,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="63">
+    <row r="328" spans="1:2" ht="62.4">
       <c r="A328" s="3" t="s">
         <v>587</v>
       </c>
@@ -7505,7 +7508,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="47.25">
+    <row r="329" spans="1:2" ht="46.8">
       <c r="A329" s="3" t="s">
         <v>589</v>
       </c>
@@ -7521,7 +7524,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="31.5">
+    <row r="331" spans="1:2" ht="31.2">
       <c r="A331" s="3" t="s">
         <v>593</v>
       </c>
@@ -7529,7 +7532,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="31.5">
+    <row r="332" spans="1:2" ht="31.2">
       <c r="A332" s="3" t="s">
         <v>596</v>
       </c>
@@ -7585,7 +7588,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="31.5">
+    <row r="339" spans="1:2" ht="31.2">
       <c r="A339" s="3" t="s">
         <v>610</v>
       </c>
@@ -7625,7 +7628,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="94.5">
+    <row r="344" spans="1:2" ht="93.6">
       <c r="A344" s="3" t="s">
         <v>618</v>
       </c>
@@ -7633,7 +7636,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="31.5">
+    <row r="345" spans="1:2" ht="31.2">
       <c r="A345" s="3" t="s">
         <v>619</v>
       </c>
@@ -7681,7 +7684,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="31.5">
+    <row r="351" spans="1:2" ht="31.2">
       <c r="A351" s="3" t="s">
         <v>631</v>
       </c>
@@ -7689,7 +7692,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="31.5">
+    <row r="352" spans="1:2" ht="31.2">
       <c r="A352" s="3" t="s">
         <v>633</v>
       </c>
@@ -7697,7 +7700,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="31.5">
+    <row r="353" spans="1:2" ht="31.2">
       <c r="A353" s="3" t="s">
         <v>635</v>
       </c>
@@ -7705,7 +7708,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="31.5">
+    <row r="354" spans="1:2" ht="46.8">
       <c r="A354" s="3" t="s">
         <v>637</v>
       </c>
@@ -7761,7 +7764,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="31.5">
+    <row r="361" spans="1:2" ht="31.2">
       <c r="A361" s="3" t="s">
         <v>646</v>
       </c>
@@ -7801,7 +7804,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="78.75">
+    <row r="366" spans="1:2" ht="78">
       <c r="A366" s="3" t="s">
         <v>650</v>
       </c>
@@ -7809,7 +7812,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="31.5">
+    <row r="367" spans="1:2" ht="31.2">
       <c r="A367" s="3" t="s">
         <v>652</v>
       </c>
@@ -7841,7 +7844,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="31.5">
+    <row r="371" spans="1:2" ht="31.2">
       <c r="A371" s="3" t="s">
         <v>658</v>
       </c>
@@ -7849,7 +7852,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="31.5">
+    <row r="372" spans="1:2" ht="31.2">
       <c r="A372" s="3" t="s">
         <v>660</v>
       </c>
@@ -7865,7 +7868,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="31.5">
+    <row r="374" spans="1:2" ht="31.2">
       <c r="A374" s="3" t="s">
         <v>665</v>
       </c>
@@ -7873,7 +7876,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="31.5">
+    <row r="375" spans="1:2" ht="31.2">
       <c r="A375" s="3" t="s">
         <v>667</v>
       </c>
@@ -7881,7 +7884,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="31.5">
+    <row r="376" spans="1:2" ht="46.8">
       <c r="A376" s="3" t="s">
         <v>669</v>
       </c>
@@ -7937,7 +7940,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="31.5">
+    <row r="383" spans="1:2" ht="31.2">
       <c r="A383" s="3" t="s">
         <v>676</v>
       </c>
@@ -7977,7 +7980,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="78.75">
+    <row r="388" spans="1:2" ht="78">
       <c r="A388" s="3" t="s">
         <v>680</v>
       </c>
@@ -7985,7 +7988,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="31.5">
+    <row r="389" spans="1:2" ht="31.2">
       <c r="A389" s="3" t="s">
         <v>681</v>
       </c>
@@ -8041,7 +8044,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="31.5">
+    <row r="396" spans="1:2" ht="31.2">
       <c r="A396" s="3" t="s">
         <v>691</v>
       </c>
@@ -8065,7 +8068,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="31.5">
+    <row r="399" spans="1:2" ht="31.2">
       <c r="A399" s="3" t="s">
         <v>698</v>
       </c>
@@ -8105,7 +8108,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="31.5">
+    <row r="404" spans="1:2" ht="31.2">
       <c r="A404" s="3" t="s">
         <v>707</v>
       </c>
@@ -8129,7 +8132,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="31.5">
+    <row r="407" spans="1:2" ht="31.2">
       <c r="A407" s="3" t="s">
         <v>710</v>
       </c>
@@ -8145,7 +8148,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="63">
+    <row r="409" spans="1:2" ht="62.4">
       <c r="A409" s="3" t="s">
         <v>712</v>
       </c>
@@ -8153,7 +8156,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="47.25">
+    <row r="410" spans="1:2" ht="46.8">
       <c r="A410" s="3" t="s">
         <v>713</v>
       </c>
@@ -8169,7 +8172,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="31.5">
+    <row r="412" spans="1:2" ht="31.2">
       <c r="A412" s="3" t="s">
         <v>716</v>
       </c>
@@ -8225,7 +8228,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="31.5">
+    <row r="419" spans="1:2" ht="31.2">
       <c r="A419" s="3" t="s">
         <v>723</v>
       </c>
@@ -8321,7 +8324,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="78.75">
+    <row r="431" spans="1:2" ht="78">
       <c r="A431" s="3" t="s">
         <v>732</v>
       </c>
@@ -8329,7 +8332,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="31.5">
+    <row r="432" spans="1:2" ht="31.2">
       <c r="A432" s="3" t="s">
         <v>733</v>
       </c>
@@ -8385,7 +8388,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="31.5">
+    <row r="439" spans="1:2" ht="31.2">
       <c r="A439" s="3" t="s">
         <v>742</v>
       </c>
@@ -8393,7 +8396,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="47.25">
+    <row r="440" spans="1:2" ht="46.8">
       <c r="A440" s="3" t="s">
         <v>744</v>
       </c>
@@ -8457,7 +8460,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="31.5">
+    <row r="448" spans="1:2" ht="31.2">
       <c r="A448" s="3" t="s">
         <v>753</v>
       </c>
@@ -8496,24 +8499,24 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" style="4" customWidth="1"/>
     <col min="2" max="2" width="12" style="4" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="43.69921875" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="37" customWidth="1"/>
-    <col min="6" max="6" width="58.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.09765625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="58.69921875" style="4" customWidth="1"/>
     <col min="7" max="7" width="36.5" style="34" customWidth="1"/>
     <col min="8" max="1026" width="8.5" style="17" customWidth="1"/>
     <col min="1027" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="33" customFormat="1" ht="18.75">
+    <row r="1" spans="1:7" s="33" customFormat="1" ht="18">
       <c r="A1" s="38" t="s">
         <v>52</v>
       </c>
@@ -11727,7 +11730,7 @@
       <c r="F174" s="42"/>
       <c r="G174" s="42"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" ht="30">
       <c r="A175" s="42" t="s">
         <v>56</v>
       </c>
@@ -12048,7 +12051,7 @@
       <c r="F193" s="42"/>
       <c r="G193" s="42"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" ht="30">
       <c r="A194" s="42" t="s">
         <v>56</v>
       </c>
@@ -12306,7 +12309,7 @@
         <v>56</v>
       </c>
       <c r="B209" s="42" t="s">
-        <v>319</v>
+        <v>1308</v>
       </c>
       <c r="C209" s="42" t="s">
         <v>293</v>
@@ -12369,7 +12372,7 @@
       <c r="F212" s="42"/>
       <c r="G212" s="42"/>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" ht="30">
       <c r="A213" s="42" t="s">
         <v>56</v>
       </c>
@@ -13215,7 +13218,7 @@
       <c r="F262" s="42"/>
       <c r="G262" s="47"/>
     </row>
-    <row r="263" spans="1:7" ht="60">
+    <row r="263" spans="1:7" ht="75">
       <c r="A263" s="42" t="s">
         <v>56</v>
       </c>
@@ -14027,7 +14030,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" ht="30">
       <c r="A311" s="42" t="s">
         <v>56</v>
       </c>
@@ -14061,7 +14064,7 @@
       <c r="F312" s="42"/>
       <c r="G312" s="47"/>
     </row>
-    <row r="313" spans="1:7" ht="45">
+    <row r="313" spans="1:7" ht="60">
       <c r="A313" s="42" t="s">
         <v>56</v>
       </c>
@@ -17026,14 +17029,14 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="81.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="45.09765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="81.3984375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -17119,7 +17122,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="126">
+    <row r="5" spans="1:7" ht="140.4">
       <c r="A5" s="3" t="s">
         <v>68</v>
       </c>
@@ -17173,15 +17176,15 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="68.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" style="4" customWidth="1"/>
     <col min="4" max="4" width="100" style="4" customWidth="1"/>
-    <col min="5" max="6" width="22.875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="22.8984375" style="4" customWidth="1"/>
     <col min="7" max="7" width="20" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -17322,7 +17325,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5">
+    <row r="8" spans="1:7" ht="31.2">
       <c r="A8" s="6" t="s">
         <v>784</v>
       </c>
@@ -17875,7 +17878,7 @@
       </c>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" ht="63">
+    <row r="37" spans="1:7" ht="78">
       <c r="A37" s="6" t="s">
         <v>246</v>
       </c>
@@ -17896,7 +17899,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.5">
+    <row r="38" spans="1:7" ht="31.2">
       <c r="A38" s="6" t="s">
         <v>509</v>
       </c>
@@ -17972,7 +17975,7 @@
       </c>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7" ht="47.25">
+    <row r="42" spans="1:7" ht="46.8">
       <c r="A42" s="6" t="s">
         <v>263</v>
       </c>
@@ -18256,19 +18259,19 @@
       <selection sqref="A1:D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="47.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="80.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="47.3984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="80.8984375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="17" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="17" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="24" customFormat="1" ht="30.95" customHeight="1">
+    <row r="1" spans="1:256" s="24" customFormat="1" ht="30.9" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>756</v>
       </c>
@@ -19262,7 +19265,7 @@
       </c>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7" ht="30.95" customHeight="1">
+    <row r="40" spans="1:7" ht="30.9" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>924</v>
       </c>
@@ -19315,7 +19318,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:7" ht="30.95" customHeight="1">
+    <row r="43" spans="1:7" ht="30.9" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>934</v>
       </c>
@@ -19423,7 +19426,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="1:256" s="32" customFormat="1" ht="31.5">
+    <row r="49" spans="1:256" s="32" customFormat="1" ht="31.2">
       <c r="A49" s="57" t="s">
         <v>955</v>
       </c>
@@ -19721,17 +19724,17 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="41.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.3984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41.3984375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" style="4" customWidth="1"/>
     <col min="7" max="7" width="29" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="17" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="17" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -20201,7 +20204,7 @@
       <c r="F24" s="58"/>
       <c r="G24" s="58"/>
     </row>
-    <row r="25" spans="1:7" ht="45">
+    <row r="25" spans="1:7" ht="43.2">
       <c r="A25" s="58" t="s">
         <v>1213</v>
       </c>
@@ -20218,7 +20221,7 @@
       <c r="F25" s="58"/>
       <c r="G25" s="58"/>
     </row>
-    <row r="26" spans="1:7" ht="30">
+    <row r="26" spans="1:7" ht="28.8">
       <c r="A26" s="58" t="s">
         <v>1267</v>
       </c>
@@ -20235,7 +20238,7 @@
       <c r="F26" s="58"/>
       <c r="G26" s="58"/>
     </row>
-    <row r="27" spans="1:7" ht="30">
+    <row r="27" spans="1:7" ht="28.8">
       <c r="A27" s="58" t="s">
         <v>1270</v>
       </c>
@@ -20252,7 +20255,7 @@
       <c r="F27" s="58"/>
       <c r="G27" s="58"/>
     </row>
-    <row r="28" spans="1:7" ht="30">
+    <row r="28" spans="1:7" ht="28.8">
       <c r="A28" s="58" t="s">
         <v>1273</v>
       </c>
@@ -20269,7 +20272,7 @@
       <c r="F28" s="58"/>
       <c r="G28" s="58"/>
     </row>
-    <row r="29" spans="1:7" ht="30">
+    <row r="29" spans="1:7" ht="28.8">
       <c r="A29" s="58" t="s">
         <v>1276</v>
       </c>
@@ -20286,7 +20289,7 @@
       <c r="F29" s="58"/>
       <c r="G29" s="58"/>
     </row>
-    <row r="30" spans="1:7" ht="30">
+    <row r="30" spans="1:7" ht="28.8">
       <c r="A30" s="58" t="s">
         <v>1279</v>
       </c>
@@ -20321,18 +20324,18 @@
       <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="9" style="17"/>
-    <col min="2" max="2" width="54.125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="54.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="103.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="75.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54.09765625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="17.69921875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="54.59765625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="103.8984375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="35.59765625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="75.59765625" style="4" customWidth="1"/>
     <col min="8" max="9" width="10.5" style="4" customWidth="1"/>
-    <col min="10" max="258" width="8.875" style="4" customWidth="1"/>
-    <col min="259" max="1027" width="8.875" style="17" customWidth="1"/>
+    <col min="10" max="258" width="8.8984375" style="4" customWidth="1"/>
+    <col min="259" max="1027" width="8.8984375" style="17" customWidth="1"/>
     <col min="1028" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -20411,7 +20414,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="78.75">
+    <row r="4" spans="1:9" ht="78">
       <c r="A4" s="55" t="s">
         <v>1002</v>
       </c>
@@ -20450,17 +20453,17 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" style="18" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="18" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="18" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="31.8984375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="18" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="18" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="18" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="18" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -21159,7 +21162,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="23" spans="1:256" s="36" customFormat="1" ht="31.5">
+    <row r="23" spans="1:256" s="36" customFormat="1" ht="31.2">
       <c r="A23" s="6" t="s">
         <v>1069</v>
       </c>
@@ -21957,7 +21960,7 @@
       <c r="IU25" s="35"/>
       <c r="IV25" s="35"/>
     </row>
-    <row r="26" spans="1:256" s="36" customFormat="1" ht="31.5">
+    <row r="26" spans="1:256" s="36" customFormat="1" ht="31.2">
       <c r="A26" s="6" t="s">
         <v>1065</v>
       </c>
@@ -22507,15 +22510,15 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5" style="22" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" style="17" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="17" customWidth="1"/>
     <col min="4" max="5" width="44.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="17" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="17" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="17" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="17" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -22791,7 +22794,7 @@
       <c r="IU1" s="23"/>
       <c r="IV1" s="23"/>
     </row>
-    <row r="2" spans="1:256" ht="31.5">
+    <row r="2" spans="1:256" ht="31.2">
       <c r="A2" s="56" t="s">
         <v>1201</v>
       </c>
@@ -22812,7 +22815,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="31.5">
+    <row r="3" spans="1:256" ht="31.2">
       <c r="A3" s="56" t="s">
         <v>1292</v>
       </c>
@@ -22833,7 +22836,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:256" ht="31.5">
+    <row r="4" spans="1:256" ht="31.2">
       <c r="A4" s="6" t="s">
         <v>1295</v>
       </c>

--- a/conformancelib/testdata/85b_test_definitions_PIV-I_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV-I_ICAM_Test_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\gsa-devel\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3EF5A7-7234-4986-85D6-BB292FF3BECC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6308DA3F-811E-4DDC-B8D8-419EBE64B87B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6075" yWindow="255" windowWidth="23310" windowHeight="13785" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3777" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3766" uniqueCount="1309">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -4805,13 +4805,13 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="57.3984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57.375" style="4" customWidth="1"/>
     <col min="3" max="5" width="10.5" style="4" customWidth="1"/>
-    <col min="6" max="256" width="8.8984375" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.8984375" style="17" customWidth="1"/>
+    <col min="6" max="256" width="8.875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="17" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -5468,7 +5468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="31.2">
+    <row r="74" spans="1:5" ht="31.5">
       <c r="A74" s="3" t="s">
         <v>197</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="31.2">
+    <row r="85" spans="1:2" ht="31.5">
       <c r="A85" s="3" t="s">
         <v>208</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31.2">
+    <row r="96" spans="1:2" ht="31.5">
       <c r="A96" s="3" t="s">
         <v>219</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="31.2">
+    <row r="107" spans="1:2">
       <c r="A107" s="3" t="s">
         <v>230</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="31.2">
+    <row r="114" spans="1:2" ht="31.5">
       <c r="A114" s="3" t="s">
         <v>244</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="27.6">
+    <row r="116" spans="1:2" ht="28.5">
       <c r="A116" s="3" t="s">
         <v>247</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="46.8">
+    <row r="121" spans="1:2" ht="47.25">
       <c r="A121" s="3" t="s">
         <v>256</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="62.4">
+    <row r="123" spans="1:2" ht="63">
       <c r="A123" s="3" t="s">
         <v>261</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="31.2">
+    <row r="142" spans="1:2" ht="31.5">
       <c r="A142" s="3" t="s">
         <v>284</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="31.2">
+    <row r="144" spans="1:2" ht="31.5">
       <c r="A144" s="3" t="s">
         <v>288</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="46.8">
+    <row r="145" spans="1:2" ht="47.25">
       <c r="A145" s="3" t="s">
         <v>290</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="46.8">
+    <row r="146" spans="1:2" ht="47.25">
       <c r="A146" s="3" t="s">
         <v>292</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="46.8">
+    <row r="149" spans="1:2" ht="47.25">
       <c r="A149" s="3" t="s">
         <v>298</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="62.4">
+    <row r="151" spans="1:2" ht="63">
       <c r="A151" s="3" t="s">
         <v>302</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="31.2">
+    <row r="152" spans="1:2" ht="31.5">
       <c r="A152" s="3" t="s">
         <v>304</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="31.2">
+    <row r="153" spans="1:2" ht="31.5">
       <c r="A153" s="3" t="s">
         <v>306</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="31.2">
+    <row r="161" spans="1:2" ht="31.5">
       <c r="A161" s="3" t="s">
         <v>314</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="31.2">
+    <row r="163" spans="1:2" ht="31.5">
       <c r="A163" s="3" t="s">
         <v>316</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="31.2">
+    <row r="164" spans="1:2" ht="31.5">
       <c r="A164" s="3" t="s">
         <v>317</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="46.8">
+    <row r="165" spans="1:2" ht="47.25">
       <c r="A165" s="3" t="s">
         <v>319</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="31.2">
+    <row r="168" spans="1:2" ht="31.5">
       <c r="A168" s="3" t="s">
         <v>323</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="62.4">
+    <row r="170" spans="1:2" ht="63">
       <c r="A170" s="3" t="s">
         <v>327</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="31.2">
+    <row r="171" spans="1:2" ht="31.5">
       <c r="A171" s="3" t="s">
         <v>328</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="31.2">
+    <row r="172" spans="1:2" ht="31.5">
       <c r="A172" s="3" t="s">
         <v>329</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="46.8">
+    <row r="184" spans="1:2" ht="47.25">
       <c r="A184" s="3" t="s">
         <v>319</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="31.2">
+    <row r="186" spans="1:2">
       <c r="A186" s="3" t="s">
         <v>344</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="31.2">
+    <row r="187" spans="1:2" ht="31.5">
       <c r="A187" s="3" t="s">
         <v>346</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="62.4">
+    <row r="189" spans="1:2" ht="63">
       <c r="A189" s="3" t="s">
         <v>349</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="31.2">
+    <row r="190" spans="1:2" ht="31.5">
       <c r="A190" s="3" t="s">
         <v>350</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="31.2">
+    <row r="191" spans="1:2" ht="31.5">
       <c r="A191" s="3" t="s">
         <v>351</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="46.8">
+    <row r="197" spans="1:2" ht="47.25">
       <c r="A197" s="3" t="s">
         <v>361</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="46.8">
+    <row r="198" spans="1:2" ht="47.25">
       <c r="A198" s="3" t="s">
         <v>363</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="31.2">
+    <row r="201" spans="1:2" ht="31.5">
       <c r="A201" s="3" t="s">
         <v>368</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="31.2">
+    <row r="202" spans="1:2" ht="31.5">
       <c r="A202" s="3" t="s">
         <v>370</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="31.2">
+    <row r="215" spans="1:2" ht="31.5">
       <c r="A215" s="3" t="s">
         <v>395</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="46.8">
+    <row r="233" spans="1:2" ht="47.25">
       <c r="A233" s="3" t="s">
         <v>417</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="31.2">
+    <row r="235" spans="1:2" ht="31.5">
       <c r="A235" s="3" t="s">
         <v>423</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="31.2">
+    <row r="236" spans="1:2" ht="31.5">
       <c r="A236" s="3" t="s">
         <v>426</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="31.2">
+    <row r="238" spans="1:2">
       <c r="A238" s="3" t="s">
         <v>432</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="62.4">
+    <row r="239" spans="1:2" ht="47.25">
       <c r="A239" s="3" t="s">
         <v>435</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="46.8">
+    <row r="240" spans="1:2" ht="47.25">
       <c r="A240" s="3" t="s">
         <v>438</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="78">
+    <row r="241" spans="1:2" ht="78.75">
       <c r="A241" s="3" t="s">
         <v>441</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="62.4">
+    <row r="242" spans="1:2" ht="47.25">
       <c r="A242" s="3" t="s">
         <v>444</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="78">
+    <row r="243" spans="1:2" ht="78.75">
       <c r="A243" s="3" t="s">
         <v>447</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="31.2">
+    <row r="244" spans="1:2" ht="31.5">
       <c r="A244" s="3" t="s">
         <v>450</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="46.8">
+    <row r="247" spans="1:2" ht="47.25">
       <c r="A247" s="3" t="s">
         <v>455</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="31.2">
+    <row r="249" spans="1:2" ht="31.5">
       <c r="A249" s="3" t="s">
         <v>459</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="31.2">
+    <row r="250" spans="1:2" ht="31.5">
       <c r="A250" s="3" t="s">
         <v>461</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="31.2">
+    <row r="252" spans="1:2">
       <c r="A252" s="3" t="s">
         <v>464</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="31.2">
+    <row r="254" spans="1:2" ht="31.5">
       <c r="A254" s="3" t="s">
         <v>467</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="31.2">
+    <row r="255" spans="1:2" ht="31.5">
       <c r="A255" s="3" t="s">
         <v>469</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="31.2">
+    <row r="256" spans="1:2" ht="31.5">
       <c r="A256" s="3" t="s">
         <v>472</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="46.8">
+    <row r="257" spans="1:2" ht="47.25">
       <c r="A257" s="3" t="s">
         <v>474</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="62.4">
+    <row r="258" spans="1:2" ht="47.25">
       <c r="A258" s="3" t="s">
         <v>477</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="62.4">
+    <row r="259" spans="1:2" ht="63">
       <c r="A259" s="3" t="s">
         <v>479</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="78">
+    <row r="260" spans="1:2" ht="78.75">
       <c r="A260" s="3" t="s">
         <v>481</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="78">
+    <row r="261" spans="1:2" ht="78.75">
       <c r="A261" s="3" t="s">
         <v>483</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="46.8">
+    <row r="262" spans="1:2" ht="47.25">
       <c r="A262" s="3" t="s">
         <v>486</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="46.8">
+    <row r="265" spans="1:2" ht="47.25">
       <c r="A265" s="3" t="s">
         <v>490</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="31.2">
+    <row r="267" spans="1:2" ht="31.5">
       <c r="A267" s="3" t="s">
         <v>492</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="31.2">
+    <row r="268" spans="1:2" ht="31.5">
       <c r="A268" s="3" t="s">
         <v>493</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="31.2">
+    <row r="270" spans="1:2">
       <c r="A270" s="3" t="s">
         <v>495</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="31.2">
+    <row r="272" spans="1:2" ht="31.5">
       <c r="A272" s="3" t="s">
         <v>497</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="31.2">
+    <row r="273" spans="1:2" ht="31.5">
       <c r="A273" s="3" t="s">
         <v>498</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="31.2">
+    <row r="274" spans="1:2" ht="31.5">
       <c r="A274" s="3" t="s">
         <v>499</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="46.8">
+    <row r="275" spans="1:2" ht="47.25">
       <c r="A275" s="3" t="s">
         <v>500</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="62.4">
+    <row r="276" spans="1:2" ht="47.25">
       <c r="A276" s="3" t="s">
         <v>501</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="62.4">
+    <row r="277" spans="1:2" ht="63">
       <c r="A277" s="3" t="s">
         <v>502</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="78">
+    <row r="278" spans="1:2" ht="78.75">
       <c r="A278" s="3" t="s">
         <v>503</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="78">
+    <row r="279" spans="1:2" ht="78.75">
       <c r="A279" s="3" t="s">
         <v>504</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="46.8">
+    <row r="280" spans="1:2" ht="47.25">
       <c r="A280" s="3" t="s">
         <v>505</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="31.2">
+    <row r="283" spans="1:2" ht="31.5">
       <c r="A283" s="3" t="s">
         <v>507</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="31.2">
+    <row r="285" spans="1:2" ht="31.5">
       <c r="A285" s="3" t="s">
         <v>511</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="46.8">
+    <row r="288" spans="1:2" ht="47.25">
       <c r="A288" s="3" t="s">
         <v>519</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="78">
+    <row r="291" spans="1:2" ht="78.75">
       <c r="A291" s="3" t="s">
         <v>527</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="46.8">
+    <row r="294" spans="1:2" ht="47.25">
       <c r="A294" s="3" t="s">
         <v>531</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="31.2">
+    <row r="296" spans="1:2" ht="31.5">
       <c r="A296" s="3" t="s">
         <v>533</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="31.2">
+    <row r="297" spans="1:2" ht="31.5">
       <c r="A297" s="3" t="s">
         <v>534</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="31.2">
+    <row r="299" spans="1:2">
       <c r="A299" s="3" t="s">
         <v>536</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="31.2">
+    <row r="301" spans="1:2" ht="31.5">
       <c r="A301" s="3" t="s">
         <v>538</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="31.2">
+    <row r="302" spans="1:2" ht="31.5">
       <c r="A302" s="3" t="s">
         <v>539</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="31.2">
+    <row r="303" spans="1:2" ht="31.5">
       <c r="A303" s="3" t="s">
         <v>540</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="46.8">
+    <row r="304" spans="1:2" ht="47.25">
       <c r="A304" s="3" t="s">
         <v>541</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="62.4">
+    <row r="305" spans="1:2" ht="47.25">
       <c r="A305" s="3" t="s">
         <v>542</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="62.4">
+    <row r="306" spans="1:2" ht="63">
       <c r="A306" s="3" t="s">
         <v>543</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="78">
+    <row r="307" spans="1:2" ht="78.75">
       <c r="A307" s="3" t="s">
         <v>544</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="78">
+    <row r="308" spans="1:2" ht="78.75">
       <c r="A308" s="3" t="s">
         <v>545</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="46.8">
+    <row r="309" spans="1:2" ht="47.25">
       <c r="A309" s="3" t="s">
         <v>546</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="93.6">
+    <row r="313" spans="1:2" ht="94.5">
       <c r="A313" s="3" t="s">
         <v>548</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="31.2">
+    <row r="314" spans="1:2" ht="31.5">
       <c r="A314" s="3" t="s">
         <v>550</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="31.2">
+    <row r="320" spans="1:2" ht="31.5">
       <c r="A320" s="3" t="s">
         <v>564</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="46.8">
+    <row r="324" spans="1:2" ht="31.5">
       <c r="A324" s="3" t="s">
         <v>575</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="31.2">
+    <row r="326" spans="1:2" ht="31.5">
       <c r="A326" s="3" t="s">
         <v>581</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="62.4">
+    <row r="328" spans="1:2" ht="63">
       <c r="A328" s="3" t="s">
         <v>587</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="46.8">
+    <row r="329" spans="1:2" ht="47.25">
       <c r="A329" s="3" t="s">
         <v>589</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="31.2">
+    <row r="331" spans="1:2" ht="31.5">
       <c r="A331" s="3" t="s">
         <v>593</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="31.2">
+    <row r="332" spans="1:2" ht="31.5">
       <c r="A332" s="3" t="s">
         <v>596</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="31.2">
+    <row r="339" spans="1:2" ht="31.5">
       <c r="A339" s="3" t="s">
         <v>610</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="93.6">
+    <row r="344" spans="1:2" ht="94.5">
       <c r="A344" s="3" t="s">
         <v>618</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="31.2">
+    <row r="345" spans="1:2" ht="31.5">
       <c r="A345" s="3" t="s">
         <v>619</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="31.2">
+    <row r="351" spans="1:2" ht="31.5">
       <c r="A351" s="3" t="s">
         <v>631</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="31.2">
+    <row r="352" spans="1:2" ht="31.5">
       <c r="A352" s="3" t="s">
         <v>633</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="31.2">
+    <row r="353" spans="1:2" ht="31.5">
       <c r="A353" s="3" t="s">
         <v>635</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="46.8">
+    <row r="354" spans="1:2" ht="31.5">
       <c r="A354" s="3" t="s">
         <v>637</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="31.2">
+    <row r="361" spans="1:2" ht="31.5">
       <c r="A361" s="3" t="s">
         <v>646</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="78">
+    <row r="366" spans="1:2" ht="78.75">
       <c r="A366" s="3" t="s">
         <v>650</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="31.2">
+    <row r="367" spans="1:2" ht="31.5">
       <c r="A367" s="3" t="s">
         <v>652</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="31.2">
+    <row r="371" spans="1:2" ht="31.5">
       <c r="A371" s="3" t="s">
         <v>658</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="31.2">
+    <row r="372" spans="1:2" ht="31.5">
       <c r="A372" s="3" t="s">
         <v>660</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="31.2">
+    <row r="374" spans="1:2" ht="31.5">
       <c r="A374" s="3" t="s">
         <v>665</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="31.2">
+    <row r="375" spans="1:2" ht="31.5">
       <c r="A375" s="3" t="s">
         <v>667</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="46.8">
+    <row r="376" spans="1:2" ht="31.5">
       <c r="A376" s="3" t="s">
         <v>669</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="31.2">
+    <row r="383" spans="1:2" ht="31.5">
       <c r="A383" s="3" t="s">
         <v>676</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="78">
+    <row r="388" spans="1:2" ht="78.75">
       <c r="A388" s="3" t="s">
         <v>680</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="31.2">
+    <row r="389" spans="1:2" ht="31.5">
       <c r="A389" s="3" t="s">
         <v>681</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="31.2">
+    <row r="396" spans="1:2" ht="31.5">
       <c r="A396" s="3" t="s">
         <v>691</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="31.2">
+    <row r="399" spans="1:2" ht="31.5">
       <c r="A399" s="3" t="s">
         <v>698</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="31.2">
+    <row r="404" spans="1:2" ht="31.5">
       <c r="A404" s="3" t="s">
         <v>707</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="31.2">
+    <row r="407" spans="1:2" ht="31.5">
       <c r="A407" s="3" t="s">
         <v>710</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="62.4">
+    <row r="409" spans="1:2" ht="63">
       <c r="A409" s="3" t="s">
         <v>712</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="46.8">
+    <row r="410" spans="1:2" ht="47.25">
       <c r="A410" s="3" t="s">
         <v>713</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="31.2">
+    <row r="412" spans="1:2" ht="31.5">
       <c r="A412" s="3" t="s">
         <v>716</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="31.2">
+    <row r="419" spans="1:2" ht="31.5">
       <c r="A419" s="3" t="s">
         <v>723</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="78">
+    <row r="431" spans="1:2" ht="78.75">
       <c r="A431" s="3" t="s">
         <v>732</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="31.2">
+    <row r="432" spans="1:2" ht="31.5">
       <c r="A432" s="3" t="s">
         <v>733</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="31.2">
+    <row r="439" spans="1:2" ht="31.5">
       <c r="A439" s="3" t="s">
         <v>742</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="46.8">
+    <row r="440" spans="1:2" ht="47.25">
       <c r="A440" s="3" t="s">
         <v>744</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="31.2">
+    <row r="448" spans="1:2" ht="31.5">
       <c r="A448" s="3" t="s">
         <v>753</v>
       </c>
@@ -8497,26 +8497,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G472"/>
+  <dimension ref="A1:G471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B209" sqref="B209"/>
+    <sheetView tabSelected="1" topLeftCell="A454" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F471" sqref="F471"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.19921875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="12" style="4" customWidth="1"/>
-    <col min="3" max="3" width="43.69921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.09765625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="58.69921875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="58.75" style="4" customWidth="1"/>
     <col min="7" max="7" width="36.5" style="34" customWidth="1"/>
     <col min="8" max="1026" width="8.5" style="17" customWidth="1"/>
     <col min="1027" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="33" customFormat="1" ht="18">
+    <row r="1" spans="1:7" s="33" customFormat="1" ht="18.75">
       <c r="A1" s="38" t="s">
         <v>52</v>
       </c>
@@ -11730,7 +11730,7 @@
       <c r="F174" s="42"/>
       <c r="G174" s="42"/>
     </row>
-    <row r="175" spans="1:7" ht="30">
+    <row r="175" spans="1:7">
       <c r="A175" s="42" t="s">
         <v>56</v>
       </c>
@@ -12051,7 +12051,7 @@
       <c r="F193" s="42"/>
       <c r="G193" s="42"/>
     </row>
-    <row r="194" spans="1:7" ht="30">
+    <row r="194" spans="1:7">
       <c r="A194" s="42" t="s">
         <v>56</v>
       </c>
@@ -12372,7 +12372,7 @@
       <c r="F212" s="42"/>
       <c r="G212" s="42"/>
     </row>
-    <row r="213" spans="1:7" ht="30">
+    <row r="213" spans="1:7">
       <c r="A213" s="42" t="s">
         <v>56</v>
       </c>
@@ -13371,7 +13371,7 @@
       <c r="F271" s="44"/>
       <c r="G271" s="44"/>
     </row>
-    <row r="272" spans="1:7" ht="60">
+    <row r="272" spans="1:7" ht="75">
       <c r="A272" s="42" t="s">
         <v>56</v>
       </c>
@@ -13675,7 +13675,7 @@
       <c r="F289" s="44"/>
       <c r="G289" s="44"/>
     </row>
-    <row r="290" spans="1:7" ht="60">
+    <row r="290" spans="1:7" ht="75">
       <c r="A290" s="42" t="s">
         <v>56</v>
       </c>
@@ -14162,7 +14162,7 @@
       <c r="F318" s="44"/>
       <c r="G318" s="52"/>
     </row>
-    <row r="319" spans="1:7" ht="60">
+    <row r="319" spans="1:7" ht="75">
       <c r="A319" s="42" t="s">
         <v>56</v>
       </c>
@@ -14711,18 +14711,18 @@
       </c>
       <c r="G349" s="47"/>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" ht="45">
       <c r="A350" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B350" s="42" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C350" s="47" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D350" s="42" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="E350" s="42"/>
       <c r="F350" s="42" t="s">
@@ -14730,49 +14730,51 @@
       </c>
       <c r="G350" s="47"/>
     </row>
-    <row r="351" spans="1:7" ht="45">
+    <row r="351" spans="1:7">
       <c r="A351" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B351" s="42" t="s">
-        <v>581</v>
-      </c>
-      <c r="C351" s="47" t="s">
-        <v>582</v>
-      </c>
-      <c r="D351" s="42" t="s">
-        <v>583</v>
-      </c>
-      <c r="E351" s="42"/>
-      <c r="F351" s="42" t="s">
+        <v>584</v>
+      </c>
+      <c r="C351" s="44" t="s">
+        <v>585</v>
+      </c>
+      <c r="D351" s="44"/>
+      <c r="E351" s="44"/>
+      <c r="F351" s="44"/>
+      <c r="G351" s="44"/>
+    </row>
+    <row r="352" spans="1:7" ht="90">
+      <c r="A352" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B352" s="42" t="s">
+        <v>587</v>
+      </c>
+      <c r="C352" s="47" t="s">
+        <v>588</v>
+      </c>
+      <c r="D352" s="42" t="s">
+        <v>586</v>
+      </c>
+      <c r="E352" s="42"/>
+      <c r="F352" s="42" t="s">
         <v>1160</v>
       </c>
-      <c r="G351" s="47"/>
-    </row>
-    <row r="352" spans="1:7">
-      <c r="A352" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B352" s="42" t="s">
-        <v>584</v>
-      </c>
-      <c r="C352" s="44" t="s">
-        <v>585</v>
-      </c>
-      <c r="D352" s="44"/>
-      <c r="E352" s="44"/>
-      <c r="F352" s="44"/>
-      <c r="G352" s="44"/>
-    </row>
-    <row r="353" spans="1:7" ht="90">
+      <c r="G352" s="47" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" ht="60">
       <c r="A353" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B353" s="42" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C353" s="47" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D353" s="42" t="s">
         <v>586</v>
@@ -14781,60 +14783,58 @@
       <c r="F353" s="42" t="s">
         <v>1160</v>
       </c>
-      <c r="G353" s="47" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" ht="60">
+      <c r="G353" s="47"/>
+    </row>
+    <row r="354" spans="1:7" ht="30">
       <c r="A354" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B354" s="42" t="s">
-        <v>589</v>
-      </c>
-      <c r="C354" s="47" t="s">
-        <v>590</v>
+        <v>591</v>
+      </c>
+      <c r="C354" s="42" t="s">
+        <v>592</v>
       </c>
       <c r="D354" s="42" t="s">
-        <v>586</v>
+        <v>1201</v>
       </c>
       <c r="E354" s="42"/>
       <c r="F354" s="42" t="s">
         <v>1160</v>
       </c>
-      <c r="G354" s="47"/>
-    </row>
-    <row r="355" spans="1:7" ht="30">
+      <c r="G354" s="42"/>
+    </row>
+    <row r="355" spans="1:7" ht="45">
       <c r="A355" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B355" s="42" t="s">
-        <v>591</v>
-      </c>
-      <c r="C355" s="42" t="s">
-        <v>592</v>
+        <v>593</v>
+      </c>
+      <c r="C355" s="47" t="s">
+        <v>594</v>
       </c>
       <c r="D355" s="42" t="s">
-        <v>1201</v>
+        <v>595</v>
       </c>
       <c r="E355" s="42"/>
       <c r="F355" s="42" t="s">
         <v>1160</v>
       </c>
-      <c r="G355" s="42"/>
-    </row>
-    <row r="356" spans="1:7" ht="45">
+      <c r="G355" s="47"/>
+    </row>
+    <row r="356" spans="1:7" ht="30">
       <c r="A356" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B356" s="42" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C356" s="47" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D356" s="42" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="E356" s="42"/>
       <c r="F356" s="42" t="s">
@@ -14842,147 +14842,147 @@
       </c>
       <c r="G356" s="47"/>
     </row>
-    <row r="357" spans="1:7" ht="30">
+    <row r="357" spans="1:7">
       <c r="A357" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B357" s="42" t="s">
-        <v>596</v>
-      </c>
-      <c r="C357" s="47" t="s">
-        <v>597</v>
-      </c>
-      <c r="D357" s="42" t="s">
-        <v>598</v>
-      </c>
-      <c r="E357" s="42"/>
-      <c r="F357" s="42" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G357" s="47"/>
+        <v>599</v>
+      </c>
+      <c r="C357" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="D357" s="44"/>
+      <c r="E357" s="44"/>
+      <c r="F357" s="44"/>
+      <c r="G357" s="44"/>
     </row>
     <row r="358" spans="1:7">
       <c r="A358" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B358" s="42" t="s">
-        <v>599</v>
-      </c>
-      <c r="C358" s="44" t="s">
-        <v>600</v>
-      </c>
-      <c r="D358" s="44"/>
-      <c r="E358" s="44"/>
-      <c r="F358" s="44"/>
-      <c r="G358" s="44"/>
+        <v>601</v>
+      </c>
+      <c r="C358" s="47" t="s">
+        <v>602</v>
+      </c>
+      <c r="D358" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="E358" s="42"/>
+      <c r="F358" s="42" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G358" s="42" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="359" spans="1:7">
       <c r="A359" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B359" s="42" t="s">
-        <v>601</v>
-      </c>
-      <c r="C359" s="47" t="s">
-        <v>602</v>
+        <v>603</v>
+      </c>
+      <c r="C359" s="42" t="s">
+        <v>604</v>
       </c>
       <c r="D359" s="42" t="s">
-        <v>577</v>
+        <v>1064</v>
       </c>
       <c r="E359" s="42"/>
       <c r="F359" s="42" t="s">
         <v>1160</v>
       </c>
-      <c r="G359" s="42" t="s">
-        <v>1109</v>
-      </c>
+      <c r="G359" s="42"/>
     </row>
     <row r="360" spans="1:7">
       <c r="A360" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B360" s="42" t="s">
-        <v>603</v>
-      </c>
-      <c r="C360" s="42" t="s">
-        <v>604</v>
-      </c>
-      <c r="D360" s="42" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E360" s="42"/>
-      <c r="F360" s="42" t="s">
+        <v>605</v>
+      </c>
+      <c r="C360" s="44" t="s">
+        <v>606</v>
+      </c>
+      <c r="D360" s="44"/>
+      <c r="E360" s="44"/>
+      <c r="F360" s="44"/>
+      <c r="G360" s="44"/>
+    </row>
+    <row r="361" spans="1:7" ht="30">
+      <c r="A361" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B361" s="42" t="s">
+        <v>607</v>
+      </c>
+      <c r="C361" s="47" t="s">
+        <v>570</v>
+      </c>
+      <c r="D361" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="E361" s="42"/>
+      <c r="F361" s="42" t="s">
         <v>1160</v>
       </c>
-      <c r="G360" s="42"/>
-    </row>
-    <row r="361" spans="1:7">
-      <c r="A361" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B361" s="42" t="s">
-        <v>605</v>
-      </c>
-      <c r="C361" s="44" t="s">
-        <v>606</v>
-      </c>
-      <c r="D361" s="44"/>
-      <c r="E361" s="44"/>
-      <c r="F361" s="44"/>
-      <c r="G361" s="44"/>
+      <c r="G361" s="47" t="s">
+        <v>1110</v>
+      </c>
     </row>
     <row r="362" spans="1:7" ht="30">
       <c r="A362" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B362" s="42" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C362" s="47" t="s">
-        <v>570</v>
+        <v>609</v>
       </c>
       <c r="D362" s="42" t="s">
-        <v>571</v>
-      </c>
-      <c r="E362" s="42"/>
+        <v>1069</v>
+      </c>
+      <c r="E362" s="50"/>
       <c r="F362" s="42" t="s">
         <v>1160</v>
       </c>
-      <c r="G362" s="47" t="s">
-        <v>1110</v>
-      </c>
+      <c r="G362" s="47"/>
     </row>
     <row r="363" spans="1:7" ht="30">
       <c r="A363" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B363" s="42" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C363" s="47" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D363" s="42" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E363" s="50"/>
+        <v>577</v>
+      </c>
+      <c r="E363" s="42"/>
       <c r="F363" s="42" t="s">
         <v>1160</v>
       </c>
       <c r="G363" s="47"/>
     </row>
-    <row r="364" spans="1:7" ht="30">
+    <row r="364" spans="1:7">
       <c r="A364" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B364" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C364" s="47" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D364" s="42" t="s">
-        <v>577</v>
+        <v>1067</v>
       </c>
       <c r="E364" s="42"/>
       <c r="F364" s="42" t="s">
@@ -14990,204 +14990,204 @@
       </c>
       <c r="G364" s="47"/>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" ht="30">
       <c r="A365" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B365" s="42" t="s">
-        <v>612</v>
-      </c>
-      <c r="C365" s="47" t="s">
-        <v>613</v>
+        <v>614</v>
+      </c>
+      <c r="C365" s="42" t="s">
+        <v>615</v>
       </c>
       <c r="D365" s="42" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E365" s="42"/>
+        <v>1065</v>
+      </c>
+      <c r="E365" s="42" t="s">
+        <v>616</v>
+      </c>
       <c r="F365" s="42" t="s">
         <v>1160</v>
       </c>
-      <c r="G365" s="47"/>
-    </row>
-    <row r="366" spans="1:7" ht="30">
+      <c r="G365" s="42"/>
+    </row>
+    <row r="366" spans="1:7">
       <c r="A366" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B366" s="42" t="s">
-        <v>614</v>
-      </c>
-      <c r="C366" s="42" t="s">
-        <v>615</v>
-      </c>
-      <c r="D366" s="42" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E366" s="42" t="s">
-        <v>616</v>
-      </c>
-      <c r="F366" s="42" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G366" s="42"/>
+      <c r="B366" s="42">
+        <v>11.2</v>
+      </c>
+      <c r="C366" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D366" s="44"/>
+      <c r="E366" s="44"/>
+      <c r="F366" s="44"/>
+      <c r="G366" s="44"/>
     </row>
     <row r="367" spans="1:7">
       <c r="A367" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B367" s="42">
-        <v>11.2</v>
-      </c>
-      <c r="C367" s="41" t="s">
-        <v>44</v>
+      <c r="B367" s="42" t="s">
+        <v>617</v>
+      </c>
+      <c r="C367" s="44" t="s">
+        <v>42</v>
       </c>
       <c r="D367" s="44"/>
       <c r="E367" s="44"/>
       <c r="F367" s="44"/>
       <c r="G367" s="44"/>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" ht="120">
       <c r="A368" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B368" s="42" t="s">
-        <v>617</v>
-      </c>
-      <c r="C368" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D368" s="44"/>
-      <c r="E368" s="44"/>
-      <c r="F368" s="44"/>
-      <c r="G368" s="44"/>
-    </row>
-    <row r="369" spans="1:7" ht="120">
+        <v>618</v>
+      </c>
+      <c r="C368" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="D368" s="42" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E368" s="42" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F368" s="42" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G368" s="47" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" ht="75">
       <c r="A369" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B369" s="42" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C369" s="47" t="s">
-        <v>549</v>
+        <v>620</v>
       </c>
       <c r="D369" s="42" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E369" s="42" t="s">
-        <v>1209</v>
+        <v>1223</v>
       </c>
       <c r="F369" s="42" t="s">
         <v>1178</v>
       </c>
-      <c r="G369" s="47" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" ht="75">
+      <c r="G369" s="47"/>
+    </row>
+    <row r="370" spans="1:7" ht="30">
       <c r="A370" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B370" s="42" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C370" s="47" t="s">
-        <v>620</v>
-      </c>
-      <c r="D370" s="42" t="s">
-        <v>999</v>
+        <v>553</v>
+      </c>
+      <c r="D370" s="42">
+        <v>78.099999999999994</v>
       </c>
       <c r="E370" s="42" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
       <c r="F370" s="42" t="s">
         <v>1178</v>
       </c>
       <c r="G370" s="47"/>
     </row>
-    <row r="371" spans="1:7" ht="30">
+    <row r="371" spans="1:7">
       <c r="A371" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B371" s="42" t="s">
-        <v>621</v>
-      </c>
-      <c r="C371" s="47" t="s">
-        <v>553</v>
-      </c>
-      <c r="D371" s="42">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E371" s="42" t="s">
-        <v>1209</v>
-      </c>
-      <c r="F371" s="42" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G371" s="47"/>
+        <v>622</v>
+      </c>
+      <c r="C371" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D371" s="44"/>
+      <c r="E371" s="44"/>
+      <c r="F371" s="44"/>
+      <c r="G371" s="44"/>
     </row>
     <row r="372" spans="1:7">
       <c r="A372" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B372" s="42" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C372" s="44" t="s">
-        <v>43</v>
+        <v>624</v>
       </c>
       <c r="D372" s="44"/>
       <c r="E372" s="44"/>
       <c r="F372" s="44"/>
       <c r="G372" s="44"/>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" ht="30">
       <c r="A373" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B373" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="C373" s="44" t="s">
-        <v>624</v>
-      </c>
-      <c r="D373" s="44"/>
-      <c r="E373" s="44"/>
-      <c r="F373" s="44"/>
-      <c r="G373" s="44"/>
+        <v>625</v>
+      </c>
+      <c r="C373" s="42" t="s">
+        <v>626</v>
+      </c>
+      <c r="D373" s="42" t="s">
+        <v>627</v>
+      </c>
+      <c r="E373" s="42"/>
+      <c r="F373" s="42" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G373" s="47" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="374" spans="1:7" ht="30">
       <c r="A374" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B374" s="42" t="s">
-        <v>625</v>
-      </c>
-      <c r="C374" s="42" t="s">
-        <v>626</v>
+        <v>628</v>
+      </c>
+      <c r="C374" s="47" t="s">
+        <v>629</v>
       </c>
       <c r="D374" s="42" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E374" s="42"/>
       <c r="F374" s="42" t="s">
         <v>1178</v>
       </c>
-      <c r="G374" s="47" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" ht="30">
+      <c r="G374" s="47"/>
+    </row>
+    <row r="375" spans="1:7" ht="45">
       <c r="A375" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B375" s="42" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C375" s="47" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D375" s="42" t="s">
-        <v>630</v>
+        <v>583</v>
       </c>
       <c r="E375" s="42"/>
       <c r="F375" s="42" t="s">
@@ -15200,13 +15200,13 @@
         <v>56</v>
       </c>
       <c r="B376" s="42" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C376" s="47" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D376" s="42" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="E376" s="42"/>
       <c r="F376" s="42" t="s">
@@ -15214,18 +15214,18 @@
       </c>
       <c r="G376" s="47"/>
     </row>
-    <row r="377" spans="1:7" ht="45">
+    <row r="377" spans="1:7" ht="30">
       <c r="A377" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B377" s="42" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C377" s="47" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D377" s="42" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="E377" s="42"/>
       <c r="F377" s="42" t="s">
@@ -15233,18 +15233,18 @@
       </c>
       <c r="G377" s="47"/>
     </row>
-    <row r="378" spans="1:7" ht="30">
+    <row r="378" spans="1:7" ht="45">
       <c r="A378" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B378" s="42" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C378" s="47" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D378" s="42" t="s">
-        <v>598</v>
+        <v>566</v>
       </c>
       <c r="E378" s="42"/>
       <c r="F378" s="42" t="s">
@@ -15252,354 +15252,354 @@
       </c>
       <c r="G378" s="47"/>
     </row>
-    <row r="379" spans="1:7" ht="45">
+    <row r="379" spans="1:7">
       <c r="A379" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B379" s="42" t="s">
-        <v>637</v>
-      </c>
-      <c r="C379" s="47" t="s">
-        <v>638</v>
-      </c>
-      <c r="D379" s="42" t="s">
-        <v>566</v>
-      </c>
-      <c r="E379" s="42"/>
-      <c r="F379" s="42" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G379" s="47"/>
+        <v>639</v>
+      </c>
+      <c r="C379" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="D379" s="44"/>
+      <c r="E379" s="44"/>
+      <c r="F379" s="44"/>
+      <c r="G379" s="44"/>
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B380" s="42" t="s">
-        <v>639</v>
-      </c>
-      <c r="C380" s="44" t="s">
-        <v>600</v>
-      </c>
-      <c r="D380" s="44"/>
-      <c r="E380" s="44"/>
-      <c r="F380" s="44"/>
-      <c r="G380" s="44"/>
+        <v>640</v>
+      </c>
+      <c r="C380" s="47" t="s">
+        <v>602</v>
+      </c>
+      <c r="D380" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="E380" s="42"/>
+      <c r="F380" s="42" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G380" s="47" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="381" spans="1:7">
       <c r="A381" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B381" s="42" t="s">
-        <v>640</v>
-      </c>
-      <c r="C381" s="47" t="s">
-        <v>602</v>
+        <v>641</v>
+      </c>
+      <c r="C381" s="42" t="s">
+        <v>604</v>
       </c>
       <c r="D381" s="42" t="s">
-        <v>577</v>
-      </c>
-      <c r="E381" s="42"/>
+        <v>1064</v>
+      </c>
+      <c r="E381" s="42" t="s">
+        <v>1224</v>
+      </c>
       <c r="F381" s="42" t="s">
         <v>1178</v>
       </c>
-      <c r="G381" s="47" t="s">
-        <v>1109</v>
-      </c>
+      <c r="G381" s="42"/>
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B382" s="42" t="s">
-        <v>641</v>
-      </c>
-      <c r="C382" s="42" t="s">
-        <v>604</v>
-      </c>
-      <c r="D382" s="42" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E382" s="42" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F382" s="42" t="s">
+        <v>642</v>
+      </c>
+      <c r="C382" s="44" t="s">
+        <v>606</v>
+      </c>
+      <c r="D382" s="44"/>
+      <c r="E382" s="44"/>
+      <c r="F382" s="44"/>
+      <c r="G382" s="44"/>
+    </row>
+    <row r="383" spans="1:7" ht="30">
+      <c r="A383" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B383" s="42" t="s">
+        <v>643</v>
+      </c>
+      <c r="C383" s="47" t="s">
+        <v>570</v>
+      </c>
+      <c r="D383" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="E383" s="42"/>
+      <c r="F383" s="42" t="s">
         <v>1178</v>
       </c>
-      <c r="G382" s="42"/>
-    </row>
-    <row r="383" spans="1:7">
-      <c r="A383" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B383" s="42" t="s">
-        <v>642</v>
-      </c>
-      <c r="C383" s="44" t="s">
-        <v>606</v>
-      </c>
-      <c r="D383" s="44"/>
-      <c r="E383" s="44"/>
-      <c r="F383" s="44"/>
-      <c r="G383" s="44"/>
+      <c r="G383" s="47" t="s">
+        <v>1110</v>
+      </c>
     </row>
     <row r="384" spans="1:7" ht="30">
       <c r="A384" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B384" s="42" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C384" s="47" t="s">
-        <v>570</v>
+        <v>645</v>
       </c>
       <c r="D384" s="42" t="s">
-        <v>571</v>
-      </c>
-      <c r="E384" s="42"/>
+        <v>1069</v>
+      </c>
+      <c r="E384" s="50"/>
       <c r="F384" s="42" t="s">
         <v>1178</v>
       </c>
-      <c r="G384" s="47" t="s">
-        <v>1110</v>
-      </c>
+      <c r="G384" s="47"/>
     </row>
     <row r="385" spans="1:7" ht="30">
       <c r="A385" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B385" s="42" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C385" s="47" t="s">
-        <v>645</v>
+        <v>611</v>
       </c>
       <c r="D385" s="42" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E385" s="50"/>
+        <v>577</v>
+      </c>
+      <c r="E385" s="42"/>
       <c r="F385" s="42" t="s">
         <v>1178</v>
       </c>
       <c r="G385" s="47"/>
     </row>
-    <row r="386" spans="1:7" ht="30">
+    <row r="386" spans="1:7">
       <c r="A386" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B386" s="42" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C386" s="47" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D386" s="42" t="s">
-        <v>577</v>
+        <v>1067</v>
       </c>
       <c r="E386" s="42"/>
       <c r="F386" s="42" t="s">
         <v>1178</v>
       </c>
-      <c r="G386" s="47"/>
-    </row>
-    <row r="387" spans="1:7">
+      <c r="G386" s="42"/>
+    </row>
+    <row r="387" spans="1:7" ht="30">
       <c r="A387" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B387" s="42" t="s">
-        <v>647</v>
-      </c>
-      <c r="C387" s="47" t="s">
-        <v>613</v>
+        <v>648</v>
+      </c>
+      <c r="C387" s="42" t="s">
+        <v>615</v>
       </c>
       <c r="D387" s="42" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E387" s="42"/>
+        <v>1065</v>
+      </c>
+      <c r="E387" s="42" t="s">
+        <v>616</v>
+      </c>
       <c r="F387" s="42" t="s">
         <v>1178</v>
       </c>
       <c r="G387" s="42"/>
     </row>
-    <row r="388" spans="1:7" ht="30">
+    <row r="388" spans="1:7">
       <c r="A388" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B388" s="42" t="s">
-        <v>648</v>
-      </c>
-      <c r="C388" s="42" t="s">
-        <v>615</v>
-      </c>
-      <c r="D388" s="42" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E388" s="42" t="s">
-        <v>616</v>
-      </c>
-      <c r="F388" s="42" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G388" s="42"/>
+      <c r="B388" s="42">
+        <v>11.3</v>
+      </c>
+      <c r="C388" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D388" s="44"/>
+      <c r="E388" s="44"/>
+      <c r="F388" s="44"/>
+      <c r="G388" s="44"/>
     </row>
     <row r="389" spans="1:7">
       <c r="A389" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B389" s="42">
-        <v>11.3</v>
-      </c>
-      <c r="C389" s="41" t="s">
-        <v>45</v>
+      <c r="B389" s="42" t="s">
+        <v>649</v>
+      </c>
+      <c r="C389" s="44" t="s">
+        <v>42</v>
       </c>
       <c r="D389" s="44"/>
       <c r="E389" s="44"/>
       <c r="F389" s="44"/>
       <c r="G389" s="44"/>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" ht="105">
       <c r="A390" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B390" s="42" t="s">
-        <v>649</v>
-      </c>
-      <c r="C390" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D390" s="44"/>
-      <c r="E390" s="44"/>
-      <c r="F390" s="44"/>
-      <c r="G390" s="44"/>
-    </row>
-    <row r="391" spans="1:7" ht="105">
+        <v>650</v>
+      </c>
+      <c r="C390" s="47" t="s">
+        <v>651</v>
+      </c>
+      <c r="D390" s="42">
+        <v>78.3</v>
+      </c>
+      <c r="E390" s="42" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F390" s="42" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G390" s="47" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" ht="60">
       <c r="A391" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B391" s="42" t="s">
-        <v>650</v>
-      </c>
-      <c r="C391" s="47" t="s">
-        <v>651</v>
-      </c>
-      <c r="D391" s="42">
-        <v>78.3</v>
+        <v>652</v>
+      </c>
+      <c r="C391" s="42" t="s">
+        <v>653</v>
+      </c>
+      <c r="D391" s="42" t="s">
+        <v>999</v>
       </c>
       <c r="E391" s="42" t="s">
-        <v>1209</v>
+        <v>1225</v>
       </c>
       <c r="F391" s="42" t="s">
         <v>1181</v>
       </c>
-      <c r="G391" s="47" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" ht="60">
+      <c r="G391" s="42"/>
+    </row>
+    <row r="392" spans="1:7" ht="30">
       <c r="A392" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B392" s="42" t="s">
-        <v>652</v>
-      </c>
-      <c r="C392" s="42" t="s">
-        <v>653</v>
-      </c>
-      <c r="D392" s="42" t="s">
-        <v>999</v>
+        <v>654</v>
+      </c>
+      <c r="C392" s="47" t="s">
+        <v>655</v>
+      </c>
+      <c r="D392" s="42">
+        <v>78.099999999999994</v>
       </c>
       <c r="E392" s="42" t="s">
-        <v>1225</v>
+        <v>1209</v>
       </c>
       <c r="F392" s="42" t="s">
         <v>1181</v>
       </c>
-      <c r="G392" s="42"/>
-    </row>
-    <row r="393" spans="1:7" ht="30">
+      <c r="G392" s="47"/>
+    </row>
+    <row r="393" spans="1:7">
       <c r="A393" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B393" s="42" t="s">
-        <v>654</v>
-      </c>
-      <c r="C393" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="D393" s="42">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E393" s="42" t="s">
-        <v>1209</v>
-      </c>
-      <c r="F393" s="42" t="s">
-        <v>1181</v>
-      </c>
-      <c r="G393" s="47"/>
+        <v>656</v>
+      </c>
+      <c r="C393" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D393" s="44"/>
+      <c r="E393" s="44"/>
+      <c r="F393" s="44"/>
+      <c r="G393" s="44"/>
     </row>
     <row r="394" spans="1:7">
       <c r="A394" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B394" s="42" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C394" s="44" t="s">
-        <v>43</v>
+        <v>624</v>
       </c>
       <c r="D394" s="44"/>
       <c r="E394" s="44"/>
       <c r="F394" s="44"/>
       <c r="G394" s="44"/>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" ht="45">
       <c r="A395" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B395" s="42" t="s">
-        <v>657</v>
-      </c>
-      <c r="C395" s="44" t="s">
-        <v>624</v>
-      </c>
-      <c r="D395" s="44"/>
-      <c r="E395" s="44"/>
-      <c r="F395" s="44"/>
-      <c r="G395" s="44"/>
+        <v>658</v>
+      </c>
+      <c r="C395" s="47" t="s">
+        <v>659</v>
+      </c>
+      <c r="D395" s="42" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E395" s="42"/>
+      <c r="F395" s="42" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G395" s="47" t="s">
+        <v>1112</v>
+      </c>
     </row>
     <row r="396" spans="1:7" ht="45">
       <c r="A396" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B396" s="42" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C396" s="47" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D396" s="42" t="s">
-        <v>1035</v>
+        <v>662</v>
       </c>
       <c r="E396" s="42"/>
       <c r="F396" s="42" t="s">
         <v>1181</v>
       </c>
-      <c r="G396" s="47" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7" ht="45">
+      <c r="G396" s="47"/>
+    </row>
+    <row r="397" spans="1:7">
       <c r="A397" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B397" s="42" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C397" s="47" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D397" s="42" t="s">
-        <v>662</v>
+        <v>560</v>
       </c>
       <c r="E397" s="42"/>
       <c r="F397" s="42" t="s">
@@ -15607,18 +15607,18 @@
       </c>
       <c r="G397" s="47"/>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" ht="45">
       <c r="A398" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B398" s="42" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C398" s="47" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D398" s="42" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="E398" s="42"/>
       <c r="F398" s="42" t="s">
@@ -15626,18 +15626,18 @@
       </c>
       <c r="G398" s="47"/>
     </row>
-    <row r="399" spans="1:7" ht="45">
+    <row r="399" spans="1:7" ht="30">
       <c r="A399" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B399" s="42" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C399" s="47" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D399" s="42" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="E399" s="42"/>
       <c r="F399" s="42" t="s">
@@ -15645,18 +15645,18 @@
       </c>
       <c r="G399" s="47"/>
     </row>
-    <row r="400" spans="1:7" ht="30">
+    <row r="400" spans="1:7" ht="45">
       <c r="A400" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B400" s="42" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C400" s="47" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="D400" s="42" t="s">
-        <v>598</v>
+        <v>566</v>
       </c>
       <c r="E400" s="42"/>
       <c r="F400" s="42" t="s">
@@ -15664,300 +15664,296 @@
       </c>
       <c r="G400" s="47"/>
     </row>
-    <row r="401" spans="1:7" ht="45">
+    <row r="401" spans="1:7">
       <c r="A401" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B401" s="42" t="s">
-        <v>669</v>
-      </c>
-      <c r="C401" s="47" t="s">
-        <v>638</v>
-      </c>
-      <c r="D401" s="42" t="s">
-        <v>566</v>
-      </c>
-      <c r="E401" s="42"/>
-      <c r="F401" s="42" t="s">
-        <v>1181</v>
-      </c>
-      <c r="G401" s="47"/>
+        <v>670</v>
+      </c>
+      <c r="C401" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="D401" s="44"/>
+      <c r="E401" s="44"/>
+      <c r="F401" s="44"/>
+      <c r="G401" s="44"/>
     </row>
     <row r="402" spans="1:7">
       <c r="A402" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B402" s="42" t="s">
-        <v>670</v>
-      </c>
-      <c r="C402" s="44" t="s">
-        <v>600</v>
-      </c>
-      <c r="D402" s="44"/>
-      <c r="E402" s="44"/>
-      <c r="F402" s="44"/>
-      <c r="G402" s="44"/>
+        <v>671</v>
+      </c>
+      <c r="C402" s="47" t="s">
+        <v>602</v>
+      </c>
+      <c r="D402" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="E402" s="42"/>
+      <c r="F402" s="42" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G402" s="47" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="403" spans="1:7">
       <c r="A403" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B403" s="42" t="s">
-        <v>671</v>
-      </c>
-      <c r="C403" s="47" t="s">
-        <v>602</v>
+        <v>672</v>
+      </c>
+      <c r="C403" s="42" t="s">
+        <v>604</v>
       </c>
       <c r="D403" s="42" t="s">
-        <v>577</v>
-      </c>
-      <c r="E403" s="42"/>
+        <v>1064</v>
+      </c>
+      <c r="E403" s="42" t="s">
+        <v>1224</v>
+      </c>
       <c r="F403" s="42" t="s">
         <v>1181</v>
       </c>
-      <c r="G403" s="47" t="s">
-        <v>1109</v>
-      </c>
+      <c r="G403" s="42"/>
     </row>
     <row r="404" spans="1:7">
       <c r="A404" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B404" s="42" t="s">
-        <v>672</v>
-      </c>
-      <c r="C404" s="42" t="s">
-        <v>604</v>
-      </c>
-      <c r="D404" s="42" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E404" s="42" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F404" s="42" t="s">
+        <v>673</v>
+      </c>
+      <c r="C404" s="44" t="s">
+        <v>606</v>
+      </c>
+      <c r="D404" s="44"/>
+      <c r="E404" s="44"/>
+      <c r="F404" s="44"/>
+      <c r="G404" s="44"/>
+    </row>
+    <row r="405" spans="1:7" ht="30">
+      <c r="A405" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B405" s="42" t="s">
+        <v>674</v>
+      </c>
+      <c r="C405" s="47" t="s">
+        <v>570</v>
+      </c>
+      <c r="D405" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="E405" s="42"/>
+      <c r="F405" s="42" t="s">
         <v>1181</v>
       </c>
-      <c r="G404" s="42"/>
-    </row>
-    <row r="405" spans="1:7">
-      <c r="A405" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B405" s="42" t="s">
-        <v>673</v>
-      </c>
-      <c r="C405" s="44" t="s">
-        <v>606</v>
-      </c>
-      <c r="D405" s="44"/>
-      <c r="E405" s="44"/>
-      <c r="F405" s="44"/>
-      <c r="G405" s="44"/>
+      <c r="G405" s="47" t="s">
+        <v>1110</v>
+      </c>
     </row>
     <row r="406" spans="1:7" ht="30">
       <c r="A406" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B406" s="42" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C406" s="47" t="s">
-        <v>570</v>
+        <v>645</v>
       </c>
       <c r="D406" s="42" t="s">
-        <v>571</v>
-      </c>
-      <c r="E406" s="42"/>
+        <v>1069</v>
+      </c>
+      <c r="E406" s="50"/>
       <c r="F406" s="42" t="s">
         <v>1181</v>
       </c>
-      <c r="G406" s="47" t="s">
-        <v>1110</v>
-      </c>
+      <c r="G406" s="47"/>
     </row>
     <row r="407" spans="1:7" ht="30">
       <c r="A407" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B407" s="42" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C407" s="47" t="s">
-        <v>645</v>
+        <v>611</v>
       </c>
       <c r="D407" s="42" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E407" s="50"/>
+        <v>577</v>
+      </c>
+      <c r="E407" s="42"/>
       <c r="F407" s="42" t="s">
         <v>1181</v>
       </c>
       <c r="G407" s="47"/>
     </row>
-    <row r="408" spans="1:7" ht="30">
+    <row r="408" spans="1:7">
       <c r="A408" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B408" s="42" t="s">
-        <v>676</v>
-      </c>
-      <c r="C408" s="47" t="s">
-        <v>611</v>
+        <v>677</v>
+      </c>
+      <c r="C408" s="42" t="s">
+        <v>613</v>
       </c>
       <c r="D408" s="42" t="s">
-        <v>577</v>
+        <v>1067</v>
       </c>
       <c r="E408" s="42"/>
       <c r="F408" s="42" t="s">
         <v>1181</v>
       </c>
-      <c r="G408" s="47"/>
-    </row>
-    <row r="409" spans="1:7">
+      <c r="G408" s="42"/>
+    </row>
+    <row r="409" spans="1:7" ht="30">
       <c r="A409" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B409" s="42" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C409" s="42" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D409" s="42" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E409" s="42"/>
+        <v>1065</v>
+      </c>
+      <c r="E409" s="42" t="s">
+        <v>616</v>
+      </c>
       <c r="F409" s="42" t="s">
         <v>1181</v>
       </c>
       <c r="G409" s="42"/>
     </row>
-    <row r="410" spans="1:7" ht="30">
+    <row r="410" spans="1:7">
       <c r="A410" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B410" s="42" t="s">
-        <v>678</v>
-      </c>
-      <c r="C410" s="42" t="s">
-        <v>615</v>
-      </c>
-      <c r="D410" s="42" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E410" s="42" t="s">
-        <v>616</v>
-      </c>
-      <c r="F410" s="42" t="s">
-        <v>1181</v>
-      </c>
-      <c r="G410" s="42"/>
+      <c r="B410" s="42">
+        <v>11.4</v>
+      </c>
+      <c r="C410" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D410" s="44"/>
+      <c r="E410" s="44"/>
+      <c r="F410" s="44"/>
+      <c r="G410" s="44"/>
     </row>
     <row r="411" spans="1:7">
       <c r="A411" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B411" s="42">
-        <v>11.4</v>
-      </c>
-      <c r="C411" s="41" t="s">
-        <v>46</v>
+      <c r="B411" s="42" t="s">
+        <v>679</v>
+      </c>
+      <c r="C411" s="44" t="s">
+        <v>42</v>
       </c>
       <c r="D411" s="44"/>
       <c r="E411" s="44"/>
       <c r="F411" s="44"/>
       <c r="G411" s="44"/>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" ht="105">
       <c r="A412" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B412" s="42" t="s">
-        <v>679</v>
-      </c>
-      <c r="C412" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D412" s="44"/>
-      <c r="E412" s="44"/>
-      <c r="F412" s="44"/>
-      <c r="G412" s="44"/>
-    </row>
-    <row r="413" spans="1:7" ht="105">
+        <v>680</v>
+      </c>
+      <c r="C412" s="47" t="s">
+        <v>651</v>
+      </c>
+      <c r="D412" s="42">
+        <v>78.3</v>
+      </c>
+      <c r="E412" s="6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F412" s="42" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G412" s="47" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" ht="90">
       <c r="A413" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B413" s="42" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C413" s="47" t="s">
-        <v>651</v>
+        <v>682</v>
       </c>
       <c r="D413" s="42">
-        <v>78.3</v>
-      </c>
-      <c r="E413" s="6" t="s">
-        <v>1226</v>
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E413" s="42" t="s">
+        <v>1227</v>
       </c>
       <c r="F413" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G413" s="47" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7" ht="90">
+      <c r="G413" s="47"/>
+    </row>
+    <row r="414" spans="1:7" ht="30">
       <c r="A414" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B414" s="42" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C414" s="47" t="s">
-        <v>682</v>
+        <v>655</v>
       </c>
       <c r="D414" s="42">
         <v>78.099999999999994</v>
       </c>
       <c r="E414" s="42" t="s">
-        <v>1227</v>
+        <v>1209</v>
       </c>
       <c r="F414" s="42" t="s">
         <v>1184</v>
       </c>
       <c r="G414" s="47"/>
     </row>
-    <row r="415" spans="1:7" ht="30">
+    <row r="415" spans="1:7">
       <c r="A415" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B415" s="42" t="s">
-        <v>683</v>
-      </c>
-      <c r="C415" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="D415" s="42">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E415" s="42" t="s">
-        <v>1209</v>
-      </c>
-      <c r="F415" s="42" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G415" s="47"/>
+        <v>684</v>
+      </c>
+      <c r="C415" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D415" s="44"/>
+      <c r="E415" s="44"/>
+      <c r="F415" s="44"/>
+      <c r="G415" s="44"/>
     </row>
     <row r="416" spans="1:7">
       <c r="A416" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B416" s="42" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C416" s="44" t="s">
-        <v>43</v>
+        <v>624</v>
       </c>
       <c r="D416" s="44"/>
       <c r="E416" s="44"/>
@@ -15969,49 +15965,53 @@
         <v>56</v>
       </c>
       <c r="B417" s="42" t="s">
-        <v>685</v>
-      </c>
-      <c r="C417" s="44" t="s">
-        <v>624</v>
-      </c>
-      <c r="D417" s="44"/>
-      <c r="E417" s="44"/>
-      <c r="F417" s="44"/>
-      <c r="G417" s="44"/>
+        <v>686</v>
+      </c>
+      <c r="C417" s="42" t="s">
+        <v>626</v>
+      </c>
+      <c r="D417" s="42" t="s">
+        <v>627</v>
+      </c>
+      <c r="E417" s="42"/>
+      <c r="F417" s="42" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G417" s="42" t="s">
+        <v>1113</v>
+      </c>
     </row>
     <row r="418" spans="1:7">
       <c r="A418" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B418" s="42" t="s">
-        <v>686</v>
-      </c>
-      <c r="C418" s="42" t="s">
-        <v>626</v>
+        <v>687</v>
+      </c>
+      <c r="C418" s="47" t="s">
+        <v>688</v>
       </c>
       <c r="D418" s="42" t="s">
-        <v>627</v>
+        <v>557</v>
       </c>
       <c r="E418" s="42"/>
       <c r="F418" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G418" s="42" t="s">
-        <v>1113</v>
-      </c>
+      <c r="G418" s="47"/>
     </row>
     <row r="419" spans="1:7">
       <c r="A419" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B419" s="42" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C419" s="47" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D419" s="42" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E419" s="42"/>
       <c r="F419" s="42" t="s">
@@ -16019,92 +16019,92 @@
       </c>
       <c r="G419" s="47"/>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" ht="30">
       <c r="A420" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B420" s="42" t="s">
-        <v>689</v>
-      </c>
-      <c r="C420" s="47" t="s">
-        <v>690</v>
+        <v>691</v>
+      </c>
+      <c r="C420" s="42" t="s">
+        <v>692</v>
       </c>
       <c r="D420" s="42" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="E420" s="42"/>
       <c r="F420" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G420" s="47"/>
-    </row>
-    <row r="421" spans="1:7" ht="30">
+      <c r="G420" s="42"/>
+    </row>
+    <row r="421" spans="1:7">
       <c r="A421" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B421" s="42" t="s">
-        <v>691</v>
-      </c>
-      <c r="C421" s="42" t="s">
-        <v>692</v>
-      </c>
-      <c r="D421" s="42" t="s">
-        <v>566</v>
-      </c>
-      <c r="E421" s="42"/>
-      <c r="F421" s="42" t="s">
+        <v>693</v>
+      </c>
+      <c r="C421" s="44" t="s">
+        <v>694</v>
+      </c>
+      <c r="D421" s="44"/>
+      <c r="E421" s="44"/>
+      <c r="F421" s="44"/>
+      <c r="G421" s="44"/>
+    </row>
+    <row r="422" spans="1:7" ht="30">
+      <c r="A422" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B422" s="42" t="s">
+        <v>695</v>
+      </c>
+      <c r="C422" s="61" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D422" s="42" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E422" s="42"/>
+      <c r="F422" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G421" s="42"/>
-    </row>
-    <row r="422" spans="1:7">
-      <c r="A422" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B422" s="42" t="s">
-        <v>693</v>
-      </c>
-      <c r="C422" s="44" t="s">
-        <v>694</v>
-      </c>
-      <c r="D422" s="44"/>
-      <c r="E422" s="44"/>
-      <c r="F422" s="44"/>
-      <c r="G422" s="44"/>
+      <c r="G422" s="42" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="423" spans="1:7" ht="30">
       <c r="A423" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B423" s="42" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C423" s="61" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D423" s="42" t="s">
-        <v>1040</v>
+        <v>697</v>
       </c>
       <c r="E423" s="42"/>
       <c r="F423" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G423" s="42" t="s">
-        <v>1114</v>
-      </c>
+      <c r="G423" s="42"/>
     </row>
     <row r="424" spans="1:7" ht="30">
       <c r="A424" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B424" s="42" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C424" s="61" t="s">
-        <v>1299</v>
+        <v>702</v>
       </c>
       <c r="D424" s="42" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="E424" s="42"/>
       <c r="F424" s="42" t="s">
@@ -16112,73 +16112,73 @@
       </c>
       <c r="G424" s="42"/>
     </row>
-    <row r="425" spans="1:7" ht="30">
+    <row r="425" spans="1:7">
       <c r="A425" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B425" s="42" t="s">
-        <v>701</v>
-      </c>
-      <c r="C425" s="61" t="s">
-        <v>702</v>
-      </c>
-      <c r="D425" s="42" t="s">
-        <v>700</v>
-      </c>
-      <c r="E425" s="42"/>
-      <c r="F425" s="42" t="s">
+        <v>703</v>
+      </c>
+      <c r="C425" s="44" t="s">
+        <v>606</v>
+      </c>
+      <c r="D425" s="44"/>
+      <c r="E425" s="44"/>
+      <c r="F425" s="44"/>
+      <c r="G425" s="44"/>
+    </row>
+    <row r="426" spans="1:7" ht="30">
+      <c r="A426" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B426" s="42" t="s">
+        <v>704</v>
+      </c>
+      <c r="C426" s="47" t="s">
+        <v>570</v>
+      </c>
+      <c r="D426" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="E426" s="42"/>
+      <c r="F426" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G425" s="42"/>
-    </row>
-    <row r="426" spans="1:7">
-      <c r="A426" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B426" s="42" t="s">
-        <v>703</v>
-      </c>
-      <c r="C426" s="44" t="s">
-        <v>606</v>
-      </c>
-      <c r="D426" s="44"/>
-      <c r="E426" s="44"/>
-      <c r="F426" s="44"/>
-      <c r="G426" s="44"/>
-    </row>
-    <row r="427" spans="1:7" ht="30">
+      <c r="G426" s="47" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7">
       <c r="A427" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B427" s="42" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C427" s="47" t="s">
-        <v>570</v>
+        <v>706</v>
       </c>
       <c r="D427" s="42" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="E427" s="42"/>
       <c r="F427" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G427" s="47" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7">
+      <c r="G427" s="47"/>
+    </row>
+    <row r="428" spans="1:7" ht="30">
       <c r="A428" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B428" s="42" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C428" s="47" t="s">
-        <v>706</v>
+        <v>611</v>
       </c>
       <c r="D428" s="42" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E428" s="42"/>
       <c r="F428" s="42" t="s">
@@ -16186,15 +16186,15 @@
       </c>
       <c r="G428" s="47"/>
     </row>
-    <row r="429" spans="1:7" ht="30">
+    <row r="429" spans="1:7">
       <c r="A429" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B429" s="42" t="s">
-        <v>707</v>
-      </c>
-      <c r="C429" s="47" t="s">
-        <v>611</v>
+        <v>708</v>
+      </c>
+      <c r="C429" s="42" t="s">
+        <v>613</v>
       </c>
       <c r="D429" s="42" t="s">
         <v>577</v>
@@ -16203,39 +16203,39 @@
       <c r="F429" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G429" s="47"/>
+      <c r="G429" s="42"/>
     </row>
     <row r="430" spans="1:7">
       <c r="A430" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B430" s="42" t="s">
-        <v>708</v>
-      </c>
-      <c r="C430" s="42" t="s">
-        <v>613</v>
+        <v>709</v>
+      </c>
+      <c r="C430" s="47" t="s">
+        <v>579</v>
       </c>
       <c r="D430" s="42" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E430" s="42"/>
       <c r="F430" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G430" s="42"/>
-    </row>
-    <row r="431" spans="1:7">
+      <c r="G430" s="47"/>
+    </row>
+    <row r="431" spans="1:7" ht="45">
       <c r="A431" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B431" s="42" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C431" s="47" t="s">
-        <v>579</v>
+        <v>666</v>
       </c>
       <c r="D431" s="42" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="E431" s="42"/>
       <c r="F431" s="42" t="s">
@@ -16243,51 +16243,53 @@
       </c>
       <c r="G431" s="47"/>
     </row>
-    <row r="432" spans="1:7" ht="45">
+    <row r="432" spans="1:7">
       <c r="A432" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B432" s="42" t="s">
-        <v>710</v>
-      </c>
-      <c r="C432" s="47" t="s">
-        <v>666</v>
-      </c>
-      <c r="D432" s="42" t="s">
-        <v>583</v>
-      </c>
-      <c r="E432" s="42"/>
+        <v>711</v>
+      </c>
+      <c r="C432" s="44" t="s">
+        <v>585</v>
+      </c>
+      <c r="D432" s="44"/>
+      <c r="E432" s="44"/>
       <c r="F432" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G432" s="47"/>
-    </row>
-    <row r="433" spans="1:7">
+      <c r="G432" s="44"/>
+    </row>
+    <row r="433" spans="1:7" ht="90">
       <c r="A433" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B433" s="42" t="s">
-        <v>711</v>
-      </c>
-      <c r="C433" s="44" t="s">
-        <v>585</v>
-      </c>
-      <c r="D433" s="44"/>
-      <c r="E433" s="44"/>
+        <v>712</v>
+      </c>
+      <c r="C433" s="47" t="s">
+        <v>588</v>
+      </c>
+      <c r="D433" s="42" t="s">
+        <v>586</v>
+      </c>
+      <c r="E433" s="42"/>
       <c r="F433" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G433" s="44"/>
-    </row>
-    <row r="434" spans="1:7" ht="90">
+      <c r="G433" s="47" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" ht="60">
       <c r="A434" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B434" s="42" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C434" s="47" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D434" s="42" t="s">
         <v>586</v>
@@ -16296,19 +16298,17 @@
       <c r="F434" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G434" s="47" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7" ht="60">
+      <c r="G434" s="47"/>
+    </row>
+    <row r="435" spans="1:7" ht="30">
       <c r="A435" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B435" s="42" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C435" s="47" t="s">
-        <v>590</v>
+        <v>715</v>
       </c>
       <c r="D435" s="42" t="s">
         <v>586</v>
@@ -16317,171 +16317,171 @@
       <c r="F435" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G435" s="47"/>
+      <c r="G435" s="47" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="436" spans="1:7" ht="30">
       <c r="A436" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B436" s="42" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C436" s="47" t="s">
-        <v>715</v>
+        <v>668</v>
       </c>
       <c r="D436" s="42" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="E436" s="42"/>
       <c r="F436" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G436" s="47" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7" ht="30">
+      <c r="G436" s="47"/>
+    </row>
+    <row r="437" spans="1:7">
       <c r="A437" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B437" s="42" t="s">
-        <v>716</v>
-      </c>
-      <c r="C437" s="47" t="s">
-        <v>668</v>
-      </c>
-      <c r="D437" s="42" t="s">
-        <v>598</v>
-      </c>
-      <c r="E437" s="42"/>
+        <v>717</v>
+      </c>
+      <c r="C437" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="D437" s="44"/>
+      <c r="E437" s="44"/>
       <c r="F437" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G437" s="47"/>
+      <c r="G437" s="44"/>
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B438" s="42" t="s">
-        <v>717</v>
-      </c>
-      <c r="C438" s="44" t="s">
-        <v>600</v>
-      </c>
-      <c r="D438" s="44"/>
-      <c r="E438" s="44"/>
+        <v>718</v>
+      </c>
+      <c r="C438" s="47" t="s">
+        <v>602</v>
+      </c>
+      <c r="D438" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="E438" s="42"/>
       <c r="F438" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G438" s="44"/>
+      <c r="G438" s="47" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="439" spans="1:7">
       <c r="A439" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B439" s="42" t="s">
-        <v>718</v>
-      </c>
-      <c r="C439" s="47" t="s">
-        <v>602</v>
+        <v>719</v>
+      </c>
+      <c r="C439" s="42" t="s">
+        <v>604</v>
       </c>
       <c r="D439" s="42" t="s">
-        <v>577</v>
-      </c>
-      <c r="E439" s="42"/>
+        <v>1064</v>
+      </c>
+      <c r="E439" s="42" t="s">
+        <v>1224</v>
+      </c>
       <c r="F439" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G439" s="47" t="s">
-        <v>1109</v>
-      </c>
+      <c r="G439" s="42"/>
     </row>
     <row r="440" spans="1:7">
       <c r="A440" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B440" s="42" t="s">
-        <v>719</v>
-      </c>
-      <c r="C440" s="42" t="s">
-        <v>604</v>
-      </c>
-      <c r="D440" s="42" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E440" s="42" t="s">
-        <v>1224</v>
-      </c>
+        <v>720</v>
+      </c>
+      <c r="C440" s="44" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D440" s="44"/>
+      <c r="E440" s="44"/>
       <c r="F440" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G440" s="42"/>
-    </row>
-    <row r="441" spans="1:7">
+      <c r="G440" s="44"/>
+    </row>
+    <row r="441" spans="1:7" ht="30">
       <c r="A441" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B441" s="42" t="s">
-        <v>720</v>
-      </c>
-      <c r="C441" s="44" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D441" s="44"/>
-      <c r="E441" s="44"/>
+        <v>725</v>
+      </c>
+      <c r="C441" s="42" t="s">
+        <v>615</v>
+      </c>
+      <c r="D441" s="42" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E441" s="42" t="s">
+        <v>616</v>
+      </c>
       <c r="F441" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G441" s="44"/>
-    </row>
-    <row r="442" spans="1:7" ht="30">
+      <c r="G441" s="42"/>
+    </row>
+    <row r="442" spans="1:7">
       <c r="A442" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B442" s="42" t="s">
-        <v>725</v>
-      </c>
-      <c r="C442" s="42" t="s">
-        <v>615</v>
-      </c>
-      <c r="D442" s="42" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E442" s="42" t="s">
-        <v>616</v>
-      </c>
+      <c r="B442" s="42">
+        <v>11.5</v>
+      </c>
+      <c r="C442" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D442" s="44"/>
+      <c r="E442" s="44"/>
       <c r="F442" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G442" s="42"/>
+      <c r="G442" s="41"/>
     </row>
     <row r="443" spans="1:7">
       <c r="A443" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B443" s="42">
-        <v>11.5</v>
-      </c>
-      <c r="C443" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D443" s="44"/>
-      <c r="E443" s="44"/>
+      <c r="B443" s="42" t="s">
+        <v>726</v>
+      </c>
+      <c r="C443" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D443" s="42"/>
+      <c r="E443" s="47" t="s">
+        <v>268</v>
+      </c>
       <c r="F443" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G443" s="41"/>
+      <c r="G443" s="47"/>
     </row>
     <row r="444" spans="1:7">
       <c r="A444" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B444" s="42" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C444" s="47" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D444" s="42"/>
       <c r="E444" s="47" t="s">
@@ -16497,10 +16497,10 @@
         <v>56</v>
       </c>
       <c r="B445" s="42" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C445" s="47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D445" s="42"/>
       <c r="E445" s="47" t="s">
@@ -16515,47 +16515,47 @@
       <c r="A446" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B446" s="42" t="s">
-        <v>728</v>
-      </c>
-      <c r="C446" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="D446" s="42"/>
-      <c r="E446" s="47" t="s">
-        <v>268</v>
-      </c>
+      <c r="B446" s="42">
+        <v>11.6</v>
+      </c>
+      <c r="C446" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D446" s="44"/>
+      <c r="E446" s="41"/>
       <c r="F446" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G446" s="47"/>
+      <c r="G446" s="41"/>
     </row>
     <row r="447" spans="1:7">
       <c r="A447" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B447" s="42">
-        <v>11.6</v>
-      </c>
-      <c r="C447" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D447" s="44"/>
-      <c r="E447" s="41"/>
+      <c r="B447" s="42" t="s">
+        <v>729</v>
+      </c>
+      <c r="C447" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D447" s="42"/>
+      <c r="E447" s="47" t="s">
+        <v>268</v>
+      </c>
       <c r="F447" s="42" t="s">
         <v>1184</v>
       </c>
-      <c r="G447" s="41"/>
+      <c r="G447" s="47"/>
     </row>
     <row r="448" spans="1:7">
       <c r="A448" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B448" s="42" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C448" s="47" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D448" s="42"/>
       <c r="E448" s="47" t="s">
@@ -16570,451 +16570,420 @@
       <c r="A449" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B449" s="42" t="s">
-        <v>730</v>
-      </c>
-      <c r="C449" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D449" s="42"/>
-      <c r="E449" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="F449" s="42" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G449" s="47"/>
+      <c r="B449" s="42">
+        <v>11.7</v>
+      </c>
+      <c r="C449" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D449" s="44"/>
+      <c r="E449" s="44"/>
+      <c r="F449" s="44"/>
+      <c r="G449" s="41"/>
     </row>
     <row r="450" spans="1:7">
       <c r="A450" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B450" s="42">
-        <v>11.7</v>
-      </c>
-      <c r="C450" s="41" t="s">
-        <v>51</v>
+      <c r="B450" s="42" t="s">
+        <v>731</v>
+      </c>
+      <c r="C450" s="44" t="s">
+        <v>42</v>
       </c>
       <c r="D450" s="44"/>
       <c r="E450" s="44"/>
-      <c r="F450" s="42" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G450" s="41"/>
-    </row>
-    <row r="451" spans="1:7">
+      <c r="F450" s="44"/>
+      <c r="G450" s="44"/>
+    </row>
+    <row r="451" spans="1:7" ht="105">
       <c r="A451" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B451" s="42" t="s">
-        <v>731</v>
-      </c>
-      <c r="C451" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D451" s="44"/>
-      <c r="E451" s="44"/>
+        <v>732</v>
+      </c>
+      <c r="C451" s="47" t="s">
+        <v>651</v>
+      </c>
+      <c r="D451" s="42">
+        <v>78.3</v>
+      </c>
+      <c r="E451" s="42"/>
       <c r="F451" s="42" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G451" s="44"/>
-    </row>
-    <row r="452" spans="1:7" ht="105">
+        <v>1128</v>
+      </c>
+      <c r="G451" s="47" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" ht="30">
       <c r="A452" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B452" s="42" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C452" s="47" t="s">
-        <v>651</v>
+        <v>682</v>
       </c>
       <c r="D452" s="42">
-        <v>78.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="E452" s="42"/>
       <c r="F452" s="42" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G452" s="47" t="s">
-        <v>1106</v>
-      </c>
+        <v>1128</v>
+      </c>
+      <c r="G452" s="47"/>
     </row>
     <row r="453" spans="1:7" ht="30">
       <c r="A453" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B453" s="42" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C453" s="47" t="s">
-        <v>682</v>
+        <v>655</v>
       </c>
       <c r="D453" s="42">
         <v>78.099999999999994</v>
       </c>
       <c r="E453" s="42"/>
       <c r="F453" s="42" t="s">
-        <v>1184</v>
+        <v>1128</v>
       </c>
       <c r="G453" s="47"/>
     </row>
-    <row r="454" spans="1:7" ht="30">
+    <row r="454" spans="1:7">
       <c r="A454" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B454" s="42" t="s">
-        <v>734</v>
-      </c>
-      <c r="C454" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="D454" s="42">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E454" s="42"/>
-      <c r="F454" s="42" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G454" s="47"/>
+        <v>735</v>
+      </c>
+      <c r="C454" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D454" s="44"/>
+      <c r="E454" s="44"/>
+      <c r="F454" s="44"/>
+      <c r="G454" s="44"/>
     </row>
     <row r="455" spans="1:7">
       <c r="A455" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B455" s="42" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C455" s="44" t="s">
-        <v>43</v>
+        <v>624</v>
       </c>
       <c r="D455" s="44"/>
       <c r="E455" s="44"/>
-      <c r="F455" s="42" t="s">
-        <v>1184</v>
-      </c>
+      <c r="F455" s="44"/>
       <c r="G455" s="44"/>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" ht="30">
       <c r="A456" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B456" s="42" t="s">
-        <v>736</v>
-      </c>
-      <c r="C456" s="44" t="s">
-        <v>624</v>
-      </c>
-      <c r="D456" s="44"/>
-      <c r="E456" s="44"/>
+        <v>737</v>
+      </c>
+      <c r="C456" s="47" t="s">
+        <v>738</v>
+      </c>
+      <c r="D456" s="42" t="s">
+        <v>557</v>
+      </c>
+      <c r="E456" s="42"/>
       <c r="F456" s="42" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G456" s="44"/>
-    </row>
-    <row r="457" spans="1:7" ht="30">
+        <v>1128</v>
+      </c>
+      <c r="G456" s="47" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7">
       <c r="A457" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B457" s="42" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C457" s="47" t="s">
-        <v>738</v>
+        <v>690</v>
       </c>
       <c r="D457" s="42" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E457" s="42"/>
       <c r="F457" s="42" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G457" s="47" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="458" spans="1:7">
+        <v>1128</v>
+      </c>
+      <c r="G457" s="47"/>
+    </row>
+    <row r="458" spans="1:7" ht="30">
       <c r="A458" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B458" s="42" t="s">
-        <v>739</v>
-      </c>
-      <c r="C458" s="47" t="s">
-        <v>690</v>
+        <v>740</v>
+      </c>
+      <c r="C458" s="42" t="s">
+        <v>741</v>
       </c>
       <c r="D458" s="42" t="s">
-        <v>560</v>
+        <v>1066</v>
       </c>
       <c r="E458" s="42"/>
       <c r="F458" s="42" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G458" s="47"/>
-    </row>
-    <row r="459" spans="1:7" ht="30">
+        <v>1128</v>
+      </c>
+      <c r="G458" s="42"/>
+    </row>
+    <row r="459" spans="1:7" ht="45">
       <c r="A459" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B459" s="42" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C459" s="42" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D459" s="42" t="s">
-        <v>1066</v>
+        <v>598</v>
       </c>
       <c r="E459" s="42"/>
       <c r="F459" s="42" t="s">
-        <v>1184</v>
+        <v>1128</v>
       </c>
       <c r="G459" s="42"/>
     </row>
-    <row r="460" spans="1:7" ht="45">
+    <row r="460" spans="1:7">
       <c r="A460" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B460" s="42" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C460" s="42" t="s">
-        <v>743</v>
-      </c>
-      <c r="D460" s="42" t="s">
-        <v>598</v>
-      </c>
+        <v>1081</v>
+      </c>
+      <c r="D460" s="42"/>
       <c r="E460" s="42"/>
       <c r="F460" s="42" t="s">
-        <v>1184</v>
+        <v>1128</v>
       </c>
       <c r="G460" s="42"/>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" ht="60">
       <c r="A461" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B461" s="42" t="s">
-        <v>744</v>
+        <v>1082</v>
       </c>
       <c r="C461" s="42" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D461" s="42"/>
+        <v>745</v>
+      </c>
+      <c r="D461" s="42" t="s">
+        <v>566</v>
+      </c>
       <c r="E461" s="42"/>
       <c r="F461" s="42" t="s">
-        <v>1184</v>
+        <v>1128</v>
       </c>
       <c r="G461" s="42"/>
     </row>
-    <row r="462" spans="1:7" ht="60">
+    <row r="462" spans="1:7" ht="30">
       <c r="A462" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B462" s="42" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C462" s="42" t="s">
-        <v>745</v>
+        <v>1080</v>
       </c>
       <c r="D462" s="42" t="s">
-        <v>566</v>
+        <v>700</v>
       </c>
       <c r="E462" s="42"/>
       <c r="F462" s="42" t="s">
-        <v>1184</v>
+        <v>1128</v>
       </c>
       <c r="G462" s="42"/>
     </row>
-    <row r="463" spans="1:7" ht="30">
+    <row r="463" spans="1:7">
       <c r="A463" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B463" s="42" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C463" s="42" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D463" s="42" t="s">
-        <v>700</v>
-      </c>
-      <c r="E463" s="42"/>
-      <c r="F463" s="42" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G463" s="42"/>
+        <v>747</v>
+      </c>
+      <c r="C463" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="D463" s="44"/>
+      <c r="E463" s="44"/>
+      <c r="F463" s="44"/>
+      <c r="G463" s="44"/>
     </row>
     <row r="464" spans="1:7">
       <c r="A464" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B464" s="42" t="s">
-        <v>747</v>
-      </c>
-      <c r="C464" s="44" t="s">
-        <v>600</v>
-      </c>
-      <c r="D464" s="44"/>
-      <c r="E464" s="44"/>
+        <v>748</v>
+      </c>
+      <c r="C464" s="47" t="s">
+        <v>602</v>
+      </c>
+      <c r="D464" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="E464" s="42"/>
       <c r="F464" s="42" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G464" s="44"/>
+        <v>1128</v>
+      </c>
+      <c r="G464" s="47" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="465" spans="1:7">
       <c r="A465" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B465" s="42" t="s">
-        <v>748</v>
-      </c>
-      <c r="C465" s="47" t="s">
-        <v>602</v>
+        <v>749</v>
+      </c>
+      <c r="C465" s="42" t="s">
+        <v>604</v>
       </c>
       <c r="D465" s="42" t="s">
-        <v>577</v>
+        <v>1064</v>
       </c>
       <c r="E465" s="42"/>
       <c r="F465" s="42" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G465" s="47" t="s">
-        <v>1109</v>
-      </c>
+        <v>1128</v>
+      </c>
+      <c r="G465" s="42"/>
     </row>
     <row r="466" spans="1:7">
       <c r="A466" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B466" s="42" t="s">
-        <v>749</v>
-      </c>
-      <c r="C466" s="42" t="s">
-        <v>604</v>
-      </c>
-      <c r="D466" s="42" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E466" s="42"/>
-      <c r="F466" s="42" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G466" s="42"/>
-    </row>
-    <row r="467" spans="1:7">
+        <v>750</v>
+      </c>
+      <c r="C466" s="44" t="s">
+        <v>606</v>
+      </c>
+      <c r="D466" s="44"/>
+      <c r="E466" s="44"/>
+      <c r="F466" s="44"/>
+      <c r="G466" s="44"/>
+    </row>
+    <row r="467" spans="1:7" ht="30">
       <c r="A467" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B467" s="42" t="s">
-        <v>750</v>
-      </c>
-      <c r="C467" s="44" t="s">
-        <v>606</v>
-      </c>
-      <c r="D467" s="44"/>
-      <c r="E467" s="44"/>
+        <v>751</v>
+      </c>
+      <c r="C467" s="47" t="s">
+        <v>570</v>
+      </c>
+      <c r="D467" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="E467" s="42"/>
       <c r="F467" s="42" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G467" s="44"/>
+        <v>1128</v>
+      </c>
+      <c r="G467" s="47" t="s">
+        <v>1118</v>
+      </c>
     </row>
     <row r="468" spans="1:7" ht="30">
       <c r="A468" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B468" s="42" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C468" s="47" t="s">
-        <v>570</v>
+        <v>645</v>
       </c>
       <c r="D468" s="42" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="E468" s="42"/>
       <c r="F468" s="42" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G468" s="47" t="s">
-        <v>1118</v>
-      </c>
+        <v>1128</v>
+      </c>
+      <c r="G468" s="47"/>
     </row>
     <row r="469" spans="1:7" ht="30">
       <c r="A469" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B469" s="42" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C469" s="47" t="s">
-        <v>645</v>
+        <v>611</v>
       </c>
       <c r="D469" s="42" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E469" s="42"/>
       <c r="F469" s="42" t="s">
-        <v>1184</v>
+        <v>1128</v>
       </c>
       <c r="G469" s="47"/>
     </row>
-    <row r="470" spans="1:7" ht="30">
+    <row r="470" spans="1:7">
       <c r="A470" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B470" s="42" t="s">
-        <v>753</v>
-      </c>
-      <c r="C470" s="47" t="s">
-        <v>611</v>
+        <v>754</v>
+      </c>
+      <c r="C470" s="42" t="s">
+        <v>613</v>
       </c>
       <c r="D470" s="42" t="s">
-        <v>577</v>
+        <v>1067</v>
       </c>
       <c r="E470" s="42"/>
       <c r="F470" s="42" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G470" s="47"/>
-    </row>
-    <row r="471" spans="1:7">
+        <v>1128</v>
+      </c>
+      <c r="G470" s="42"/>
+    </row>
+    <row r="471" spans="1:7" ht="30">
       <c r="A471" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B471" s="42" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C471" s="42" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D471" s="42" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E471" s="42"/>
       <c r="F471" s="42" t="s">
-        <v>1184</v>
+        <v>1128</v>
       </c>
       <c r="G471" s="42"/>
-    </row>
-    <row r="472" spans="1:7" ht="30">
-      <c r="A472" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B472" s="42" t="s">
-        <v>755</v>
-      </c>
-      <c r="C472" s="42" t="s">
-        <v>615</v>
-      </c>
-      <c r="D472" s="42" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E472" s="42"/>
-      <c r="F472" s="42" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G472" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -17029,14 +16998,14 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="45.09765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="81.3984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="45.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="81.375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.8984375" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -17122,7 +17091,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="140.4">
+    <row r="5" spans="1:7" ht="126">
       <c r="A5" s="3" t="s">
         <v>68</v>
       </c>
@@ -17176,15 +17145,15 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="68.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.8984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="100" style="4" customWidth="1"/>
-    <col min="5" max="6" width="22.8984375" style="4" customWidth="1"/>
+    <col min="5" max="6" width="22.875" style="4" customWidth="1"/>
     <col min="7" max="7" width="20" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.8984375" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -17325,7 +17294,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="31.2">
+    <row r="8" spans="1:7" ht="31.5">
       <c r="A8" s="6" t="s">
         <v>784</v>
       </c>
@@ -17878,7 +17847,7 @@
       </c>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" ht="78">
+    <row r="37" spans="1:7" ht="63">
       <c r="A37" s="6" t="s">
         <v>246</v>
       </c>
@@ -17899,7 +17868,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.2">
+    <row r="38" spans="1:7" ht="31.5">
       <c r="A38" s="6" t="s">
         <v>509</v>
       </c>
@@ -17975,7 +17944,7 @@
       </c>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7" ht="46.8">
+    <row r="42" spans="1:7" ht="47.25">
       <c r="A42" s="6" t="s">
         <v>263</v>
       </c>
@@ -18259,19 +18228,19 @@
       <selection sqref="A1:D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="47.3984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.8984375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="80.8984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="47.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="80.875" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.8984375" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.8984375" style="17" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="17" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="24" customFormat="1" ht="30.9" customHeight="1">
+    <row r="1" spans="1:256" s="24" customFormat="1" ht="30.95" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>756</v>
       </c>
@@ -19265,7 +19234,7 @@
       </c>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7" ht="30.9" customHeight="1">
+    <row r="40" spans="1:7" ht="30.95" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>924</v>
       </c>
@@ -19318,7 +19287,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:7" ht="30.9" customHeight="1">
+    <row r="43" spans="1:7" ht="30.95" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>934</v>
       </c>
@@ -19426,7 +19395,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="1:256" s="32" customFormat="1" ht="31.2">
+    <row r="49" spans="1:256" s="32" customFormat="1" ht="31.5">
       <c r="A49" s="57" t="s">
         <v>955</v>
       </c>
@@ -19724,17 +19693,17 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.3984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="41.3984375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="29" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.8984375" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.8984375" style="17" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="17" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -20204,7 +20173,7 @@
       <c r="F24" s="58"/>
       <c r="G24" s="58"/>
     </row>
-    <row r="25" spans="1:7" ht="43.2">
+    <row r="25" spans="1:7" ht="45">
       <c r="A25" s="58" t="s">
         <v>1213</v>
       </c>
@@ -20221,7 +20190,7 @@
       <c r="F25" s="58"/>
       <c r="G25" s="58"/>
     </row>
-    <row r="26" spans="1:7" ht="28.8">
+    <row r="26" spans="1:7" ht="30">
       <c r="A26" s="58" t="s">
         <v>1267</v>
       </c>
@@ -20238,7 +20207,7 @@
       <c r="F26" s="58"/>
       <c r="G26" s="58"/>
     </row>
-    <row r="27" spans="1:7" ht="28.8">
+    <row r="27" spans="1:7" ht="30">
       <c r="A27" s="58" t="s">
         <v>1270</v>
       </c>
@@ -20255,7 +20224,7 @@
       <c r="F27" s="58"/>
       <c r="G27" s="58"/>
     </row>
-    <row r="28" spans="1:7" ht="28.8">
+    <row r="28" spans="1:7" ht="30">
       <c r="A28" s="58" t="s">
         <v>1273</v>
       </c>
@@ -20272,7 +20241,7 @@
       <c r="F28" s="58"/>
       <c r="G28" s="58"/>
     </row>
-    <row r="29" spans="1:7" ht="28.8">
+    <row r="29" spans="1:7" ht="30">
       <c r="A29" s="58" t="s">
         <v>1276</v>
       </c>
@@ -20289,7 +20258,7 @@
       <c r="F29" s="58"/>
       <c r="G29" s="58"/>
     </row>
-    <row r="30" spans="1:7" ht="28.8">
+    <row r="30" spans="1:7" ht="30">
       <c r="A30" s="58" t="s">
         <v>1279</v>
       </c>
@@ -20324,18 +20293,18 @@
       <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" style="17"/>
-    <col min="2" max="2" width="54.09765625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="17.69921875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="54.59765625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="103.8984375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35.59765625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="75.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54.125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="54.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="103.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="35.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="75.625" style="4" customWidth="1"/>
     <col min="8" max="9" width="10.5" style="4" customWidth="1"/>
-    <col min="10" max="258" width="8.8984375" style="4" customWidth="1"/>
-    <col min="259" max="1027" width="8.8984375" style="17" customWidth="1"/>
+    <col min="10" max="258" width="8.875" style="4" customWidth="1"/>
+    <col min="259" max="1027" width="8.875" style="17" customWidth="1"/>
     <col min="1028" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -20414,7 +20383,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="78">
+    <row r="4" spans="1:9" ht="78.75">
       <c r="A4" s="55" t="s">
         <v>1002</v>
       </c>
@@ -20453,17 +20422,17 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="53.3984375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="53.375" style="18" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="18" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="18" customWidth="1"/>
-    <col min="5" max="5" width="31.8984375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="31.875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="18" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="18" customWidth="1"/>
-    <col min="8" max="256" width="8.8984375" style="18" customWidth="1"/>
-    <col min="257" max="1025" width="8.8984375" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="18" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -21162,7 +21131,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="23" spans="1:256" s="36" customFormat="1" ht="31.2">
+    <row r="23" spans="1:256" s="36" customFormat="1" ht="31.5">
       <c r="A23" s="6" t="s">
         <v>1069</v>
       </c>
@@ -21960,7 +21929,7 @@
       <c r="IU25" s="35"/>
       <c r="IV25" s="35"/>
     </row>
-    <row r="26" spans="1:256" s="36" customFormat="1" ht="31.2">
+    <row r="26" spans="1:256" s="36" customFormat="1" ht="31.5">
       <c r="A26" s="6" t="s">
         <v>1065</v>
       </c>
@@ -22510,15 +22479,15 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="22" customWidth="1"/>
-    <col min="2" max="2" width="53.3984375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="53.375" style="17" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="17" customWidth="1"/>
     <col min="4" max="5" width="44.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="17" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="17" customWidth="1"/>
-    <col min="8" max="1025" width="8.8984375" style="17" customWidth="1"/>
+    <col min="8" max="1025" width="8.875" style="17" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -22794,7 +22763,7 @@
       <c r="IU1" s="23"/>
       <c r="IV1" s="23"/>
     </row>
-    <row r="2" spans="1:256" ht="31.2">
+    <row r="2" spans="1:256" ht="31.5">
       <c r="A2" s="56" t="s">
         <v>1201</v>
       </c>
@@ -22815,7 +22784,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="31.2">
+    <row r="3" spans="1:256" ht="31.5">
       <c r="A3" s="56" t="s">
         <v>1292</v>
       </c>
@@ -22836,7 +22805,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:256" ht="31.2">
+    <row r="4" spans="1:256" ht="31.5">
       <c r="A4" s="6" t="s">
         <v>1295</v>
       </c>

--- a/conformancelib/testdata/85b_test_definitions_PIV-I_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV-I_ICAM_Test_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6308DA3F-811E-4DDC-B8D8-419EBE64B87B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A27E3BB-4459-4F71-ABA3-14CDE374C15E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="255" windowWidth="23310" windowHeight="13785" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="2505" windowWidth="26190" windowHeight="13845" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -2426,9 +2426,6 @@
     <t>sp800_73_4_Test_16</t>
   </si>
   <si>
-    <t>CHUID_OID:5</t>
-  </si>
-  <si>
     <t>73-4.17</t>
   </si>
   <si>
@@ -3962,6 +3959,9 @@
   </si>
   <si>
     <t>9.3.2.5</t>
+  </si>
+  <si>
+    <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:15</t>
   </si>
 </sst>
 </file>
@@ -8499,8 +8499,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A454" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F471" sqref="F471"/>
+    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -8530,13 +8530,13 @@
         <v>55</v>
       </c>
       <c r="E1" s="38" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F1" s="38" t="s">
         <v>1122</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>1123</v>
-      </c>
       <c r="G1" s="38" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8544,7 +8544,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C2" s="40" t="s">
         <v>0</v>
@@ -8574,10 +8574,10 @@
         <v>56</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>1124</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>1125</v>
       </c>
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
@@ -8599,10 +8599,10 @@
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="42" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
@@ -8620,7 +8620,7 @@
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="42" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G6" s="42"/>
     </row>
@@ -8639,7 +8639,7 @@
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="42" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G7" s="42"/>
     </row>
@@ -8658,7 +8658,7 @@
       </c>
       <c r="E8" s="42"/>
       <c r="F8" s="42" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G8" s="42"/>
     </row>
@@ -8677,7 +8677,7 @@
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="42" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G9" s="42"/>
     </row>
@@ -8696,7 +8696,7 @@
       </c>
       <c r="E10" s="42"/>
       <c r="F10" s="42" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G10" s="42"/>
     </row>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="E11" s="42"/>
       <c r="F11" s="42" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G11" s="42"/>
     </row>
@@ -8734,7 +8734,7 @@
       </c>
       <c r="E12" s="42"/>
       <c r="F12" s="42" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G12" s="42"/>
     </row>
@@ -8753,7 +8753,7 @@
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G13" s="42"/>
     </row>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G14" s="42"/>
     </row>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G15" s="42"/>
     </row>
@@ -8815,10 +8815,10 @@
         <v>56</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
@@ -8840,10 +8840,10 @@
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30">
@@ -8861,7 +8861,7 @@
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G19" s="42"/>
     </row>
@@ -8880,7 +8880,7 @@
       </c>
       <c r="E20" s="42"/>
       <c r="F20" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G20" s="42"/>
     </row>
@@ -8899,7 +8899,7 @@
       </c>
       <c r="E21" s="42"/>
       <c r="F21" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G21" s="42"/>
     </row>
@@ -8918,7 +8918,7 @@
       </c>
       <c r="E22" s="42"/>
       <c r="F22" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G22" s="42"/>
     </row>
@@ -8930,14 +8930,14 @@
         <v>98</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>100</v>
       </c>
       <c r="E23" s="42"/>
       <c r="F23" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G23" s="42"/>
     </row>
@@ -8949,14 +8949,14 @@
         <v>101</v>
       </c>
       <c r="C24" s="43" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D24" s="43" t="s">
         <v>1130</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>1131</v>
       </c>
       <c r="E24" s="43"/>
       <c r="F24" s="43" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G24" s="43"/>
     </row>
@@ -8975,7 +8975,7 @@
       </c>
       <c r="E25" s="42"/>
       <c r="F25" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G25" s="42"/>
     </row>
@@ -8987,14 +8987,14 @@
         <v>107</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D26" s="42" t="s">
         <v>106</v>
       </c>
       <c r="E26" s="42"/>
       <c r="F26" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G26" s="42"/>
     </row>
@@ -9006,14 +9006,14 @@
         <v>110</v>
       </c>
       <c r="C27" s="43" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D27" s="43" t="s">
         <v>1132</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>1133</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="43" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G27" s="43"/>
     </row>
@@ -9025,14 +9025,14 @@
         <v>113</v>
       </c>
       <c r="C28" s="43" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>1134</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>1135</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="43" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G28" s="43"/>
     </row>
@@ -9041,34 +9041,34 @@
         <v>56</v>
       </c>
       <c r="B29" s="43" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C29" s="43" t="s">
         <v>1136</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="D29" s="43" t="s">
         <v>1137</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>1138</v>
       </c>
       <c r="E29" s="43"/>
       <c r="F29" s="43" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G29" s="43"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="43"/>
       <c r="B30" s="43" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C30" s="43" t="s">
         <v>1139</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="D30" s="43" t="s">
         <v>1140</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>1141</v>
       </c>
       <c r="E30" s="43"/>
       <c r="F30" s="43" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G30" s="43"/>
     </row>
@@ -9077,17 +9077,17 @@
         <v>56</v>
       </c>
       <c r="B31" s="42" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C31" s="42" t="s">
         <v>1142</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>1143</v>
       </c>
       <c r="D31" s="42" t="s">
         <v>109</v>
       </c>
       <c r="E31" s="42"/>
       <c r="F31" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G31" s="42"/>
     </row>
@@ -9096,7 +9096,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C32" s="42" t="s">
         <v>111</v>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="E32" s="42"/>
       <c r="F32" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G32" s="42"/>
     </row>
@@ -9115,17 +9115,17 @@
         <v>56</v>
       </c>
       <c r="B33" s="43" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C33" s="43" t="s">
         <v>1145</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="D33" s="43" t="s">
         <v>1146</v>
-      </c>
-      <c r="D33" s="43" t="s">
-        <v>1147</v>
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="43" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G33" s="43"/>
     </row>
@@ -9134,17 +9134,17 @@
         <v>56</v>
       </c>
       <c r="B34" s="43" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C34" s="43" t="s">
         <v>1148</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="D34" s="43" t="s">
         <v>1149</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>1150</v>
       </c>
       <c r="E34" s="43"/>
       <c r="F34" s="43" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G34" s="43"/>
     </row>
@@ -9153,17 +9153,17 @@
         <v>56</v>
       </c>
       <c r="B35" s="43" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C35" s="43" t="s">
         <v>1151</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="D35" s="43" t="s">
         <v>1152</v>
-      </c>
-      <c r="D35" s="43" t="s">
-        <v>1153</v>
       </c>
       <c r="E35" s="43"/>
       <c r="F35" s="43" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G35" s="43"/>
     </row>
@@ -9172,17 +9172,17 @@
         <v>56</v>
       </c>
       <c r="B36" s="43" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C36" s="43" t="s">
         <v>1154</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="D36" s="43" t="s">
         <v>1155</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>1156</v>
       </c>
       <c r="E36" s="43"/>
       <c r="F36" s="43" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G36" s="43"/>
     </row>
@@ -9191,7 +9191,7 @@
         <v>56</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C37" s="42" t="s">
         <v>114</v>
@@ -9201,7 +9201,7 @@
       </c>
       <c r="E37" s="42"/>
       <c r="F37" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G37" s="42"/>
     </row>
@@ -9220,7 +9220,7 @@
       </c>
       <c r="E38" s="42"/>
       <c r="F38" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G38" s="42"/>
     </row>
@@ -9239,7 +9239,7 @@
       </c>
       <c r="E39" s="42"/>
       <c r="F39" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G39" s="42"/>
     </row>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="E40" s="42"/>
       <c r="F40" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G40" s="42"/>
     </row>
@@ -9277,7 +9277,7 @@
       </c>
       <c r="E41" s="42"/>
       <c r="F41" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G41" s="42"/>
     </row>
@@ -9286,7 +9286,7 @@
         <v>127</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C42" s="42" t="s">
         <v>129</v>
@@ -9296,7 +9296,7 @@
       </c>
       <c r="E42" s="42"/>
       <c r="F42" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G42" s="42"/>
     </row>
@@ -9320,10 +9320,10 @@
         <v>56</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D44" s="41"/>
       <c r="E44" s="41"/>
@@ -9345,10 +9345,10 @@
       </c>
       <c r="E45" s="42"/>
       <c r="F45" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30">
@@ -9366,7 +9366,7 @@
       </c>
       <c r="E46" s="42"/>
       <c r="F46" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G46" s="42"/>
     </row>
@@ -9385,7 +9385,7 @@
       </c>
       <c r="E47" s="42"/>
       <c r="F47" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G47" s="42"/>
     </row>
@@ -9404,11 +9404,11 @@
       </c>
       <c r="E48" s="42"/>
       <c r="F48" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G48" s="42"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" ht="30">
       <c r="A49" s="42" t="s">
         <v>56</v>
       </c>
@@ -9419,11 +9419,11 @@
         <v>136</v>
       </c>
       <c r="D49" s="42" t="s">
-        <v>137</v>
+        <v>1200</v>
       </c>
       <c r="E49" s="42"/>
       <c r="F49" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G49" s="42"/>
     </row>
@@ -9442,7 +9442,7 @@
       </c>
       <c r="E50" s="42"/>
       <c r="F50" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G50" s="42"/>
     </row>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="E51" s="42"/>
       <c r="F51" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G51" s="42"/>
     </row>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="E52" s="42"/>
       <c r="F52" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G52" s="42"/>
     </row>
@@ -9499,7 +9499,7 @@
       </c>
       <c r="E53" s="42"/>
       <c r="F53" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G53" s="42"/>
     </row>
@@ -9508,7 +9508,7 @@
         <v>127</v>
       </c>
       <c r="B54" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C54" s="42" t="s">
         <v>129</v>
@@ -9518,7 +9518,7 @@
       </c>
       <c r="E54" s="42"/>
       <c r="F54" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G54" s="42"/>
     </row>
@@ -9542,10 +9542,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="42" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D56" s="41"/>
       <c r="E56" s="41"/>
@@ -9567,10 +9567,10 @@
       </c>
       <c r="E57" s="42"/>
       <c r="F57" s="42" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G57" s="42" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="30">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="E58" s="42"/>
       <c r="F58" s="42" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G58" s="42"/>
     </row>
@@ -9607,7 +9607,7 @@
       </c>
       <c r="E59" s="42"/>
       <c r="F59" s="42" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G59" s="42"/>
     </row>
@@ -9626,7 +9626,7 @@
       </c>
       <c r="E60" s="42"/>
       <c r="F60" s="42" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G60" s="42"/>
     </row>
@@ -9645,7 +9645,7 @@
       </c>
       <c r="E61" s="42"/>
       <c r="F61" s="42" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G61" s="42"/>
     </row>
@@ -9664,7 +9664,7 @@
       </c>
       <c r="E62" s="42"/>
       <c r="F62" s="42" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G62" s="42"/>
     </row>
@@ -9683,7 +9683,7 @@
       </c>
       <c r="E63" s="42"/>
       <c r="F63" s="42" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G63" s="42"/>
     </row>
@@ -9702,7 +9702,7 @@
       </c>
       <c r="E64" s="42"/>
       <c r="F64" s="42" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G64" s="42"/>
     </row>
@@ -9721,7 +9721,7 @@
       </c>
       <c r="E65" s="42"/>
       <c r="F65" s="42" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G65" s="42"/>
     </row>
@@ -9745,10 +9745,10 @@
         <v>56</v>
       </c>
       <c r="B67" s="42" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D67" s="41"/>
       <c r="E67" s="41"/>
@@ -9770,10 +9770,10 @@
       </c>
       <c r="E68" s="42"/>
       <c r="F68" s="42" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G68" s="42" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30">
@@ -9791,7 +9791,7 @@
       </c>
       <c r="E69" s="42"/>
       <c r="F69" s="42" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G69" s="42"/>
     </row>
@@ -9810,7 +9810,7 @@
       </c>
       <c r="E70" s="42"/>
       <c r="F70" s="42" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G70" s="42"/>
     </row>
@@ -9829,7 +9829,7 @@
       </c>
       <c r="E71" s="42"/>
       <c r="F71" s="42" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G71" s="42"/>
     </row>
@@ -9848,7 +9848,7 @@
       </c>
       <c r="E72" s="42"/>
       <c r="F72" s="42" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G72" s="42"/>
     </row>
@@ -9867,7 +9867,7 @@
       </c>
       <c r="E73" s="42"/>
       <c r="F73" s="42" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G73" s="42"/>
     </row>
@@ -9879,14 +9879,14 @@
         <v>172</v>
       </c>
       <c r="C74" s="43" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D74" s="43" t="s">
         <v>1166</v>
-      </c>
-      <c r="D74" s="43" t="s">
-        <v>1167</v>
       </c>
       <c r="E74" s="43"/>
       <c r="F74" s="43" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G74" s="43"/>
     </row>
@@ -9898,14 +9898,14 @@
         <v>175</v>
       </c>
       <c r="C75" s="43" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D75" s="43" t="s">
         <v>1168</v>
-      </c>
-      <c r="D75" s="43" t="s">
-        <v>1169</v>
       </c>
       <c r="E75" s="43"/>
       <c r="F75" s="43" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G75" s="43"/>
     </row>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="E76" s="42"/>
       <c r="F76" s="42" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G76" s="42"/>
     </row>
@@ -9933,7 +9933,7 @@
         <v>56</v>
       </c>
       <c r="B77" s="42" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C77" s="42" t="s">
         <v>176</v>
@@ -9943,7 +9943,7 @@
       </c>
       <c r="E77" s="42"/>
       <c r="F77" s="42" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G77" s="42"/>
     </row>
@@ -9952,7 +9952,7 @@
         <v>56</v>
       </c>
       <c r="B78" s="42" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C78" s="42" t="s">
         <v>179</v>
@@ -9962,7 +9962,7 @@
       </c>
       <c r="E78" s="42"/>
       <c r="F78" s="42" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G78" s="42"/>
     </row>
@@ -9971,7 +9971,7 @@
         <v>127</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C79" s="42" t="s">
         <v>129</v>
@@ -9981,7 +9981,7 @@
       </c>
       <c r="E79" s="42"/>
       <c r="F79" s="42" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G79" s="42"/>
     </row>
@@ -9990,7 +9990,7 @@
         <v>56</v>
       </c>
       <c r="B80" s="42" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C80" s="41" t="s">
         <v>6</v>
@@ -10005,10 +10005,10 @@
         <v>56</v>
       </c>
       <c r="B81" s="42" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D81" s="41"/>
       <c r="E81" s="41"/>
@@ -10030,10 +10030,10 @@
       </c>
       <c r="E82" s="42"/>
       <c r="F82" s="42" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="G82" s="42" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="30">
@@ -10051,7 +10051,7 @@
       </c>
       <c r="E83" s="42"/>
       <c r="F83" s="42" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="G83" s="42"/>
     </row>
@@ -10070,7 +10070,7 @@
       </c>
       <c r="E84" s="42"/>
       <c r="F84" s="42" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="G84" s="42"/>
     </row>
@@ -10089,7 +10089,7 @@
       </c>
       <c r="E85" s="42"/>
       <c r="F85" s="42" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="G85" s="42"/>
     </row>
@@ -10108,7 +10108,7 @@
       </c>
       <c r="E86" s="42"/>
       <c r="F86" s="42" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="G86" s="42"/>
     </row>
@@ -10127,7 +10127,7 @@
       </c>
       <c r="E87" s="42"/>
       <c r="F87" s="42" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="G87" s="42"/>
     </row>
@@ -10146,7 +10146,7 @@
       </c>
       <c r="E88" s="42"/>
       <c r="F88" s="42" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="G88" s="42"/>
     </row>
@@ -10155,7 +10155,7 @@
         <v>127</v>
       </c>
       <c r="B89" s="42" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C89" s="42" t="s">
         <v>129</v>
@@ -10165,7 +10165,7 @@
       </c>
       <c r="E89" s="42"/>
       <c r="F89" s="42" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="G89" s="42"/>
     </row>
@@ -10189,10 +10189,10 @@
         <v>56</v>
       </c>
       <c r="B91" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C91" s="41" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D91" s="41"/>
       <c r="E91" s="41"/>
@@ -10214,10 +10214,10 @@
       </c>
       <c r="E92" s="42"/>
       <c r="F92" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G92" s="42" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="30">
@@ -10235,7 +10235,7 @@
       </c>
       <c r="E93" s="42"/>
       <c r="F93" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G93" s="42"/>
     </row>
@@ -10254,7 +10254,7 @@
       </c>
       <c r="E94" s="42"/>
       <c r="F94" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G94" s="42"/>
     </row>
@@ -10273,11 +10273,11 @@
       </c>
       <c r="E95" s="42"/>
       <c r="F95" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G95" s="42"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" ht="30">
       <c r="A96" s="42" t="s">
         <v>56</v>
       </c>
@@ -10288,11 +10288,11 @@
         <v>136</v>
       </c>
       <c r="D96" s="42" t="s">
-        <v>137</v>
+        <v>1200</v>
       </c>
       <c r="E96" s="42"/>
       <c r="F96" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G96" s="42"/>
     </row>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="E97" s="42"/>
       <c r="F97" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G97" s="42"/>
     </row>
@@ -10330,7 +10330,7 @@
       </c>
       <c r="E98" s="42"/>
       <c r="F98" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G98" s="42"/>
     </row>
@@ -10349,7 +10349,7 @@
       </c>
       <c r="E99" s="42"/>
       <c r="F99" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G99" s="42"/>
     </row>
@@ -10368,7 +10368,7 @@
       </c>
       <c r="E100" s="42"/>
       <c r="F100" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G100" s="42"/>
     </row>
@@ -10377,7 +10377,7 @@
         <v>127</v>
       </c>
       <c r="B101" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C101" s="42" t="s">
         <v>129</v>
@@ -10387,7 +10387,7 @@
       </c>
       <c r="E101" s="42"/>
       <c r="F101" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G101" s="42"/>
     </row>
@@ -10411,10 +10411,10 @@
         <v>56</v>
       </c>
       <c r="B103" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C103" s="41" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D103" s="41"/>
       <c r="E103" s="41"/>
@@ -10436,10 +10436,10 @@
       </c>
       <c r="E104" s="42"/>
       <c r="F104" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G104" s="42" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="30">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="E105" s="42"/>
       <c r="F105" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G105" s="42"/>
     </row>
@@ -10476,7 +10476,7 @@
       </c>
       <c r="E106" s="42"/>
       <c r="F106" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G106" s="42"/>
     </row>
@@ -10495,11 +10495,11 @@
       </c>
       <c r="E107" s="42"/>
       <c r="F107" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G107" s="42"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" ht="30">
       <c r="A108" s="42" t="s">
         <v>56</v>
       </c>
@@ -10510,11 +10510,11 @@
         <v>136</v>
       </c>
       <c r="D108" s="42" t="s">
-        <v>137</v>
+        <v>1200</v>
       </c>
       <c r="E108" s="42"/>
       <c r="F108" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G108" s="42"/>
     </row>
@@ -10533,7 +10533,7 @@
       </c>
       <c r="E109" s="42"/>
       <c r="F109" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G109" s="42"/>
     </row>
@@ -10552,7 +10552,7 @@
       </c>
       <c r="E110" s="42"/>
       <c r="F110" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G110" s="42"/>
     </row>
@@ -10571,7 +10571,7 @@
       </c>
       <c r="E111" s="42"/>
       <c r="F111" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G111" s="42"/>
     </row>
@@ -10590,7 +10590,7 @@
       </c>
       <c r="E112" s="42"/>
       <c r="F112" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G112" s="42"/>
     </row>
@@ -10599,7 +10599,7 @@
         <v>127</v>
       </c>
       <c r="B113" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C113" s="42" t="s">
         <v>129</v>
@@ -10609,7 +10609,7 @@
       </c>
       <c r="E113" s="42"/>
       <c r="F113" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G113" s="42"/>
     </row>
@@ -10633,10 +10633,10 @@
         <v>56</v>
       </c>
       <c r="B115" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C115" s="41" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D115" s="41"/>
       <c r="E115" s="41"/>
@@ -10658,10 +10658,10 @@
       </c>
       <c r="E116" s="42"/>
       <c r="F116" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G116" s="42" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="30">
@@ -10679,7 +10679,7 @@
       </c>
       <c r="E117" s="42"/>
       <c r="F117" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G117" s="42"/>
     </row>
@@ -10698,7 +10698,7 @@
       </c>
       <c r="E118" s="42"/>
       <c r="F118" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G118" s="42"/>
     </row>
@@ -10717,11 +10717,11 @@
       </c>
       <c r="E119" s="42"/>
       <c r="F119" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G119" s="42"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" ht="30">
       <c r="A120" s="42" t="s">
         <v>56</v>
       </c>
@@ -10732,11 +10732,11 @@
         <v>136</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>137</v>
+        <v>1200</v>
       </c>
       <c r="E120" s="42"/>
       <c r="F120" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G120" s="42"/>
     </row>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="E121" s="42"/>
       <c r="F121" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G121" s="42"/>
     </row>
@@ -10774,7 +10774,7 @@
       </c>
       <c r="E122" s="42"/>
       <c r="F122" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G122" s="42"/>
     </row>
@@ -10793,7 +10793,7 @@
       </c>
       <c r="E123" s="42"/>
       <c r="F123" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G123" s="42"/>
     </row>
@@ -10812,7 +10812,7 @@
       </c>
       <c r="E124" s="42"/>
       <c r="F124" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G124" s="42"/>
     </row>
@@ -10821,7 +10821,7 @@
         <v>127</v>
       </c>
       <c r="B125" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C125" s="42" t="s">
         <v>129</v>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="E125" s="42"/>
       <c r="F125" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G125" s="42"/>
     </row>
@@ -10840,7 +10840,7 @@
         <v>56</v>
       </c>
       <c r="B126" s="42" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C126" s="41" t="s">
         <v>10</v>
@@ -10855,10 +10855,10 @@
         <v>56</v>
       </c>
       <c r="B127" s="42" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C127" s="41" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D127" s="41"/>
       <c r="E127" s="41"/>
@@ -10880,10 +10880,10 @@
       </c>
       <c r="E128" s="42"/>
       <c r="F128" s="42" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G128" s="42" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="30">
@@ -10901,7 +10901,7 @@
       </c>
       <c r="E129" s="42"/>
       <c r="F129" s="42" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G129" s="42"/>
     </row>
@@ -10920,7 +10920,7 @@
       </c>
       <c r="E130" s="42"/>
       <c r="F130" s="42" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G130" s="42"/>
     </row>
@@ -10939,7 +10939,7 @@
       </c>
       <c r="E131" s="42"/>
       <c r="F131" s="42" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G131" s="42"/>
     </row>
@@ -10958,7 +10958,7 @@
       </c>
       <c r="E132" s="42"/>
       <c r="F132" s="42" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G132" s="42"/>
     </row>
@@ -10970,14 +10970,14 @@
         <v>238</v>
       </c>
       <c r="C133" s="42" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D133" s="42" t="s">
         <v>240</v>
       </c>
       <c r="E133" s="42"/>
       <c r="F133" s="42" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G133" s="42"/>
     </row>
@@ -10989,14 +10989,14 @@
         <v>241</v>
       </c>
       <c r="C134" s="43" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D134" s="43" t="s">
         <v>1190</v>
-      </c>
-      <c r="D134" s="43" t="s">
-        <v>1191</v>
       </c>
       <c r="E134" s="43"/>
       <c r="F134" s="43" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G134" s="43"/>
     </row>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="E135" s="42"/>
       <c r="F135" s="42" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G135" s="42"/>
     </row>
@@ -11024,7 +11024,7 @@
         <v>56</v>
       </c>
       <c r="B136" s="42" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C136" s="42" t="s">
         <v>245</v>
@@ -11034,7 +11034,7 @@
       </c>
       <c r="E136" s="42"/>
       <c r="F136" s="42" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G136" s="42"/>
     </row>
@@ -11058,10 +11058,10 @@
         <v>56</v>
       </c>
       <c r="B138" s="42" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C138" s="41" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D138" s="41"/>
       <c r="E138" s="41"/>
@@ -11085,10 +11085,10 @@
         <v>249</v>
       </c>
       <c r="F139" s="42" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G139" s="42" t="s">
         <v>1194</v>
-      </c>
-      <c r="G139" s="42" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="30">
@@ -11108,7 +11108,7 @@
         <v>249</v>
       </c>
       <c r="F140" s="42" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G140" s="42"/>
     </row>
@@ -11129,7 +11129,7 @@
         <v>249</v>
       </c>
       <c r="F141" s="42" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G141" s="42"/>
     </row>
@@ -11150,7 +11150,7 @@
         <v>249</v>
       </c>
       <c r="F142" s="42" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G142" s="42"/>
     </row>
@@ -11162,7 +11162,7 @@
         <v>256</v>
       </c>
       <c r="C143" s="42" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D143" s="42" t="s">
         <v>258</v>
@@ -11171,7 +11171,7 @@
         <v>249</v>
       </c>
       <c r="F143" s="42" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G143" s="42"/>
     </row>
@@ -11183,7 +11183,7 @@
         <v>259</v>
       </c>
       <c r="C144" s="42" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D144" s="42" t="s">
         <v>255</v>
@@ -11192,7 +11192,7 @@
         <v>249</v>
       </c>
       <c r="F144" s="42" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G144" s="42"/>
     </row>
@@ -11204,14 +11204,14 @@
         <v>261</v>
       </c>
       <c r="C145" s="43" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D145" s="43" t="s">
         <v>1198</v>
-      </c>
-      <c r="D145" s="43" t="s">
-        <v>1199</v>
       </c>
       <c r="E145" s="43"/>
       <c r="F145" s="43" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G145" s="43"/>
     </row>
@@ -11220,19 +11220,19 @@
         <v>56</v>
       </c>
       <c r="B146" s="42" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C146" s="42" t="s">
         <v>260</v>
       </c>
       <c r="D146" s="42" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E146" s="42" t="s">
         <v>249</v>
       </c>
       <c r="F146" s="42" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G146" s="42"/>
     </row>
@@ -11241,7 +11241,7 @@
         <v>56</v>
       </c>
       <c r="B147" s="42" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C147" s="42" t="s">
         <v>262</v>
@@ -11253,7 +11253,7 @@
         <v>249</v>
       </c>
       <c r="F147" s="42" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G147" s="42"/>
     </row>
@@ -11262,19 +11262,19 @@
         <v>127</v>
       </c>
       <c r="B148" s="42" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C148" s="42" t="s">
         <v>129</v>
       </c>
       <c r="D148" s="42" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E148" s="42" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F148" s="42" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G148" s="42"/>
     </row>
@@ -11283,7 +11283,7 @@
         <v>127</v>
       </c>
       <c r="B149" s="42" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C149" s="42" t="s">
         <v>266</v>
@@ -11293,7 +11293,7 @@
       </c>
       <c r="E149" s="42"/>
       <c r="F149" s="42" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G149" s="42"/>
     </row>
@@ -11342,14 +11342,14 @@
         <v>14</v>
       </c>
       <c r="D152" s="42" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E152" s="42" t="s">
         <v>270</v>
       </c>
       <c r="F152" s="42"/>
       <c r="G152" s="42" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="30">
@@ -11363,14 +11363,14 @@
         <v>15</v>
       </c>
       <c r="D153" s="42" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E153" s="42" t="s">
         <v>270</v>
       </c>
       <c r="F153" s="42"/>
       <c r="G153" s="42" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="30">
@@ -11384,14 +11384,14 @@
         <v>272</v>
       </c>
       <c r="D154" s="42" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E154" s="42" t="s">
         <v>273</v>
       </c>
       <c r="F154" s="42"/>
       <c r="G154" s="42" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="30">
@@ -11450,7 +11450,7 @@
         <v>56</v>
       </c>
       <c r="B158" s="39" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C158" s="40" t="s">
         <v>19</v>
@@ -11506,7 +11506,7 @@
       <c r="E161" s="42"/>
       <c r="F161" s="42"/>
       <c r="G161" s="42" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -11517,7 +11517,7 @@
         <v>277</v>
       </c>
       <c r="C162" s="42" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D162" s="42">
         <v>76.2</v>
@@ -11537,7 +11537,7 @@
         <v>282</v>
       </c>
       <c r="D163" s="42" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E163" s="42"/>
       <c r="F163" s="42"/>
@@ -11551,10 +11551,10 @@
         <v>281</v>
       </c>
       <c r="C164" s="42" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D164" s="42" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E164" s="42"/>
       <c r="F164" s="42"/>
@@ -11565,18 +11565,18 @@
         <v>56</v>
       </c>
       <c r="B165" s="42" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C165" s="42" t="s">
         <v>285</v>
       </c>
       <c r="D165" s="42" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E165" s="42"/>
       <c r="F165" s="42"/>
       <c r="G165" s="42" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -11602,10 +11602,10 @@
         <v>284</v>
       </c>
       <c r="C167" s="42" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D167" s="42" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E167" s="65"/>
       <c r="F167" s="65"/>
@@ -11653,10 +11653,10 @@
         <v>290</v>
       </c>
       <c r="C170" s="42" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D170" s="42" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E170" s="42"/>
       <c r="F170" s="42"/>
@@ -11844,7 +11844,7 @@
       <c r="E181" s="42"/>
       <c r="F181" s="42"/>
       <c r="G181" s="42" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -11929,7 +11929,7 @@
       <c r="E186" s="42"/>
       <c r="F186" s="42"/>
       <c r="G186" s="42" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="30">
@@ -11974,10 +11974,10 @@
         <v>317</v>
       </c>
       <c r="C189" s="42" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D189" s="42" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E189" s="42"/>
       <c r="F189" s="42"/>
@@ -12165,7 +12165,7 @@
       <c r="E200" s="42"/>
       <c r="F200" s="42"/>
       <c r="G200" s="42" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -12245,12 +12245,12 @@
         <v>337</v>
       </c>
       <c r="D205" s="42" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E205" s="42"/>
       <c r="F205" s="42"/>
       <c r="G205" s="42" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="30">
@@ -12298,7 +12298,7 @@
         <v>342</v>
       </c>
       <c r="D208" s="42" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E208" s="42"/>
       <c r="F208" s="42"/>
@@ -12309,7 +12309,7 @@
         <v>56</v>
       </c>
       <c r="B209" s="42" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C209" s="42" t="s">
         <v>293</v>
@@ -12486,7 +12486,7 @@
       <c r="E219" s="42"/>
       <c r="F219" s="42"/>
       <c r="G219" s="42" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="30">
@@ -12568,7 +12568,7 @@
         <v>365</v>
       </c>
       <c r="D224" s="42" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E224" s="42"/>
       <c r="F224" s="42"/>
@@ -12599,13 +12599,13 @@
         <v>368</v>
       </c>
       <c r="C226" s="42" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D226" s="42" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E226" s="42" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F226" s="42"/>
       <c r="G226" s="42"/>
@@ -12621,10 +12621,10 @@
         <v>371</v>
       </c>
       <c r="D227" s="42" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E227" s="42" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F227" s="42"/>
       <c r="G227" s="42"/>
@@ -12637,7 +12637,7 @@
         <v>372</v>
       </c>
       <c r="C228" s="42" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D228" s="42">
         <v>76.16</v>
@@ -12711,7 +12711,7 @@
       <c r="E232" s="42"/>
       <c r="F232" s="42"/>
       <c r="G232" s="42" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -12725,7 +12725,7 @@
         <v>384</v>
       </c>
       <c r="D233" s="42" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E233" s="42"/>
       <c r="F233" s="42"/>
@@ -12776,10 +12776,10 @@
         <v>390</v>
       </c>
       <c r="D236" s="42" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E236" s="42" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F236" s="42"/>
       <c r="G236" s="42"/>
@@ -12917,7 +12917,7 @@
       <c r="E244" s="42"/>
       <c r="F244" s="42"/>
       <c r="G244" s="42" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -13072,7 +13072,7 @@
         <v>56</v>
       </c>
       <c r="B254" s="39" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C254" s="40" t="s">
         <v>35</v>
@@ -13128,7 +13128,7 @@
       <c r="E257" s="42"/>
       <c r="F257" s="42"/>
       <c r="G257" s="47" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="30">
@@ -13162,7 +13162,7 @@
         <v>425</v>
       </c>
       <c r="E259" s="49" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F259" s="42"/>
       <c r="G259" s="47"/>
@@ -13243,13 +13243,13 @@
         <v>438</v>
       </c>
       <c r="C264" s="47" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D264" s="42" t="s">
         <v>440</v>
       </c>
       <c r="E264" s="49" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F264" s="42"/>
       <c r="G264" s="47"/>
@@ -13259,13 +13259,13 @@
         <v>56</v>
       </c>
       <c r="B265" s="42" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C265" s="47" t="s">
         <v>1211</v>
       </c>
-      <c r="C265" s="47" t="s">
+      <c r="D265" s="42" t="s">
         <v>1212</v>
-      </c>
-      <c r="D265" s="42" t="s">
-        <v>1213</v>
       </c>
       <c r="E265" s="42"/>
       <c r="F265" s="42"/>
@@ -13319,7 +13319,7 @@
         <v>449</v>
       </c>
       <c r="E268" s="49" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F268" s="42"/>
       <c r="G268" s="47"/>
@@ -13329,7 +13329,7 @@
         <v>56</v>
       </c>
       <c r="B269" s="42" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C269" s="47" t="s">
         <v>451</v>
@@ -13387,7 +13387,7 @@
       <c r="E272" s="42"/>
       <c r="F272" s="42"/>
       <c r="G272" s="47" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -13537,7 +13537,7 @@
         <v>473</v>
       </c>
       <c r="D281" s="42" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E281" s="42"/>
       <c r="F281" s="42"/>
@@ -13691,7 +13691,7 @@
       <c r="E290" s="42"/>
       <c r="F290" s="42"/>
       <c r="G290" s="47" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -13841,7 +13841,7 @@
         <v>473</v>
       </c>
       <c r="D299" s="42" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E299" s="42"/>
       <c r="F299" s="42"/>
@@ -14027,7 +14027,7 @@
       <c r="E310" s="50"/>
       <c r="F310" s="50"/>
       <c r="G310" s="42" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="30">
@@ -14178,7 +14178,7 @@
       <c r="E319" s="42"/>
       <c r="F319" s="42"/>
       <c r="G319" s="42" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -14271,7 +14271,7 @@
         <v>56</v>
       </c>
       <c r="B325" s="42" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C325" s="42" t="s">
         <v>466</v>
@@ -14288,7 +14288,7 @@
         <v>56</v>
       </c>
       <c r="B326" s="42" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C326" s="42" t="s">
         <v>468</v>
@@ -14328,7 +14328,7 @@
         <v>473</v>
       </c>
       <c r="D328" s="42" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E328" s="42"/>
       <c r="F328" s="42"/>
@@ -14407,7 +14407,7 @@
         <v>56</v>
       </c>
       <c r="B333" s="42" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C333" s="42" t="s">
         <v>484</v>
@@ -14424,7 +14424,7 @@
         <v>56</v>
       </c>
       <c r="B334" s="42" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C334" s="42" t="s">
         <v>487</v>
@@ -14441,7 +14441,7 @@
         <v>56</v>
       </c>
       <c r="B335" s="39" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C335" s="53" t="s">
         <v>40</v>
@@ -14495,13 +14495,13 @@
         <v>78.3</v>
       </c>
       <c r="E338" s="42" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F338" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G338" s="47" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="60">
@@ -14518,10 +14518,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E339" s="42" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F339" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G339" s="47"/>
     </row>
@@ -14533,14 +14533,14 @@
         <v>552</v>
       </c>
       <c r="C340" s="47" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D340" s="42">
         <v>78.099999999999994</v>
       </c>
       <c r="E340" s="42"/>
       <c r="F340" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G340" s="47"/>
     </row>
@@ -14574,10 +14574,10 @@
       </c>
       <c r="E342" s="42"/>
       <c r="F342" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G342" s="47" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -14595,7 +14595,7 @@
       </c>
       <c r="E343" s="42"/>
       <c r="F343" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G343" s="47"/>
     </row>
@@ -14614,7 +14614,7 @@
       </c>
       <c r="E344" s="42"/>
       <c r="F344" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G344" s="42"/>
     </row>
@@ -14633,7 +14633,7 @@
       </c>
       <c r="E345" s="42"/>
       <c r="F345" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G345" s="47"/>
     </row>
@@ -14667,10 +14667,10 @@
       </c>
       <c r="E347" s="42"/>
       <c r="F347" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G347" s="47" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="30">
@@ -14688,7 +14688,7 @@
       </c>
       <c r="E348" s="42"/>
       <c r="F348" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G348" s="47"/>
     </row>
@@ -14700,14 +14700,14 @@
         <v>575</v>
       </c>
       <c r="C349" s="47" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D349" s="42" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E349" s="42"/>
       <c r="F349" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G349" s="47"/>
     </row>
@@ -14726,7 +14726,7 @@
       </c>
       <c r="E350" s="42"/>
       <c r="F350" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G350" s="47"/>
     </row>
@@ -14760,10 +14760,10 @@
       </c>
       <c r="E352" s="42"/>
       <c r="F352" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G352" s="47" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="60">
@@ -14781,7 +14781,7 @@
       </c>
       <c r="E353" s="42"/>
       <c r="F353" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G353" s="47"/>
     </row>
@@ -14796,11 +14796,11 @@
         <v>592</v>
       </c>
       <c r="D354" s="42" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E354" s="42"/>
       <c r="F354" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G354" s="42"/>
     </row>
@@ -14819,7 +14819,7 @@
       </c>
       <c r="E355" s="42"/>
       <c r="F355" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G355" s="47"/>
     </row>
@@ -14838,7 +14838,7 @@
       </c>
       <c r="E356" s="42"/>
       <c r="F356" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G356" s="47"/>
     </row>
@@ -14872,10 +14872,10 @@
       </c>
       <c r="E358" s="42"/>
       <c r="F358" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G358" s="42" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -14889,11 +14889,11 @@
         <v>604</v>
       </c>
       <c r="D359" s="42" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E359" s="42"/>
       <c r="F359" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G359" s="42"/>
     </row>
@@ -14927,10 +14927,10 @@
       </c>
       <c r="E361" s="42"/>
       <c r="F361" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G361" s="47" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="30">
@@ -14944,11 +14944,11 @@
         <v>609</v>
       </c>
       <c r="D362" s="42" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E362" s="50"/>
       <c r="F362" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G362" s="47"/>
     </row>
@@ -14967,7 +14967,7 @@
       </c>
       <c r="E363" s="42"/>
       <c r="F363" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G363" s="47"/>
     </row>
@@ -14982,11 +14982,11 @@
         <v>613</v>
       </c>
       <c r="D364" s="42" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E364" s="42"/>
       <c r="F364" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G364" s="47"/>
     </row>
@@ -15001,13 +15001,13 @@
         <v>615</v>
       </c>
       <c r="D365" s="42" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E365" s="42" t="s">
         <v>616</v>
       </c>
       <c r="F365" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G365" s="42"/>
     </row>
@@ -15052,16 +15052,16 @@
         <v>549</v>
       </c>
       <c r="D368" s="42" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E368" s="42" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F368" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G368" s="47" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="75">
@@ -15075,13 +15075,13 @@
         <v>620</v>
       </c>
       <c r="D369" s="42" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E369" s="42" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F369" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G369" s="47"/>
     </row>
@@ -15099,10 +15099,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E370" s="42" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F370" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G370" s="47"/>
     </row>
@@ -15151,10 +15151,10 @@
       </c>
       <c r="E373" s="42"/>
       <c r="F373" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G373" s="47" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="30">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="E374" s="42"/>
       <c r="F374" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G374" s="47"/>
     </row>
@@ -15191,7 +15191,7 @@
       </c>
       <c r="E375" s="42"/>
       <c r="F375" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G375" s="47"/>
     </row>
@@ -15210,7 +15210,7 @@
       </c>
       <c r="E376" s="42"/>
       <c r="F376" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G376" s="47"/>
     </row>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="E377" s="42"/>
       <c r="F377" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G377" s="47"/>
     </row>
@@ -15248,7 +15248,7 @@
       </c>
       <c r="E378" s="42"/>
       <c r="F378" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G378" s="47"/>
     </row>
@@ -15282,10 +15282,10 @@
       </c>
       <c r="E380" s="42"/>
       <c r="F380" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G380" s="47" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -15299,13 +15299,13 @@
         <v>604</v>
       </c>
       <c r="D381" s="42" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E381" s="42" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F381" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G381" s="42"/>
     </row>
@@ -15339,10 +15339,10 @@
       </c>
       <c r="E383" s="42"/>
       <c r="F383" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G383" s="47" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="30">
@@ -15356,11 +15356,11 @@
         <v>645</v>
       </c>
       <c r="D384" s="42" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E384" s="50"/>
       <c r="F384" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G384" s="47"/>
     </row>
@@ -15379,7 +15379,7 @@
       </c>
       <c r="E385" s="42"/>
       <c r="F385" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G385" s="47"/>
     </row>
@@ -15394,11 +15394,11 @@
         <v>613</v>
       </c>
       <c r="D386" s="42" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E386" s="42"/>
       <c r="F386" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G386" s="42"/>
     </row>
@@ -15413,13 +15413,13 @@
         <v>615</v>
       </c>
       <c r="D387" s="42" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E387" s="42" t="s">
         <v>616</v>
       </c>
       <c r="F387" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G387" s="42"/>
     </row>
@@ -15467,13 +15467,13 @@
         <v>78.3</v>
       </c>
       <c r="E390" s="42" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F390" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G390" s="47" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="60">
@@ -15487,13 +15487,13 @@
         <v>653</v>
       </c>
       <c r="D391" s="42" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E391" s="42" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F391" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G391" s="42"/>
     </row>
@@ -15511,10 +15511,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E392" s="42" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F392" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G392" s="47"/>
     </row>
@@ -15559,14 +15559,14 @@
         <v>659</v>
       </c>
       <c r="D395" s="42" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E395" s="42"/>
       <c r="F395" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G395" s="47" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="396" spans="1:7" ht="45">
@@ -15584,7 +15584,7 @@
       </c>
       <c r="E396" s="42"/>
       <c r="F396" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G396" s="47"/>
     </row>
@@ -15603,7 +15603,7 @@
       </c>
       <c r="E397" s="42"/>
       <c r="F397" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G397" s="47"/>
     </row>
@@ -15622,7 +15622,7 @@
       </c>
       <c r="E398" s="42"/>
       <c r="F398" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G398" s="47"/>
     </row>
@@ -15641,7 +15641,7 @@
       </c>
       <c r="E399" s="42"/>
       <c r="F399" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G399" s="47"/>
     </row>
@@ -15660,7 +15660,7 @@
       </c>
       <c r="E400" s="42"/>
       <c r="F400" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G400" s="47"/>
     </row>
@@ -15694,10 +15694,10 @@
       </c>
       <c r="E402" s="42"/>
       <c r="F402" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G402" s="47" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -15711,13 +15711,13 @@
         <v>604</v>
       </c>
       <c r="D403" s="42" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E403" s="42" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F403" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G403" s="42"/>
     </row>
@@ -15751,10 +15751,10 @@
       </c>
       <c r="E405" s="42"/>
       <c r="F405" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G405" s="47" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="30">
@@ -15768,11 +15768,11 @@
         <v>645</v>
       </c>
       <c r="D406" s="42" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E406" s="50"/>
       <c r="F406" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G406" s="47"/>
     </row>
@@ -15791,7 +15791,7 @@
       </c>
       <c r="E407" s="42"/>
       <c r="F407" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G407" s="47"/>
     </row>
@@ -15806,11 +15806,11 @@
         <v>613</v>
       </c>
       <c r="D408" s="42" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E408" s="42"/>
       <c r="F408" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G408" s="42"/>
     </row>
@@ -15825,13 +15825,13 @@
         <v>615</v>
       </c>
       <c r="D409" s="42" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E409" s="42" t="s">
         <v>616</v>
       </c>
       <c r="F409" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G409" s="42"/>
     </row>
@@ -15879,13 +15879,13 @@
         <v>78.3</v>
       </c>
       <c r="E412" s="6" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F412" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G412" s="47" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="413" spans="1:7" ht="90">
@@ -15902,10 +15902,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E413" s="42" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F413" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G413" s="47"/>
     </row>
@@ -15923,10 +15923,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E414" s="42" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F414" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G414" s="47"/>
     </row>
@@ -15975,10 +15975,10 @@
       </c>
       <c r="E417" s="42"/>
       <c r="F417" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G417" s="42" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -15996,7 +15996,7 @@
       </c>
       <c r="E418" s="42"/>
       <c r="F418" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G418" s="47"/>
     </row>
@@ -16015,7 +16015,7 @@
       </c>
       <c r="E419" s="42"/>
       <c r="F419" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G419" s="47"/>
     </row>
@@ -16034,7 +16034,7 @@
       </c>
       <c r="E420" s="42"/>
       <c r="F420" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G420" s="42"/>
     </row>
@@ -16061,17 +16061,17 @@
         <v>695</v>
       </c>
       <c r="C422" s="61" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D422" s="42" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E422" s="42"/>
       <c r="F422" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G422" s="42" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="423" spans="1:7" ht="30">
@@ -16082,14 +16082,14 @@
         <v>698</v>
       </c>
       <c r="C423" s="61" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D423" s="42" t="s">
         <v>697</v>
       </c>
       <c r="E423" s="42"/>
       <c r="F423" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G423" s="42"/>
     </row>
@@ -16108,7 +16108,7 @@
       </c>
       <c r="E424" s="42"/>
       <c r="F424" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G424" s="42"/>
     </row>
@@ -16142,10 +16142,10 @@
       </c>
       <c r="E426" s="42"/>
       <c r="F426" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G426" s="47" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -16163,7 +16163,7 @@
       </c>
       <c r="E427" s="42"/>
       <c r="F427" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G427" s="47"/>
     </row>
@@ -16182,7 +16182,7 @@
       </c>
       <c r="E428" s="42"/>
       <c r="F428" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G428" s="47"/>
     </row>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="E429" s="42"/>
       <c r="F429" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G429" s="42"/>
     </row>
@@ -16220,7 +16220,7 @@
       </c>
       <c r="E430" s="42"/>
       <c r="F430" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G430" s="47"/>
     </row>
@@ -16239,7 +16239,7 @@
       </c>
       <c r="E431" s="42"/>
       <c r="F431" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G431" s="47"/>
     </row>
@@ -16256,7 +16256,7 @@
       <c r="D432" s="44"/>
       <c r="E432" s="44"/>
       <c r="F432" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G432" s="44"/>
     </row>
@@ -16275,10 +16275,10 @@
       </c>
       <c r="E433" s="42"/>
       <c r="F433" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G433" s="47" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="434" spans="1:7" ht="60">
@@ -16296,7 +16296,7 @@
       </c>
       <c r="E434" s="42"/>
       <c r="F434" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G434" s="47"/>
     </row>
@@ -16315,7 +16315,7 @@
       </c>
       <c r="E435" s="42"/>
       <c r="F435" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G435" s="47" t="s">
         <v>586</v>
@@ -16336,7 +16336,7 @@
       </c>
       <c r="E436" s="42"/>
       <c r="F436" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G436" s="47"/>
     </row>
@@ -16353,7 +16353,7 @@
       <c r="D437" s="44"/>
       <c r="E437" s="44"/>
       <c r="F437" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G437" s="44"/>
     </row>
@@ -16372,10 +16372,10 @@
       </c>
       <c r="E438" s="42"/>
       <c r="F438" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G438" s="47" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -16389,13 +16389,13 @@
         <v>604</v>
       </c>
       <c r="D439" s="42" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E439" s="42" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F439" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G439" s="42"/>
     </row>
@@ -16407,12 +16407,12 @@
         <v>720</v>
       </c>
       <c r="C440" s="44" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D440" s="44"/>
       <c r="E440" s="44"/>
       <c r="F440" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G440" s="44"/>
     </row>
@@ -16427,13 +16427,13 @@
         <v>615</v>
       </c>
       <c r="D441" s="42" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E441" s="42" t="s">
         <v>616</v>
       </c>
       <c r="F441" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G441" s="42"/>
     </row>
@@ -16450,7 +16450,7 @@
       <c r="D442" s="44"/>
       <c r="E442" s="44"/>
       <c r="F442" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G442" s="41"/>
     </row>
@@ -16469,7 +16469,7 @@
         <v>268</v>
       </c>
       <c r="F443" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G443" s="47"/>
     </row>
@@ -16488,7 +16488,7 @@
         <v>268</v>
       </c>
       <c r="F444" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G444" s="47"/>
     </row>
@@ -16507,7 +16507,7 @@
         <v>268</v>
       </c>
       <c r="F445" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G445" s="47"/>
     </row>
@@ -16524,7 +16524,7 @@
       <c r="D446" s="44"/>
       <c r="E446" s="41"/>
       <c r="F446" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G446" s="41"/>
     </row>
@@ -16543,7 +16543,7 @@
         <v>268</v>
       </c>
       <c r="F447" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G447" s="47"/>
     </row>
@@ -16562,7 +16562,7 @@
         <v>268</v>
       </c>
       <c r="F448" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G448" s="47"/>
     </row>
@@ -16611,10 +16611,10 @@
       </c>
       <c r="E451" s="42"/>
       <c r="F451" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G451" s="47" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="452" spans="1:7" ht="30">
@@ -16632,7 +16632,7 @@
       </c>
       <c r="E452" s="42"/>
       <c r="F452" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G452" s="47"/>
     </row>
@@ -16651,7 +16651,7 @@
       </c>
       <c r="E453" s="42"/>
       <c r="F453" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G453" s="47"/>
     </row>
@@ -16700,10 +16700,10 @@
       </c>
       <c r="E456" s="42"/>
       <c r="F456" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G456" s="47" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -16721,7 +16721,7 @@
       </c>
       <c r="E457" s="42"/>
       <c r="F457" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G457" s="47"/>
     </row>
@@ -16736,11 +16736,11 @@
         <v>741</v>
       </c>
       <c r="D458" s="42" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E458" s="42"/>
       <c r="F458" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G458" s="42"/>
     </row>
@@ -16759,7 +16759,7 @@
       </c>
       <c r="E459" s="42"/>
       <c r="F459" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G459" s="42"/>
     </row>
@@ -16771,12 +16771,12 @@
         <v>744</v>
       </c>
       <c r="C460" s="42" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D460" s="42"/>
       <c r="E460" s="42"/>
       <c r="F460" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G460" s="42"/>
     </row>
@@ -16785,7 +16785,7 @@
         <v>56</v>
       </c>
       <c r="B461" s="42" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C461" s="42" t="s">
         <v>745</v>
@@ -16795,7 +16795,7 @@
       </c>
       <c r="E461" s="42"/>
       <c r="F461" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G461" s="42"/>
     </row>
@@ -16804,17 +16804,17 @@
         <v>56</v>
       </c>
       <c r="B462" s="42" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C462" s="42" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D462" s="42" t="s">
         <v>700</v>
       </c>
       <c r="E462" s="42"/>
       <c r="F462" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G462" s="42"/>
     </row>
@@ -16848,10 +16848,10 @@
       </c>
       <c r="E464" s="42"/>
       <c r="F464" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G464" s="47" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -16865,11 +16865,11 @@
         <v>604</v>
       </c>
       <c r="D465" s="42" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E465" s="42"/>
       <c r="F465" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G465" s="42"/>
     </row>
@@ -16903,10 +16903,10 @@
       </c>
       <c r="E467" s="42"/>
       <c r="F467" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G467" s="47" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="468" spans="1:7" ht="30">
@@ -16924,7 +16924,7 @@
       </c>
       <c r="E468" s="42"/>
       <c r="F468" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G468" s="47"/>
     </row>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="E469" s="42"/>
       <c r="F469" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G469" s="47"/>
     </row>
@@ -16958,11 +16958,11 @@
         <v>613</v>
       </c>
       <c r="D470" s="42" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E470" s="42"/>
       <c r="F470" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G470" s="42"/>
     </row>
@@ -16977,11 +16977,11 @@
         <v>615</v>
       </c>
       <c r="D471" s="42" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E471" s="42"/>
       <c r="F471" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G471" s="42"/>
     </row>
@@ -17037,7 +17037,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>763</v>
@@ -17056,7 +17056,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>765</v>
@@ -17075,7 +17075,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>766</v>
@@ -17096,7 +17096,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>767</v>
@@ -17115,7 +17115,7 @@
         <v>770</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>771</v>
@@ -17143,7 +17143,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -17453,7 +17455,7 @@
       <c r="B16" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="57" t="s">
         <v>795</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -17465,21 +17467,21 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="31.5">
       <c r="A17" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="57" t="s">
         <v>796</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>797</v>
+      <c r="E17" s="57" t="s">
+        <v>1308</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>764</v>
@@ -17488,16 +17490,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>787</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>799</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>800</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
@@ -17510,10 +17512,10 @@
         <v>137</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>801</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>802</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>136</v>
@@ -17529,10 +17531,10 @@
         <v>140</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>139</v>
@@ -17548,10 +17550,10 @@
         <v>143</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>142</v>
@@ -17567,10 +17569,10 @@
         <v>146</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>145</v>
@@ -17586,10 +17588,10 @@
         <v>149</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>148</v>
@@ -17605,10 +17607,10 @@
         <v>89</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>88</v>
@@ -17624,13 +17626,13 @@
         <v>126</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>809</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>810</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
@@ -17643,13 +17645,13 @@
         <v>192</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>811</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>812</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
@@ -17662,10 +17664,10 @@
         <v>195</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>194</v>
@@ -17681,10 +17683,10 @@
         <v>168</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>814</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>815</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>167</v>
@@ -17700,10 +17702,10 @@
         <v>171</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>170</v>
@@ -17719,10 +17721,10 @@
         <v>174</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>173</v>
@@ -17738,10 +17740,10 @@
         <v>177</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>176</v>
@@ -17757,10 +17759,10 @@
         <v>180</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>179</v>
@@ -17776,10 +17778,10 @@
         <v>189</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>820</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>821</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>188</v>
@@ -17795,10 +17797,10 @@
         <v>237</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>822</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>823</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>236</v>
@@ -17814,10 +17816,10 @@
         <v>240</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>239</v>
@@ -17833,10 +17835,10 @@
         <v>243</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>242</v>
@@ -17852,10 +17854,10 @@
         <v>246</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>245</v>
@@ -17865,7 +17867,7 @@
         <v>783</v>
       </c>
       <c r="G37" s="56" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="31.5">
@@ -17873,10 +17875,10 @@
         <v>509</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>508</v>
@@ -17892,10 +17894,10 @@
         <v>267</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>266</v>
@@ -17911,13 +17913,13 @@
         <v>258</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C40" s="57" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D40" s="57" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
@@ -17930,13 +17932,13 @@
         <v>255</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D41" s="56" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
@@ -17949,13 +17951,13 @@
         <v>263</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C42" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>832</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>833</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6" t="s">
@@ -17965,16 +17967,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="58" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B43" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C43" s="58" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D43" s="58" t="s">
         <v>1230</v>
-      </c>
-      <c r="D43" s="58" t="s">
-        <v>1231</v>
       </c>
       <c r="E43" s="58"/>
       <c r="F43" s="58" t="s">
@@ -17984,16 +17986,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="58" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B44" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C44" s="58" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D44" s="58" t="s">
         <v>1232</v>
-      </c>
-      <c r="D44" s="58" t="s">
-        <v>1233</v>
       </c>
       <c r="E44" s="58"/>
       <c r="F44" s="58" t="s">
@@ -18003,16 +18005,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="58" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B45" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C45" s="58" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D45" s="58" t="s">
         <v>1234</v>
-      </c>
-      <c r="D45" s="58" t="s">
-        <v>1235</v>
       </c>
       <c r="E45" s="58"/>
       <c r="F45" s="58" t="s">
@@ -18022,16 +18024,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="58" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B46" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C46" s="58" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D46" s="58" t="s">
         <v>1236</v>
-      </c>
-      <c r="D46" s="58" t="s">
-        <v>1237</v>
       </c>
       <c r="E46" s="58"/>
       <c r="F46" s="58" t="s">
@@ -18041,16 +18043,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="58" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B47" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C47" s="58" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D47" s="58" t="s">
         <v>1238</v>
-      </c>
-      <c r="D47" s="58" t="s">
-        <v>1239</v>
       </c>
       <c r="E47" s="58"/>
       <c r="F47" s="58" t="s">
@@ -18060,16 +18062,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="58" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B48" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C48" s="58" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D48" s="58" t="s">
         <v>1240</v>
-      </c>
-      <c r="D48" s="58" t="s">
-        <v>1241</v>
       </c>
       <c r="E48" s="58"/>
       <c r="F48" s="58" t="s">
@@ -18079,16 +18081,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="58" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B49" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C49" s="58" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D49" s="58" t="s">
         <v>1242</v>
-      </c>
-      <c r="D49" s="58" t="s">
-        <v>1243</v>
       </c>
       <c r="E49" s="58"/>
       <c r="F49" s="58" t="s">
@@ -18098,16 +18100,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="58" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B50" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C50" s="58" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D50" s="58" t="s">
         <v>1244</v>
-      </c>
-      <c r="D50" s="58" t="s">
-        <v>1245</v>
       </c>
       <c r="E50" s="58"/>
       <c r="F50" s="58" t="s">
@@ -18117,16 +18119,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="58" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B51" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C51" s="58" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D51" s="58" t="s">
         <v>1246</v>
-      </c>
-      <c r="D51" s="58" t="s">
-        <v>1247</v>
       </c>
       <c r="E51" s="58"/>
       <c r="F51" s="58" t="s">
@@ -18136,16 +18138,16 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="58" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B52" s="58" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C52" s="58" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D52" s="58" t="s">
         <v>1248</v>
-      </c>
-      <c r="D52" s="58" t="s">
-        <v>1249</v>
       </c>
       <c r="E52" s="58"/>
       <c r="F52" s="58" t="s">
@@ -18155,16 +18157,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="58" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B53" s="58" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C53" s="58" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D53" s="58" t="s">
         <v>1250</v>
-      </c>
-      <c r="D53" s="58" t="s">
-        <v>1251</v>
       </c>
       <c r="E53" s="58"/>
       <c r="F53" s="58" t="s">
@@ -18174,16 +18176,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="58" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B54" s="58" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C54" s="58" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D54" s="58" t="s">
         <v>1252</v>
-      </c>
-      <c r="D54" s="58" t="s">
-        <v>1253</v>
       </c>
       <c r="E54" s="58"/>
       <c r="F54" s="58" t="s">
@@ -18193,16 +18195,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="58" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C55" s="58" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D55" s="58" t="s">
         <v>1254</v>
-      </c>
-      <c r="D55" s="58" t="s">
-        <v>1255</v>
       </c>
       <c r="E55" s="58"/>
       <c r="F55" s="58" t="s">
@@ -18514,13 +18516,13 @@
     </row>
     <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>835</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>836</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>278</v>
@@ -18533,16 +18535,16 @@
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>837</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>838</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
@@ -18552,13 +18554,13 @@
     </row>
     <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>839</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>840</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>282</v>
@@ -18571,13 +18573,13 @@
     </row>
     <row r="5" spans="1:256" ht="31.5" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>841</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>842</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>285</v>
@@ -18590,16 +18592,16 @@
     </row>
     <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>843</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>844</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>845</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
@@ -18609,16 +18611,16 @@
     </row>
     <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>846</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>847</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>848</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
@@ -18628,16 +18630,16 @@
     </row>
     <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>849</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>850</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>851</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
@@ -18647,16 +18649,16 @@
     </row>
     <row r="9" spans="1:256" ht="31.5" customHeight="1">
       <c r="A9" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>852</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>853</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>854</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
@@ -18666,13 +18668,13 @@
     </row>
     <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>855</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>856</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>356</v>
@@ -18685,13 +18687,13 @@
     </row>
     <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>857</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>858</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>358</v>
@@ -18704,16 +18706,16 @@
     </row>
     <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>859</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>860</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>861</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
@@ -18723,13 +18725,13 @@
     </row>
     <row r="13" spans="1:256" ht="31.5" customHeight="1">
       <c r="A13" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>862</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>863</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>362</v>
@@ -18742,13 +18744,13 @@
     </row>
     <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>864</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>865</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>365</v>
@@ -18761,13 +18763,13 @@
     </row>
     <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>866</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>867</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>367</v>
@@ -18780,16 +18782,16 @@
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1">
       <c r="A16" s="57" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
@@ -18799,16 +18801,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="57" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C17" s="57" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D17" s="57" t="s">
         <v>1058</v>
-      </c>
-      <c r="D17" s="57" t="s">
-        <v>1059</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
@@ -18818,16 +18820,16 @@
     </row>
     <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>868</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>869</v>
-      </c>
       <c r="D18" s="57" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
@@ -18837,13 +18839,13 @@
     </row>
     <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>870</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>871</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>376</v>
@@ -18856,13 +18858,13 @@
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>872</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>873</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>378</v>
@@ -18875,16 +18877,16 @@
     </row>
     <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>875</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>876</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
@@ -18894,13 +18896,13 @@
     </row>
     <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>877</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>878</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>384</v>
@@ -18913,13 +18915,13 @@
     </row>
     <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>879</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>880</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>386</v>
@@ -18932,13 +18934,13 @@
     </row>
     <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>881</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>882</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>388</v>
@@ -18951,16 +18953,16 @@
     </row>
     <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>884</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>885</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
@@ -18970,13 +18972,13 @@
     </row>
     <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>886</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>887</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>394</v>
@@ -18989,16 +18991,16 @@
     </row>
     <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>889</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>890</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
@@ -19008,13 +19010,13 @@
     </row>
     <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>891</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>892</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>398</v>
@@ -19027,13 +19029,13 @@
     </row>
     <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>893</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>894</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>400</v>
@@ -19046,13 +19048,13 @@
     </row>
     <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>895</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>896</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>402</v>
@@ -19065,16 +19067,16 @@
     </row>
     <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>897</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>898</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>899</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
@@ -19084,16 +19086,16 @@
     </row>
     <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>900</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>901</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>902</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
@@ -19103,16 +19105,16 @@
     </row>
     <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>903</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>904</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>905</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
@@ -19122,16 +19124,16 @@
     </row>
     <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>906</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>907</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>908</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6" t="s">
@@ -19141,16 +19143,16 @@
     </row>
     <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>909</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>910</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>911</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
@@ -19160,16 +19162,16 @@
     </row>
     <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>912</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>913</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>914</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
@@ -19179,16 +19181,16 @@
     </row>
     <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>915</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>916</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>917</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
@@ -19198,16 +19200,16 @@
     </row>
     <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>918</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>919</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>920</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
@@ -19217,16 +19219,16 @@
     </row>
     <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>921</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>922</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>923</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6" t="s">
@@ -19236,35 +19238,35 @@
     </row>
     <row r="40" spans="1:7" ht="30.95" customHeight="1">
       <c r="A40" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>924</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>925</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>926</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>927</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
     </row>
     <row r="41" spans="1:7" ht="31.5" customHeight="1">
       <c r="A41" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>929</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>930</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -19272,16 +19274,16 @@
     </row>
     <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>931</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>932</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>933</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -19289,73 +19291,73 @@
     </row>
     <row r="43" spans="1:7" ht="30.95" customHeight="1">
       <c r="A43" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>934</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>935</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>936</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>937</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7" ht="47.25" customHeight="1">
       <c r="A44" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>938</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>939</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>940</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>941</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>942</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>943</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>944</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>945</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:7" ht="31.5" customHeight="1">
       <c r="A46" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>946</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>947</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>948</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -19363,16 +19365,16 @@
     </row>
     <row r="47" spans="1:7" ht="31.5" customHeight="1">
       <c r="A47" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>949</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>950</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>951</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -19380,16 +19382,16 @@
     </row>
     <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>952</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>953</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>954</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -19397,16 +19399,16 @@
     </row>
     <row r="49" spans="1:256" s="32" customFormat="1" ht="31.5">
       <c r="A49" s="57" t="s">
+        <v>954</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C49" s="64" t="s">
         <v>955</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C49" s="64" t="s">
-        <v>956</v>
-      </c>
       <c r="D49" s="64" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -19663,16 +19665,16 @@
     </row>
     <row r="50" spans="1:256">
       <c r="A50" s="57" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>1303</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>1304</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>1305</v>
       </c>
     </row>
   </sheetData>
@@ -19735,13 +19737,13 @@
         <v>419</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C2" s="55" t="s">
+        <v>956</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>957</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>958</v>
       </c>
       <c r="E2" s="55"/>
       <c r="F2" s="55" t="s">
@@ -19754,13 +19756,13 @@
         <v>422</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C3" s="55" t="s">
+        <v>958</v>
+      </c>
+      <c r="D3" s="55" t="s">
         <v>959</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>960</v>
       </c>
       <c r="E3" s="55"/>
       <c r="F3" s="55" t="s">
@@ -19773,13 +19775,13 @@
         <v>425</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C4" s="55" t="s">
+        <v>960</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>961</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>962</v>
       </c>
       <c r="E4" s="55"/>
       <c r="F4" s="55" t="s">
@@ -19792,13 +19794,13 @@
         <v>440</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C5" s="55" t="s">
+        <v>962</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>963</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>964</v>
       </c>
       <c r="E5" s="55"/>
       <c r="F5" s="55" t="s">
@@ -19811,13 +19813,13 @@
         <v>428</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C6" s="55" t="s">
+        <v>964</v>
+      </c>
+      <c r="D6" s="55" t="s">
         <v>965</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>966</v>
       </c>
       <c r="E6" s="55"/>
       <c r="F6" s="55" t="s">
@@ -19830,13 +19832,13 @@
         <v>431</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C7" s="55" t="s">
+        <v>966</v>
+      </c>
+      <c r="D7" s="55" t="s">
         <v>967</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>968</v>
       </c>
       <c r="E7" s="55"/>
       <c r="F7" s="55" t="s">
@@ -19849,13 +19851,13 @@
         <v>434</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C8" s="55" t="s">
+        <v>968</v>
+      </c>
+      <c r="D8" s="55" t="s">
         <v>969</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>970</v>
       </c>
       <c r="E8" s="55"/>
       <c r="F8" s="55" t="s">
@@ -19868,13 +19870,13 @@
         <v>437</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C9" s="55" t="s">
+        <v>970</v>
+      </c>
+      <c r="D9" s="55" t="s">
         <v>971</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>972</v>
       </c>
       <c r="E9" s="55"/>
       <c r="F9" s="55" t="s">
@@ -19887,13 +19889,13 @@
         <v>443</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C10" s="55" t="s">
+        <v>972</v>
+      </c>
+      <c r="D10" s="55" t="s">
         <v>973</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>974</v>
       </c>
       <c r="E10" s="55"/>
       <c r="F10" s="55" t="s">
@@ -19903,16 +19905,16 @@
     </row>
     <row r="11" spans="1:7" ht="47.25" customHeight="1">
       <c r="A11" s="55" t="s">
+        <v>974</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C11" s="55" t="s">
         <v>975</v>
       </c>
-      <c r="B11" s="55" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C11" s="55" t="s">
+      <c r="D11" s="55" t="s">
         <v>976</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>977</v>
       </c>
       <c r="E11" s="55"/>
       <c r="F11" s="55" t="s">
@@ -19925,13 +19927,13 @@
         <v>446</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C12" s="55" t="s">
+        <v>977</v>
+      </c>
+      <c r="D12" s="55" t="s">
         <v>978</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>979</v>
       </c>
       <c r="E12" s="55"/>
       <c r="F12" s="55" t="s">
@@ -19944,20 +19946,20 @@
         <v>449</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C13" s="55" t="s">
+        <v>979</v>
+      </c>
+      <c r="D13" s="55" t="s">
         <v>980</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>981</v>
       </c>
       <c r="E13" s="62"/>
       <c r="F13" s="55" t="s">
         <v>764</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="31.5" customHeight="1">
@@ -19965,13 +19967,13 @@
         <v>452</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C14" s="55" t="s">
+        <v>981</v>
+      </c>
+      <c r="D14" s="55" t="s">
         <v>982</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>983</v>
       </c>
       <c r="E14" s="55"/>
       <c r="F14" s="55" t="s">
@@ -19984,22 +19986,22 @@
         <v>485</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C15" s="55" t="s">
+        <v>983</v>
+      </c>
+      <c r="D15" s="55" t="s">
         <v>984</v>
       </c>
-      <c r="D15" s="55" t="s">
-        <v>985</v>
-      </c>
       <c r="E15" s="55" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F15" s="55" t="s">
         <v>764</v>
       </c>
       <c r="G15" s="55" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="47.25" customHeight="1">
@@ -20007,13 +20009,13 @@
         <v>476</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C16" s="55" t="s">
+        <v>985</v>
+      </c>
+      <c r="D16" s="55" t="s">
         <v>986</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>987</v>
       </c>
       <c r="E16" s="55"/>
       <c r="F16" s="55" t="s">
@@ -20026,22 +20028,22 @@
         <v>488</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C17" s="55" t="s">
+        <v>987</v>
+      </c>
+      <c r="D17" s="55" t="s">
         <v>988</v>
       </c>
-      <c r="D17" s="55" t="s">
-        <v>989</v>
-      </c>
       <c r="E17" s="55" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F17" s="55" t="s">
         <v>764</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1">
@@ -20049,10 +20051,10 @@
         <v>515</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>514</v>
@@ -20068,10 +20070,10 @@
         <v>518</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>517</v>
@@ -20087,13 +20089,13 @@
         <v>521</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C20" s="55" t="s">
+        <v>991</v>
+      </c>
+      <c r="D20" s="55" t="s">
         <v>992</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>993</v>
       </c>
       <c r="E20" s="55"/>
       <c r="F20" s="55" t="s">
@@ -20106,13 +20108,13 @@
         <v>524</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C21" s="55" t="s">
+        <v>993</v>
+      </c>
+      <c r="D21" s="55" t="s">
         <v>994</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>995</v>
       </c>
       <c r="E21" s="55"/>
       <c r="F21" s="55" t="s">
@@ -20125,13 +20127,13 @@
         <v>529</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C22" s="55" t="s">
+        <v>995</v>
+      </c>
+      <c r="D22" s="55" t="s">
         <v>996</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>997</v>
       </c>
       <c r="E22" s="55"/>
       <c r="F22" s="55" t="s">
@@ -20144,10 +20146,10 @@
         <v>471</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D23" s="55" t="s">
         <v>526</v>
@@ -20158,16 +20160,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="58" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B24" s="58" t="s">
         <v>1261</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="C24" s="58" t="s">
         <v>1262</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="D24" s="58" t="s">
         <v>1263</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>1264</v>
       </c>
       <c r="E24" s="58"/>
       <c r="F24" s="58"/>
@@ -20175,16 +20177,16 @@
     </row>
     <row r="25" spans="1:7" ht="45">
       <c r="A25" s="58" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C25" s="58" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D25" s="58" t="s">
         <v>1265</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>1266</v>
       </c>
       <c r="E25" s="58"/>
       <c r="F25" s="58"/>
@@ -20192,16 +20194,16 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="58" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C26" s="58" t="s">
         <v>1267</v>
       </c>
-      <c r="B26" s="58" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C26" s="58" t="s">
+      <c r="D26" s="58" t="s">
         <v>1268</v>
-      </c>
-      <c r="D26" s="58" t="s">
-        <v>1269</v>
       </c>
       <c r="E26" s="58"/>
       <c r="F26" s="58"/>
@@ -20209,16 +20211,16 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="58" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C27" s="58" t="s">
         <v>1270</v>
       </c>
-      <c r="B27" s="58" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C27" s="58" t="s">
+      <c r="D27" s="58" t="s">
         <v>1271</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>1272</v>
       </c>
       <c r="E27" s="58"/>
       <c r="F27" s="58"/>
@@ -20226,16 +20228,16 @@
     </row>
     <row r="28" spans="1:7" ht="30">
       <c r="A28" s="58" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C28" s="58" t="s">
         <v>1273</v>
       </c>
-      <c r="B28" s="58" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C28" s="58" t="s">
+      <c r="D28" s="58" t="s">
         <v>1274</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>1275</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="58"/>
@@ -20243,16 +20245,16 @@
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" s="58" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C29" s="58" t="s">
         <v>1276</v>
       </c>
-      <c r="B29" s="58" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C29" s="58" t="s">
+      <c r="D29" s="58" t="s">
         <v>1277</v>
-      </c>
-      <c r="D29" s="58" t="s">
-        <v>1278</v>
       </c>
       <c r="E29" s="58"/>
       <c r="F29" s="58"/>
@@ -20260,16 +20262,16 @@
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="58" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C30" s="58" t="s">
         <v>1279</v>
       </c>
-      <c r="B30" s="58" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C30" s="58" t="s">
+      <c r="D30" s="58" t="s">
         <v>1280</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>1281</v>
       </c>
       <c r="E30" s="58"/>
       <c r="F30" s="58"/>
@@ -20339,16 +20341,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="54" t="s">
+        <v>998</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C2" s="54" t="s">
         <v>999</v>
       </c>
-      <c r="B2" s="54" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>1000</v>
-      </c>
       <c r="D2" s="54" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E2" s="62"/>
       <c r="F2" s="57" t="s">
@@ -20362,16 +20364,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="55" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E3" s="63"/>
       <c r="F3" s="6" t="s">
@@ -20385,16 +20387,16 @@
     </row>
     <row r="4" spans="1:9" ht="78.75">
       <c r="A4" s="55" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C4" s="55" t="s">
         <v>1002</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>1003</v>
-      </c>
       <c r="D4" s="54" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="6" t="s">
@@ -20710,16 +20712,16 @@
     </row>
     <row r="2" spans="1:256" ht="31.5" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1004</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>1005</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>1006</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>1007</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="6" t="s">
@@ -20732,13 +20734,13 @@
         <v>627</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>1008</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1009</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="6" t="s">
@@ -20751,13 +20753,13 @@
         <v>557</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>1010</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1011</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="6" t="s">
@@ -20770,13 +20772,13 @@
         <v>560</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>1012</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>1013</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="6" t="s">
@@ -20789,13 +20791,13 @@
         <v>563</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>1014</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>1015</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="6" t="s">
@@ -20808,22 +20810,22 @@
         <v>566</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>1016</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>1017</v>
-      </c>
       <c r="E7" s="21" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G7" s="57" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.5" customHeight="1">
@@ -20831,13 +20833,13 @@
         <v>571</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>1018</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>1019</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="6" t="s">
@@ -20850,13 +20852,13 @@
         <v>574</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>1020</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>1021</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="6" t="s">
@@ -20869,13 +20871,13 @@
         <v>577</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>1022</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>1023</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="6" t="s">
@@ -20888,13 +20890,13 @@
         <v>580</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>1024</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>1025</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="6" t="s">
@@ -20907,10 +20909,10 @@
         <v>583</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>582</v>
@@ -20926,22 +20928,22 @@
         <v>586</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>1027</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>1028</v>
-      </c>
       <c r="E13" s="21" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G13" s="57" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1">
@@ -20949,22 +20951,22 @@
         <v>595</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>1029</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>1030</v>
-      </c>
       <c r="E14" s="60" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="31.5" customHeight="1">
@@ -20972,13 +20974,13 @@
         <v>598</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>1031</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>1032</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="6" t="s">
@@ -20991,13 +20993,13 @@
         <v>630</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>1033</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>1034</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="6" t="s">
@@ -21007,16 +21009,16 @@
     </row>
     <row r="17" spans="1:256" ht="31.5" customHeight="1">
       <c r="A17" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>1035</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>1036</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>1037</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="6" t="s">
@@ -21029,13 +21031,13 @@
         <v>662</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>1038</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>1039</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="6" t="s">
@@ -21045,25 +21047,25 @@
     </row>
     <row r="19" spans="1:256" ht="31.5" customHeight="1">
       <c r="A19" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>1040</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>1042</v>
-      </c>
       <c r="E19" s="21" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G19" s="57" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="20" spans="1:256" ht="17.100000000000001" customHeight="1">
@@ -21071,13 +21073,13 @@
         <v>697</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>1043</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>1044</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="6" t="s">
@@ -21090,56 +21092,56 @@
         <v>700</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>1045</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="21" t="s">
         <v>1046</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>1047</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="22" spans="1:256" ht="31.5" customHeight="1">
       <c r="A22" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>1049</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>1050</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>1051</v>
-      </c>
       <c r="E22" s="21" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>783</v>
       </c>
       <c r="G22" s="57" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="23" spans="1:256" s="36" customFormat="1" ht="31.5">
       <c r="A23" s="6" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>1069</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>1070</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>609</v>
@@ -21399,13 +21401,13 @@
     </row>
     <row r="24" spans="1:256" s="36" customFormat="1">
       <c r="A24" s="6" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>613</v>
@@ -21665,13 +21667,13 @@
     </row>
     <row r="25" spans="1:256" s="36" customFormat="1">
       <c r="A25" s="6" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>604</v>
@@ -21931,13 +21933,13 @@
     </row>
     <row r="26" spans="1:256" s="36" customFormat="1" ht="31.5">
       <c r="A26" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>615</v>
@@ -22197,13 +22199,13 @@
     </row>
     <row r="27" spans="1:256" s="36" customFormat="1">
       <c r="A27" s="59" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>741</v>
@@ -22765,40 +22767,40 @@
     </row>
     <row r="2" spans="1:256" ht="31.5">
       <c r="A2" s="56" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B2" s="56" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C2" s="56" t="s">
         <v>1290</v>
       </c>
-      <c r="C2" s="56" t="s">
-        <v>1291</v>
-      </c>
       <c r="D2" s="56" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="31.5">
       <c r="A3" s="56" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>1292</v>
       </c>
-      <c r="B3" s="56" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>1293</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1294</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>783</v>
@@ -22807,19 +22809,19 @@
     </row>
     <row r="4" spans="1:256" ht="31.5">
       <c r="A4" s="6" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>1295</v>
       </c>
-      <c r="B4" s="56" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>1296</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1297</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>783</v>

--- a/conformancelib/testdata/85b_test_definitions_PIV-I_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV-I_ICAM_Test_Cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GSA\GSA_GIT\piv-conformance-pkix-11\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A27E3BB-4459-4F71-ABA3-14CDE374C15E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5FA58C-26C1-4EDA-A841-E0CC8AE0DBD5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="2505" windowWidth="26190" windowHeight="13845" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3766" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3766" uniqueCount="1310">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3387,9 +3387,6 @@
   </si>
   <si>
     <t>PKIX.7, PKIX.8, PKIX.9, PKIX.9, PKIX.25</t>
-  </si>
-  <si>
-    <t>2.16.840.1.101.3.2.1.48.248</t>
   </si>
   <si>
     <t>2.16.840.1.101.3.2.1.48.249</t>
@@ -3805,9 +3802,6 @@
     <t>Need to see if sunset date still applies</t>
   </si>
   <si>
-    <t>2.16.840.1.101.3.6.7</t>
-  </si>
-  <si>
     <t>Test OID for PIV-I Content Signing</t>
   </si>
   <si>
@@ -3901,9 +3895,6 @@
     <t>PIV-I test auth certificate policy OID</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>gov.gsa.conformancelib.tests.PlaceholderTests</t>
   </si>
   <si>
@@ -3962,6 +3953,18 @@
   </si>
   <si>
     <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:15</t>
+  </si>
+  <si>
+    <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID;2.16.840.1.101.3.2.1.48.248,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID;2.16.840.1.101.3.2.1.48.251,X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID;2.16.840.1.101.3.2.1.48.250,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID;2.16.840.1.101.3.2.1.48.249,CARD_HOLDER_UNIQUE_IDENTIFIER_OID;2.16.840.1.101.3.2.1.48.252</t>
+  </si>
+  <si>
+    <t>2.5.29.31</t>
+  </si>
+  <si>
+    <t>CARDHOLDER_IRIS_IMAGES_OID</t>
+  </si>
+  <si>
+    <t>2.16.840.1.101.3.8.7</t>
   </si>
 </sst>
 </file>
@@ -8497,17 +8500,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G471"/>
+  <dimension ref="A1:G470"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A413" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A430" sqref="A430:XFD430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="12" style="4" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="109.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="24.125" style="37" customWidth="1"/>
     <col min="6" max="6" width="58.75" style="4" customWidth="1"/>
@@ -8530,10 +8533,10 @@
         <v>55</v>
       </c>
       <c r="E1" s="38" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F1" s="38" t="s">
         <v>1121</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>1122</v>
       </c>
       <c r="G1" s="38" t="s">
         <v>1087</v>
@@ -8574,10 +8577,10 @@
         <v>56</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>1123</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>1124</v>
       </c>
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
@@ -8599,13 +8602,13 @@
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="42" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G5" s="42" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7">
       <c r="A6" s="42" t="s">
         <v>56</v>
       </c>
@@ -8620,7 +8623,7 @@
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="42" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G6" s="42"/>
     </row>
@@ -8639,11 +8642,11 @@
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="42" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G7" s="42"/>
     </row>
-    <row r="8" spans="1:7" ht="30">
+    <row r="8" spans="1:7">
       <c r="A8" s="42" t="s">
         <v>56</v>
       </c>
@@ -8658,11 +8661,11 @@
       </c>
       <c r="E8" s="42"/>
       <c r="F8" s="42" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G8" s="42"/>
     </row>
-    <row r="9" spans="1:7" ht="30">
+    <row r="9" spans="1:7">
       <c r="A9" s="42" t="s">
         <v>56</v>
       </c>
@@ -8677,7 +8680,7 @@
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="42" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G9" s="42"/>
     </row>
@@ -8696,11 +8699,11 @@
       </c>
       <c r="E10" s="42"/>
       <c r="F10" s="42" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G10" s="42"/>
     </row>
-    <row r="11" spans="1:7" ht="45">
+    <row r="11" spans="1:7">
       <c r="A11" s="42" t="s">
         <v>56</v>
       </c>
@@ -8715,11 +8718,11 @@
       </c>
       <c r="E11" s="42"/>
       <c r="F11" s="42" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G11" s="42"/>
     </row>
-    <row r="12" spans="1:7" ht="45">
+    <row r="12" spans="1:7">
       <c r="A12" s="42" t="s">
         <v>56</v>
       </c>
@@ -8734,11 +8737,11 @@
       </c>
       <c r="E12" s="42"/>
       <c r="F12" s="42" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G12" s="42"/>
     </row>
-    <row r="13" spans="1:7" ht="30">
+    <row r="13" spans="1:7">
       <c r="A13" s="42" t="s">
         <v>56</v>
       </c>
@@ -8753,11 +8756,11 @@
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G13" s="42"/>
     </row>
-    <row r="14" spans="1:7" ht="30">
+    <row r="14" spans="1:7">
       <c r="A14" s="42" t="s">
         <v>56</v>
       </c>
@@ -8772,7 +8775,7 @@
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G14" s="42"/>
     </row>
@@ -8791,7 +8794,7 @@
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G15" s="42"/>
     </row>
@@ -8815,10 +8818,10 @@
         <v>56</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
@@ -8840,13 +8843,13 @@
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G18" s="42" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7">
       <c r="A19" s="42" t="s">
         <v>56</v>
       </c>
@@ -8861,7 +8864,7 @@
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G19" s="42"/>
     </row>
@@ -8880,11 +8883,11 @@
       </c>
       <c r="E20" s="42"/>
       <c r="F20" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G20" s="42"/>
     </row>
-    <row r="21" spans="1:7" ht="30">
+    <row r="21" spans="1:7">
       <c r="A21" s="42" t="s">
         <v>56</v>
       </c>
@@ -8899,7 +8902,7 @@
       </c>
       <c r="E21" s="42"/>
       <c r="F21" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G21" s="42"/>
     </row>
@@ -8918,7 +8921,7 @@
       </c>
       <c r="E22" s="42"/>
       <c r="F22" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G22" s="42"/>
     </row>
@@ -8930,18 +8933,18 @@
         <v>98</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>100</v>
       </c>
       <c r="E23" s="42"/>
       <c r="F23" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G23" s="42"/>
     </row>
-    <row r="24" spans="1:7" ht="30">
+    <row r="24" spans="1:7">
       <c r="A24" s="43" t="s">
         <v>56</v>
       </c>
@@ -8949,18 +8952,18 @@
         <v>101</v>
       </c>
       <c r="C24" s="43" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D24" s="43" t="s">
         <v>1129</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>1130</v>
       </c>
       <c r="E24" s="43"/>
       <c r="F24" s="43" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G24" s="43"/>
     </row>
-    <row r="25" spans="1:7" ht="30">
+    <row r="25" spans="1:7">
       <c r="A25" s="42" t="s">
         <v>56</v>
       </c>
@@ -8975,7 +8978,7 @@
       </c>
       <c r="E25" s="42"/>
       <c r="F25" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G25" s="42"/>
     </row>
@@ -8987,14 +8990,14 @@
         <v>107</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D26" s="42" t="s">
         <v>106</v>
       </c>
       <c r="E26" s="42"/>
       <c r="F26" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G26" s="42"/>
     </row>
@@ -9006,14 +9009,14 @@
         <v>110</v>
       </c>
       <c r="C27" s="43" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D27" s="43" t="s">
         <v>1131</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>1132</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="43" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G27" s="43"/>
     </row>
@@ -9025,14 +9028,14 @@
         <v>113</v>
       </c>
       <c r="C28" s="43" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>1133</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>1134</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="43" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G28" s="43"/>
     </row>
@@ -9041,62 +9044,62 @@
         <v>56</v>
       </c>
       <c r="B29" s="43" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C29" s="43" t="s">
         <v>1135</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="D29" s="43" t="s">
         <v>1136</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>1137</v>
       </c>
       <c r="E29" s="43"/>
       <c r="F29" s="43" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G29" s="43"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="43"/>
       <c r="B30" s="43" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C30" s="43" t="s">
         <v>1138</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="D30" s="43" t="s">
         <v>1139</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>1140</v>
       </c>
       <c r="E30" s="43"/>
       <c r="F30" s="43" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G30" s="43"/>
     </row>
-    <row r="31" spans="1:7" ht="30">
+    <row r="31" spans="1:7">
       <c r="A31" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B31" s="42" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C31" s="42" t="s">
         <v>1141</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>1142</v>
       </c>
       <c r="D31" s="42" t="s">
         <v>109</v>
       </c>
       <c r="E31" s="42"/>
       <c r="F31" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G31" s="42"/>
     </row>
-    <row r="32" spans="1:7" ht="45">
+    <row r="32" spans="1:7">
       <c r="A32" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C32" s="42" t="s">
         <v>111</v>
@@ -9106,7 +9109,7 @@
       </c>
       <c r="E32" s="42"/>
       <c r="F32" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G32" s="42"/>
     </row>
@@ -9115,17 +9118,17 @@
         <v>56</v>
       </c>
       <c r="B33" s="43" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C33" s="43" t="s">
         <v>1144</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="D33" s="43" t="s">
         <v>1145</v>
-      </c>
-      <c r="D33" s="43" t="s">
-        <v>1146</v>
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="43" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G33" s="43"/>
     </row>
@@ -9134,17 +9137,17 @@
         <v>56</v>
       </c>
       <c r="B34" s="43" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C34" s="43" t="s">
         <v>1147</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="D34" s="43" t="s">
         <v>1148</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>1149</v>
       </c>
       <c r="E34" s="43"/>
       <c r="F34" s="43" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G34" s="43"/>
     </row>
@@ -9153,17 +9156,17 @@
         <v>56</v>
       </c>
       <c r="B35" s="43" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C35" s="43" t="s">
         <v>1150</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="D35" s="43" t="s">
         <v>1151</v>
-      </c>
-      <c r="D35" s="43" t="s">
-        <v>1152</v>
       </c>
       <c r="E35" s="43"/>
       <c r="F35" s="43" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G35" s="43"/>
     </row>
@@ -9172,26 +9175,26 @@
         <v>56</v>
       </c>
       <c r="B36" s="43" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C36" s="43" t="s">
         <v>1153</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="D36" s="43" t="s">
         <v>1154</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>1155</v>
       </c>
       <c r="E36" s="43"/>
       <c r="F36" s="43" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G36" s="43"/>
     </row>
-    <row r="37" spans="1:7" ht="30">
+    <row r="37" spans="1:7">
       <c r="A37" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C37" s="42" t="s">
         <v>114</v>
@@ -9201,7 +9204,7 @@
       </c>
       <c r="E37" s="42"/>
       <c r="F37" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G37" s="42"/>
     </row>
@@ -9220,7 +9223,7 @@
       </c>
       <c r="E38" s="42"/>
       <c r="F38" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G38" s="42"/>
     </row>
@@ -9239,11 +9242,11 @@
       </c>
       <c r="E39" s="42"/>
       <c r="F39" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G39" s="42"/>
     </row>
-    <row r="40" spans="1:7" ht="45">
+    <row r="40" spans="1:7" ht="30">
       <c r="A40" s="42" t="s">
         <v>56</v>
       </c>
@@ -9258,7 +9261,7 @@
       </c>
       <c r="E40" s="42"/>
       <c r="F40" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G40" s="42"/>
     </row>
@@ -9277,7 +9280,7 @@
       </c>
       <c r="E41" s="42"/>
       <c r="F41" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G41" s="42"/>
     </row>
@@ -9286,7 +9289,7 @@
         <v>127</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C42" s="42" t="s">
         <v>129</v>
@@ -9296,7 +9299,7 @@
       </c>
       <c r="E42" s="42"/>
       <c r="F42" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G42" s="42"/>
     </row>
@@ -9320,10 +9323,10 @@
         <v>56</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D44" s="41"/>
       <c r="E44" s="41"/>
@@ -9345,13 +9348,13 @@
       </c>
       <c r="E45" s="42"/>
       <c r="F45" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G45" s="42" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30">
+    <row r="46" spans="1:7">
       <c r="A46" s="42" t="s">
         <v>56</v>
       </c>
@@ -9366,7 +9369,7 @@
       </c>
       <c r="E46" s="42"/>
       <c r="F46" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G46" s="42"/>
     </row>
@@ -9385,11 +9388,11 @@
       </c>
       <c r="E47" s="42"/>
       <c r="F47" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G47" s="42"/>
     </row>
-    <row r="48" spans="1:7" ht="30">
+    <row r="48" spans="1:7">
       <c r="A48" s="42" t="s">
         <v>56</v>
       </c>
@@ -9404,7 +9407,7 @@
       </c>
       <c r="E48" s="42"/>
       <c r="F48" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G48" s="42"/>
     </row>
@@ -9419,11 +9422,11 @@
         <v>136</v>
       </c>
       <c r="D49" s="42" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E49" s="42"/>
       <c r="F49" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G49" s="42"/>
     </row>
@@ -9442,11 +9445,11 @@
       </c>
       <c r="E50" s="42"/>
       <c r="F50" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G50" s="42"/>
     </row>
-    <row r="51" spans="1:7" ht="30">
+    <row r="51" spans="1:7">
       <c r="A51" s="42" t="s">
         <v>56</v>
       </c>
@@ -9461,11 +9464,11 @@
       </c>
       <c r="E51" s="42"/>
       <c r="F51" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G51" s="42"/>
     </row>
-    <row r="52" spans="1:7" ht="30">
+    <row r="52" spans="1:7">
       <c r="A52" s="42" t="s">
         <v>56</v>
       </c>
@@ -9480,11 +9483,11 @@
       </c>
       <c r="E52" s="42"/>
       <c r="F52" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G52" s="42"/>
     </row>
-    <row r="53" spans="1:7" ht="30">
+    <row r="53" spans="1:7">
       <c r="A53" s="42" t="s">
         <v>56</v>
       </c>
@@ -9499,7 +9502,7 @@
       </c>
       <c r="E53" s="42"/>
       <c r="F53" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G53" s="42"/>
     </row>
@@ -9508,7 +9511,7 @@
         <v>127</v>
       </c>
       <c r="B54" s="42" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C54" s="42" t="s">
         <v>129</v>
@@ -9518,7 +9521,7 @@
       </c>
       <c r="E54" s="42"/>
       <c r="F54" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G54" s="42"/>
     </row>
@@ -9542,10 +9545,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="42" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D56" s="41"/>
       <c r="E56" s="41"/>
@@ -9567,13 +9570,13 @@
       </c>
       <c r="E57" s="42"/>
       <c r="F57" s="42" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G57" s="42" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="30">
+    <row r="58" spans="1:7">
       <c r="A58" s="42" t="s">
         <v>56</v>
       </c>
@@ -9588,7 +9591,7 @@
       </c>
       <c r="E58" s="42"/>
       <c r="F58" s="42" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G58" s="42"/>
     </row>
@@ -9607,11 +9610,11 @@
       </c>
       <c r="E59" s="42"/>
       <c r="F59" s="42" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G59" s="42"/>
     </row>
-    <row r="60" spans="1:7" ht="30">
+    <row r="60" spans="1:7">
       <c r="A60" s="42" t="s">
         <v>56</v>
       </c>
@@ -9626,7 +9629,7 @@
       </c>
       <c r="E60" s="42"/>
       <c r="F60" s="42" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G60" s="42"/>
     </row>
@@ -9645,11 +9648,11 @@
       </c>
       <c r="E61" s="42"/>
       <c r="F61" s="42" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G61" s="42"/>
     </row>
-    <row r="62" spans="1:7" ht="30">
+    <row r="62" spans="1:7">
       <c r="A62" s="42" t="s">
         <v>56</v>
       </c>
@@ -9664,11 +9667,11 @@
       </c>
       <c r="E62" s="42"/>
       <c r="F62" s="42" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G62" s="42"/>
     </row>
-    <row r="63" spans="1:7" ht="30">
+    <row r="63" spans="1:7">
       <c r="A63" s="42" t="s">
         <v>56</v>
       </c>
@@ -9683,11 +9686,11 @@
       </c>
       <c r="E63" s="42"/>
       <c r="F63" s="42" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G63" s="42"/>
     </row>
-    <row r="64" spans="1:7" ht="30">
+    <row r="64" spans="1:7">
       <c r="A64" s="42" t="s">
         <v>56</v>
       </c>
@@ -9702,7 +9705,7 @@
       </c>
       <c r="E64" s="42"/>
       <c r="F64" s="42" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G64" s="42"/>
     </row>
@@ -9721,7 +9724,7 @@
       </c>
       <c r="E65" s="42"/>
       <c r="F65" s="42" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G65" s="42"/>
     </row>
@@ -9745,10 +9748,10 @@
         <v>56</v>
       </c>
       <c r="B67" s="42" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D67" s="41"/>
       <c r="E67" s="41"/>
@@ -9770,13 +9773,13 @@
       </c>
       <c r="E68" s="42"/>
       <c r="F68" s="42" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G68" s="42" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30">
+    <row r="69" spans="1:7">
       <c r="A69" s="42" t="s">
         <v>56</v>
       </c>
@@ -9791,7 +9794,7 @@
       </c>
       <c r="E69" s="42"/>
       <c r="F69" s="42" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G69" s="42"/>
     </row>
@@ -9810,11 +9813,11 @@
       </c>
       <c r="E70" s="42"/>
       <c r="F70" s="42" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G70" s="42"/>
     </row>
-    <row r="71" spans="1:7" ht="30">
+    <row r="71" spans="1:7">
       <c r="A71" s="42" t="s">
         <v>56</v>
       </c>
@@ -9829,11 +9832,11 @@
       </c>
       <c r="E71" s="42"/>
       <c r="F71" s="42" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G71" s="42"/>
     </row>
-    <row r="72" spans="1:7" ht="30">
+    <row r="72" spans="1:7">
       <c r="A72" s="42" t="s">
         <v>56</v>
       </c>
@@ -9848,11 +9851,11 @@
       </c>
       <c r="E72" s="42"/>
       <c r="F72" s="42" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G72" s="42"/>
     </row>
-    <row r="73" spans="1:7" ht="30">
+    <row r="73" spans="1:7">
       <c r="A73" s="42" t="s">
         <v>56</v>
       </c>
@@ -9867,7 +9870,7 @@
       </c>
       <c r="E73" s="42"/>
       <c r="F73" s="42" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G73" s="42"/>
     </row>
@@ -9879,14 +9882,14 @@
         <v>172</v>
       </c>
       <c r="C74" s="43" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D74" s="43" t="s">
         <v>1165</v>
-      </c>
-      <c r="D74" s="43" t="s">
-        <v>1166</v>
       </c>
       <c r="E74" s="43"/>
       <c r="F74" s="43" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G74" s="43"/>
     </row>
@@ -9898,18 +9901,18 @@
         <v>175</v>
       </c>
       <c r="C75" s="43" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D75" s="43" t="s">
         <v>1167</v>
-      </c>
-      <c r="D75" s="43" t="s">
-        <v>1168</v>
       </c>
       <c r="E75" s="43"/>
       <c r="F75" s="43" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G75" s="43"/>
     </row>
-    <row r="76" spans="1:7" ht="30">
+    <row r="76" spans="1:7">
       <c r="A76" s="42" t="s">
         <v>56</v>
       </c>
@@ -9924,16 +9927,16 @@
       </c>
       <c r="E76" s="42"/>
       <c r="F76" s="42" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G76" s="42"/>
     </row>
-    <row r="77" spans="1:7" ht="30">
+    <row r="77" spans="1:7">
       <c r="A77" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B77" s="42" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C77" s="42" t="s">
         <v>176</v>
@@ -9943,16 +9946,16 @@
       </c>
       <c r="E77" s="42"/>
       <c r="F77" s="42" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G77" s="42"/>
     </row>
-    <row r="78" spans="1:7" ht="30">
+    <row r="78" spans="1:7">
       <c r="A78" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B78" s="42" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C78" s="42" t="s">
         <v>179</v>
@@ -9962,7 +9965,7 @@
       </c>
       <c r="E78" s="42"/>
       <c r="F78" s="42" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G78" s="42"/>
     </row>
@@ -9971,7 +9974,7 @@
         <v>127</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C79" s="42" t="s">
         <v>129</v>
@@ -9981,7 +9984,7 @@
       </c>
       <c r="E79" s="42"/>
       <c r="F79" s="42" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G79" s="42"/>
     </row>
@@ -9990,7 +9993,7 @@
         <v>56</v>
       </c>
       <c r="B80" s="42" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C80" s="41" t="s">
         <v>6</v>
@@ -10005,10 +10008,10 @@
         <v>56</v>
       </c>
       <c r="B81" s="42" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D81" s="41"/>
       <c r="E81" s="41"/>
@@ -10030,13 +10033,13 @@
       </c>
       <c r="E82" s="42"/>
       <c r="F82" s="42" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G82" s="42" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="30">
+    <row r="83" spans="1:7">
       <c r="A83" s="42" t="s">
         <v>56</v>
       </c>
@@ -10051,7 +10054,7 @@
       </c>
       <c r="E83" s="42"/>
       <c r="F83" s="42" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G83" s="42"/>
     </row>
@@ -10070,11 +10073,11 @@
       </c>
       <c r="E84" s="42"/>
       <c r="F84" s="42" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G84" s="42"/>
     </row>
-    <row r="85" spans="1:7" ht="30">
+    <row r="85" spans="1:7">
       <c r="A85" s="42" t="s">
         <v>56</v>
       </c>
@@ -10089,11 +10092,11 @@
       </c>
       <c r="E85" s="42"/>
       <c r="F85" s="42" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G85" s="42"/>
     </row>
-    <row r="86" spans="1:7" ht="30">
+    <row r="86" spans="1:7">
       <c r="A86" s="42" t="s">
         <v>56</v>
       </c>
@@ -10108,11 +10111,11 @@
       </c>
       <c r="E86" s="42"/>
       <c r="F86" s="42" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G86" s="42"/>
     </row>
-    <row r="87" spans="1:7" ht="30">
+    <row r="87" spans="1:7">
       <c r="A87" s="42" t="s">
         <v>56</v>
       </c>
@@ -10127,7 +10130,7 @@
       </c>
       <c r="E87" s="42"/>
       <c r="F87" s="42" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G87" s="42"/>
     </row>
@@ -10146,7 +10149,7 @@
       </c>
       <c r="E88" s="42"/>
       <c r="F88" s="42" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G88" s="42"/>
     </row>
@@ -10155,7 +10158,7 @@
         <v>127</v>
       </c>
       <c r="B89" s="42" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C89" s="42" t="s">
         <v>129</v>
@@ -10165,7 +10168,7 @@
       </c>
       <c r="E89" s="42"/>
       <c r="F89" s="42" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G89" s="42"/>
     </row>
@@ -10189,10 +10192,10 @@
         <v>56</v>
       </c>
       <c r="B91" s="42" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C91" s="41" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D91" s="41"/>
       <c r="E91" s="41"/>
@@ -10214,13 +10217,13 @@
       </c>
       <c r="E92" s="42"/>
       <c r="F92" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G92" s="42" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="30">
+    <row r="93" spans="1:7">
       <c r="A93" s="42" t="s">
         <v>56</v>
       </c>
@@ -10235,7 +10238,7 @@
       </c>
       <c r="E93" s="42"/>
       <c r="F93" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G93" s="42"/>
     </row>
@@ -10254,11 +10257,11 @@
       </c>
       <c r="E94" s="42"/>
       <c r="F94" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G94" s="42"/>
     </row>
-    <row r="95" spans="1:7" ht="30">
+    <row r="95" spans="1:7">
       <c r="A95" s="42" t="s">
         <v>56</v>
       </c>
@@ -10273,7 +10276,7 @@
       </c>
       <c r="E95" s="42"/>
       <c r="F95" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G95" s="42"/>
     </row>
@@ -10288,11 +10291,11 @@
         <v>136</v>
       </c>
       <c r="D96" s="42" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E96" s="42"/>
       <c r="F96" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G96" s="42"/>
     </row>
@@ -10311,11 +10314,11 @@
       </c>
       <c r="E97" s="42"/>
       <c r="F97" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G97" s="42"/>
     </row>
-    <row r="98" spans="1:7" ht="30">
+    <row r="98" spans="1:7">
       <c r="A98" s="42" t="s">
         <v>56</v>
       </c>
@@ -10330,11 +10333,11 @@
       </c>
       <c r="E98" s="42"/>
       <c r="F98" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G98" s="42"/>
     </row>
-    <row r="99" spans="1:7" ht="30">
+    <row r="99" spans="1:7">
       <c r="A99" s="42" t="s">
         <v>56</v>
       </c>
@@ -10349,11 +10352,11 @@
       </c>
       <c r="E99" s="42"/>
       <c r="F99" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G99" s="42"/>
     </row>
-    <row r="100" spans="1:7" ht="30">
+    <row r="100" spans="1:7">
       <c r="A100" s="42" t="s">
         <v>56</v>
       </c>
@@ -10368,7 +10371,7 @@
       </c>
       <c r="E100" s="42"/>
       <c r="F100" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G100" s="42"/>
     </row>
@@ -10377,7 +10380,7 @@
         <v>127</v>
       </c>
       <c r="B101" s="42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C101" s="42" t="s">
         <v>129</v>
@@ -10387,7 +10390,7 @@
       </c>
       <c r="E101" s="42"/>
       <c r="F101" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G101" s="42"/>
     </row>
@@ -10411,10 +10414,10 @@
         <v>56</v>
       </c>
       <c r="B103" s="42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C103" s="41" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D103" s="41"/>
       <c r="E103" s="41"/>
@@ -10436,13 +10439,13 @@
       </c>
       <c r="E104" s="42"/>
       <c r="F104" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G104" s="42" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="30">
+    <row r="105" spans="1:7">
       <c r="A105" s="42" t="s">
         <v>56</v>
       </c>
@@ -10457,7 +10460,7 @@
       </c>
       <c r="E105" s="42"/>
       <c r="F105" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G105" s="42"/>
     </row>
@@ -10476,11 +10479,11 @@
       </c>
       <c r="E106" s="42"/>
       <c r="F106" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G106" s="42"/>
     </row>
-    <row r="107" spans="1:7" ht="30">
+    <row r="107" spans="1:7">
       <c r="A107" s="42" t="s">
         <v>56</v>
       </c>
@@ -10495,7 +10498,7 @@
       </c>
       <c r="E107" s="42"/>
       <c r="F107" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G107" s="42"/>
     </row>
@@ -10510,11 +10513,11 @@
         <v>136</v>
       </c>
       <c r="D108" s="42" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E108" s="42"/>
       <c r="F108" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G108" s="42"/>
     </row>
@@ -10533,11 +10536,11 @@
       </c>
       <c r="E109" s="42"/>
       <c r="F109" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G109" s="42"/>
     </row>
-    <row r="110" spans="1:7" ht="30">
+    <row r="110" spans="1:7">
       <c r="A110" s="42" t="s">
         <v>56</v>
       </c>
@@ -10552,11 +10555,11 @@
       </c>
       <c r="E110" s="42"/>
       <c r="F110" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G110" s="42"/>
     </row>
-    <row r="111" spans="1:7" ht="30">
+    <row r="111" spans="1:7">
       <c r="A111" s="42" t="s">
         <v>56</v>
       </c>
@@ -10571,11 +10574,11 @@
       </c>
       <c r="E111" s="42"/>
       <c r="F111" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G111" s="42"/>
     </row>
-    <row r="112" spans="1:7" ht="30">
+    <row r="112" spans="1:7">
       <c r="A112" s="42" t="s">
         <v>56</v>
       </c>
@@ -10590,7 +10593,7 @@
       </c>
       <c r="E112" s="42"/>
       <c r="F112" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G112" s="42"/>
     </row>
@@ -10599,7 +10602,7 @@
         <v>127</v>
       </c>
       <c r="B113" s="42" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C113" s="42" t="s">
         <v>129</v>
@@ -10609,7 +10612,7 @@
       </c>
       <c r="E113" s="42"/>
       <c r="F113" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G113" s="42"/>
     </row>
@@ -10633,10 +10636,10 @@
         <v>56</v>
       </c>
       <c r="B115" s="42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C115" s="41" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D115" s="41"/>
       <c r="E115" s="41"/>
@@ -10658,13 +10661,13 @@
       </c>
       <c r="E116" s="42"/>
       <c r="F116" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G116" s="42" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="30">
+    <row r="117" spans="1:7">
       <c r="A117" s="42" t="s">
         <v>56</v>
       </c>
@@ -10679,7 +10682,7 @@
       </c>
       <c r="E117" s="42"/>
       <c r="F117" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G117" s="42"/>
     </row>
@@ -10698,11 +10701,11 @@
       </c>
       <c r="E118" s="42"/>
       <c r="F118" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G118" s="42"/>
     </row>
-    <row r="119" spans="1:7" ht="30">
+    <row r="119" spans="1:7">
       <c r="A119" s="42" t="s">
         <v>56</v>
       </c>
@@ -10717,7 +10720,7 @@
       </c>
       <c r="E119" s="42"/>
       <c r="F119" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G119" s="42"/>
     </row>
@@ -10732,11 +10735,11 @@
         <v>136</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E120" s="42"/>
       <c r="F120" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G120" s="42"/>
     </row>
@@ -10755,11 +10758,11 @@
       </c>
       <c r="E121" s="42"/>
       <c r="F121" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G121" s="42"/>
     </row>
-    <row r="122" spans="1:7" ht="30">
+    <row r="122" spans="1:7">
       <c r="A122" s="42" t="s">
         <v>56</v>
       </c>
@@ -10774,11 +10777,11 @@
       </c>
       <c r="E122" s="42"/>
       <c r="F122" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G122" s="42"/>
     </row>
-    <row r="123" spans="1:7" ht="30">
+    <row r="123" spans="1:7">
       <c r="A123" s="42" t="s">
         <v>56</v>
       </c>
@@ -10793,11 +10796,11 @@
       </c>
       <c r="E123" s="42"/>
       <c r="F123" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G123" s="42"/>
     </row>
-    <row r="124" spans="1:7" ht="30">
+    <row r="124" spans="1:7">
       <c r="A124" s="42" t="s">
         <v>56</v>
       </c>
@@ -10812,7 +10815,7 @@
       </c>
       <c r="E124" s="42"/>
       <c r="F124" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G124" s="42"/>
     </row>
@@ -10821,7 +10824,7 @@
         <v>127</v>
       </c>
       <c r="B125" s="42" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C125" s="42" t="s">
         <v>129</v>
@@ -10831,7 +10834,7 @@
       </c>
       <c r="E125" s="42"/>
       <c r="F125" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G125" s="42"/>
     </row>
@@ -10840,7 +10843,7 @@
         <v>56</v>
       </c>
       <c r="B126" s="42" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C126" s="41" t="s">
         <v>10</v>
@@ -10855,10 +10858,10 @@
         <v>56</v>
       </c>
       <c r="B127" s="42" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C127" s="41" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D127" s="41"/>
       <c r="E127" s="41"/>
@@ -10880,13 +10883,13 @@
       </c>
       <c r="E128" s="42"/>
       <c r="F128" s="42" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G128" s="42" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="30">
+    <row r="129" spans="1:7">
       <c r="A129" s="42" t="s">
         <v>56</v>
       </c>
@@ -10901,7 +10904,7 @@
       </c>
       <c r="E129" s="42"/>
       <c r="F129" s="42" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G129" s="42"/>
     </row>
@@ -10920,11 +10923,11 @@
       </c>
       <c r="E130" s="42"/>
       <c r="F130" s="42" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G130" s="42"/>
     </row>
-    <row r="131" spans="1:7" ht="30">
+    <row r="131" spans="1:7">
       <c r="A131" s="42" t="s">
         <v>56</v>
       </c>
@@ -10939,7 +10942,7 @@
       </c>
       <c r="E131" s="42"/>
       <c r="F131" s="42" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G131" s="42"/>
     </row>
@@ -10958,7 +10961,7 @@
       </c>
       <c r="E132" s="42"/>
       <c r="F132" s="42" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G132" s="42"/>
     </row>
@@ -10970,14 +10973,14 @@
         <v>238</v>
       </c>
       <c r="C133" s="42" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D133" s="42" t="s">
         <v>240</v>
       </c>
       <c r="E133" s="42"/>
       <c r="F133" s="42" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G133" s="42"/>
     </row>
@@ -10989,18 +10992,18 @@
         <v>241</v>
       </c>
       <c r="C134" s="43" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D134" s="43" t="s">
         <v>1189</v>
-      </c>
-      <c r="D134" s="43" t="s">
-        <v>1190</v>
       </c>
       <c r="E134" s="43"/>
       <c r="F134" s="43" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G134" s="43"/>
     </row>
-    <row r="135" spans="1:7" ht="30">
+    <row r="135" spans="1:7">
       <c r="A135" s="42" t="s">
         <v>56</v>
       </c>
@@ -11015,16 +11018,16 @@
       </c>
       <c r="E135" s="42"/>
       <c r="F135" s="42" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G135" s="42"/>
     </row>
-    <row r="136" spans="1:7" ht="45">
+    <row r="136" spans="1:7">
       <c r="A136" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B136" s="42" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C136" s="42" t="s">
         <v>245</v>
@@ -11034,7 +11037,7 @@
       </c>
       <c r="E136" s="42"/>
       <c r="F136" s="42" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G136" s="42"/>
     </row>
@@ -11058,10 +11061,10 @@
         <v>56</v>
       </c>
       <c r="B138" s="42" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C138" s="41" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D138" s="41"/>
       <c r="E138" s="41"/>
@@ -11085,13 +11088,13 @@
         <v>249</v>
       </c>
       <c r="F139" s="42" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G139" s="42" t="s">
         <v>1193</v>
       </c>
-      <c r="G139" s="42" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="30">
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="42" t="s">
         <v>56</v>
       </c>
@@ -11108,7 +11111,7 @@
         <v>249</v>
       </c>
       <c r="F140" s="42" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G140" s="42"/>
     </row>
@@ -11129,11 +11132,11 @@
         <v>249</v>
       </c>
       <c r="F141" s="42" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G141" s="42"/>
     </row>
-    <row r="142" spans="1:7" ht="30">
+    <row r="142" spans="1:7">
       <c r="A142" s="42" t="s">
         <v>56</v>
       </c>
@@ -11150,7 +11153,7 @@
         <v>249</v>
       </c>
       <c r="F142" s="42" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G142" s="42"/>
     </row>
@@ -11162,7 +11165,7 @@
         <v>256</v>
       </c>
       <c r="C143" s="42" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D143" s="42" t="s">
         <v>258</v>
@@ -11171,7 +11174,7 @@
         <v>249</v>
       </c>
       <c r="F143" s="42" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G143" s="42"/>
     </row>
@@ -11183,7 +11186,7 @@
         <v>259</v>
       </c>
       <c r="C144" s="42" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D144" s="42" t="s">
         <v>255</v>
@@ -11192,11 +11195,11 @@
         <v>249</v>
       </c>
       <c r="F144" s="42" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G144" s="42"/>
     </row>
-    <row r="145" spans="1:7" ht="30">
+    <row r="145" spans="1:7">
       <c r="A145" s="43" t="s">
         <v>56</v>
       </c>
@@ -11204,14 +11207,14 @@
         <v>261</v>
       </c>
       <c r="C145" s="43" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D145" s="43" t="s">
         <v>1197</v>
-      </c>
-      <c r="D145" s="43" t="s">
-        <v>1198</v>
       </c>
       <c r="E145" s="43"/>
       <c r="F145" s="43" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G145" s="43"/>
     </row>
@@ -11220,28 +11223,28 @@
         <v>56</v>
       </c>
       <c r="B146" s="42" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C146" s="42" t="s">
         <v>260</v>
       </c>
       <c r="D146" s="42" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E146" s="42" t="s">
         <v>249</v>
       </c>
       <c r="F146" s="42" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G146" s="42"/>
     </row>
-    <row r="147" spans="1:7" ht="90">
+    <row r="147" spans="1:7" ht="30">
       <c r="A147" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B147" s="42" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C147" s="42" t="s">
         <v>262</v>
@@ -11253,7 +11256,7 @@
         <v>249</v>
       </c>
       <c r="F147" s="42" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G147" s="42"/>
     </row>
@@ -11262,19 +11265,19 @@
         <v>127</v>
       </c>
       <c r="B148" s="42" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C148" s="42" t="s">
         <v>129</v>
       </c>
       <c r="D148" s="42" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E148" s="42" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F148" s="42" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G148" s="42"/>
     </row>
@@ -11283,7 +11286,7 @@
         <v>127</v>
       </c>
       <c r="B149" s="42" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C149" s="42" t="s">
         <v>266</v>
@@ -11293,7 +11296,7 @@
       </c>
       <c r="E149" s="42"/>
       <c r="F149" s="42" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G149" s="42"/>
     </row>
@@ -11342,14 +11345,14 @@
         <v>14</v>
       </c>
       <c r="D152" s="42" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E152" s="42" t="s">
         <v>270</v>
       </c>
       <c r="F152" s="42"/>
       <c r="G152" s="42" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="30">
@@ -11363,14 +11366,14 @@
         <v>15</v>
       </c>
       <c r="D153" s="42" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E153" s="42" t="s">
         <v>270</v>
       </c>
       <c r="F153" s="42"/>
       <c r="G153" s="42" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="30">
@@ -11384,17 +11387,17 @@
         <v>272</v>
       </c>
       <c r="D154" s="42" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E154" s="42" t="s">
         <v>273</v>
       </c>
       <c r="F154" s="42"/>
       <c r="G154" s="42" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="30">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="42" t="s">
         <v>56</v>
       </c>
@@ -11450,7 +11453,7 @@
         <v>56</v>
       </c>
       <c r="B158" s="39" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C158" s="40" t="s">
         <v>19</v>
@@ -11517,7 +11520,7 @@
         <v>277</v>
       </c>
       <c r="C162" s="42" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="D162" s="42">
         <v>76.2</v>
@@ -11551,10 +11554,10 @@
         <v>281</v>
       </c>
       <c r="C164" s="42" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="D164" s="42" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="E164" s="42"/>
       <c r="F164" s="42"/>
@@ -11565,7 +11568,7 @@
         <v>56</v>
       </c>
       <c r="B165" s="42" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C165" s="42" t="s">
         <v>285</v>
@@ -11594,7 +11597,7 @@
       <c r="F166" s="44"/>
       <c r="G166" s="44"/>
     </row>
-    <row r="167" spans="1:7" ht="30">
+    <row r="167" spans="1:7">
       <c r="A167" s="42" t="s">
         <v>56</v>
       </c>
@@ -11602,7 +11605,7 @@
         <v>284</v>
       </c>
       <c r="C167" s="42" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="D167" s="42" t="s">
         <v>842</v>
@@ -11611,7 +11614,7 @@
       <c r="F167" s="65"/>
       <c r="G167" s="65"/>
     </row>
-    <row r="168" spans="1:7" ht="30">
+    <row r="168" spans="1:7">
       <c r="A168" s="42" t="s">
         <v>56</v>
       </c>
@@ -11628,7 +11631,7 @@
       <c r="F168" s="42"/>
       <c r="G168" s="42"/>
     </row>
-    <row r="169" spans="1:7" ht="45">
+    <row r="169" spans="1:7" ht="30">
       <c r="A169" s="42" t="s">
         <v>56</v>
       </c>
@@ -11645,7 +11648,7 @@
       <c r="F169" s="42"/>
       <c r="G169" s="42"/>
     </row>
-    <row r="170" spans="1:7" ht="30">
+    <row r="170" spans="1:7">
       <c r="A170" s="42" t="s">
         <v>56</v>
       </c>
@@ -11662,7 +11665,7 @@
       <c r="F170" s="42"/>
       <c r="G170" s="42"/>
     </row>
-    <row r="171" spans="1:7" ht="45">
+    <row r="171" spans="1:7" ht="30">
       <c r="A171" s="42" t="s">
         <v>56</v>
       </c>
@@ -11679,7 +11682,7 @@
       <c r="F171" s="42"/>
       <c r="G171" s="42"/>
     </row>
-    <row r="172" spans="1:7" ht="30">
+    <row r="172" spans="1:7">
       <c r="A172" s="42" t="s">
         <v>56</v>
       </c>
@@ -11696,7 +11699,7 @@
       <c r="F172" s="42"/>
       <c r="G172" s="42"/>
     </row>
-    <row r="173" spans="1:7" ht="30">
+    <row r="173" spans="1:7">
       <c r="A173" s="42" t="s">
         <v>56</v>
       </c>
@@ -11713,7 +11716,7 @@
       <c r="F173" s="42"/>
       <c r="G173" s="42"/>
     </row>
-    <row r="174" spans="1:7" ht="75">
+    <row r="174" spans="1:7" ht="30">
       <c r="A174" s="42" t="s">
         <v>56</v>
       </c>
@@ -11747,7 +11750,7 @@
       <c r="F175" s="42"/>
       <c r="G175" s="42"/>
     </row>
-    <row r="176" spans="1:7" ht="75">
+    <row r="176" spans="1:7" ht="30">
       <c r="A176" s="42" t="s">
         <v>56</v>
       </c>
@@ -11764,7 +11767,7 @@
       <c r="F176" s="42"/>
       <c r="G176" s="42"/>
     </row>
-    <row r="177" spans="1:7" ht="45">
+    <row r="177" spans="1:7" ht="30">
       <c r="A177" s="42" t="s">
         <v>56</v>
       </c>
@@ -11781,7 +11784,7 @@
       <c r="F177" s="42"/>
       <c r="G177" s="42"/>
     </row>
-    <row r="178" spans="1:7" ht="30">
+    <row r="178" spans="1:7">
       <c r="A178" s="42" t="s">
         <v>56</v>
       </c>
@@ -11828,7 +11831,7 @@
       <c r="F180" s="44"/>
       <c r="G180" s="44"/>
     </row>
-    <row r="181" spans="1:7" ht="30">
+    <row r="181" spans="1:7">
       <c r="A181" s="42" t="s">
         <v>56</v>
       </c>
@@ -11932,7 +11935,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="30">
+    <row r="187" spans="1:7">
       <c r="A187" s="42" t="s">
         <v>56</v>
       </c>
@@ -11949,7 +11952,7 @@
       <c r="F187" s="42"/>
       <c r="G187" s="42"/>
     </row>
-    <row r="188" spans="1:7" ht="45">
+    <row r="188" spans="1:7" ht="30">
       <c r="A188" s="42" t="s">
         <v>56</v>
       </c>
@@ -11966,7 +11969,7 @@
       <c r="F188" s="42"/>
       <c r="G188" s="42"/>
     </row>
-    <row r="189" spans="1:7" ht="30">
+    <row r="189" spans="1:7">
       <c r="A189" s="42" t="s">
         <v>56</v>
       </c>
@@ -11983,7 +11986,7 @@
       <c r="F189" s="42"/>
       <c r="G189" s="42"/>
     </row>
-    <row r="190" spans="1:7" ht="45">
+    <row r="190" spans="1:7" ht="30">
       <c r="A190" s="42" t="s">
         <v>56</v>
       </c>
@@ -12000,7 +12003,7 @@
       <c r="F190" s="42"/>
       <c r="G190" s="42"/>
     </row>
-    <row r="191" spans="1:7" ht="30">
+    <row r="191" spans="1:7">
       <c r="A191" s="42" t="s">
         <v>56</v>
       </c>
@@ -12017,7 +12020,7 @@
       <c r="F191" s="42"/>
       <c r="G191" s="42"/>
     </row>
-    <row r="192" spans="1:7" ht="30">
+    <row r="192" spans="1:7">
       <c r="A192" s="42" t="s">
         <v>56</v>
       </c>
@@ -12034,7 +12037,7 @@
       <c r="F192" s="42"/>
       <c r="G192" s="42"/>
     </row>
-    <row r="193" spans="1:7" ht="45">
+    <row r="193" spans="1:7" ht="30">
       <c r="A193" s="42" t="s">
         <v>56</v>
       </c>
@@ -12068,7 +12071,7 @@
       <c r="F194" s="42"/>
       <c r="G194" s="42"/>
     </row>
-    <row r="195" spans="1:7" ht="75">
+    <row r="195" spans="1:7" ht="30">
       <c r="A195" s="42" t="s">
         <v>56</v>
       </c>
@@ -12085,7 +12088,7 @@
       <c r="F195" s="42"/>
       <c r="G195" s="42"/>
     </row>
-    <row r="196" spans="1:7" ht="45">
+    <row r="196" spans="1:7" ht="30">
       <c r="A196" s="42" t="s">
         <v>56</v>
       </c>
@@ -12102,7 +12105,7 @@
       <c r="F196" s="42"/>
       <c r="G196" s="42"/>
     </row>
-    <row r="197" spans="1:7" ht="30">
+    <row r="197" spans="1:7">
       <c r="A197" s="42" t="s">
         <v>56</v>
       </c>
@@ -12149,7 +12152,7 @@
       <c r="F199" s="44"/>
       <c r="G199" s="44"/>
     </row>
-    <row r="200" spans="1:7" ht="30">
+    <row r="200" spans="1:7">
       <c r="A200" s="42" t="s">
         <v>56</v>
       </c>
@@ -12253,7 +12256,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="30">
+    <row r="206" spans="1:7">
       <c r="A206" s="42" t="s">
         <v>56</v>
       </c>
@@ -12270,7 +12273,7 @@
       <c r="F206" s="42"/>
       <c r="G206" s="42"/>
     </row>
-    <row r="207" spans="1:7" ht="30">
+    <row r="207" spans="1:7">
       <c r="A207" s="42" t="s">
         <v>56</v>
       </c>
@@ -12287,7 +12290,7 @@
       <c r="F207" s="42"/>
       <c r="G207" s="42"/>
     </row>
-    <row r="208" spans="1:7" ht="30">
+    <row r="208" spans="1:7">
       <c r="A208" s="42" t="s">
         <v>56</v>
       </c>
@@ -12304,12 +12307,12 @@
       <c r="F208" s="42"/>
       <c r="G208" s="42"/>
     </row>
-    <row r="209" spans="1:7" ht="45">
+    <row r="209" spans="1:7" ht="30">
       <c r="A209" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B209" s="42" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="C209" s="42" t="s">
         <v>293</v>
@@ -12321,7 +12324,7 @@
       <c r="F209" s="42"/>
       <c r="G209" s="42"/>
     </row>
-    <row r="210" spans="1:7" ht="30">
+    <row r="210" spans="1:7">
       <c r="A210" s="42" t="s">
         <v>56</v>
       </c>
@@ -12338,7 +12341,7 @@
       <c r="F210" s="42"/>
       <c r="G210" s="42"/>
     </row>
-    <row r="211" spans="1:7" ht="30">
+    <row r="211" spans="1:7">
       <c r="A211" s="42" t="s">
         <v>56</v>
       </c>
@@ -12355,7 +12358,7 @@
       <c r="F211" s="42"/>
       <c r="G211" s="42"/>
     </row>
-    <row r="212" spans="1:7" ht="45">
+    <row r="212" spans="1:7" ht="30">
       <c r="A212" s="42" t="s">
         <v>56</v>
       </c>
@@ -12389,7 +12392,7 @@
       <c r="F213" s="42"/>
       <c r="G213" s="42"/>
     </row>
-    <row r="214" spans="1:7" ht="75">
+    <row r="214" spans="1:7" ht="30">
       <c r="A214" s="42" t="s">
         <v>56</v>
       </c>
@@ -12406,7 +12409,7 @@
       <c r="F214" s="42"/>
       <c r="G214" s="42"/>
     </row>
-    <row r="215" spans="1:7" ht="45">
+    <row r="215" spans="1:7" ht="30">
       <c r="A215" s="42" t="s">
         <v>56</v>
       </c>
@@ -12423,7 +12426,7 @@
       <c r="F215" s="42"/>
       <c r="G215" s="42"/>
     </row>
-    <row r="216" spans="1:7" ht="30">
+    <row r="216" spans="1:7">
       <c r="A216" s="42" t="s">
         <v>56</v>
       </c>
@@ -12486,10 +12489,10 @@
       <c r="E219" s="42"/>
       <c r="F219" s="42"/>
       <c r="G219" s="42" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="30">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220" s="42" t="s">
         <v>56</v>
       </c>
@@ -12506,7 +12509,7 @@
       <c r="F220" s="42"/>
       <c r="G220" s="42"/>
     </row>
-    <row r="221" spans="1:7" ht="30">
+    <row r="221" spans="1:7">
       <c r="A221" s="42" t="s">
         <v>56</v>
       </c>
@@ -12523,7 +12526,7 @@
       <c r="F221" s="42"/>
       <c r="G221" s="42"/>
     </row>
-    <row r="222" spans="1:7" ht="60">
+    <row r="222" spans="1:7" ht="30">
       <c r="A222" s="42" t="s">
         <v>56</v>
       </c>
@@ -12540,7 +12543,7 @@
       <c r="F222" s="42"/>
       <c r="G222" s="42"/>
     </row>
-    <row r="223" spans="1:7" ht="60">
+    <row r="223" spans="1:7" ht="30">
       <c r="A223" s="42" t="s">
         <v>56</v>
       </c>
@@ -12557,7 +12560,7 @@
       <c r="F223" s="42"/>
       <c r="G223" s="42"/>
     </row>
-    <row r="224" spans="1:7" ht="30">
+    <row r="224" spans="1:7">
       <c r="A224" s="42" t="s">
         <v>56</v>
       </c>
@@ -12591,7 +12594,7 @@
       <c r="F225" s="42"/>
       <c r="G225" s="42"/>
     </row>
-    <row r="226" spans="1:7" ht="45">
+    <row r="226" spans="1:7" ht="30">
       <c r="A226" s="42" t="s">
         <v>56</v>
       </c>
@@ -12602,7 +12605,7 @@
         <v>1055</v>
       </c>
       <c r="D226" s="42" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E226" s="42" t="s">
         <v>1061</v>
@@ -12610,7 +12613,7 @@
       <c r="F226" s="42"/>
       <c r="G226" s="42"/>
     </row>
-    <row r="227" spans="1:7" ht="45">
+    <row r="227" spans="1:7" ht="30">
       <c r="A227" s="42" t="s">
         <v>56</v>
       </c>
@@ -12621,7 +12624,7 @@
         <v>371</v>
       </c>
       <c r="D227" s="42" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E227" s="42" t="s">
         <v>1061</v>
@@ -12731,7 +12734,7 @@
       <c r="F233" s="42"/>
       <c r="G233" s="42"/>
     </row>
-    <row r="234" spans="1:7" ht="30">
+    <row r="234" spans="1:7">
       <c r="A234" s="42" t="s">
         <v>56</v>
       </c>
@@ -12765,7 +12768,7 @@
       <c r="F235" s="42"/>
       <c r="G235" s="42"/>
     </row>
-    <row r="236" spans="1:7" ht="30">
+    <row r="236" spans="1:7">
       <c r="A236" s="42" t="s">
         <v>56</v>
       </c>
@@ -12818,7 +12821,7 @@
       <c r="F238" s="42"/>
       <c r="G238" s="42"/>
     </row>
-    <row r="239" spans="1:7" ht="30">
+    <row r="239" spans="1:7">
       <c r="A239" s="42" t="s">
         <v>56</v>
       </c>
@@ -12952,7 +12955,7 @@
       <c r="F246" s="44"/>
       <c r="G246" s="44"/>
     </row>
-    <row r="247" spans="1:7" ht="30">
+    <row r="247" spans="1:7">
       <c r="A247" s="42" t="s">
         <v>56</v>
       </c>
@@ -13072,7 +13075,7 @@
         <v>56</v>
       </c>
       <c r="B254" s="39" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C254" s="40" t="s">
         <v>35</v>
@@ -13112,7 +13115,7 @@
       <c r="F256" s="44"/>
       <c r="G256" s="44"/>
     </row>
-    <row r="257" spans="1:7" ht="60">
+    <row r="257" spans="1:7" ht="45">
       <c r="A257" s="42" t="s">
         <v>56</v>
       </c>
@@ -13131,7 +13134,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="30">
+    <row r="258" spans="1:7">
       <c r="A258" s="42" t="s">
         <v>56</v>
       </c>
@@ -13148,7 +13151,7 @@
       <c r="F258" s="42"/>
       <c r="G258" s="47"/>
     </row>
-    <row r="259" spans="1:7" ht="45">
+    <row r="259" spans="1:7" ht="30">
       <c r="A259" s="42" t="s">
         <v>56</v>
       </c>
@@ -13162,12 +13165,12 @@
         <v>425</v>
       </c>
       <c r="E259" s="49" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F259" s="42"/>
       <c r="G259" s="47"/>
     </row>
-    <row r="260" spans="1:7" ht="45">
+    <row r="260" spans="1:7">
       <c r="A260" s="42" t="s">
         <v>56</v>
       </c>
@@ -13201,7 +13204,7 @@
       <c r="F261" s="42"/>
       <c r="G261" s="47"/>
     </row>
-    <row r="262" spans="1:7" ht="30">
+    <row r="262" spans="1:7">
       <c r="A262" s="42" t="s">
         <v>56</v>
       </c>
@@ -13218,7 +13221,7 @@
       <c r="F262" s="42"/>
       <c r="G262" s="47"/>
     </row>
-    <row r="263" spans="1:7" ht="75">
+    <row r="263" spans="1:7" ht="30">
       <c r="A263" s="42" t="s">
         <v>56</v>
       </c>
@@ -13243,35 +13246,35 @@
         <v>438</v>
       </c>
       <c r="C264" s="47" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D264" s="42" t="s">
         <v>440</v>
       </c>
       <c r="E264" s="49" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F264" s="42"/>
       <c r="G264" s="47"/>
     </row>
-    <row r="265" spans="1:7" ht="45">
+    <row r="265" spans="1:7" ht="30">
       <c r="A265" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B265" s="42" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C265" s="47" t="s">
         <v>1210</v>
       </c>
-      <c r="C265" s="47" t="s">
+      <c r="D265" s="42" t="s">
         <v>1211</v>
-      </c>
-      <c r="D265" s="42" t="s">
-        <v>1212</v>
       </c>
       <c r="E265" s="42"/>
       <c r="F265" s="42"/>
       <c r="G265" s="47"/>
     </row>
-    <row r="266" spans="1:7" ht="105">
+    <row r="266" spans="1:7" ht="45">
       <c r="A266" s="42" t="s">
         <v>56</v>
       </c>
@@ -13288,7 +13291,7 @@
       <c r="F266" s="42"/>
       <c r="G266" s="47"/>
     </row>
-    <row r="267" spans="1:7" ht="75">
+    <row r="267" spans="1:7" ht="30">
       <c r="A267" s="42" t="s">
         <v>56</v>
       </c>
@@ -13305,7 +13308,7 @@
       <c r="F267" s="42"/>
       <c r="G267" s="47"/>
     </row>
-    <row r="268" spans="1:7" ht="105">
+    <row r="268" spans="1:7" ht="45">
       <c r="A268" s="42" t="s">
         <v>56</v>
       </c>
@@ -13319,17 +13322,17 @@
         <v>449</v>
       </c>
       <c r="E268" s="49" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F268" s="42"/>
       <c r="G268" s="47"/>
     </row>
-    <row r="269" spans="1:7" ht="30">
+    <row r="269" spans="1:7">
       <c r="A269" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B269" s="42" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C269" s="47" t="s">
         <v>451</v>
@@ -13371,7 +13374,7 @@
       <c r="F271" s="44"/>
       <c r="G271" s="44"/>
     </row>
-    <row r="272" spans="1:7" ht="75">
+    <row r="272" spans="1:7" ht="60">
       <c r="A272" s="42" t="s">
         <v>56</v>
       </c>
@@ -13407,7 +13410,7 @@
       <c r="F273" s="42"/>
       <c r="G273" s="47"/>
     </row>
-    <row r="274" spans="1:7" ht="30">
+    <row r="274" spans="1:7">
       <c r="A274" s="42" t="s">
         <v>56</v>
       </c>
@@ -13424,7 +13427,7 @@
       <c r="F274" s="42"/>
       <c r="G274" s="47"/>
     </row>
-    <row r="275" spans="1:7" ht="45">
+    <row r="275" spans="1:7">
       <c r="A275" s="42" t="s">
         <v>56</v>
       </c>
@@ -13458,7 +13461,7 @@
       <c r="F276" s="42"/>
       <c r="G276" s="47"/>
     </row>
-    <row r="277" spans="1:7" ht="30">
+    <row r="277" spans="1:7">
       <c r="A277" s="42" t="s">
         <v>56</v>
       </c>
@@ -13475,7 +13478,7 @@
       <c r="F277" s="42"/>
       <c r="G277" s="47"/>
     </row>
-    <row r="278" spans="1:7" ht="30">
+    <row r="278" spans="1:7">
       <c r="A278" s="42" t="s">
         <v>56</v>
       </c>
@@ -13492,7 +13495,7 @@
       <c r="F278" s="42"/>
       <c r="G278" s="47"/>
     </row>
-    <row r="279" spans="1:7" ht="45">
+    <row r="279" spans="1:7">
       <c r="A279" s="42" t="s">
         <v>56</v>
       </c>
@@ -13509,7 +13512,7 @@
       <c r="F279" s="42"/>
       <c r="G279" s="47"/>
     </row>
-    <row r="280" spans="1:7" ht="30">
+    <row r="280" spans="1:7">
       <c r="A280" s="42" t="s">
         <v>56</v>
       </c>
@@ -13526,7 +13529,7 @@
       <c r="F280" s="42"/>
       <c r="G280" s="47"/>
     </row>
-    <row r="281" spans="1:7" ht="45">
+    <row r="281" spans="1:7">
       <c r="A281" s="42" t="s">
         <v>56</v>
       </c>
@@ -13537,13 +13540,13 @@
         <v>473</v>
       </c>
       <c r="D281" s="42" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E281" s="42"/>
       <c r="F281" s="42"/>
       <c r="G281" s="47"/>
     </row>
-    <row r="282" spans="1:7" ht="60">
+    <row r="282" spans="1:7" ht="30">
       <c r="A282" s="42" t="s">
         <v>56</v>
       </c>
@@ -13560,7 +13563,7 @@
       <c r="F282" s="42"/>
       <c r="G282" s="47"/>
     </row>
-    <row r="283" spans="1:7" ht="75">
+    <row r="283" spans="1:7" ht="30">
       <c r="A283" s="42" t="s">
         <v>56</v>
       </c>
@@ -13577,7 +13580,7 @@
       <c r="F283" s="42"/>
       <c r="G283" s="42"/>
     </row>
-    <row r="284" spans="1:7" ht="90">
+    <row r="284" spans="1:7" ht="45">
       <c r="A284" s="42" t="s">
         <v>56</v>
       </c>
@@ -13594,7 +13597,7 @@
       <c r="F284" s="42"/>
       <c r="G284" s="47"/>
     </row>
-    <row r="285" spans="1:7" ht="105">
+    <row r="285" spans="1:7" ht="45">
       <c r="A285" s="42" t="s">
         <v>56</v>
       </c>
@@ -13611,7 +13614,7 @@
       <c r="F285" s="42"/>
       <c r="G285" s="42"/>
     </row>
-    <row r="286" spans="1:7" ht="105">
+    <row r="286" spans="1:7" ht="45">
       <c r="A286" s="42" t="s">
         <v>56</v>
       </c>
@@ -13625,10 +13628,12 @@
         <v>485</v>
       </c>
       <c r="E286" s="42"/>
-      <c r="F286" s="42"/>
+      <c r="F286" s="42" t="s">
+        <v>1126</v>
+      </c>
       <c r="G286" s="47"/>
     </row>
-    <row r="287" spans="1:7" ht="75">
+    <row r="287" spans="1:7" ht="30">
       <c r="A287" s="42" t="s">
         <v>56</v>
       </c>
@@ -13642,7 +13647,9 @@
         <v>488</v>
       </c>
       <c r="E287" s="42"/>
-      <c r="F287" s="42"/>
+      <c r="F287" s="42" t="s">
+        <v>1161</v>
+      </c>
       <c r="G287" s="47"/>
     </row>
     <row r="288" spans="1:7">
@@ -13675,7 +13682,7 @@
       <c r="F289" s="44"/>
       <c r="G289" s="44"/>
     </row>
-    <row r="290" spans="1:7" ht="75">
+    <row r="290" spans="1:7" ht="60">
       <c r="A290" s="42" t="s">
         <v>56</v>
       </c>
@@ -13711,7 +13718,7 @@
       <c r="F291" s="42"/>
       <c r="G291" s="47"/>
     </row>
-    <row r="292" spans="1:7" ht="30">
+    <row r="292" spans="1:7">
       <c r="A292" s="42" t="s">
         <v>56</v>
       </c>
@@ -13728,7 +13735,7 @@
       <c r="F292" s="42"/>
       <c r="G292" s="47"/>
     </row>
-    <row r="293" spans="1:7" ht="45">
+    <row r="293" spans="1:7">
       <c r="A293" s="42" t="s">
         <v>56</v>
       </c>
@@ -13762,7 +13769,7 @@
       <c r="F294" s="42"/>
       <c r="G294" s="47"/>
     </row>
-    <row r="295" spans="1:7" ht="30">
+    <row r="295" spans="1:7">
       <c r="A295" s="42" t="s">
         <v>56</v>
       </c>
@@ -13779,7 +13786,7 @@
       <c r="F295" s="42"/>
       <c r="G295" s="47"/>
     </row>
-    <row r="296" spans="1:7" ht="30">
+    <row r="296" spans="1:7">
       <c r="A296" s="42" t="s">
         <v>56</v>
       </c>
@@ -13796,7 +13803,7 @@
       <c r="F296" s="42"/>
       <c r="G296" s="47"/>
     </row>
-    <row r="297" spans="1:7" ht="45">
+    <row r="297" spans="1:7">
       <c r="A297" s="42" t="s">
         <v>56</v>
       </c>
@@ -13813,7 +13820,7 @@
       <c r="F297" s="42"/>
       <c r="G297" s="47"/>
     </row>
-    <row r="298" spans="1:7" ht="30">
+    <row r="298" spans="1:7">
       <c r="A298" s="42" t="s">
         <v>56</v>
       </c>
@@ -13830,7 +13837,7 @@
       <c r="F298" s="42"/>
       <c r="G298" s="47"/>
     </row>
-    <row r="299" spans="1:7" ht="45">
+    <row r="299" spans="1:7">
       <c r="A299" s="42" t="s">
         <v>56</v>
       </c>
@@ -13841,13 +13848,13 @@
         <v>473</v>
       </c>
       <c r="D299" s="42" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E299" s="42"/>
       <c r="F299" s="42"/>
       <c r="G299" s="47"/>
     </row>
-    <row r="300" spans="1:7" ht="60">
+    <row r="300" spans="1:7" ht="30">
       <c r="A300" s="42" t="s">
         <v>56</v>
       </c>
@@ -13864,7 +13871,7 @@
       <c r="F300" s="42"/>
       <c r="G300" s="47"/>
     </row>
-    <row r="301" spans="1:7" ht="75">
+    <row r="301" spans="1:7" ht="30">
       <c r="A301" s="42" t="s">
         <v>56</v>
       </c>
@@ -13881,7 +13888,7 @@
       <c r="F301" s="42"/>
       <c r="G301" s="42"/>
     </row>
-    <row r="302" spans="1:7" ht="90">
+    <row r="302" spans="1:7" ht="45">
       <c r="A302" s="42" t="s">
         <v>56</v>
       </c>
@@ -13898,7 +13905,7 @@
       <c r="F302" s="42"/>
       <c r="G302" s="47"/>
     </row>
-    <row r="303" spans="1:7" ht="105">
+    <row r="303" spans="1:7" ht="45">
       <c r="A303" s="42" t="s">
         <v>56</v>
       </c>
@@ -13915,7 +13922,7 @@
       <c r="F303" s="42"/>
       <c r="G303" s="42"/>
     </row>
-    <row r="304" spans="1:7" ht="105">
+    <row r="304" spans="1:7" ht="45">
       <c r="A304" s="42" t="s">
         <v>56</v>
       </c>
@@ -13929,10 +13936,12 @@
         <v>485</v>
       </c>
       <c r="E304" s="42"/>
-      <c r="F304" s="42"/>
+      <c r="F304" s="42" t="s">
+        <v>1126</v>
+      </c>
       <c r="G304" s="47"/>
     </row>
-    <row r="305" spans="1:7" ht="75">
+    <row r="305" spans="1:7" ht="30">
       <c r="A305" s="42" t="s">
         <v>56</v>
       </c>
@@ -13946,7 +13955,9 @@
         <v>488</v>
       </c>
       <c r="E305" s="42"/>
-      <c r="F305" s="42"/>
+      <c r="F305" s="42" t="s">
+        <v>1173</v>
+      </c>
       <c r="G305" s="47"/>
     </row>
     <row r="306" spans="1:7">
@@ -13979,7 +13990,7 @@
       <c r="F307" s="44"/>
       <c r="G307" s="44"/>
     </row>
-    <row r="308" spans="1:7" ht="45">
+    <row r="308" spans="1:7" ht="30">
       <c r="A308" s="42" t="s">
         <v>56</v>
       </c>
@@ -14011,7 +14022,7 @@
       <c r="F309" s="44"/>
       <c r="G309" s="44"/>
     </row>
-    <row r="310" spans="1:7" ht="45">
+    <row r="310" spans="1:7" ht="30">
       <c r="A310" s="42" t="s">
         <v>56</v>
       </c>
@@ -14030,7 +14041,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="30">
+    <row r="311" spans="1:7">
       <c r="A311" s="42" t="s">
         <v>56</v>
       </c>
@@ -14064,7 +14075,7 @@
       <c r="F312" s="42"/>
       <c r="G312" s="47"/>
     </row>
-    <row r="313" spans="1:7" ht="60">
+    <row r="313" spans="1:7" ht="30">
       <c r="A313" s="42" t="s">
         <v>56</v>
       </c>
@@ -14081,7 +14092,7 @@
       <c r="F313" s="42"/>
       <c r="G313" s="47"/>
     </row>
-    <row r="314" spans="1:7" ht="30">
+    <row r="314" spans="1:7">
       <c r="A314" s="42" t="s">
         <v>56</v>
       </c>
@@ -14115,7 +14126,7 @@
       <c r="F315" s="42"/>
       <c r="G315" s="47"/>
     </row>
-    <row r="316" spans="1:7" ht="105">
+    <row r="316" spans="1:7" ht="45">
       <c r="A316" s="42" t="s">
         <v>56</v>
       </c>
@@ -14162,7 +14173,7 @@
       <c r="F318" s="44"/>
       <c r="G318" s="52"/>
     </row>
-    <row r="319" spans="1:7" ht="75">
+    <row r="319" spans="1:7" ht="60">
       <c r="A319" s="42" t="s">
         <v>56</v>
       </c>
@@ -14198,7 +14209,7 @@
       <c r="F320" s="42"/>
       <c r="G320" s="42"/>
     </row>
-    <row r="321" spans="1:7" ht="30">
+    <row r="321" spans="1:7">
       <c r="A321" s="42" t="s">
         <v>56</v>
       </c>
@@ -14215,7 +14226,7 @@
       <c r="F321" s="42"/>
       <c r="G321" s="42"/>
     </row>
-    <row r="322" spans="1:7" ht="45">
+    <row r="322" spans="1:7">
       <c r="A322" s="42" t="s">
         <v>56</v>
       </c>
@@ -14249,7 +14260,7 @@
       <c r="F323" s="42"/>
       <c r="G323" s="42"/>
     </row>
-    <row r="324" spans="1:7" ht="30">
+    <row r="324" spans="1:7">
       <c r="A324" s="42" t="s">
         <v>56</v>
       </c>
@@ -14266,12 +14277,12 @@
       <c r="F324" s="42"/>
       <c r="G324" s="42"/>
     </row>
-    <row r="325" spans="1:7" ht="30">
+    <row r="325" spans="1:7">
       <c r="A325" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B325" s="42" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C325" s="42" t="s">
         <v>466</v>
@@ -14283,12 +14294,12 @@
       <c r="F325" s="42"/>
       <c r="G325" s="42"/>
     </row>
-    <row r="326" spans="1:7" ht="45">
+    <row r="326" spans="1:7">
       <c r="A326" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B326" s="42" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C326" s="42" t="s">
         <v>468</v>
@@ -14300,7 +14311,7 @@
       <c r="F326" s="42"/>
       <c r="G326" s="42"/>
     </row>
-    <row r="327" spans="1:7" ht="30">
+    <row r="327" spans="1:7">
       <c r="A327" s="42" t="s">
         <v>56</v>
       </c>
@@ -14317,7 +14328,7 @@
       <c r="F327" s="42"/>
       <c r="G327" s="42"/>
     </row>
-    <row r="328" spans="1:7" ht="45">
+    <row r="328" spans="1:7">
       <c r="A328" s="42" t="s">
         <v>56</v>
       </c>
@@ -14328,13 +14339,13 @@
         <v>473</v>
       </c>
       <c r="D328" s="42" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E328" s="42"/>
       <c r="F328" s="42"/>
       <c r="G328" s="42"/>
     </row>
-    <row r="329" spans="1:7" ht="60">
+    <row r="329" spans="1:7" ht="30">
       <c r="A329" s="42" t="s">
         <v>56</v>
       </c>
@@ -14351,7 +14362,7 @@
       <c r="F329" s="42"/>
       <c r="G329" s="42"/>
     </row>
-    <row r="330" spans="1:7" ht="75">
+    <row r="330" spans="1:7" ht="30">
       <c r="A330" s="42" t="s">
         <v>56</v>
       </c>
@@ -14368,7 +14379,7 @@
       <c r="F330" s="42"/>
       <c r="G330" s="42"/>
     </row>
-    <row r="331" spans="1:7" ht="90">
+    <row r="331" spans="1:7" ht="45">
       <c r="A331" s="42" t="s">
         <v>56</v>
       </c>
@@ -14385,7 +14396,7 @@
       <c r="F331" s="42"/>
       <c r="G331" s="42"/>
     </row>
-    <row r="332" spans="1:7" ht="105">
+    <row r="332" spans="1:7" ht="45">
       <c r="A332" s="42" t="s">
         <v>56</v>
       </c>
@@ -14402,12 +14413,12 @@
       <c r="F332" s="42"/>
       <c r="G332" s="42"/>
     </row>
-    <row r="333" spans="1:7" ht="105">
+    <row r="333" spans="1:7" ht="45">
       <c r="A333" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B333" s="42" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C333" s="42" t="s">
         <v>484</v>
@@ -14416,15 +14427,17 @@
         <v>485</v>
       </c>
       <c r="E333" s="42"/>
-      <c r="F333" s="42"/>
+      <c r="F333" s="42" t="s">
+        <v>1126</v>
+      </c>
       <c r="G333" s="42"/>
     </row>
-    <row r="334" spans="1:7" ht="75">
+    <row r="334" spans="1:7" ht="30">
       <c r="A334" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B334" s="42" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C334" s="42" t="s">
         <v>487</v>
@@ -14433,7 +14446,9 @@
         <v>488</v>
       </c>
       <c r="E334" s="42"/>
-      <c r="F334" s="42"/>
+      <c r="F334" s="42" t="s">
+        <v>1308</v>
+      </c>
       <c r="G334" s="42"/>
     </row>
     <row r="335" spans="1:7">
@@ -14441,7 +14456,7 @@
         <v>56</v>
       </c>
       <c r="B335" s="39" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C335" s="53" t="s">
         <v>40</v>
@@ -14481,7 +14496,7 @@
       <c r="F337" s="44"/>
       <c r="G337" s="52"/>
     </row>
-    <row r="338" spans="1:7" ht="120">
+    <row r="338" spans="1:7" ht="45">
       <c r="A338" s="42" t="s">
         <v>56</v>
       </c>
@@ -14495,10 +14510,10 @@
         <v>78.3</v>
       </c>
       <c r="E338" s="42" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F338" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G338" s="47" t="s">
         <v>1105</v>
@@ -14518,14 +14533,14 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E339" s="42" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F339" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G339" s="47"/>
     </row>
-    <row r="340" spans="1:7" ht="30">
+    <row r="340" spans="1:7">
       <c r="A340" s="42" t="s">
         <v>56</v>
       </c>
@@ -14533,14 +14548,14 @@
         <v>552</v>
       </c>
       <c r="C340" s="47" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D340" s="42">
         <v>78.099999999999994</v>
       </c>
       <c r="E340" s="42"/>
       <c r="F340" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G340" s="47"/>
     </row>
@@ -14574,7 +14589,7 @@
       </c>
       <c r="E342" s="42"/>
       <c r="F342" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G342" s="47" t="s">
         <v>1106</v>
@@ -14595,7 +14610,7 @@
       </c>
       <c r="E343" s="42"/>
       <c r="F343" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G343" s="47"/>
     </row>
@@ -14614,11 +14629,11 @@
       </c>
       <c r="E344" s="42"/>
       <c r="F344" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G344" s="42"/>
     </row>
-    <row r="345" spans="1:7" ht="45">
+    <row r="345" spans="1:7">
       <c r="A345" s="42" t="s">
         <v>56</v>
       </c>
@@ -14633,7 +14648,7 @@
       </c>
       <c r="E345" s="42"/>
       <c r="F345" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G345" s="47"/>
     </row>
@@ -14667,13 +14682,13 @@
       </c>
       <c r="E347" s="42"/>
       <c r="F347" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G347" s="47" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="30">
+    <row r="348" spans="1:7">
       <c r="A348" s="42" t="s">
         <v>56</v>
       </c>
@@ -14688,7 +14703,7 @@
       </c>
       <c r="E348" s="42"/>
       <c r="F348" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G348" s="47"/>
     </row>
@@ -14707,11 +14722,11 @@
       </c>
       <c r="E349" s="42"/>
       <c r="F349" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G349" s="47"/>
     </row>
-    <row r="350" spans="1:7" ht="45">
+    <row r="350" spans="1:7">
       <c r="A350" s="42" t="s">
         <v>56</v>
       </c>
@@ -14726,7 +14741,7 @@
       </c>
       <c r="E350" s="42"/>
       <c r="F350" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G350" s="47"/>
     </row>
@@ -14745,7 +14760,7 @@
       <c r="F351" s="44"/>
       <c r="G351" s="44"/>
     </row>
-    <row r="352" spans="1:7" ht="90">
+    <row r="352" spans="1:7" ht="30">
       <c r="A352" s="42" t="s">
         <v>56</v>
       </c>
@@ -14760,13 +14775,13 @@
       </c>
       <c r="E352" s="42"/>
       <c r="F352" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G352" s="47" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" ht="60">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" ht="30">
       <c r="A353" s="42" t="s">
         <v>56</v>
       </c>
@@ -14781,7 +14796,7 @@
       </c>
       <c r="E353" s="42"/>
       <c r="F353" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G353" s="47"/>
     </row>
@@ -14796,15 +14811,15 @@
         <v>592</v>
       </c>
       <c r="D354" s="42" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E354" s="42"/>
       <c r="F354" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G354" s="42"/>
     </row>
-    <row r="355" spans="1:7" ht="45">
+    <row r="355" spans="1:7">
       <c r="A355" s="42" t="s">
         <v>56</v>
       </c>
@@ -14819,11 +14834,11 @@
       </c>
       <c r="E355" s="42"/>
       <c r="F355" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G355" s="47"/>
     </row>
-    <row r="356" spans="1:7" ht="30">
+    <row r="356" spans="1:7">
       <c r="A356" s="42" t="s">
         <v>56</v>
       </c>
@@ -14838,7 +14853,7 @@
       </c>
       <c r="E356" s="42"/>
       <c r="F356" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G356" s="47"/>
     </row>
@@ -14872,7 +14887,7 @@
       </c>
       <c r="E358" s="42"/>
       <c r="F358" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G358" s="42" t="s">
         <v>1108</v>
@@ -14893,7 +14908,7 @@
       </c>
       <c r="E359" s="42"/>
       <c r="F359" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G359" s="42"/>
     </row>
@@ -14927,13 +14942,13 @@
       </c>
       <c r="E361" s="42"/>
       <c r="F361" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G361" s="47" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="30">
+    <row r="362" spans="1:7">
       <c r="A362" s="42" t="s">
         <v>56</v>
       </c>
@@ -14948,11 +14963,11 @@
       </c>
       <c r="E362" s="50"/>
       <c r="F362" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G362" s="47"/>
     </row>
-    <row r="363" spans="1:7" ht="30">
+    <row r="363" spans="1:7">
       <c r="A363" s="42" t="s">
         <v>56</v>
       </c>
@@ -14967,7 +14982,7 @@
       </c>
       <c r="E363" s="42"/>
       <c r="F363" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G363" s="47"/>
     </row>
@@ -14986,11 +15001,11 @@
       </c>
       <c r="E364" s="42"/>
       <c r="F364" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G364" s="47"/>
     </row>
-    <row r="365" spans="1:7" ht="30">
+    <row r="365" spans="1:7">
       <c r="A365" s="42" t="s">
         <v>56</v>
       </c>
@@ -15007,7 +15022,7 @@
         <v>616</v>
       </c>
       <c r="F365" s="42" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G365" s="42"/>
     </row>
@@ -15041,7 +15056,7 @@
       <c r="F367" s="44"/>
       <c r="G367" s="44"/>
     </row>
-    <row r="368" spans="1:7" ht="120">
+    <row r="368" spans="1:7" ht="45">
       <c r="A368" s="42" t="s">
         <v>56</v>
       </c>
@@ -15055,10 +15070,10 @@
         <v>1001</v>
       </c>
       <c r="E368" s="42" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F368" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G368" s="47" t="s">
         <v>1105</v>
@@ -15078,10 +15093,10 @@
         <v>998</v>
       </c>
       <c r="E369" s="42" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F369" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G369" s="47"/>
     </row>
@@ -15099,10 +15114,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E370" s="42" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F370" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G370" s="47"/>
     </row>
@@ -15151,13 +15166,13 @@
       </c>
       <c r="E373" s="42"/>
       <c r="F373" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G373" s="47" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="30">
+    <row r="374" spans="1:7">
       <c r="A374" s="42" t="s">
         <v>56</v>
       </c>
@@ -15172,11 +15187,11 @@
       </c>
       <c r="E374" s="42"/>
       <c r="F374" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G374" s="47"/>
     </row>
-    <row r="375" spans="1:7" ht="45">
+    <row r="375" spans="1:7">
       <c r="A375" s="42" t="s">
         <v>56</v>
       </c>
@@ -15191,11 +15206,11 @@
       </c>
       <c r="E375" s="42"/>
       <c r="F375" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G375" s="47"/>
     </row>
-    <row r="376" spans="1:7" ht="45">
+    <row r="376" spans="1:7">
       <c r="A376" s="42" t="s">
         <v>56</v>
       </c>
@@ -15210,11 +15225,11 @@
       </c>
       <c r="E376" s="42"/>
       <c r="F376" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G376" s="47"/>
     </row>
-    <row r="377" spans="1:7" ht="30">
+    <row r="377" spans="1:7">
       <c r="A377" s="42" t="s">
         <v>56</v>
       </c>
@@ -15229,11 +15244,11 @@
       </c>
       <c r="E377" s="42"/>
       <c r="F377" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G377" s="47"/>
     </row>
-    <row r="378" spans="1:7" ht="45">
+    <row r="378" spans="1:7" ht="30">
       <c r="A378" s="42" t="s">
         <v>56</v>
       </c>
@@ -15248,7 +15263,7 @@
       </c>
       <c r="E378" s="42"/>
       <c r="F378" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G378" s="47"/>
     </row>
@@ -15282,7 +15297,7 @@
       </c>
       <c r="E380" s="42"/>
       <c r="F380" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G380" s="47" t="s">
         <v>1108</v>
@@ -15302,10 +15317,10 @@
         <v>1063</v>
       </c>
       <c r="E381" s="42" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F381" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G381" s="42"/>
     </row>
@@ -15339,13 +15354,13 @@
       </c>
       <c r="E383" s="42"/>
       <c r="F383" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G383" s="47" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="30">
+    <row r="384" spans="1:7">
       <c r="A384" s="42" t="s">
         <v>56</v>
       </c>
@@ -15360,11 +15375,11 @@
       </c>
       <c r="E384" s="50"/>
       <c r="F384" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G384" s="47"/>
     </row>
-    <row r="385" spans="1:7" ht="30">
+    <row r="385" spans="1:7">
       <c r="A385" s="42" t="s">
         <v>56</v>
       </c>
@@ -15379,7 +15394,7 @@
       </c>
       <c r="E385" s="42"/>
       <c r="F385" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G385" s="47"/>
     </row>
@@ -15398,11 +15413,11 @@
       </c>
       <c r="E386" s="42"/>
       <c r="F386" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G386" s="42"/>
     </row>
-    <row r="387" spans="1:7" ht="30">
+    <row r="387" spans="1:7">
       <c r="A387" s="42" t="s">
         <v>56</v>
       </c>
@@ -15419,7 +15434,7 @@
         <v>616</v>
       </c>
       <c r="F387" s="42" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G387" s="42"/>
     </row>
@@ -15453,7 +15468,7 @@
       <c r="F389" s="44"/>
       <c r="G389" s="44"/>
     </row>
-    <row r="390" spans="1:7" ht="105">
+    <row r="390" spans="1:7" ht="45">
       <c r="A390" s="42" t="s">
         <v>56</v>
       </c>
@@ -15467,10 +15482,10 @@
         <v>78.3</v>
       </c>
       <c r="E390" s="42" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F390" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G390" s="47" t="s">
         <v>1105</v>
@@ -15490,10 +15505,10 @@
         <v>998</v>
       </c>
       <c r="E391" s="42" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F391" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G391" s="42"/>
     </row>
@@ -15511,10 +15526,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E392" s="42" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F392" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G392" s="47"/>
     </row>
@@ -15548,7 +15563,7 @@
       <c r="F394" s="44"/>
       <c r="G394" s="44"/>
     </row>
-    <row r="395" spans="1:7" ht="45">
+    <row r="395" spans="1:7" ht="30">
       <c r="A395" s="42" t="s">
         <v>56</v>
       </c>
@@ -15563,13 +15578,13 @@
       </c>
       <c r="E395" s="42"/>
       <c r="F395" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G395" s="47" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="45">
+    <row r="396" spans="1:7">
       <c r="A396" s="42" t="s">
         <v>56</v>
       </c>
@@ -15584,7 +15599,7 @@
       </c>
       <c r="E396" s="42"/>
       <c r="F396" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G396" s="47"/>
     </row>
@@ -15603,11 +15618,11 @@
       </c>
       <c r="E397" s="42"/>
       <c r="F397" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G397" s="47"/>
     </row>
-    <row r="398" spans="1:7" ht="45">
+    <row r="398" spans="1:7">
       <c r="A398" s="42" t="s">
         <v>56</v>
       </c>
@@ -15622,11 +15637,11 @@
       </c>
       <c r="E398" s="42"/>
       <c r="F398" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G398" s="47"/>
     </row>
-    <row r="399" spans="1:7" ht="30">
+    <row r="399" spans="1:7">
       <c r="A399" s="42" t="s">
         <v>56</v>
       </c>
@@ -15641,11 +15656,11 @@
       </c>
       <c r="E399" s="42"/>
       <c r="F399" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G399" s="47"/>
     </row>
-    <row r="400" spans="1:7" ht="45">
+    <row r="400" spans="1:7" ht="30">
       <c r="A400" s="42" t="s">
         <v>56</v>
       </c>
@@ -15660,7 +15675,7 @@
       </c>
       <c r="E400" s="42"/>
       <c r="F400" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G400" s="47"/>
     </row>
@@ -15694,7 +15709,7 @@
       </c>
       <c r="E402" s="42"/>
       <c r="F402" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G402" s="47" t="s">
         <v>1108</v>
@@ -15714,10 +15729,10 @@
         <v>1063</v>
       </c>
       <c r="E403" s="42" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F403" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G403" s="42"/>
     </row>
@@ -15751,13 +15766,13 @@
       </c>
       <c r="E405" s="42"/>
       <c r="F405" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G405" s="47" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="30">
+    <row r="406" spans="1:7">
       <c r="A406" s="42" t="s">
         <v>56</v>
       </c>
@@ -15772,11 +15787,11 @@
       </c>
       <c r="E406" s="50"/>
       <c r="F406" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G406" s="47"/>
     </row>
-    <row r="407" spans="1:7" ht="30">
+    <row r="407" spans="1:7">
       <c r="A407" s="42" t="s">
         <v>56</v>
       </c>
@@ -15791,7 +15806,7 @@
       </c>
       <c r="E407" s="42"/>
       <c r="F407" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G407" s="47"/>
     </row>
@@ -15810,11 +15825,11 @@
       </c>
       <c r="E408" s="42"/>
       <c r="F408" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G408" s="42"/>
     </row>
-    <row r="409" spans="1:7" ht="30">
+    <row r="409" spans="1:7">
       <c r="A409" s="42" t="s">
         <v>56</v>
       </c>
@@ -15831,7 +15846,7 @@
         <v>616</v>
       </c>
       <c r="F409" s="42" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G409" s="42"/>
     </row>
@@ -15865,7 +15880,7 @@
       <c r="F411" s="44"/>
       <c r="G411" s="44"/>
     </row>
-    <row r="412" spans="1:7" ht="105">
+    <row r="412" spans="1:7" ht="78.75">
       <c r="A412" s="42" t="s">
         <v>56</v>
       </c>
@@ -15879,10 +15894,10 @@
         <v>78.3</v>
       </c>
       <c r="E412" s="6" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F412" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G412" s="47" t="s">
         <v>1105</v>
@@ -15902,10 +15917,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E413" s="42" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F413" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G413" s="47"/>
     </row>
@@ -15923,10 +15938,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E414" s="42" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F414" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G414" s="47"/>
     </row>
@@ -15975,7 +15990,7 @@
       </c>
       <c r="E417" s="42"/>
       <c r="F417" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G417" s="42" t="s">
         <v>1112</v>
@@ -15996,7 +16011,7 @@
       </c>
       <c r="E418" s="42"/>
       <c r="F418" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G418" s="47"/>
     </row>
@@ -16015,11 +16030,11 @@
       </c>
       <c r="E419" s="42"/>
       <c r="F419" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G419" s="47"/>
     </row>
-    <row r="420" spans="1:7" ht="30">
+    <row r="420" spans="1:7">
       <c r="A420" s="42" t="s">
         <v>56</v>
       </c>
@@ -16034,7 +16049,7 @@
       </c>
       <c r="E420" s="42"/>
       <c r="F420" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G420" s="42"/>
     </row>
@@ -16053,7 +16068,7 @@
       <c r="F421" s="44"/>
       <c r="G421" s="44"/>
     </row>
-    <row r="422" spans="1:7" ht="30">
+    <row r="422" spans="1:7">
       <c r="A422" s="42" t="s">
         <v>56</v>
       </c>
@@ -16061,20 +16076,20 @@
         <v>695</v>
       </c>
       <c r="C422" s="61" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="D422" s="42" t="s">
         <v>1039</v>
       </c>
       <c r="E422" s="42"/>
       <c r="F422" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G422" s="42" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="30">
+    <row r="423" spans="1:7">
       <c r="A423" s="42" t="s">
         <v>56</v>
       </c>
@@ -16082,18 +16097,18 @@
         <v>698</v>
       </c>
       <c r="C423" s="61" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="D423" s="42" t="s">
         <v>697</v>
       </c>
       <c r="E423" s="42"/>
       <c r="F423" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G423" s="42"/>
     </row>
-    <row r="424" spans="1:7" ht="30">
+    <row r="424" spans="1:7">
       <c r="A424" s="42" t="s">
         <v>56</v>
       </c>
@@ -16108,7 +16123,7 @@
       </c>
       <c r="E424" s="42"/>
       <c r="F424" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G424" s="42"/>
     </row>
@@ -16142,7 +16157,7 @@
       </c>
       <c r="E426" s="42"/>
       <c r="F426" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G426" s="47" t="s">
         <v>1114</v>
@@ -16163,11 +16178,11 @@
       </c>
       <c r="E427" s="42"/>
       <c r="F427" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G427" s="47"/>
     </row>
-    <row r="428" spans="1:7" ht="30">
+    <row r="428" spans="1:7">
       <c r="A428" s="42" t="s">
         <v>56</v>
       </c>
@@ -16182,7 +16197,7 @@
       </c>
       <c r="E428" s="42"/>
       <c r="F428" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G428" s="47"/>
     </row>
@@ -16201,7 +16216,7 @@
       </c>
       <c r="E429" s="42"/>
       <c r="F429" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G429" s="42"/>
     </row>
@@ -16210,266 +16225,266 @@
         <v>56</v>
       </c>
       <c r="B430" s="42" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C430" s="47" t="s">
-        <v>579</v>
+        <v>666</v>
       </c>
       <c r="D430" s="42" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="E430" s="42"/>
       <c r="F430" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G430" s="47"/>
     </row>
-    <row r="431" spans="1:7" ht="45">
+    <row r="431" spans="1:7">
       <c r="A431" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B431" s="42" t="s">
-        <v>710</v>
-      </c>
-      <c r="C431" s="47" t="s">
-        <v>666</v>
-      </c>
-      <c r="D431" s="42" t="s">
-        <v>583</v>
-      </c>
-      <c r="E431" s="42"/>
+        <v>711</v>
+      </c>
+      <c r="C431" s="44" t="s">
+        <v>585</v>
+      </c>
+      <c r="D431" s="44"/>
+      <c r="E431" s="44"/>
       <c r="F431" s="42" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G431" s="47"/>
-    </row>
-    <row r="432" spans="1:7">
+        <v>1182</v>
+      </c>
+      <c r="G431" s="44"/>
+    </row>
+    <row r="432" spans="1:7" ht="30">
       <c r="A432" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B432" s="42" t="s">
-        <v>711</v>
-      </c>
-      <c r="C432" s="44" t="s">
-        <v>585</v>
-      </c>
-      <c r="D432" s="44"/>
-      <c r="E432" s="44"/>
+        <v>712</v>
+      </c>
+      <c r="C432" s="47" t="s">
+        <v>588</v>
+      </c>
+      <c r="D432" s="42" t="s">
+        <v>586</v>
+      </c>
+      <c r="E432" s="42"/>
       <c r="F432" s="42" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G432" s="44"/>
-    </row>
-    <row r="433" spans="1:7" ht="90">
+        <v>1182</v>
+      </c>
+      <c r="G432" s="47" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" ht="30">
       <c r="A433" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B433" s="42" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C433" s="47" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D433" s="42" t="s">
         <v>586</v>
       </c>
       <c r="E433" s="42"/>
       <c r="F433" s="42" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G433" s="47" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7" ht="60">
+        <v>1182</v>
+      </c>
+      <c r="G433" s="47"/>
+    </row>
+    <row r="434" spans="1:7">
       <c r="A434" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B434" s="42" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C434" s="47" t="s">
-        <v>590</v>
+        <v>715</v>
       </c>
       <c r="D434" s="42" t="s">
         <v>586</v>
       </c>
       <c r="E434" s="42"/>
       <c r="F434" s="42" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G434" s="47"/>
-    </row>
-    <row r="435" spans="1:7" ht="30">
+        <v>1182</v>
+      </c>
+      <c r="G434" s="47" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7">
       <c r="A435" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B435" s="42" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C435" s="47" t="s">
-        <v>715</v>
+        <v>668</v>
       </c>
       <c r="D435" s="42" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="E435" s="42"/>
       <c r="F435" s="42" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G435" s="47" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7" ht="30">
+        <v>1182</v>
+      </c>
+      <c r="G435" s="47"/>
+    </row>
+    <row r="436" spans="1:7">
       <c r="A436" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B436" s="42" t="s">
-        <v>716</v>
-      </c>
-      <c r="C436" s="47" t="s">
-        <v>668</v>
-      </c>
-      <c r="D436" s="42" t="s">
-        <v>598</v>
-      </c>
-      <c r="E436" s="42"/>
+        <v>717</v>
+      </c>
+      <c r="C436" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="D436" s="44"/>
+      <c r="E436" s="44"/>
       <c r="F436" s="42" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G436" s="47"/>
+        <v>1182</v>
+      </c>
+      <c r="G436" s="44"/>
     </row>
     <row r="437" spans="1:7">
       <c r="A437" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B437" s="42" t="s">
-        <v>717</v>
-      </c>
-      <c r="C437" s="44" t="s">
-        <v>600</v>
-      </c>
-      <c r="D437" s="44"/>
-      <c r="E437" s="44"/>
+        <v>718</v>
+      </c>
+      <c r="C437" s="47" t="s">
+        <v>602</v>
+      </c>
+      <c r="D437" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="E437" s="42"/>
       <c r="F437" s="42" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G437" s="44"/>
+        <v>1182</v>
+      </c>
+      <c r="G437" s="47" t="s">
+        <v>1108</v>
+      </c>
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B438" s="42" t="s">
-        <v>718</v>
-      </c>
-      <c r="C438" s="47" t="s">
-        <v>602</v>
+        <v>719</v>
+      </c>
+      <c r="C438" s="42" t="s">
+        <v>604</v>
       </c>
       <c r="D438" s="42" t="s">
-        <v>577</v>
-      </c>
-      <c r="E438" s="42"/>
+        <v>1063</v>
+      </c>
+      <c r="E438" s="42" t="s">
+        <v>1222</v>
+      </c>
       <c r="F438" s="42" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G438" s="47" t="s">
-        <v>1108</v>
-      </c>
+        <v>1182</v>
+      </c>
+      <c r="G438" s="42"/>
     </row>
     <row r="439" spans="1:7">
       <c r="A439" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B439" s="42" t="s">
-        <v>719</v>
-      </c>
-      <c r="C439" s="42" t="s">
-        <v>604</v>
-      </c>
-      <c r="D439" s="42" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E439" s="42" t="s">
-        <v>1223</v>
-      </c>
+        <v>720</v>
+      </c>
+      <c r="C439" s="44" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D439" s="44"/>
+      <c r="E439" s="44"/>
       <c r="F439" s="42" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G439" s="42"/>
+        <v>1182</v>
+      </c>
+      <c r="G439" s="44"/>
     </row>
     <row r="440" spans="1:7">
       <c r="A440" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B440" s="42" t="s">
-        <v>720</v>
-      </c>
-      <c r="C440" s="44" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D440" s="44"/>
-      <c r="E440" s="44"/>
+        <v>725</v>
+      </c>
+      <c r="C440" s="42" t="s">
+        <v>615</v>
+      </c>
+      <c r="D440" s="42" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E440" s="42" t="s">
+        <v>616</v>
+      </c>
       <c r="F440" s="42" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G440" s="44"/>
-    </row>
-    <row r="441" spans="1:7" ht="30">
+        <v>1182</v>
+      </c>
+      <c r="G440" s="42"/>
+    </row>
+    <row r="441" spans="1:7">
       <c r="A441" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B441" s="42" t="s">
-        <v>725</v>
-      </c>
-      <c r="C441" s="42" t="s">
-        <v>615</v>
-      </c>
-      <c r="D441" s="42" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E441" s="42" t="s">
-        <v>616</v>
-      </c>
+      <c r="B441" s="42">
+        <v>11.5</v>
+      </c>
+      <c r="C441" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D441" s="44"/>
+      <c r="E441" s="44"/>
       <c r="F441" s="42" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G441" s="42"/>
+        <v>1182</v>
+      </c>
+      <c r="G441" s="41"/>
     </row>
     <row r="442" spans="1:7">
       <c r="A442" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B442" s="42">
-        <v>11.5</v>
-      </c>
-      <c r="C442" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D442" s="44"/>
-      <c r="E442" s="44"/>
+      <c r="B442" s="42" t="s">
+        <v>726</v>
+      </c>
+      <c r="C442" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D442" s="42"/>
+      <c r="E442" s="47" t="s">
+        <v>268</v>
+      </c>
       <c r="F442" s="42" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G442" s="41"/>
+        <v>1182</v>
+      </c>
+      <c r="G442" s="47"/>
     </row>
     <row r="443" spans="1:7">
       <c r="A443" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B443" s="42" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C443" s="47" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D443" s="42"/>
       <c r="E443" s="47" t="s">
         <v>268</v>
       </c>
       <c r="F443" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G443" s="47"/>
     </row>
@@ -16478,17 +16493,17 @@
         <v>56</v>
       </c>
       <c r="B444" s="42" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C444" s="47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D444" s="42"/>
       <c r="E444" s="47" t="s">
         <v>268</v>
       </c>
       <c r="F444" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G444" s="47"/>
     </row>
@@ -16496,54 +16511,54 @@
       <c r="A445" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B445" s="42" t="s">
-        <v>728</v>
-      </c>
-      <c r="C445" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="D445" s="42"/>
-      <c r="E445" s="47" t="s">
-        <v>268</v>
-      </c>
+      <c r="B445" s="42">
+        <v>11.6</v>
+      </c>
+      <c r="C445" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D445" s="44"/>
+      <c r="E445" s="41"/>
       <c r="F445" s="42" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G445" s="47"/>
+        <v>1182</v>
+      </c>
+      <c r="G445" s="41"/>
     </row>
     <row r="446" spans="1:7">
       <c r="A446" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B446" s="42">
-        <v>11.6</v>
-      </c>
-      <c r="C446" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D446" s="44"/>
-      <c r="E446" s="41"/>
+      <c r="B446" s="42" t="s">
+        <v>729</v>
+      </c>
+      <c r="C446" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D446" s="42"/>
+      <c r="E446" s="47" t="s">
+        <v>268</v>
+      </c>
       <c r="F446" s="42" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G446" s="41"/>
+        <v>1182</v>
+      </c>
+      <c r="G446" s="47"/>
     </row>
     <row r="447" spans="1:7">
       <c r="A447" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B447" s="42" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C447" s="47" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D447" s="42"/>
       <c r="E447" s="47" t="s">
         <v>268</v>
       </c>
       <c r="F447" s="42" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G447" s="47"/>
     </row>
@@ -16551,439 +16566,420 @@
       <c r="A448" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B448" s="42" t="s">
-        <v>730</v>
-      </c>
-      <c r="C448" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D448" s="42"/>
-      <c r="E448" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="F448" s="42" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G448" s="47"/>
+      <c r="B448" s="42">
+        <v>11.7</v>
+      </c>
+      <c r="C448" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D448" s="44"/>
+      <c r="E448" s="44"/>
+      <c r="F448" s="44"/>
+      <c r="G448" s="41"/>
     </row>
     <row r="449" spans="1:7">
       <c r="A449" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B449" s="42">
-        <v>11.7</v>
-      </c>
-      <c r="C449" s="41" t="s">
-        <v>51</v>
+      <c r="B449" s="42" t="s">
+        <v>731</v>
+      </c>
+      <c r="C449" s="44" t="s">
+        <v>42</v>
       </c>
       <c r="D449" s="44"/>
       <c r="E449" s="44"/>
       <c r="F449" s="44"/>
-      <c r="G449" s="41"/>
-    </row>
-    <row r="450" spans="1:7">
+      <c r="G449" s="44"/>
+    </row>
+    <row r="450" spans="1:7" ht="45">
       <c r="A450" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B450" s="42" t="s">
-        <v>731</v>
-      </c>
-      <c r="C450" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D450" s="44"/>
-      <c r="E450" s="44"/>
-      <c r="F450" s="44"/>
-      <c r="G450" s="44"/>
-    </row>
-    <row r="451" spans="1:7" ht="105">
+        <v>732</v>
+      </c>
+      <c r="C450" s="47" t="s">
+        <v>651</v>
+      </c>
+      <c r="D450" s="42">
+        <v>78.3</v>
+      </c>
+      <c r="E450" s="42"/>
+      <c r="F450" s="42" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G450" s="47" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7">
       <c r="A451" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B451" s="42" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C451" s="47" t="s">
-        <v>651</v>
+        <v>682</v>
       </c>
       <c r="D451" s="42">
-        <v>78.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="E451" s="42"/>
       <c r="F451" s="42" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G451" s="47" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7" ht="30">
+        <v>1126</v>
+      </c>
+      <c r="G451" s="47"/>
+    </row>
+    <row r="452" spans="1:7">
       <c r="A452" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B452" s="42" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C452" s="47" t="s">
-        <v>682</v>
+        <v>655</v>
       </c>
       <c r="D452" s="42">
         <v>78.099999999999994</v>
       </c>
       <c r="E452" s="42"/>
       <c r="F452" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G452" s="47"/>
     </row>
-    <row r="453" spans="1:7" ht="30">
+    <row r="453" spans="1:7">
       <c r="A453" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B453" s="42" t="s">
-        <v>734</v>
-      </c>
-      <c r="C453" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="D453" s="42">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E453" s="42"/>
-      <c r="F453" s="42" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G453" s="47"/>
+        <v>735</v>
+      </c>
+      <c r="C453" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D453" s="44"/>
+      <c r="E453" s="44"/>
+      <c r="F453" s="44"/>
+      <c r="G453" s="44"/>
     </row>
     <row r="454" spans="1:7">
       <c r="A454" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B454" s="42" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C454" s="44" t="s">
-        <v>43</v>
+        <v>624</v>
       </c>
       <c r="D454" s="44"/>
       <c r="E454" s="44"/>
       <c r="F454" s="44"/>
       <c r="G454" s="44"/>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" ht="30">
       <c r="A455" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B455" s="42" t="s">
-        <v>736</v>
-      </c>
-      <c r="C455" s="44" t="s">
-        <v>624</v>
-      </c>
-      <c r="D455" s="44"/>
-      <c r="E455" s="44"/>
-      <c r="F455" s="44"/>
-      <c r="G455" s="44"/>
-    </row>
-    <row r="456" spans="1:7" ht="30">
+        <v>737</v>
+      </c>
+      <c r="C455" s="47" t="s">
+        <v>738</v>
+      </c>
+      <c r="D455" s="42" t="s">
+        <v>557</v>
+      </c>
+      <c r="E455" s="42"/>
+      <c r="F455" s="42" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G455" s="47" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7">
       <c r="A456" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B456" s="42" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C456" s="47" t="s">
-        <v>738</v>
+        <v>690</v>
       </c>
       <c r="D456" s="42" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E456" s="42"/>
       <c r="F456" s="42" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G456" s="47" t="s">
-        <v>1116</v>
-      </c>
+        <v>1126</v>
+      </c>
+      <c r="G456" s="47"/>
     </row>
     <row r="457" spans="1:7">
       <c r="A457" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B457" s="42" t="s">
-        <v>739</v>
-      </c>
-      <c r="C457" s="47" t="s">
-        <v>690</v>
+        <v>740</v>
+      </c>
+      <c r="C457" s="42" t="s">
+        <v>741</v>
       </c>
       <c r="D457" s="42" t="s">
-        <v>560</v>
+        <v>1065</v>
       </c>
       <c r="E457" s="42"/>
       <c r="F457" s="42" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G457" s="47"/>
-    </row>
-    <row r="458" spans="1:7" ht="30">
+        <v>1126</v>
+      </c>
+      <c r="G457" s="42"/>
+    </row>
+    <row r="458" spans="1:7">
       <c r="A458" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B458" s="42" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C458" s="42" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D458" s="42" t="s">
-        <v>1065</v>
+        <v>598</v>
       </c>
       <c r="E458" s="42"/>
       <c r="F458" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G458" s="42"/>
     </row>
-    <row r="459" spans="1:7" ht="45">
+    <row r="459" spans="1:7">
       <c r="A459" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B459" s="42" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C459" s="42" t="s">
-        <v>743</v>
-      </c>
-      <c r="D459" s="42" t="s">
-        <v>598</v>
-      </c>
+        <v>1080</v>
+      </c>
+      <c r="D459" s="42"/>
       <c r="E459" s="42"/>
       <c r="F459" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G459" s="42"/>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" ht="30">
       <c r="A460" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B460" s="42" t="s">
-        <v>744</v>
+        <v>1081</v>
       </c>
       <c r="C460" s="42" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D460" s="42"/>
+        <v>745</v>
+      </c>
+      <c r="D460" s="42" t="s">
+        <v>566</v>
+      </c>
       <c r="E460" s="42"/>
       <c r="F460" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G460" s="42"/>
     </row>
-    <row r="461" spans="1:7" ht="60">
+    <row r="461" spans="1:7">
       <c r="A461" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B461" s="42" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C461" s="42" t="s">
-        <v>745</v>
+        <v>1079</v>
       </c>
       <c r="D461" s="42" t="s">
-        <v>566</v>
+        <v>700</v>
       </c>
       <c r="E461" s="42"/>
       <c r="F461" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G461" s="42"/>
     </row>
-    <row r="462" spans="1:7" ht="30">
+    <row r="462" spans="1:7">
       <c r="A462" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B462" s="42" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C462" s="42" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D462" s="42" t="s">
-        <v>700</v>
-      </c>
-      <c r="E462" s="42"/>
-      <c r="F462" s="42" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G462" s="42"/>
+        <v>747</v>
+      </c>
+      <c r="C462" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="D462" s="44"/>
+      <c r="E462" s="44"/>
+      <c r="F462" s="44"/>
+      <c r="G462" s="44"/>
     </row>
     <row r="463" spans="1:7">
       <c r="A463" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B463" s="42" t="s">
-        <v>747</v>
-      </c>
-      <c r="C463" s="44" t="s">
-        <v>600</v>
-      </c>
-      <c r="D463" s="44"/>
-      <c r="E463" s="44"/>
-      <c r="F463" s="44"/>
-      <c r="G463" s="44"/>
+        <v>748</v>
+      </c>
+      <c r="C463" s="47" t="s">
+        <v>602</v>
+      </c>
+      <c r="D463" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="E463" s="42"/>
+      <c r="F463" s="42" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G463" s="47" t="s">
+        <v>1108</v>
+      </c>
     </row>
     <row r="464" spans="1:7">
       <c r="A464" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B464" s="42" t="s">
-        <v>748</v>
-      </c>
-      <c r="C464" s="47" t="s">
-        <v>602</v>
+        <v>749</v>
+      </c>
+      <c r="C464" s="42" t="s">
+        <v>604</v>
       </c>
       <c r="D464" s="42" t="s">
-        <v>577</v>
+        <v>1063</v>
       </c>
       <c r="E464" s="42"/>
       <c r="F464" s="42" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G464" s="47" t="s">
-        <v>1108</v>
-      </c>
+        <v>1126</v>
+      </c>
+      <c r="G464" s="42"/>
     </row>
     <row r="465" spans="1:7">
       <c r="A465" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B465" s="42" t="s">
-        <v>749</v>
-      </c>
-      <c r="C465" s="42" t="s">
-        <v>604</v>
-      </c>
-      <c r="D465" s="42" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E465" s="42"/>
-      <c r="F465" s="42" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G465" s="42"/>
-    </row>
-    <row r="466" spans="1:7">
+        <v>750</v>
+      </c>
+      <c r="C465" s="44" t="s">
+        <v>606</v>
+      </c>
+      <c r="D465" s="44"/>
+      <c r="E465" s="44"/>
+      <c r="F465" s="44"/>
+      <c r="G465" s="44"/>
+    </row>
+    <row r="466" spans="1:7" ht="30">
       <c r="A466" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B466" s="42" t="s">
-        <v>750</v>
-      </c>
-      <c r="C466" s="44" t="s">
-        <v>606</v>
-      </c>
-      <c r="D466" s="44"/>
-      <c r="E466" s="44"/>
-      <c r="F466" s="44"/>
-      <c r="G466" s="44"/>
-    </row>
-    <row r="467" spans="1:7" ht="30">
+        <v>751</v>
+      </c>
+      <c r="C466" s="47" t="s">
+        <v>570</v>
+      </c>
+      <c r="D466" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="E466" s="42"/>
+      <c r="F466" s="42" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G466" s="47" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7">
       <c r="A467" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B467" s="42" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C467" s="47" t="s">
-        <v>570</v>
+        <v>645</v>
       </c>
       <c r="D467" s="42" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="E467" s="42"/>
       <c r="F467" s="42" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G467" s="47" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="468" spans="1:7" ht="30">
+        <v>1126</v>
+      </c>
+      <c r="G467" s="47"/>
+    </row>
+    <row r="468" spans="1:7">
       <c r="A468" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B468" s="42" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C468" s="47" t="s">
-        <v>645</v>
+        <v>611</v>
       </c>
       <c r="D468" s="42" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E468" s="42"/>
       <c r="F468" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G468" s="47"/>
     </row>
-    <row r="469" spans="1:7" ht="30">
+    <row r="469" spans="1:7">
       <c r="A469" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B469" s="42" t="s">
-        <v>753</v>
-      </c>
-      <c r="C469" s="47" t="s">
-        <v>611</v>
+        <v>754</v>
+      </c>
+      <c r="C469" s="42" t="s">
+        <v>613</v>
       </c>
       <c r="D469" s="42" t="s">
-        <v>577</v>
+        <v>1066</v>
       </c>
       <c r="E469" s="42"/>
       <c r="F469" s="42" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G469" s="47"/>
+        <v>1126</v>
+      </c>
+      <c r="G469" s="42"/>
     </row>
     <row r="470" spans="1:7">
       <c r="A470" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B470" s="42" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C470" s="42" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D470" s="42" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E470" s="42"/>
       <c r="F470" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G470" s="42"/>
-    </row>
-    <row r="471" spans="1:7" ht="30">
-      <c r="A471" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B471" s="42" t="s">
-        <v>755</v>
-      </c>
-      <c r="C471" s="42" t="s">
-        <v>615</v>
-      </c>
-      <c r="D471" s="42" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E471" s="42"/>
-      <c r="F471" s="42" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G471" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -16996,7 +16992,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -17083,9 +17081,7 @@
       <c r="D4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>756</v>
-      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="3" t="s">
         <v>764</v>
       </c>
@@ -17143,7 +17139,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -17481,7 +17477,7 @@
         <v>120</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>764</v>
@@ -17919,7 +17915,7 @@
         <v>829</v>
       </c>
       <c r="D40" s="57" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
@@ -17938,7 +17934,7 @@
         <v>830</v>
       </c>
       <c r="D41" s="56" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
@@ -17967,16 +17963,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="58" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B43" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C43" s="58" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D43" s="58" t="s">
         <v>1229</v>
-      </c>
-      <c r="D43" s="58" t="s">
-        <v>1230</v>
       </c>
       <c r="E43" s="58"/>
       <c r="F43" s="58" t="s">
@@ -17986,16 +17982,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="58" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B44" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C44" s="58" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D44" s="58" t="s">
         <v>1231</v>
-      </c>
-      <c r="D44" s="58" t="s">
-        <v>1232</v>
       </c>
       <c r="E44" s="58"/>
       <c r="F44" s="58" t="s">
@@ -18005,16 +18001,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="58" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B45" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C45" s="58" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D45" s="58" t="s">
         <v>1233</v>
-      </c>
-      <c r="D45" s="58" t="s">
-        <v>1234</v>
       </c>
       <c r="E45" s="58"/>
       <c r="F45" s="58" t="s">
@@ -18024,16 +18020,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="58" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B46" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C46" s="58" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D46" s="58" t="s">
         <v>1235</v>
-      </c>
-      <c r="D46" s="58" t="s">
-        <v>1236</v>
       </c>
       <c r="E46" s="58"/>
       <c r="F46" s="58" t="s">
@@ -18043,16 +18039,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="58" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B47" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C47" s="58" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D47" s="58" t="s">
         <v>1237</v>
-      </c>
-      <c r="D47" s="58" t="s">
-        <v>1238</v>
       </c>
       <c r="E47" s="58"/>
       <c r="F47" s="58" t="s">
@@ -18062,16 +18058,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="58" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B48" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C48" s="58" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D48" s="58" t="s">
         <v>1239</v>
-      </c>
-      <c r="D48" s="58" t="s">
-        <v>1240</v>
       </c>
       <c r="E48" s="58"/>
       <c r="F48" s="58" t="s">
@@ -18081,16 +18077,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="58" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B49" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C49" s="58" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D49" s="58" t="s">
         <v>1241</v>
-      </c>
-      <c r="D49" s="58" t="s">
-        <v>1242</v>
       </c>
       <c r="E49" s="58"/>
       <c r="F49" s="58" t="s">
@@ -18100,16 +18096,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="58" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B50" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C50" s="58" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D50" s="58" t="s">
         <v>1243</v>
-      </c>
-      <c r="D50" s="58" t="s">
-        <v>1244</v>
       </c>
       <c r="E50" s="58"/>
       <c r="F50" s="58" t="s">
@@ -18119,16 +18115,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="58" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B51" s="58" t="s">
         <v>787</v>
       </c>
       <c r="C51" s="58" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D51" s="58" t="s">
         <v>1245</v>
-      </c>
-      <c r="D51" s="58" t="s">
-        <v>1246</v>
       </c>
       <c r="E51" s="58"/>
       <c r="F51" s="58" t="s">
@@ -18138,16 +18134,16 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="58" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B52" s="58" t="s">
         <v>813</v>
       </c>
       <c r="C52" s="58" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D52" s="58" t="s">
         <v>1247</v>
-      </c>
-      <c r="D52" s="58" t="s">
-        <v>1248</v>
       </c>
       <c r="E52" s="58"/>
       <c r="F52" s="58" t="s">
@@ -18157,16 +18153,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="58" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B53" s="58" t="s">
         <v>813</v>
       </c>
       <c r="C53" s="58" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D53" s="58" t="s">
         <v>1249</v>
-      </c>
-      <c r="D53" s="58" t="s">
-        <v>1250</v>
       </c>
       <c r="E53" s="58"/>
       <c r="F53" s="58" t="s">
@@ -18176,16 +18172,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="58" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B54" s="58" t="s">
         <v>821</v>
       </c>
       <c r="C54" s="58" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D54" s="58" t="s">
         <v>1251</v>
-      </c>
-      <c r="D54" s="58" t="s">
-        <v>1252</v>
       </c>
       <c r="E54" s="58"/>
       <c r="F54" s="58" t="s">
@@ -18195,16 +18191,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="58" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B55" s="58" t="s">
         <v>1053</v>
       </c>
       <c r="C55" s="58" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D55" s="58" t="s">
         <v>1253</v>
-      </c>
-      <c r="D55" s="58" t="s">
-        <v>1254</v>
       </c>
       <c r="E55" s="58"/>
       <c r="F55" s="58" t="s">
@@ -18544,7 +18540,7 @@
         <v>837</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
@@ -19665,16 +19661,16 @@
     </row>
     <row r="50" spans="1:256">
       <c r="A50" s="57" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>834</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
   </sheetData>
@@ -19691,8 +19687,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -19959,7 +19955,7 @@
         <v>764</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="31.5" customHeight="1">
@@ -19995,13 +19991,13 @@
         <v>984</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>1256</v>
+        <v>1309</v>
       </c>
       <c r="F15" s="55" t="s">
         <v>764</v>
       </c>
       <c r="G15" s="55" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="47.25" customHeight="1">
@@ -20037,13 +20033,13 @@
         <v>988</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="F17" s="55" t="s">
         <v>764</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1">
@@ -20160,16 +20156,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="58" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C24" s="58" t="s">
         <v>1260</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="D24" s="58" t="s">
         <v>1261</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>1263</v>
       </c>
       <c r="E24" s="58"/>
       <c r="F24" s="58"/>
@@ -20177,16 +20173,16 @@
     </row>
     <row r="25" spans="1:7" ht="45">
       <c r="A25" s="58" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E25" s="58"/>
       <c r="F25" s="58"/>
@@ -20194,16 +20190,16 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="58" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D26" s="58" t="s">
         <v>1266</v>
-      </c>
-      <c r="B26" s="58" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D26" s="58" t="s">
-        <v>1268</v>
       </c>
       <c r="E26" s="58"/>
       <c r="F26" s="58"/>
@@ -20211,16 +20207,16 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="58" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D27" s="58" t="s">
         <v>1269</v>
-      </c>
-      <c r="B27" s="58" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>1270</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>1271</v>
       </c>
       <c r="E27" s="58"/>
       <c r="F27" s="58"/>
@@ -20228,16 +20224,16 @@
     </row>
     <row r="28" spans="1:7" ht="30">
       <c r="A28" s="58" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D28" s="58" t="s">
         <v>1272</v>
-      </c>
-      <c r="B28" s="58" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>1274</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="58"/>
@@ -20245,16 +20241,16 @@
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" s="58" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D29" s="58" t="s">
         <v>1275</v>
-      </c>
-      <c r="B29" s="58" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D29" s="58" t="s">
-        <v>1277</v>
       </c>
       <c r="E29" s="58"/>
       <c r="F29" s="58"/>
@@ -20262,16 +20258,16 @@
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="58" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D30" s="58" t="s">
         <v>1278</v>
-      </c>
-      <c r="B30" s="58" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C30" s="58" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>1280</v>
       </c>
       <c r="E30" s="58"/>
       <c r="F30" s="58"/>
@@ -20344,13 +20340,13 @@
         <v>998</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="C2" s="54" t="s">
         <v>999</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="E2" s="62"/>
       <c r="F2" s="57" t="s">
@@ -20364,16 +20360,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="55" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="C3" s="55" t="s">
         <v>1000</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="E3" s="63"/>
       <c r="F3" s="6" t="s">
@@ -20390,13 +20386,13 @@
         <v>1001</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="C4" s="55" t="s">
         <v>1002</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="6" t="s">
@@ -20422,7 +20418,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -20819,13 +20817,13 @@
         <v>1016</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>1118</v>
+        <v>1306</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G7" s="57" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.5" customHeight="1">
@@ -20959,14 +20957,12 @@
       <c r="D14" s="6" t="s">
         <v>1029</v>
       </c>
-      <c r="E14" s="60" t="s">
-        <v>1288</v>
-      </c>
+      <c r="E14" s="60"/>
       <c r="F14" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="31.5" customHeight="1">
@@ -21059,13 +21055,13 @@
         <v>1041</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>764</v>
       </c>
       <c r="G19" s="57" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="20" spans="1:256" ht="17.100000000000001" customHeight="1">
@@ -21124,13 +21120,13 @@
         <v>1050</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>783</v>
       </c>
       <c r="G22" s="57" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="23" spans="1:256" s="36" customFormat="1" ht="31.5">
@@ -21678,7 +21674,9 @@
       <c r="D25" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="E25" s="30"/>
+      <c r="E25" s="30" t="s">
+        <v>1307</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="35"/>
@@ -22767,13 +22765,13 @@
     </row>
     <row r="2" spans="1:256" ht="31.5">
       <c r="A2" s="56" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="D2" s="56" t="s">
         <v>1051</v>
@@ -22788,19 +22786,19 @@
     </row>
     <row r="3" spans="1:256" ht="31.5">
       <c r="A3" s="56" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="B3" s="56" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>1289</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1292</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>1051</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>783</v>
@@ -22809,19 +22807,19 @@
     </row>
     <row r="4" spans="1:256" ht="31.5">
       <c r="A4" s="6" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>1051</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>783</v>

--- a/conformancelib/testdata/85b_test_definitions_PIV-I_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV-I_ICAM_Test_Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GSA\GSA_GIT\piv-conformance-pkix-11\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5FA58C-26C1-4EDA-A841-E0CC8AE0DBD5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378C23EE-74D1-41F8-9082-9AECB9754E80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3766" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3757" uniqueCount="1310">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -8500,10 +8500,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G470"/>
+  <dimension ref="A1:G467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:XFD430"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A213" sqref="A213:XFD213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -11767,18 +11767,18 @@
       <c r="F176" s="42"/>
       <c r="G176" s="42"/>
     </row>
-    <row r="177" spans="1:7" ht="30">
+    <row r="177" spans="1:7">
       <c r="A177" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B177" s="42" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C177" s="42" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D177" s="42">
-        <v>76.45</v>
+        <v>76.459999999999994</v>
       </c>
       <c r="E177" s="42"/>
       <c r="F177" s="42"/>
@@ -11788,80 +11788,80 @@
       <c r="A178" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B178" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="C178" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="D178" s="42">
-        <v>76.459999999999994</v>
-      </c>
-      <c r="E178" s="42"/>
-      <c r="F178" s="42"/>
-      <c r="G178" s="42"/>
+      <c r="B178" s="42">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C178" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D178" s="44"/>
+      <c r="E178" s="44"/>
+      <c r="F178" s="44"/>
+      <c r="G178" s="45"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B179" s="42">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C179" s="45" t="s">
-        <v>23</v>
+      <c r="B179" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="C179" s="44" t="s">
+        <v>24</v>
       </c>
       <c r="D179" s="44"/>
       <c r="E179" s="44"/>
       <c r="F179" s="44"/>
-      <c r="G179" s="45"/>
+      <c r="G179" s="44"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B180" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="C180" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D180" s="44"/>
-      <c r="E180" s="44"/>
-      <c r="F180" s="44"/>
-      <c r="G180" s="44"/>
+        <v>309</v>
+      </c>
+      <c r="C180" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="D180" s="42">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="E180" s="42"/>
+      <c r="F180" s="42"/>
+      <c r="G180" s="42" t="s">
+        <v>1097</v>
+      </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B181" s="42" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C181" s="42" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D181" s="42">
-        <v>76.099999999999994</v>
+        <v>76.2</v>
       </c>
       <c r="E181" s="42"/>
       <c r="F181" s="42"/>
-      <c r="G181" s="42" t="s">
-        <v>1097</v>
-      </c>
+      <c r="G181" s="42"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B182" s="42" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C182" s="42" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D182" s="42">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="E182" s="42"/>
       <c r="F182" s="42"/>
@@ -11872,13 +11872,13 @@
         <v>56</v>
       </c>
       <c r="B183" s="42" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C183" s="42" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D183" s="42">
-        <v>76.3</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E183" s="42"/>
       <c r="F183" s="42"/>
@@ -11889,115 +11889,115 @@
         <v>56</v>
       </c>
       <c r="B184" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C184" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="D184" s="42">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="E184" s="42"/>
-      <c r="F184" s="42"/>
-      <c r="G184" s="42"/>
-    </row>
-    <row r="185" spans="1:7">
+        <v>313</v>
+      </c>
+      <c r="C184" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D184" s="44"/>
+      <c r="E184" s="44"/>
+      <c r="F184" s="44"/>
+      <c r="G184" s="44"/>
+    </row>
+    <row r="185" spans="1:7" ht="45">
       <c r="A185" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B185" s="42" t="s">
-        <v>313</v>
-      </c>
-      <c r="C185" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="D185" s="44"/>
-      <c r="E185" s="44"/>
-      <c r="F185" s="44"/>
-      <c r="G185" s="44"/>
-    </row>
-    <row r="186" spans="1:7" ht="45">
+        <v>314</v>
+      </c>
+      <c r="C185" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="D185" s="42">
+        <v>76.5</v>
+      </c>
+      <c r="E185" s="42"/>
+      <c r="F185" s="42"/>
+      <c r="G185" s="42" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B186" s="42" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C186" s="42" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D186" s="42">
-        <v>76.5</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="E186" s="42"/>
       <c r="F186" s="42"/>
-      <c r="G186" s="42" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+      <c r="G186" s="42"/>
+    </row>
+    <row r="187" spans="1:7" ht="30">
       <c r="A187" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B187" s="42" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C187" s="42" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D187" s="42">
-        <v>76.599999999999994</v>
+        <v>76.7</v>
       </c>
       <c r="E187" s="42"/>
       <c r="F187" s="42"/>
       <c r="G187" s="42"/>
     </row>
-    <row r="188" spans="1:7" ht="30">
+    <row r="188" spans="1:7">
       <c r="A188" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B188" s="42" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C188" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="D188" s="42">
-        <v>76.7</v>
+        <v>1075</v>
+      </c>
+      <c r="D188" s="42" t="s">
+        <v>923</v>
       </c>
       <c r="E188" s="42"/>
       <c r="F188" s="42"/>
       <c r="G188" s="42"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" ht="30">
       <c r="A189" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B189" s="42" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C189" s="42" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D189" s="42" t="s">
-        <v>923</v>
+        <v>293</v>
+      </c>
+      <c r="D189" s="42">
+        <v>76.39</v>
       </c>
       <c r="E189" s="42"/>
       <c r="F189" s="42"/>
       <c r="G189" s="42"/>
     </row>
-    <row r="190" spans="1:7" ht="30">
+    <row r="190" spans="1:7">
       <c r="A190" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B190" s="42" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C190" s="42" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D190" s="42">
-        <v>76.39</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E190" s="42"/>
       <c r="F190" s="42"/>
@@ -12008,181 +12008,181 @@
         <v>56</v>
       </c>
       <c r="B191" s="42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C191" s="42" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="D191" s="42">
-        <v>76.400000000000006</v>
+        <v>76.41</v>
       </c>
       <c r="E191" s="42"/>
       <c r="F191" s="42"/>
       <c r="G191" s="42"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" ht="30">
       <c r="A192" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B192" s="42" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C192" s="42" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D192" s="42">
-        <v>76.41</v>
+        <v>76.42</v>
       </c>
       <c r="E192" s="42"/>
       <c r="F192" s="42"/>
       <c r="G192" s="42"/>
     </row>
-    <row r="193" spans="1:7" ht="30">
+    <row r="193" spans="1:7">
       <c r="A193" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B193" s="42" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C193" s="42" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D193" s="42">
-        <v>76.42</v>
+        <v>76.430000000000007</v>
       </c>
       <c r="E193" s="42"/>
       <c r="F193" s="42"/>
       <c r="G193" s="42"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" ht="30">
       <c r="A194" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B194" s="42" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C194" s="42" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="D194" s="42">
-        <v>76.430000000000007</v>
+        <v>76.44</v>
       </c>
       <c r="E194" s="42"/>
       <c r="F194" s="42"/>
       <c r="G194" s="42"/>
     </row>
-    <row r="195" spans="1:7" ht="30">
+    <row r="195" spans="1:7">
       <c r="A195" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B195" s="42" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C195" s="42" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D195" s="42">
-        <v>76.44</v>
+        <v>76.459999999999994</v>
       </c>
       <c r="E195" s="42"/>
       <c r="F195" s="42"/>
       <c r="G195" s="42"/>
     </row>
-    <row r="196" spans="1:7" ht="30">
+    <row r="196" spans="1:7">
       <c r="A196" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B196" s="42" t="s">
-        <v>328</v>
-      </c>
-      <c r="C196" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="D196" s="42">
-        <v>76.45</v>
-      </c>
-      <c r="E196" s="42"/>
-      <c r="F196" s="42"/>
-      <c r="G196" s="42"/>
+      <c r="B196" s="42">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C196" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D196" s="44"/>
+      <c r="E196" s="44"/>
+      <c r="F196" s="44"/>
+      <c r="G196" s="44"/>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B197" s="42" t="s">
-        <v>329</v>
-      </c>
-      <c r="C197" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="D197" s="42">
-        <v>76.459999999999994</v>
-      </c>
-      <c r="E197" s="42"/>
-      <c r="F197" s="42"/>
-      <c r="G197" s="42"/>
+        <v>330</v>
+      </c>
+      <c r="C197" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D197" s="44"/>
+      <c r="E197" s="44"/>
+      <c r="F197" s="44"/>
+      <c r="G197" s="44"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B198" s="42">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C198" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D198" s="44"/>
-      <c r="E198" s="44"/>
-      <c r="F198" s="44"/>
-      <c r="G198" s="44"/>
+      <c r="B198" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="C198" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="D198" s="42">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="E198" s="42"/>
+      <c r="F198" s="42"/>
+      <c r="G198" s="42" t="s">
+        <v>1097</v>
+      </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B199" s="42" t="s">
-        <v>330</v>
-      </c>
-      <c r="C199" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D199" s="44"/>
-      <c r="E199" s="44"/>
-      <c r="F199" s="44"/>
-      <c r="G199" s="44"/>
+        <v>332</v>
+      </c>
+      <c r="C199" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="D199" s="42">
+        <v>76.2</v>
+      </c>
+      <c r="E199" s="42"/>
+      <c r="F199" s="42"/>
+      <c r="G199" s="42"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B200" s="42" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C200" s="42" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D200" s="42">
-        <v>76.099999999999994</v>
+        <v>76.3</v>
       </c>
       <c r="E200" s="42"/>
       <c r="F200" s="42"/>
-      <c r="G200" s="42" t="s">
-        <v>1097</v>
-      </c>
+      <c r="G200" s="42"/>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B201" s="42" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C201" s="42" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D201" s="42">
-        <v>76.2</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E201" s="42"/>
       <c r="F201" s="42"/>
@@ -12193,98 +12193,98 @@
         <v>56</v>
       </c>
       <c r="B202" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="C202" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="D202" s="42">
-        <v>76.3</v>
-      </c>
-      <c r="E202" s="42"/>
-      <c r="F202" s="42"/>
-      <c r="G202" s="42"/>
-    </row>
-    <row r="203" spans="1:7">
+        <v>335</v>
+      </c>
+      <c r="C202" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" s="44"/>
+      <c r="E202" s="44"/>
+      <c r="F202" s="44"/>
+      <c r="G202" s="44"/>
+    </row>
+    <row r="203" spans="1:7" ht="45">
       <c r="A203" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B203" s="42" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C203" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="D203" s="42">
-        <v>76.400000000000006</v>
+        <v>337</v>
+      </c>
+      <c r="D203" s="42" t="s">
+        <v>842</v>
       </c>
       <c r="E203" s="42"/>
       <c r="F203" s="42"/>
-      <c r="G203" s="42"/>
+      <c r="G203" s="42" t="s">
+        <v>1099</v>
+      </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B204" s="42" t="s">
-        <v>335</v>
-      </c>
-      <c r="C204" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D204" s="44"/>
-      <c r="E204" s="44"/>
-      <c r="F204" s="44"/>
-      <c r="G204" s="44"/>
-    </row>
-    <row r="205" spans="1:7" ht="45">
+        <v>338</v>
+      </c>
+      <c r="C204" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="D204" s="42">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="E204" s="42"/>
+      <c r="F204" s="42"/>
+      <c r="G204" s="42"/>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B205" s="42" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C205" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D205" s="42" t="s">
-        <v>842</v>
+        <v>340</v>
+      </c>
+      <c r="D205" s="42">
+        <v>76.7</v>
       </c>
       <c r="E205" s="42"/>
       <c r="F205" s="42"/>
-      <c r="G205" s="42" t="s">
-        <v>1099</v>
-      </c>
+      <c r="G205" s="42"/>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B206" s="42" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C206" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="D206" s="42">
-        <v>76.599999999999994</v>
+        <v>342</v>
+      </c>
+      <c r="D206" s="42" t="s">
+        <v>923</v>
       </c>
       <c r="E206" s="42"/>
       <c r="F206" s="42"/>
       <c r="G206" s="42"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" ht="30">
       <c r="A207" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B207" s="42" t="s">
-        <v>339</v>
+        <v>1304</v>
       </c>
       <c r="C207" s="42" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="D207" s="42">
-        <v>76.7</v>
+        <v>76.39</v>
       </c>
       <c r="E207" s="42"/>
       <c r="F207" s="42"/>
@@ -12295,47 +12295,47 @@
         <v>56</v>
       </c>
       <c r="B208" s="42" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C208" s="42" t="s">
-        <v>342</v>
-      </c>
-      <c r="D208" s="42" t="s">
-        <v>923</v>
+        <v>295</v>
+      </c>
+      <c r="D208" s="42">
+        <v>76.400000000000006</v>
       </c>
       <c r="E208" s="42"/>
       <c r="F208" s="42"/>
       <c r="G208" s="42"/>
     </row>
-    <row r="209" spans="1:7" ht="30">
+    <row r="209" spans="1:7">
       <c r="A209" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B209" s="42" t="s">
-        <v>1304</v>
+        <v>344</v>
       </c>
       <c r="C209" s="42" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="D209" s="42">
-        <v>76.39</v>
+        <v>76.41</v>
       </c>
       <c r="E209" s="42"/>
       <c r="F209" s="42"/>
       <c r="G209" s="42"/>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" ht="30">
       <c r="A210" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B210" s="42" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C210" s="42" t="s">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="D210" s="42">
-        <v>76.400000000000006</v>
+        <v>76.42</v>
       </c>
       <c r="E210" s="42"/>
       <c r="F210" s="42"/>
@@ -12346,13 +12346,13 @@
         <v>56</v>
       </c>
       <c r="B211" s="42" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C211" s="42" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="D211" s="42">
-        <v>76.41</v>
+        <v>76.430000000000007</v>
       </c>
       <c r="E211" s="42"/>
       <c r="F211" s="42"/>
@@ -12363,13 +12363,13 @@
         <v>56</v>
       </c>
       <c r="B212" s="42" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C212" s="42" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="D212" s="42">
-        <v>76.42</v>
+        <v>76.44</v>
       </c>
       <c r="E212" s="42"/>
       <c r="F212" s="42"/>
@@ -12380,130 +12380,130 @@
         <v>56</v>
       </c>
       <c r="B213" s="42" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C213" s="42" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="D213" s="42">
-        <v>76.430000000000007</v>
+        <v>76.459999999999994</v>
       </c>
       <c r="E213" s="42"/>
       <c r="F213" s="42"/>
       <c r="G213" s="42"/>
     </row>
-    <row r="214" spans="1:7" ht="30">
+    <row r="214" spans="1:7">
       <c r="A214" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B214" s="42" t="s">
-        <v>349</v>
-      </c>
-      <c r="C214" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="D214" s="42">
-        <v>76.44</v>
-      </c>
-      <c r="E214" s="42"/>
-      <c r="F214" s="42"/>
-      <c r="G214" s="42"/>
-    </row>
-    <row r="215" spans="1:7" ht="30">
+      <c r="B214" s="42">
+        <v>9.4</v>
+      </c>
+      <c r="C214" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="D214" s="44"/>
+      <c r="E214" s="44"/>
+      <c r="F214" s="44"/>
+      <c r="G214" s="46"/>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B215" s="42" t="s">
-        <v>350</v>
-      </c>
-      <c r="C215" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="D215" s="42">
-        <v>76.45</v>
-      </c>
-      <c r="E215" s="42"/>
-      <c r="F215" s="42"/>
-      <c r="G215" s="42"/>
-    </row>
-    <row r="216" spans="1:7">
+        <v>353</v>
+      </c>
+      <c r="C215" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="D215" s="44"/>
+      <c r="E215" s="44"/>
+      <c r="F215" s="44"/>
+      <c r="G215" s="44"/>
+    </row>
+    <row r="216" spans="1:7" ht="60">
       <c r="A216" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B216" s="42" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C216" s="42" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="D216" s="42">
-        <v>76.459999999999994</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="E216" s="42"/>
       <c r="F216" s="42"/>
-      <c r="G216" s="42"/>
+      <c r="G216" s="42" t="s">
+        <v>1205</v>
+      </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B217" s="42">
-        <v>9.4</v>
-      </c>
-      <c r="C217" s="45" t="s">
-        <v>352</v>
-      </c>
-      <c r="D217" s="44"/>
-      <c r="E217" s="44"/>
-      <c r="F217" s="44"/>
-      <c r="G217" s="46"/>
+      <c r="B217" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="C217" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="D217" s="42">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="E217" s="42"/>
+      <c r="F217" s="42"/>
+      <c r="G217" s="42"/>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B218" s="42" t="s">
-        <v>353</v>
-      </c>
-      <c r="C218" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="D218" s="44"/>
-      <c r="E218" s="44"/>
-      <c r="F218" s="44"/>
-      <c r="G218" s="44"/>
-    </row>
-    <row r="219" spans="1:7" ht="60">
+        <v>359</v>
+      </c>
+      <c r="C218" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="D218" s="42">
+        <v>76.11</v>
+      </c>
+      <c r="E218" s="42"/>
+      <c r="F218" s="42"/>
+      <c r="G218" s="42"/>
+    </row>
+    <row r="219" spans="1:7" ht="30">
       <c r="A219" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B219" s="42" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C219" s="42" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D219" s="42">
-        <v>76.900000000000006</v>
+        <v>76.12</v>
       </c>
       <c r="E219" s="42"/>
       <c r="F219" s="42"/>
-      <c r="G219" s="42" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
+      <c r="G219" s="42"/>
+    </row>
+    <row r="220" spans="1:7" ht="30">
       <c r="A220" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B220" s="42" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C220" s="42" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D220" s="42">
-        <v>76.099999999999994</v>
+        <v>76.12</v>
       </c>
       <c r="E220" s="42"/>
       <c r="F220" s="42"/>
@@ -12514,30 +12514,30 @@
         <v>56</v>
       </c>
       <c r="B221" s="42" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C221" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="D221" s="42">
-        <v>76.11</v>
+        <v>365</v>
+      </c>
+      <c r="D221" s="42" t="s">
+        <v>863</v>
       </c>
       <c r="E221" s="42"/>
       <c r="F221" s="42"/>
       <c r="G221" s="42"/>
     </row>
-    <row r="222" spans="1:7" ht="30">
+    <row r="222" spans="1:7">
       <c r="A222" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B222" s="42" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C222" s="42" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D222" s="42">
-        <v>76.12</v>
+        <v>76.14</v>
       </c>
       <c r="E222" s="42"/>
       <c r="F222" s="42"/>
@@ -12548,32 +12548,36 @@
         <v>56</v>
       </c>
       <c r="B223" s="42" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C223" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="D223" s="42">
-        <v>76.12</v>
-      </c>
-      <c r="E223" s="42"/>
+        <v>1055</v>
+      </c>
+      <c r="D223" s="42" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E223" s="42" t="s">
+        <v>1061</v>
+      </c>
       <c r="F223" s="42"/>
       <c r="G223" s="42"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" ht="30">
       <c r="A224" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B224" s="42" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C224" s="42" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D224" s="42" t="s">
-        <v>863</v>
-      </c>
-      <c r="E224" s="42"/>
+        <v>1199</v>
+      </c>
+      <c r="E224" s="42" t="s">
+        <v>1061</v>
+      </c>
       <c r="F224" s="42"/>
       <c r="G224" s="42"/>
     </row>
@@ -12582,53 +12586,49 @@
         <v>56</v>
       </c>
       <c r="B225" s="42" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C225" s="42" t="s">
-        <v>367</v>
+        <v>1062</v>
       </c>
       <c r="D225" s="42">
-        <v>76.14</v>
+        <v>76.16</v>
       </c>
       <c r="E225" s="42"/>
       <c r="F225" s="42"/>
       <c r="G225" s="42"/>
     </row>
-    <row r="226" spans="1:7" ht="30">
+    <row r="226" spans="1:7">
       <c r="A226" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B226" s="42" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C226" s="42" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D226" s="42" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E226" s="42" t="s">
-        <v>1061</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="D226" s="42">
+        <v>76.17</v>
+      </c>
+      <c r="E226" s="42"/>
       <c r="F226" s="42"/>
       <c r="G226" s="42"/>
     </row>
-    <row r="227" spans="1:7" ht="30">
+    <row r="227" spans="1:7">
       <c r="A227" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B227" s="42" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C227" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="D227" s="42" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E227" s="42" t="s">
-        <v>1061</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="D227" s="42">
+        <v>76.180000000000007</v>
+      </c>
+      <c r="E227" s="42"/>
       <c r="F227" s="42"/>
       <c r="G227" s="42"/>
     </row>
@@ -12637,47 +12637,47 @@
         <v>56</v>
       </c>
       <c r="B228" s="42" t="s">
-        <v>372</v>
-      </c>
-      <c r="C228" s="42" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D228" s="42">
-        <v>76.16</v>
-      </c>
-      <c r="E228" s="42"/>
-      <c r="F228" s="42"/>
-      <c r="G228" s="42"/>
-    </row>
-    <row r="229" spans="1:7">
+        <v>379</v>
+      </c>
+      <c r="C228" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="D228" s="44"/>
+      <c r="E228" s="44"/>
+      <c r="F228" s="44"/>
+      <c r="G228" s="44"/>
+    </row>
+    <row r="229" spans="1:7" ht="45">
       <c r="A229" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B229" s="42" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C229" s="42" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D229" s="42">
-        <v>76.17</v>
+        <v>76.19</v>
       </c>
       <c r="E229" s="42"/>
       <c r="F229" s="42"/>
-      <c r="G229" s="42"/>
+      <c r="G229" s="42" t="s">
+        <v>1100</v>
+      </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B230" s="42" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C230" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="D230" s="42">
-        <v>76.180000000000007</v>
+        <v>384</v>
+      </c>
+      <c r="D230" s="42" t="s">
+        <v>876</v>
       </c>
       <c r="E230" s="42"/>
       <c r="F230" s="42"/>
@@ -12688,49 +12688,51 @@
         <v>56</v>
       </c>
       <c r="B231" s="42" t="s">
-        <v>379</v>
-      </c>
-      <c r="C231" s="44" t="s">
-        <v>380</v>
-      </c>
-      <c r="D231" s="44"/>
-      <c r="E231" s="44"/>
-      <c r="F231" s="44"/>
-      <c r="G231" s="44"/>
-    </row>
-    <row r="232" spans="1:7" ht="45">
+        <v>385</v>
+      </c>
+      <c r="C231" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="D231" s="42">
+        <v>76.209999999999994</v>
+      </c>
+      <c r="E231" s="42"/>
+      <c r="F231" s="42"/>
+      <c r="G231" s="42"/>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B232" s="42" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C232" s="42" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D232" s="42">
-        <v>76.19</v>
+        <v>76.22</v>
       </c>
       <c r="E232" s="42"/>
       <c r="F232" s="42"/>
-      <c r="G232" s="42" t="s">
-        <v>1100</v>
-      </c>
+      <c r="G232" s="42"/>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B233" s="42" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C233" s="42" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D233" s="42" t="s">
-        <v>876</v>
-      </c>
-      <c r="E233" s="42"/>
+        <v>954</v>
+      </c>
+      <c r="E233" s="42" t="s">
+        <v>1086</v>
+      </c>
       <c r="F233" s="42"/>
       <c r="G233" s="42"/>
     </row>
@@ -12739,13 +12741,13 @@
         <v>56</v>
       </c>
       <c r="B234" s="42" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C234" s="42" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D234" s="42">
-        <v>76.209999999999994</v>
+        <v>76.23</v>
       </c>
       <c r="E234" s="42"/>
       <c r="F234" s="42"/>
@@ -12756,13 +12758,13 @@
         <v>56</v>
       </c>
       <c r="B235" s="42" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C235" s="42" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D235" s="42">
-        <v>76.22</v>
+        <v>76.239999999999995</v>
       </c>
       <c r="E235" s="42"/>
       <c r="F235" s="42"/>
@@ -12773,17 +12775,15 @@
         <v>56</v>
       </c>
       <c r="B236" s="42" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C236" s="42" t="s">
-        <v>390</v>
-      </c>
-      <c r="D236" s="42" t="s">
-        <v>954</v>
-      </c>
-      <c r="E236" s="42" t="s">
-        <v>1086</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="D236" s="42">
+        <v>76.25</v>
+      </c>
+      <c r="E236" s="42"/>
       <c r="F236" s="42"/>
       <c r="G236" s="42"/>
     </row>
@@ -12792,13 +12792,13 @@
         <v>56</v>
       </c>
       <c r="B237" s="42" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C237" s="42" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D237" s="42">
-        <v>76.23</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="E237" s="42"/>
       <c r="F237" s="42"/>
@@ -12809,13 +12809,13 @@
         <v>56</v>
       </c>
       <c r="B238" s="42" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C238" s="42" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D238" s="42">
-        <v>76.239999999999995</v>
+        <v>76.27</v>
       </c>
       <c r="E238" s="42"/>
       <c r="F238" s="42"/>
@@ -12826,13 +12826,13 @@
         <v>56</v>
       </c>
       <c r="B239" s="42" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C239" s="42" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D239" s="42">
-        <v>76.25</v>
+        <v>76.28</v>
       </c>
       <c r="E239" s="42"/>
       <c r="F239" s="42"/>
@@ -12843,44 +12843,44 @@
         <v>56</v>
       </c>
       <c r="B240" s="42" t="s">
-        <v>397</v>
-      </c>
-      <c r="C240" s="42" t="s">
-        <v>398</v>
-      </c>
-      <c r="D240" s="42">
-        <v>76.260000000000005</v>
-      </c>
-      <c r="E240" s="42"/>
-      <c r="F240" s="42"/>
-      <c r="G240" s="42"/>
+        <v>403</v>
+      </c>
+      <c r="C240" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D240" s="44"/>
+      <c r="E240" s="44"/>
+      <c r="F240" s="44"/>
+      <c r="G240" s="44"/>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B241" s="42" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C241" s="42" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D241" s="42">
-        <v>76.27</v>
+        <v>76.239999999999995</v>
       </c>
       <c r="E241" s="42"/>
       <c r="F241" s="42"/>
-      <c r="G241" s="42"/>
+      <c r="G241" s="42" t="s">
+        <v>1101</v>
+      </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B242" s="42" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C242" s="42" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D242" s="42">
         <v>76.28</v>
@@ -12893,11 +12893,11 @@
       <c r="A243" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B243" s="42" t="s">
-        <v>403</v>
-      </c>
-      <c r="C243" s="44" t="s">
-        <v>404</v>
+      <c r="B243" s="42">
+        <v>9.5</v>
+      </c>
+      <c r="C243" s="41" t="s">
+        <v>409</v>
       </c>
       <c r="D243" s="44"/>
       <c r="E243" s="44"/>
@@ -12909,61 +12909,59 @@
         <v>56</v>
       </c>
       <c r="B244" s="42" t="s">
-        <v>405</v>
-      </c>
-      <c r="C244" s="42" t="s">
-        <v>406</v>
-      </c>
-      <c r="D244" s="42">
-        <v>76.239999999999995</v>
-      </c>
-      <c r="E244" s="42"/>
+        <v>410</v>
+      </c>
+      <c r="C244" s="47" t="s">
+        <v>411</v>
+      </c>
+      <c r="D244" s="42"/>
+      <c r="E244" s="42" t="s">
+        <v>268</v>
+      </c>
       <c r="F244" s="42"/>
-      <c r="G244" s="42" t="s">
-        <v>1101</v>
-      </c>
+      <c r="G244" s="42"/>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B245" s="42" t="s">
-        <v>407</v>
-      </c>
-      <c r="C245" s="42" t="s">
-        <v>408</v>
-      </c>
-      <c r="D245" s="42">
-        <v>76.28</v>
-      </c>
+      <c r="B245" s="42">
+        <v>9.6</v>
+      </c>
+      <c r="C245" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D245" s="42"/>
       <c r="E245" s="42"/>
       <c r="F245" s="42"/>
-      <c r="G245" s="42"/>
+      <c r="G245" s="46"/>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B246" s="42">
-        <v>9.5</v>
-      </c>
-      <c r="C246" s="41" t="s">
-        <v>409</v>
-      </c>
-      <c r="D246" s="44"/>
-      <c r="E246" s="44"/>
-      <c r="F246" s="44"/>
-      <c r="G246" s="44"/>
+      <c r="B246" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="C246" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D246" s="42"/>
+      <c r="E246" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="F246" s="42"/>
+      <c r="G246" s="42"/>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B247" s="42" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C247" s="47" t="s">
-        <v>411</v>
+        <v>31</v>
       </c>
       <c r="D247" s="42"/>
       <c r="E247" s="42" t="s">
@@ -12977,25 +12975,25 @@
         <v>56</v>
       </c>
       <c r="B248" s="42">
-        <v>9.6</v>
-      </c>
-      <c r="C248" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D248" s="42"/>
-      <c r="E248" s="42"/>
-      <c r="F248" s="42"/>
-      <c r="G248" s="46"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C248" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D248" s="44"/>
+      <c r="E248" s="44"/>
+      <c r="F248" s="44"/>
+      <c r="G248" s="44"/>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B249" s="42" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C249" s="47" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D249" s="42"/>
       <c r="E249" s="42" t="s">
@@ -13009,10 +13007,10 @@
         <v>56</v>
       </c>
       <c r="B250" s="42" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C250" s="47" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D250" s="42"/>
       <c r="E250" s="42" t="s">
@@ -13025,214 +13023,218 @@
       <c r="A251" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B251" s="42">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="C251" s="41" t="s">
-        <v>32</v>
+      <c r="B251" s="39" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C251" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="D251" s="44"/>
       <c r="E251" s="44"/>
       <c r="F251" s="44"/>
-      <c r="G251" s="44"/>
+      <c r="G251" s="48"/>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B252" s="42" t="s">
-        <v>414</v>
-      </c>
-      <c r="C252" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D252" s="42"/>
-      <c r="E252" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="F252" s="42"/>
-      <c r="G252" s="42"/>
+      <c r="B252" s="42">
+        <v>10.1</v>
+      </c>
+      <c r="C252" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D252" s="44"/>
+      <c r="E252" s="44"/>
+      <c r="F252" s="44"/>
+      <c r="G252" s="44"/>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B253" s="42" t="s">
-        <v>415</v>
-      </c>
-      <c r="C253" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="D253" s="42"/>
-      <c r="E253" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="F253" s="42"/>
-      <c r="G253" s="42"/>
-    </row>
-    <row r="254" spans="1:7">
+        <v>416</v>
+      </c>
+      <c r="C253" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D253" s="44"/>
+      <c r="E253" s="44"/>
+      <c r="F253" s="44"/>
+      <c r="G253" s="44"/>
+    </row>
+    <row r="254" spans="1:7" ht="45">
       <c r="A254" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B254" s="39" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C254" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D254" s="44"/>
-      <c r="E254" s="44"/>
-      <c r="F254" s="44"/>
-      <c r="G254" s="48"/>
+      <c r="B254" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="C254" s="47" t="s">
+        <v>418</v>
+      </c>
+      <c r="D254" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="E254" s="42"/>
+      <c r="F254" s="42"/>
+      <c r="G254" s="47" t="s">
+        <v>1102</v>
+      </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B255" s="42">
-        <v>10.1</v>
-      </c>
-      <c r="C255" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D255" s="44"/>
-      <c r="E255" s="44"/>
-      <c r="F255" s="44"/>
-      <c r="G255" s="44"/>
-    </row>
-    <row r="256" spans="1:7">
+      <c r="B255" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="C255" s="47" t="s">
+        <v>421</v>
+      </c>
+      <c r="D255" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="E255" s="42"/>
+      <c r="F255" s="42"/>
+      <c r="G255" s="47"/>
+    </row>
+    <row r="256" spans="1:7" ht="30">
       <c r="A256" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B256" s="42" t="s">
-        <v>416</v>
-      </c>
-      <c r="C256" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D256" s="44"/>
-      <c r="E256" s="44"/>
-      <c r="F256" s="44"/>
-      <c r="G256" s="44"/>
-    </row>
-    <row r="257" spans="1:7" ht="45">
+        <v>423</v>
+      </c>
+      <c r="C256" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="D256" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="E256" s="49" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F256" s="42"/>
+      <c r="G256" s="47"/>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B257" s="42" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="C257" s="47" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="D257" s="42" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E257" s="42"/>
       <c r="F257" s="42"/>
-      <c r="G257" s="47" t="s">
-        <v>1102</v>
-      </c>
+      <c r="G257" s="47"/>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B258" s="42" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="C258" s="47" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="D258" s="42" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="E258" s="42"/>
       <c r="F258" s="42"/>
       <c r="G258" s="47"/>
     </row>
-    <row r="259" spans="1:7" ht="30">
+    <row r="259" spans="1:7">
       <c r="A259" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B259" s="42" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C259" s="47" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="D259" s="42" t="s">
-        <v>425</v>
-      </c>
-      <c r="E259" s="49" t="s">
-        <v>1207</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="E259" s="42"/>
       <c r="F259" s="42"/>
       <c r="G259" s="47"/>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" ht="30">
       <c r="A260" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B260" s="42" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="C260" s="47" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="D260" s="42" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="E260" s="42"/>
       <c r="F260" s="42"/>
       <c r="G260" s="47"/>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" ht="30">
       <c r="A261" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B261" s="42" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="C261" s="47" t="s">
-        <v>430</v>
+        <v>1208</v>
       </c>
       <c r="D261" s="42" t="s">
-        <v>431</v>
-      </c>
-      <c r="E261" s="42"/>
+        <v>440</v>
+      </c>
+      <c r="E261" s="49" t="s">
+        <v>1207</v>
+      </c>
       <c r="F261" s="42"/>
       <c r="G261" s="47"/>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" ht="30">
       <c r="A262" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B262" s="42" t="s">
-        <v>432</v>
+        <v>1209</v>
       </c>
       <c r="C262" s="47" t="s">
-        <v>433</v>
+        <v>1210</v>
       </c>
       <c r="D262" s="42" t="s">
-        <v>434</v>
+        <v>1211</v>
       </c>
       <c r="E262" s="42"/>
       <c r="F262" s="42"/>
       <c r="G262" s="47"/>
     </row>
-    <row r="263" spans="1:7" ht="30">
+    <row r="263" spans="1:7" ht="45">
       <c r="A263" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B263" s="42" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C263" s="47" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D263" s="42" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E263" s="42"/>
       <c r="F263" s="42"/>
@@ -13243,168 +13245,166 @@
         <v>56</v>
       </c>
       <c r="B264" s="42" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C264" s="47" t="s">
-        <v>1208</v>
+        <v>445</v>
       </c>
       <c r="D264" s="42" t="s">
-        <v>440</v>
-      </c>
-      <c r="E264" s="49" t="s">
-        <v>1207</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="E264" s="42"/>
       <c r="F264" s="42"/>
       <c r="G264" s="47"/>
     </row>
-    <row r="265" spans="1:7" ht="30">
+    <row r="265" spans="1:7" ht="45">
       <c r="A265" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B265" s="42" t="s">
-        <v>1209</v>
+        <v>450</v>
       </c>
       <c r="C265" s="47" t="s">
-        <v>1210</v>
+        <v>448</v>
       </c>
       <c r="D265" s="42" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E265" s="42"/>
+        <v>449</v>
+      </c>
+      <c r="E265" s="49" t="s">
+        <v>1207</v>
+      </c>
       <c r="F265" s="42"/>
       <c r="G265" s="47"/>
     </row>
-    <row r="266" spans="1:7" ht="45">
+    <row r="266" spans="1:7">
       <c r="A266" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B266" s="42" t="s">
-        <v>441</v>
+        <v>1212</v>
       </c>
       <c r="C266" s="47" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="D266" s="42" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="E266" s="42"/>
       <c r="F266" s="42"/>
       <c r="G266" s="47"/>
     </row>
-    <row r="267" spans="1:7" ht="30">
+    <row r="267" spans="1:7">
       <c r="A267" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B267" s="42" t="s">
-        <v>444</v>
-      </c>
-      <c r="C267" s="47" t="s">
-        <v>445</v>
-      </c>
-      <c r="D267" s="42" t="s">
-        <v>446</v>
-      </c>
-      <c r="E267" s="42"/>
-      <c r="F267" s="42"/>
-      <c r="G267" s="47"/>
-    </row>
-    <row r="268" spans="1:7" ht="45">
+      <c r="B267" s="42">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C267" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="D267" s="44"/>
+      <c r="E267" s="44"/>
+      <c r="F267" s="44"/>
+      <c r="G267" s="44"/>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B268" s="42" t="s">
-        <v>450</v>
-      </c>
-      <c r="C268" s="47" t="s">
-        <v>448</v>
-      </c>
-      <c r="D268" s="42" t="s">
-        <v>449</v>
-      </c>
-      <c r="E268" s="49" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F268" s="42"/>
-      <c r="G268" s="47"/>
-    </row>
-    <row r="269" spans="1:7">
+        <v>454</v>
+      </c>
+      <c r="C268" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D268" s="44"/>
+      <c r="E268" s="44"/>
+      <c r="F268" s="44"/>
+      <c r="G268" s="44"/>
+    </row>
+    <row r="269" spans="1:7" ht="60">
       <c r="A269" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B269" s="42" t="s">
-        <v>1212</v>
+        <v>455</v>
       </c>
       <c r="C269" s="47" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D269" s="42" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="E269" s="42"/>
       <c r="F269" s="42"/>
-      <c r="G269" s="47"/>
+      <c r="G269" s="47" t="s">
+        <v>1103</v>
+      </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B270" s="42">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C270" s="41" t="s">
-        <v>453</v>
-      </c>
-      <c r="D270" s="44"/>
-      <c r="E270" s="44"/>
-      <c r="F270" s="44"/>
-      <c r="G270" s="44"/>
+      <c r="B270" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="C270" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="D270" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="E270" s="42"/>
+      <c r="F270" s="42"/>
+      <c r="G270" s="47"/>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B271" s="42" t="s">
-        <v>454</v>
-      </c>
-      <c r="C271" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D271" s="44"/>
-      <c r="E271" s="44"/>
-      <c r="F271" s="44"/>
-      <c r="G271" s="44"/>
-    </row>
-    <row r="272" spans="1:7" ht="60">
+        <v>459</v>
+      </c>
+      <c r="C271" s="47" t="s">
+        <v>460</v>
+      </c>
+      <c r="D271" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="E271" s="42"/>
+      <c r="F271" s="42"/>
+      <c r="G271" s="47"/>
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B272" s="42" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C272" s="47" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D272" s="42" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E272" s="42"/>
       <c r="F272" s="42"/>
-      <c r="G272" s="47" t="s">
-        <v>1103</v>
-      </c>
+      <c r="G272" s="47"/>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B273" s="42" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C273" s="47" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="D273" s="42" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="E273" s="42"/>
       <c r="F273" s="42"/>
@@ -13415,13 +13415,13 @@
         <v>56</v>
       </c>
       <c r="B274" s="42" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C274" s="47" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="D274" s="42" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="E274" s="42"/>
       <c r="F274" s="42"/>
@@ -13432,13 +13432,13 @@
         <v>56</v>
       </c>
       <c r="B275" s="42" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C275" s="47" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D275" s="42" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="E275" s="42"/>
       <c r="F275" s="42"/>
@@ -13449,13 +13449,13 @@
         <v>56</v>
       </c>
       <c r="B276" s="42" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C276" s="47" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="D276" s="42" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="E276" s="42"/>
       <c r="F276" s="42"/>
@@ -13466,13 +13466,13 @@
         <v>56</v>
       </c>
       <c r="B277" s="42" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C277" s="47" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="D277" s="42" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="E277" s="42"/>
       <c r="F277" s="42"/>
@@ -13483,236 +13483,236 @@
         <v>56</v>
       </c>
       <c r="B278" s="42" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C278" s="47" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="D278" s="42" t="s">
-        <v>437</v>
+        <v>1211</v>
       </c>
       <c r="E278" s="42"/>
       <c r="F278" s="42"/>
       <c r="G278" s="47"/>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" ht="30">
       <c r="A279" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B279" s="42" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="C279" s="47" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D279" s="42" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="E279" s="42"/>
       <c r="F279" s="42"/>
       <c r="G279" s="47"/>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" ht="30">
       <c r="A280" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B280" s="42" t="s">
-        <v>469</v>
-      </c>
-      <c r="C280" s="47" t="s">
-        <v>470</v>
+        <v>477</v>
+      </c>
+      <c r="C280" s="42" t="s">
+        <v>478</v>
       </c>
       <c r="D280" s="42" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="E280" s="42"/>
       <c r="F280" s="42"/>
-      <c r="G280" s="47"/>
-    </row>
-    <row r="281" spans="1:7">
+      <c r="G280" s="42"/>
+    </row>
+    <row r="281" spans="1:7" ht="45">
       <c r="A281" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B281" s="42" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="C281" s="47" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D281" s="42" t="s">
-        <v>1211</v>
+        <v>449</v>
       </c>
       <c r="E281" s="42"/>
       <c r="F281" s="42"/>
       <c r="G281" s="47"/>
     </row>
-    <row r="282" spans="1:7" ht="30">
+    <row r="282" spans="1:7" ht="45">
       <c r="A282" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B282" s="42" t="s">
-        <v>474</v>
-      </c>
-      <c r="C282" s="47" t="s">
-        <v>475</v>
+        <v>481</v>
+      </c>
+      <c r="C282" s="42" t="s">
+        <v>482</v>
       </c>
       <c r="D282" s="42" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="E282" s="42"/>
       <c r="F282" s="42"/>
-      <c r="G282" s="47"/>
-    </row>
-    <row r="283" spans="1:7" ht="30">
+      <c r="G282" s="42"/>
+    </row>
+    <row r="283" spans="1:7" ht="45">
       <c r="A283" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B283" s="42" t="s">
-        <v>477</v>
-      </c>
-      <c r="C283" s="42" t="s">
-        <v>478</v>
+        <v>483</v>
+      </c>
+      <c r="C283" s="47" t="s">
+        <v>484</v>
       </c>
       <c r="D283" s="42" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="E283" s="42"/>
-      <c r="F283" s="42"/>
-      <c r="G283" s="42"/>
-    </row>
-    <row r="284" spans="1:7" ht="45">
+      <c r="F283" s="42" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G283" s="47"/>
+    </row>
+    <row r="284" spans="1:7" ht="30">
       <c r="A284" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B284" s="42" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C284" s="47" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D284" s="42" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
       <c r="E284" s="42"/>
-      <c r="F284" s="42"/>
+      <c r="F284" s="42" t="s">
+        <v>1161</v>
+      </c>
       <c r="G284" s="47"/>
     </row>
-    <row r="285" spans="1:7" ht="45">
+    <row r="285" spans="1:7">
       <c r="A285" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B285" s="42" t="s">
-        <v>481</v>
-      </c>
-      <c r="C285" s="42" t="s">
-        <v>482</v>
-      </c>
-      <c r="D285" s="42" t="s">
-        <v>452</v>
-      </c>
-      <c r="E285" s="42"/>
-      <c r="F285" s="42"/>
-      <c r="G285" s="42"/>
-    </row>
-    <row r="286" spans="1:7" ht="45">
+      <c r="B285" s="42">
+        <v>10.3</v>
+      </c>
+      <c r="C285" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D285" s="44"/>
+      <c r="E285" s="44"/>
+      <c r="F285" s="44"/>
+      <c r="G285" s="44"/>
+    </row>
+    <row r="286" spans="1:7">
       <c r="A286" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B286" s="42" t="s">
-        <v>483</v>
-      </c>
-      <c r="C286" s="47" t="s">
-        <v>484</v>
-      </c>
-      <c r="D286" s="42" t="s">
-        <v>485</v>
-      </c>
-      <c r="E286" s="42"/>
-      <c r="F286" s="42" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G286" s="47"/>
-    </row>
-    <row r="287" spans="1:7" ht="30">
+        <v>489</v>
+      </c>
+      <c r="C286" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D286" s="44"/>
+      <c r="E286" s="44"/>
+      <c r="F286" s="44"/>
+      <c r="G286" s="44"/>
+    </row>
+    <row r="287" spans="1:7" ht="60">
       <c r="A287" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B287" s="42" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C287" s="47" t="s">
-        <v>487</v>
+        <v>456</v>
       </c>
       <c r="D287" s="42" t="s">
-        <v>488</v>
+        <v>419</v>
       </c>
       <c r="E287" s="42"/>
-      <c r="F287" s="42" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G287" s="47"/>
+      <c r="F287" s="42"/>
+      <c r="G287" s="47" t="s">
+        <v>1103</v>
+      </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B288" s="42">
-        <v>10.3</v>
-      </c>
-      <c r="C288" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D288" s="44"/>
-      <c r="E288" s="44"/>
-      <c r="F288" s="44"/>
-      <c r="G288" s="44"/>
+      <c r="B288" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="C288" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="D288" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="E288" s="42"/>
+      <c r="F288" s="42"/>
+      <c r="G288" s="47"/>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B289" s="42" t="s">
-        <v>489</v>
-      </c>
-      <c r="C289" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D289" s="44"/>
-      <c r="E289" s="44"/>
-      <c r="F289" s="44"/>
-      <c r="G289" s="44"/>
-    </row>
-    <row r="290" spans="1:7" ht="60">
+        <v>492</v>
+      </c>
+      <c r="C289" s="47" t="s">
+        <v>460</v>
+      </c>
+      <c r="D289" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="E289" s="42"/>
+      <c r="F289" s="42"/>
+      <c r="G289" s="47"/>
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B290" s="42" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C290" s="47" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D290" s="42" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E290" s="42"/>
       <c r="F290" s="42"/>
-      <c r="G290" s="47" t="s">
-        <v>1103</v>
-      </c>
+      <c r="G290" s="47"/>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B291" s="42" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C291" s="47" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="D291" s="42" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="E291" s="42"/>
       <c r="F291" s="42"/>
@@ -13723,13 +13723,13 @@
         <v>56</v>
       </c>
       <c r="B292" s="42" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C292" s="47" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="D292" s="42" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="E292" s="42"/>
       <c r="F292" s="42"/>
@@ -13740,13 +13740,13 @@
         <v>56</v>
       </c>
       <c r="B293" s="42" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C293" s="47" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D293" s="42" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="E293" s="42"/>
       <c r="F293" s="42"/>
@@ -13757,13 +13757,13 @@
         <v>56</v>
       </c>
       <c r="B294" s="42" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C294" s="47" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="D294" s="42" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="E294" s="42"/>
       <c r="F294" s="42"/>
@@ -13774,13 +13774,13 @@
         <v>56</v>
       </c>
       <c r="B295" s="42" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C295" s="47" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="D295" s="42" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="E295" s="42"/>
       <c r="F295" s="42"/>
@@ -13791,217 +13791,217 @@
         <v>56</v>
       </c>
       <c r="B296" s="42" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C296" s="47" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="D296" s="42" t="s">
-        <v>437</v>
+        <v>1211</v>
       </c>
       <c r="E296" s="42"/>
       <c r="F296" s="42"/>
       <c r="G296" s="47"/>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" ht="30">
       <c r="A297" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B297" s="42" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C297" s="47" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D297" s="42" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="E297" s="42"/>
       <c r="F297" s="42"/>
       <c r="G297" s="47"/>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" ht="30">
       <c r="A298" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B298" s="42" t="s">
-        <v>498</v>
-      </c>
-      <c r="C298" s="47" t="s">
-        <v>470</v>
+        <v>501</v>
+      </c>
+      <c r="C298" s="42" t="s">
+        <v>478</v>
       </c>
       <c r="D298" s="42" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="E298" s="42"/>
       <c r="F298" s="42"/>
-      <c r="G298" s="47"/>
-    </row>
-    <row r="299" spans="1:7">
+      <c r="G298" s="42"/>
+    </row>
+    <row r="299" spans="1:7" ht="45">
       <c r="A299" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B299" s="42" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C299" s="47" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D299" s="42" t="s">
-        <v>1211</v>
+        <v>449</v>
       </c>
       <c r="E299" s="42"/>
       <c r="F299" s="42"/>
       <c r="G299" s="47"/>
     </row>
-    <row r="300" spans="1:7" ht="30">
+    <row r="300" spans="1:7" ht="45">
       <c r="A300" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B300" s="42" t="s">
-        <v>500</v>
-      </c>
-      <c r="C300" s="47" t="s">
-        <v>475</v>
+        <v>503</v>
+      </c>
+      <c r="C300" s="42" t="s">
+        <v>482</v>
       </c>
       <c r="D300" s="42" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="E300" s="42"/>
       <c r="F300" s="42"/>
-      <c r="G300" s="47"/>
-    </row>
-    <row r="301" spans="1:7" ht="30">
+      <c r="G300" s="42"/>
+    </row>
+    <row r="301" spans="1:7" ht="45">
       <c r="A301" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B301" s="42" t="s">
-        <v>501</v>
-      </c>
-      <c r="C301" s="42" t="s">
-        <v>478</v>
+        <v>504</v>
+      </c>
+      <c r="C301" s="47" t="s">
+        <v>484</v>
       </c>
       <c r="D301" s="42" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="E301" s="42"/>
-      <c r="F301" s="42"/>
-      <c r="G301" s="42"/>
-    </row>
-    <row r="302" spans="1:7" ht="45">
+      <c r="F301" s="42" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G301" s="47"/>
+    </row>
+    <row r="302" spans="1:7" ht="30">
       <c r="A302" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B302" s="42" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C302" s="47" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D302" s="42" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
       <c r="E302" s="42"/>
-      <c r="F302" s="42"/>
+      <c r="F302" s="42" t="s">
+        <v>1173</v>
+      </c>
       <c r="G302" s="47"/>
     </row>
-    <row r="303" spans="1:7" ht="45">
+    <row r="303" spans="1:7">
       <c r="A303" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B303" s="42" t="s">
-        <v>503</v>
-      </c>
-      <c r="C303" s="42" t="s">
-        <v>482</v>
-      </c>
-      <c r="D303" s="42" t="s">
-        <v>452</v>
-      </c>
-      <c r="E303" s="42"/>
-      <c r="F303" s="42"/>
-      <c r="G303" s="42"/>
-    </row>
-    <row r="304" spans="1:7" ht="45">
+      <c r="B303" s="42">
+        <v>10.4</v>
+      </c>
+      <c r="C303" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D303" s="44"/>
+      <c r="E303" s="44"/>
+      <c r="F303" s="44"/>
+      <c r="G303" s="44"/>
+    </row>
+    <row r="304" spans="1:7">
       <c r="A304" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B304" s="42" t="s">
-        <v>504</v>
-      </c>
-      <c r="C304" s="47" t="s">
-        <v>484</v>
-      </c>
-      <c r="D304" s="42" t="s">
-        <v>485</v>
-      </c>
-      <c r="E304" s="42"/>
-      <c r="F304" s="42" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G304" s="47"/>
+        <v>506</v>
+      </c>
+      <c r="C304" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D304" s="44"/>
+      <c r="E304" s="44"/>
+      <c r="F304" s="44"/>
+      <c r="G304" s="44"/>
     </row>
     <row r="305" spans="1:7" ht="30">
       <c r="A305" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B305" s="42" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C305" s="47" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="D305" s="42" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="E305" s="42"/>
-      <c r="F305" s="42" t="s">
-        <v>1173</v>
-      </c>
+      <c r="F305" s="42"/>
       <c r="G305" s="47"/>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B306" s="42">
-        <v>10.4</v>
-      </c>
-      <c r="C306" s="41" t="s">
-        <v>10</v>
+      <c r="B306" s="42" t="s">
+        <v>510</v>
+      </c>
+      <c r="C306" s="44" t="s">
+        <v>36</v>
       </c>
       <c r="D306" s="44"/>
       <c r="E306" s="44"/>
       <c r="F306" s="44"/>
       <c r="G306" s="44"/>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" ht="30">
       <c r="A307" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B307" s="42" t="s">
-        <v>506</v>
-      </c>
-      <c r="C307" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D307" s="44"/>
-      <c r="E307" s="44"/>
-      <c r="F307" s="44"/>
-      <c r="G307" s="44"/>
-    </row>
-    <row r="308" spans="1:7" ht="30">
+        <v>511</v>
+      </c>
+      <c r="C307" s="42" t="s">
+        <v>512</v>
+      </c>
+      <c r="D307" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="E307" s="50"/>
+      <c r="F307" s="50"/>
+      <c r="G307" s="42" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B308" s="42" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C308" s="47" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="D308" s="42" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="E308" s="42"/>
       <c r="F308" s="42"/>
@@ -14012,47 +14012,47 @@
         <v>56</v>
       </c>
       <c r="B309" s="42" t="s">
-        <v>510</v>
-      </c>
-      <c r="C309" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D309" s="44"/>
-      <c r="E309" s="44"/>
-      <c r="F309" s="44"/>
-      <c r="G309" s="44"/>
+        <v>516</v>
+      </c>
+      <c r="C309" s="47" t="s">
+        <v>517</v>
+      </c>
+      <c r="D309" s="42" t="s">
+        <v>518</v>
+      </c>
+      <c r="E309" s="42"/>
+      <c r="F309" s="42"/>
+      <c r="G309" s="47"/>
     </row>
     <row r="310" spans="1:7" ht="30">
       <c r="A310" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B310" s="42" t="s">
-        <v>511</v>
-      </c>
-      <c r="C310" s="42" t="s">
-        <v>512</v>
+        <v>519</v>
+      </c>
+      <c r="C310" s="47" t="s">
+        <v>520</v>
       </c>
       <c r="D310" s="42" t="s">
-        <v>419</v>
-      </c>
-      <c r="E310" s="50"/>
-      <c r="F310" s="50"/>
-      <c r="G310" s="42" t="s">
-        <v>1104</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="E310" s="42"/>
+      <c r="F310" s="42"/>
+      <c r="G310" s="47"/>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B311" s="42" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="C311" s="47" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="D311" s="42" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="E311" s="42"/>
       <c r="F311" s="42"/>
@@ -14063,30 +14063,30 @@
         <v>56</v>
       </c>
       <c r="B312" s="42" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="C312" s="47" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="D312" s="42" t="s">
-        <v>518</v>
+        <v>471</v>
       </c>
       <c r="E312" s="42"/>
       <c r="F312" s="42"/>
       <c r="G312" s="47"/>
     </row>
-    <row r="313" spans="1:7" ht="30">
+    <row r="313" spans="1:7" ht="45">
       <c r="A313" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B313" s="42" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C313" s="47" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="D313" s="42" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E313" s="42"/>
       <c r="F313" s="42"/>
@@ -14096,114 +14096,114 @@
       <c r="A314" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B314" s="42" t="s">
-        <v>522</v>
-      </c>
-      <c r="C314" s="47" t="s">
-        <v>523</v>
-      </c>
-      <c r="D314" s="42" t="s">
-        <v>524</v>
-      </c>
-      <c r="E314" s="42"/>
-      <c r="F314" s="42"/>
-      <c r="G314" s="47"/>
+      <c r="B314" s="42">
+        <v>10.5</v>
+      </c>
+      <c r="C314" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D314" s="44"/>
+      <c r="E314" s="44"/>
+      <c r="F314" s="44"/>
+      <c r="G314" s="52"/>
     </row>
     <row r="315" spans="1:7">
       <c r="A315" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B315" s="42" t="s">
-        <v>525</v>
-      </c>
-      <c r="C315" s="47" t="s">
-        <v>526</v>
-      </c>
-      <c r="D315" s="42" t="s">
-        <v>471</v>
-      </c>
-      <c r="E315" s="42"/>
-      <c r="F315" s="42"/>
-      <c r="G315" s="47"/>
-    </row>
-    <row r="316" spans="1:7" ht="45">
+        <v>530</v>
+      </c>
+      <c r="C315" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D315" s="44"/>
+      <c r="E315" s="44"/>
+      <c r="F315" s="44"/>
+      <c r="G315" s="52"/>
+    </row>
+    <row r="316" spans="1:7" ht="60">
       <c r="A316" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B316" s="42" t="s">
-        <v>527</v>
-      </c>
-      <c r="C316" s="47" t="s">
-        <v>528</v>
+        <v>531</v>
+      </c>
+      <c r="C316" s="42" t="s">
+        <v>456</v>
       </c>
       <c r="D316" s="42" t="s">
-        <v>529</v>
+        <v>419</v>
       </c>
       <c r="E316" s="42"/>
       <c r="F316" s="42"/>
-      <c r="G316" s="47"/>
+      <c r="G316" s="42" t="s">
+        <v>1103</v>
+      </c>
     </row>
     <row r="317" spans="1:7">
       <c r="A317" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B317" s="42">
-        <v>10.5</v>
-      </c>
-      <c r="C317" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="D317" s="44"/>
-      <c r="E317" s="44"/>
-      <c r="F317" s="44"/>
-      <c r="G317" s="52"/>
+      <c r="B317" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="C317" s="42" t="s">
+        <v>458</v>
+      </c>
+      <c r="D317" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="E317" s="42"/>
+      <c r="F317" s="42"/>
+      <c r="G317" s="42"/>
     </row>
     <row r="318" spans="1:7">
       <c r="A318" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B318" s="42" t="s">
-        <v>530</v>
-      </c>
-      <c r="C318" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D318" s="44"/>
-      <c r="E318" s="44"/>
-      <c r="F318" s="44"/>
-      <c r="G318" s="52"/>
-    </row>
-    <row r="319" spans="1:7" ht="60">
+        <v>533</v>
+      </c>
+      <c r="C318" s="42" t="s">
+        <v>460</v>
+      </c>
+      <c r="D318" s="42" t="s">
+        <v>440</v>
+      </c>
+      <c r="E318" s="42"/>
+      <c r="F318" s="42"/>
+      <c r="G318" s="42"/>
+    </row>
+    <row r="319" spans="1:7">
       <c r="A319" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B319" s="42" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C319" s="42" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D319" s="42" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E319" s="42"/>
       <c r="F319" s="42"/>
-      <c r="G319" s="42" t="s">
-        <v>1103</v>
-      </c>
+      <c r="G319" s="42"/>
     </row>
     <row r="320" spans="1:7">
       <c r="A320" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B320" s="42" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C320" s="42" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="D320" s="42" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="E320" s="42"/>
       <c r="F320" s="42"/>
@@ -14214,13 +14214,13 @@
         <v>56</v>
       </c>
       <c r="B321" s="42" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C321" s="42" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="D321" s="42" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E321" s="42"/>
       <c r="F321" s="42"/>
@@ -14231,13 +14231,13 @@
         <v>56</v>
       </c>
       <c r="B322" s="42" t="s">
-        <v>534</v>
+        <v>1213</v>
       </c>
       <c r="C322" s="42" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D322" s="42" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="E322" s="42"/>
       <c r="F322" s="42"/>
@@ -14248,13 +14248,13 @@
         <v>56</v>
       </c>
       <c r="B323" s="42" t="s">
-        <v>535</v>
+        <v>1214</v>
       </c>
       <c r="C323" s="42" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="D323" s="42" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="E323" s="42"/>
       <c r="F323" s="42"/>
@@ -14265,13 +14265,13 @@
         <v>56</v>
       </c>
       <c r="B324" s="42" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="C324" s="42" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="D324" s="42" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="E324" s="42"/>
       <c r="F324" s="42"/>
@@ -14282,276 +14282,280 @@
         <v>56</v>
       </c>
       <c r="B325" s="42" t="s">
-        <v>1213</v>
+        <v>542</v>
       </c>
       <c r="C325" s="42" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="D325" s="42" t="s">
-        <v>437</v>
+        <v>1211</v>
       </c>
       <c r="E325" s="42"/>
       <c r="F325" s="42"/>
       <c r="G325" s="42"/>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" ht="30">
       <c r="A326" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B326" s="42" t="s">
-        <v>1214</v>
+        <v>543</v>
       </c>
       <c r="C326" s="42" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D326" s="42" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="E326" s="42"/>
       <c r="F326" s="42"/>
       <c r="G326" s="42"/>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" ht="30">
       <c r="A327" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B327" s="42" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C327" s="42" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="D327" s="42" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="E327" s="42"/>
       <c r="F327" s="42"/>
       <c r="G327" s="42"/>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" ht="45">
       <c r="A328" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B328" s="42" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C328" s="42" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D328" s="42" t="s">
-        <v>1211</v>
+        <v>449</v>
       </c>
       <c r="E328" s="42"/>
       <c r="F328" s="42"/>
       <c r="G328" s="42"/>
     </row>
-    <row r="329" spans="1:7" ht="30">
+    <row r="329" spans="1:7" ht="45">
       <c r="A329" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B329" s="42" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C329" s="42" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="D329" s="42" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="E329" s="42"/>
       <c r="F329" s="42"/>
       <c r="G329" s="42"/>
     </row>
-    <row r="330" spans="1:7" ht="30">
+    <row r="330" spans="1:7" ht="45">
       <c r="A330" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B330" s="42" t="s">
-        <v>544</v>
+        <v>1215</v>
       </c>
       <c r="C330" s="42" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D330" s="42" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="E330" s="42"/>
-      <c r="F330" s="42"/>
+      <c r="F330" s="42" t="s">
+        <v>1126</v>
+      </c>
       <c r="G330" s="42"/>
     </row>
-    <row r="331" spans="1:7" ht="45">
+    <row r="331" spans="1:7" ht="30">
       <c r="A331" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B331" s="42" t="s">
-        <v>545</v>
+        <v>1216</v>
       </c>
       <c r="C331" s="42" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D331" s="42" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
       <c r="E331" s="42"/>
-      <c r="F331" s="42"/>
+      <c r="F331" s="42" t="s">
+        <v>1308</v>
+      </c>
       <c r="G331" s="42"/>
     </row>
-    <row r="332" spans="1:7" ht="45">
+    <row r="332" spans="1:7">
       <c r="A332" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B332" s="42" t="s">
-        <v>546</v>
-      </c>
-      <c r="C332" s="42" t="s">
-        <v>482</v>
-      </c>
-      <c r="D332" s="42" t="s">
-        <v>452</v>
-      </c>
-      <c r="E332" s="42"/>
-      <c r="F332" s="42"/>
-      <c r="G332" s="42"/>
-    </row>
-    <row r="333" spans="1:7" ht="45">
+      <c r="B332" s="39" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C332" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D332" s="44"/>
+      <c r="E332" s="44"/>
+      <c r="F332" s="44"/>
+      <c r="G332" s="53"/>
+    </row>
+    <row r="333" spans="1:7">
       <c r="A333" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B333" s="42" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C333" s="42" t="s">
-        <v>484</v>
-      </c>
-      <c r="D333" s="42" t="s">
-        <v>485</v>
-      </c>
-      <c r="E333" s="42"/>
-      <c r="F333" s="42" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G333" s="42"/>
-    </row>
-    <row r="334" spans="1:7" ht="30">
+      <c r="B333" s="42">
+        <v>11.1</v>
+      </c>
+      <c r="C333" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D333" s="44"/>
+      <c r="E333" s="44"/>
+      <c r="F333" s="44"/>
+      <c r="G333" s="52"/>
+    </row>
+    <row r="334" spans="1:7">
       <c r="A334" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B334" s="42" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C334" s="42" t="s">
-        <v>487</v>
-      </c>
-      <c r="D334" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="E334" s="42"/>
-      <c r="F334" s="42" t="s">
-        <v>1308</v>
-      </c>
-      <c r="G334" s="42"/>
-    </row>
-    <row r="335" spans="1:7">
+        <v>547</v>
+      </c>
+      <c r="C334" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D334" s="44"/>
+      <c r="E334" s="44"/>
+      <c r="F334" s="44"/>
+      <c r="G334" s="52"/>
+    </row>
+    <row r="335" spans="1:7" ht="45">
       <c r="A335" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B335" s="39" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C335" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D335" s="44"/>
-      <c r="E335" s="44"/>
-      <c r="F335" s="44"/>
-      <c r="G335" s="53"/>
-    </row>
-    <row r="336" spans="1:7">
+      <c r="B335" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="C335" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="D335" s="42">
+        <v>78.3</v>
+      </c>
+      <c r="E335" s="42" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F335" s="42" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G335" s="47" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" ht="60">
       <c r="A336" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B336" s="42">
-        <v>11.1</v>
-      </c>
-      <c r="C336" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D336" s="44"/>
-      <c r="E336" s="44"/>
-      <c r="F336" s="44"/>
-      <c r="G336" s="52"/>
+      <c r="B336" s="42" t="s">
+        <v>550</v>
+      </c>
+      <c r="C336" s="47" t="s">
+        <v>551</v>
+      </c>
+      <c r="D336" s="42">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E336" s="42" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F336" s="42" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G336" s="47"/>
     </row>
     <row r="337" spans="1:7">
       <c r="A337" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B337" s="42" t="s">
-        <v>547</v>
-      </c>
-      <c r="C337" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="D337" s="44"/>
-      <c r="E337" s="44"/>
-      <c r="F337" s="44"/>
-      <c r="G337" s="52"/>
-    </row>
-    <row r="338" spans="1:7" ht="45">
+        <v>552</v>
+      </c>
+      <c r="C337" s="47" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D337" s="42">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E337" s="42"/>
+      <c r="F337" s="42" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G337" s="47"/>
+    </row>
+    <row r="338" spans="1:7">
       <c r="A338" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B338" s="42" t="s">
-        <v>548</v>
-      </c>
-      <c r="C338" s="47" t="s">
-        <v>549</v>
-      </c>
-      <c r="D338" s="42">
-        <v>78.3</v>
-      </c>
-      <c r="E338" s="42" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F338" s="42" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G338" s="47" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" ht="60">
+        <v>554</v>
+      </c>
+      <c r="C338" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D338" s="44"/>
+      <c r="E338" s="44"/>
+      <c r="F338" s="44"/>
+      <c r="G338" s="44"/>
+    </row>
+    <row r="339" spans="1:7">
       <c r="A339" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B339" s="42" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C339" s="47" t="s">
-        <v>551</v>
-      </c>
-      <c r="D339" s="42">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E339" s="42" t="s">
-        <v>1218</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="D339" s="42" t="s">
+        <v>557</v>
+      </c>
+      <c r="E339" s="42"/>
       <c r="F339" s="42" t="s">
         <v>1158</v>
       </c>
-      <c r="G339" s="47"/>
+      <c r="G339" s="47" t="s">
+        <v>1106</v>
+      </c>
     </row>
     <row r="340" spans="1:7">
       <c r="A340" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B340" s="42" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C340" s="47" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D340" s="42">
-        <v>78.099999999999994</v>
+        <v>559</v>
+      </c>
+      <c r="D340" s="42" t="s">
+        <v>560</v>
       </c>
       <c r="E340" s="42"/>
       <c r="F340" s="42" t="s">
@@ -14564,87 +14568,87 @@
         <v>56</v>
       </c>
       <c r="B341" s="42" t="s">
-        <v>554</v>
-      </c>
-      <c r="C341" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D341" s="44"/>
-      <c r="E341" s="44"/>
-      <c r="F341" s="44"/>
-      <c r="G341" s="44"/>
+        <v>561</v>
+      </c>
+      <c r="C341" s="42" t="s">
+        <v>562</v>
+      </c>
+      <c r="D341" s="42" t="s">
+        <v>563</v>
+      </c>
+      <c r="E341" s="42"/>
+      <c r="F341" s="42" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G341" s="42"/>
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B342" s="42" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="C342" s="47" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="D342" s="42" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="E342" s="42"/>
       <c r="F342" s="42" t="s">
         <v>1158</v>
       </c>
-      <c r="G342" s="47" t="s">
-        <v>1106</v>
-      </c>
+      <c r="G342" s="47"/>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B343" s="42" t="s">
-        <v>558</v>
-      </c>
-      <c r="C343" s="47" t="s">
-        <v>559</v>
-      </c>
-      <c r="D343" s="42" t="s">
-        <v>560</v>
-      </c>
-      <c r="E343" s="42"/>
-      <c r="F343" s="42" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G343" s="47"/>
-    </row>
-    <row r="344" spans="1:7">
+        <v>567</v>
+      </c>
+      <c r="C343" s="44" t="s">
+        <v>568</v>
+      </c>
+      <c r="D343" s="44"/>
+      <c r="E343" s="44"/>
+      <c r="F343" s="44"/>
+      <c r="G343" s="44"/>
+    </row>
+    <row r="344" spans="1:7" ht="30">
       <c r="A344" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B344" s="42" t="s">
-        <v>561</v>
-      </c>
-      <c r="C344" s="42" t="s">
-        <v>562</v>
+        <v>569</v>
+      </c>
+      <c r="C344" s="47" t="s">
+        <v>570</v>
       </c>
       <c r="D344" s="42" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="E344" s="42"/>
       <c r="F344" s="42" t="s">
         <v>1158</v>
       </c>
-      <c r="G344" s="42"/>
+      <c r="G344" s="47" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="345" spans="1:7">
       <c r="A345" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B345" s="42" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C345" s="47" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="D345" s="42" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="E345" s="42"/>
       <c r="F345" s="42" t="s">
@@ -14657,87 +14661,87 @@
         <v>56</v>
       </c>
       <c r="B346" s="42" t="s">
-        <v>567</v>
-      </c>
-      <c r="C346" s="44" t="s">
-        <v>568</v>
-      </c>
-      <c r="D346" s="44"/>
-      <c r="E346" s="44"/>
-      <c r="F346" s="44"/>
-      <c r="G346" s="44"/>
-    </row>
-    <row r="347" spans="1:7" ht="30">
+        <v>575</v>
+      </c>
+      <c r="C346" s="47" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D346" s="42" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E346" s="42"/>
+      <c r="F346" s="42" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G346" s="47"/>
+    </row>
+    <row r="347" spans="1:7">
       <c r="A347" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B347" s="42" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="C347" s="47" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="D347" s="42" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E347" s="42"/>
       <c r="F347" s="42" t="s">
         <v>1158</v>
       </c>
-      <c r="G347" s="47" t="s">
-        <v>1107</v>
-      </c>
+      <c r="G347" s="47"/>
     </row>
     <row r="348" spans="1:7">
       <c r="A348" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B348" s="42" t="s">
-        <v>572</v>
-      </c>
-      <c r="C348" s="47" t="s">
-        <v>573</v>
-      </c>
-      <c r="D348" s="42" t="s">
-        <v>574</v>
-      </c>
-      <c r="E348" s="42"/>
-      <c r="F348" s="42" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G348" s="47"/>
-    </row>
-    <row r="349" spans="1:7">
+        <v>584</v>
+      </c>
+      <c r="C348" s="44" t="s">
+        <v>585</v>
+      </c>
+      <c r="D348" s="44"/>
+      <c r="E348" s="44"/>
+      <c r="F348" s="44"/>
+      <c r="G348" s="44"/>
+    </row>
+    <row r="349" spans="1:7" ht="30">
       <c r="A349" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B349" s="42" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="C349" s="47" t="s">
-        <v>1067</v>
+        <v>588</v>
       </c>
       <c r="D349" s="42" t="s">
-        <v>1066</v>
+        <v>586</v>
       </c>
       <c r="E349" s="42"/>
       <c r="F349" s="42" t="s">
         <v>1158</v>
       </c>
-      <c r="G349" s="47"/>
-    </row>
-    <row r="350" spans="1:7">
+      <c r="G349" s="47" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" ht="30">
       <c r="A350" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B350" s="42" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="C350" s="47" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="D350" s="42" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E350" s="42"/>
       <c r="F350" s="42" t="s">
@@ -14745,54 +14749,56 @@
       </c>
       <c r="G350" s="47"/>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" ht="30">
       <c r="A351" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B351" s="42" t="s">
-        <v>584</v>
-      </c>
-      <c r="C351" s="44" t="s">
-        <v>585</v>
-      </c>
-      <c r="D351" s="44"/>
-      <c r="E351" s="44"/>
-      <c r="F351" s="44"/>
-      <c r="G351" s="44"/>
-    </row>
-    <row r="352" spans="1:7" ht="30">
+        <v>591</v>
+      </c>
+      <c r="C351" s="42" t="s">
+        <v>592</v>
+      </c>
+      <c r="D351" s="42" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E351" s="42"/>
+      <c r="F351" s="42" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G351" s="42"/>
+    </row>
+    <row r="352" spans="1:7">
       <c r="A352" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B352" s="42" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C352" s="47" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="D352" s="42" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="E352" s="42"/>
       <c r="F352" s="42" t="s">
         <v>1158</v>
       </c>
-      <c r="G352" s="47" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" ht="30">
+      <c r="G352" s="47"/>
+    </row>
+    <row r="353" spans="1:7">
       <c r="A353" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B353" s="42" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="C353" s="47" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="D353" s="42" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="E353" s="42"/>
       <c r="F353" s="42" t="s">
@@ -14800,97 +14806,95 @@
       </c>
       <c r="G353" s="47"/>
     </row>
-    <row r="354" spans="1:7" ht="30">
+    <row r="354" spans="1:7">
       <c r="A354" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B354" s="42" t="s">
-        <v>591</v>
-      </c>
-      <c r="C354" s="42" t="s">
-        <v>592</v>
-      </c>
-      <c r="D354" s="42" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E354" s="42"/>
-      <c r="F354" s="42" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G354" s="42"/>
+        <v>599</v>
+      </c>
+      <c r="C354" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="D354" s="44"/>
+      <c r="E354" s="44"/>
+      <c r="F354" s="44"/>
+      <c r="G354" s="44"/>
     </row>
     <row r="355" spans="1:7">
       <c r="A355" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B355" s="42" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="C355" s="47" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="D355" s="42" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="E355" s="42"/>
       <c r="F355" s="42" t="s">
         <v>1158</v>
       </c>
-      <c r="G355" s="47"/>
+      <c r="G355" s="42" t="s">
+        <v>1108</v>
+      </c>
     </row>
     <row r="356" spans="1:7">
       <c r="A356" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B356" s="42" t="s">
-        <v>596</v>
-      </c>
-      <c r="C356" s="47" t="s">
-        <v>597</v>
+        <v>603</v>
+      </c>
+      <c r="C356" s="42" t="s">
+        <v>604</v>
       </c>
       <c r="D356" s="42" t="s">
-        <v>598</v>
+        <v>1063</v>
       </c>
       <c r="E356" s="42"/>
       <c r="F356" s="42" t="s">
         <v>1158</v>
       </c>
-      <c r="G356" s="47"/>
+      <c r="G356" s="42"/>
     </row>
     <row r="357" spans="1:7">
       <c r="A357" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B357" s="42" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="C357" s="44" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D357" s="44"/>
       <c r="E357" s="44"/>
       <c r="F357" s="44"/>
       <c r="G357" s="44"/>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" ht="30">
       <c r="A358" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B358" s="42" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="C358" s="47" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="D358" s="42" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E358" s="42"/>
       <c r="F358" s="42" t="s">
         <v>1158</v>
       </c>
-      <c r="G358" s="42" t="s">
-        <v>1108</v>
+      <c r="G358" s="47" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -14898,292 +14902,294 @@
         <v>56</v>
       </c>
       <c r="B359" s="42" t="s">
-        <v>603</v>
-      </c>
-      <c r="C359" s="42" t="s">
-        <v>604</v>
+        <v>608</v>
+      </c>
+      <c r="C359" s="47" t="s">
+        <v>609</v>
       </c>
       <c r="D359" s="42" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E359" s="42"/>
+        <v>1068</v>
+      </c>
+      <c r="E359" s="50"/>
       <c r="F359" s="42" t="s">
         <v>1158</v>
       </c>
-      <c r="G359" s="42"/>
+      <c r="G359" s="47"/>
     </row>
     <row r="360" spans="1:7">
       <c r="A360" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B360" s="42" t="s">
-        <v>605</v>
-      </c>
-      <c r="C360" s="44" t="s">
-        <v>606</v>
-      </c>
-      <c r="D360" s="44"/>
-      <c r="E360" s="44"/>
-      <c r="F360" s="44"/>
-      <c r="G360" s="44"/>
-    </row>
-    <row r="361" spans="1:7" ht="30">
+        <v>610</v>
+      </c>
+      <c r="C360" s="47" t="s">
+        <v>611</v>
+      </c>
+      <c r="D360" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="E360" s="42"/>
+      <c r="F360" s="42" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G360" s="47"/>
+    </row>
+    <row r="361" spans="1:7">
       <c r="A361" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B361" s="42" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C361" s="47" t="s">
-        <v>570</v>
+        <v>613</v>
       </c>
       <c r="D361" s="42" t="s">
-        <v>571</v>
+        <v>1066</v>
       </c>
       <c r="E361" s="42"/>
       <c r="F361" s="42" t="s">
         <v>1158</v>
       </c>
-      <c r="G361" s="47" t="s">
-        <v>1109</v>
-      </c>
+      <c r="G361" s="47"/>
     </row>
     <row r="362" spans="1:7">
       <c r="A362" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B362" s="42" t="s">
-        <v>608</v>
-      </c>
-      <c r="C362" s="47" t="s">
-        <v>609</v>
+        <v>614</v>
+      </c>
+      <c r="C362" s="42" t="s">
+        <v>615</v>
       </c>
       <c r="D362" s="42" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E362" s="50"/>
+        <v>1064</v>
+      </c>
+      <c r="E362" s="42" t="s">
+        <v>616</v>
+      </c>
       <c r="F362" s="42" t="s">
         <v>1158</v>
       </c>
-      <c r="G362" s="47"/>
+      <c r="G362" s="42"/>
     </row>
     <row r="363" spans="1:7">
       <c r="A363" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B363" s="42" t="s">
-        <v>610</v>
-      </c>
-      <c r="C363" s="47" t="s">
-        <v>611</v>
-      </c>
-      <c r="D363" s="42" t="s">
-        <v>577</v>
-      </c>
-      <c r="E363" s="42"/>
-      <c r="F363" s="42" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G363" s="47"/>
+      <c r="B363" s="42">
+        <v>11.2</v>
+      </c>
+      <c r="C363" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D363" s="44"/>
+      <c r="E363" s="44"/>
+      <c r="F363" s="44"/>
+      <c r="G363" s="44"/>
     </row>
     <row r="364" spans="1:7">
       <c r="A364" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B364" s="42" t="s">
-        <v>612</v>
-      </c>
-      <c r="C364" s="47" t="s">
-        <v>613</v>
-      </c>
-      <c r="D364" s="42" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E364" s="42"/>
-      <c r="F364" s="42" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G364" s="47"/>
-    </row>
-    <row r="365" spans="1:7">
+        <v>617</v>
+      </c>
+      <c r="C364" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D364" s="44"/>
+      <c r="E364" s="44"/>
+      <c r="F364" s="44"/>
+      <c r="G364" s="44"/>
+    </row>
+    <row r="365" spans="1:7" ht="45">
       <c r="A365" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B365" s="42" t="s">
-        <v>614</v>
-      </c>
-      <c r="C365" s="42" t="s">
-        <v>615</v>
+        <v>618</v>
+      </c>
+      <c r="C365" s="47" t="s">
+        <v>549</v>
       </c>
       <c r="D365" s="42" t="s">
-        <v>1064</v>
+        <v>1001</v>
       </c>
       <c r="E365" s="42" t="s">
-        <v>616</v>
+        <v>1207</v>
       </c>
       <c r="F365" s="42" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G365" s="42"/>
-    </row>
-    <row r="366" spans="1:7">
+        <v>1176</v>
+      </c>
+      <c r="G365" s="47" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" ht="75">
       <c r="A366" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B366" s="42">
-        <v>11.2</v>
-      </c>
-      <c r="C366" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D366" s="44"/>
-      <c r="E366" s="44"/>
-      <c r="F366" s="44"/>
-      <c r="G366" s="44"/>
-    </row>
-    <row r="367" spans="1:7">
+      <c r="B366" s="42" t="s">
+        <v>619</v>
+      </c>
+      <c r="C366" s="47" t="s">
+        <v>620</v>
+      </c>
+      <c r="D366" s="42" t="s">
+        <v>998</v>
+      </c>
+      <c r="E366" s="42" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F366" s="42" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G366" s="47"/>
+    </row>
+    <row r="367" spans="1:7" ht="30">
       <c r="A367" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B367" s="42" t="s">
-        <v>617</v>
-      </c>
-      <c r="C367" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D367" s="44"/>
-      <c r="E367" s="44"/>
-      <c r="F367" s="44"/>
-      <c r="G367" s="44"/>
-    </row>
-    <row r="368" spans="1:7" ht="45">
+        <v>621</v>
+      </c>
+      <c r="C367" s="47" t="s">
+        <v>553</v>
+      </c>
+      <c r="D367" s="42">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E367" s="42" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F367" s="42" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G367" s="47"/>
+    </row>
+    <row r="368" spans="1:7">
       <c r="A368" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B368" s="42" t="s">
-        <v>618</v>
-      </c>
-      <c r="C368" s="47" t="s">
-        <v>549</v>
-      </c>
-      <c r="D368" s="42" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E368" s="42" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F368" s="42" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G368" s="47" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" ht="75">
+        <v>622</v>
+      </c>
+      <c r="C368" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D368" s="44"/>
+      <c r="E368" s="44"/>
+      <c r="F368" s="44"/>
+      <c r="G368" s="44"/>
+    </row>
+    <row r="369" spans="1:7">
       <c r="A369" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B369" s="42" t="s">
-        <v>619</v>
-      </c>
-      <c r="C369" s="47" t="s">
-        <v>620</v>
-      </c>
-      <c r="D369" s="42" t="s">
-        <v>998</v>
-      </c>
-      <c r="E369" s="42" t="s">
-        <v>1221</v>
-      </c>
-      <c r="F369" s="42" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G369" s="47"/>
+        <v>623</v>
+      </c>
+      <c r="C369" s="44" t="s">
+        <v>624</v>
+      </c>
+      <c r="D369" s="44"/>
+      <c r="E369" s="44"/>
+      <c r="F369" s="44"/>
+      <c r="G369" s="44"/>
     </row>
     <row r="370" spans="1:7" ht="30">
       <c r="A370" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B370" s="42" t="s">
-        <v>621</v>
-      </c>
-      <c r="C370" s="47" t="s">
-        <v>553</v>
-      </c>
-      <c r="D370" s="42">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E370" s="42" t="s">
-        <v>1207</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="C370" s="42" t="s">
+        <v>626</v>
+      </c>
+      <c r="D370" s="42" t="s">
+        <v>627</v>
+      </c>
+      <c r="E370" s="42"/>
       <c r="F370" s="42" t="s">
         <v>1176</v>
       </c>
-      <c r="G370" s="47"/>
+      <c r="G370" s="47" t="s">
+        <v>1110</v>
+      </c>
     </row>
     <row r="371" spans="1:7">
       <c r="A371" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B371" s="42" t="s">
-        <v>622</v>
-      </c>
-      <c r="C371" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D371" s="44"/>
-      <c r="E371" s="44"/>
-      <c r="F371" s="44"/>
-      <c r="G371" s="44"/>
+        <v>628</v>
+      </c>
+      <c r="C371" s="47" t="s">
+        <v>629</v>
+      </c>
+      <c r="D371" s="42" t="s">
+        <v>630</v>
+      </c>
+      <c r="E371" s="42"/>
+      <c r="F371" s="42" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G371" s="47"/>
     </row>
     <row r="372" spans="1:7">
       <c r="A372" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B372" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="C372" s="44" t="s">
-        <v>624</v>
-      </c>
-      <c r="D372" s="44"/>
-      <c r="E372" s="44"/>
-      <c r="F372" s="44"/>
-      <c r="G372" s="44"/>
-    </row>
-    <row r="373" spans="1:7" ht="30">
+        <v>631</v>
+      </c>
+      <c r="C372" s="47" t="s">
+        <v>632</v>
+      </c>
+      <c r="D372" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="E372" s="42"/>
+      <c r="F372" s="42" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G372" s="47"/>
+    </row>
+    <row r="373" spans="1:7">
       <c r="A373" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B373" s="42" t="s">
-        <v>625</v>
-      </c>
-      <c r="C373" s="42" t="s">
-        <v>626</v>
+        <v>633</v>
+      </c>
+      <c r="C373" s="47" t="s">
+        <v>634</v>
       </c>
       <c r="D373" s="42" t="s">
-        <v>627</v>
+        <v>595</v>
       </c>
       <c r="E373" s="42"/>
       <c r="F373" s="42" t="s">
         <v>1176</v>
       </c>
-      <c r="G373" s="47" t="s">
-        <v>1110</v>
-      </c>
+      <c r="G373" s="47"/>
     </row>
     <row r="374" spans="1:7">
       <c r="A374" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B374" s="42" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="C374" s="47" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="D374" s="42" t="s">
-        <v>630</v>
+        <v>598</v>
       </c>
       <c r="E374" s="42"/>
       <c r="F374" s="42" t="s">
@@ -15191,18 +15197,18 @@
       </c>
       <c r="G374" s="47"/>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" ht="30">
       <c r="A375" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B375" s="42" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C375" s="47" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="D375" s="42" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="E375" s="42"/>
       <c r="F375" s="42" t="s">
@@ -15215,92 +15221,92 @@
         <v>56</v>
       </c>
       <c r="B376" s="42" t="s">
-        <v>633</v>
-      </c>
-      <c r="C376" s="47" t="s">
-        <v>634</v>
-      </c>
-      <c r="D376" s="42" t="s">
-        <v>595</v>
-      </c>
-      <c r="E376" s="42"/>
-      <c r="F376" s="42" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G376" s="47"/>
+        <v>639</v>
+      </c>
+      <c r="C376" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="D376" s="44"/>
+      <c r="E376" s="44"/>
+      <c r="F376" s="44"/>
+      <c r="G376" s="44"/>
     </row>
     <row r="377" spans="1:7">
       <c r="A377" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B377" s="42" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="C377" s="47" t="s">
-        <v>636</v>
+        <v>602</v>
       </c>
       <c r="D377" s="42" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="E377" s="42"/>
       <c r="F377" s="42" t="s">
         <v>1176</v>
       </c>
-      <c r="G377" s="47"/>
-    </row>
-    <row r="378" spans="1:7" ht="30">
+      <c r="G377" s="47" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
       <c r="A378" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B378" s="42" t="s">
-        <v>637</v>
-      </c>
-      <c r="C378" s="47" t="s">
-        <v>638</v>
+        <v>641</v>
+      </c>
+      <c r="C378" s="42" t="s">
+        <v>604</v>
       </c>
       <c r="D378" s="42" t="s">
-        <v>566</v>
-      </c>
-      <c r="E378" s="42"/>
+        <v>1063</v>
+      </c>
+      <c r="E378" s="42" t="s">
+        <v>1222</v>
+      </c>
       <c r="F378" s="42" t="s">
         <v>1176</v>
       </c>
-      <c r="G378" s="47"/>
+      <c r="G378" s="42"/>
     </row>
     <row r="379" spans="1:7">
       <c r="A379" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B379" s="42" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C379" s="44" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D379" s="44"/>
       <c r="E379" s="44"/>
       <c r="F379" s="44"/>
       <c r="G379" s="44"/>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" ht="30">
       <c r="A380" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B380" s="42" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C380" s="47" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="D380" s="42" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E380" s="42"/>
       <c r="F380" s="42" t="s">
         <v>1176</v>
       </c>
       <c r="G380" s="47" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -15308,294 +15314,294 @@
         <v>56</v>
       </c>
       <c r="B381" s="42" t="s">
-        <v>641</v>
-      </c>
-      <c r="C381" s="42" t="s">
-        <v>604</v>
+        <v>644</v>
+      </c>
+      <c r="C381" s="47" t="s">
+        <v>645</v>
       </c>
       <c r="D381" s="42" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E381" s="42" t="s">
-        <v>1222</v>
-      </c>
+        <v>1068</v>
+      </c>
+      <c r="E381" s="50"/>
       <c r="F381" s="42" t="s">
         <v>1176</v>
       </c>
-      <c r="G381" s="42"/>
+      <c r="G381" s="47"/>
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B382" s="42" t="s">
-        <v>642</v>
-      </c>
-      <c r="C382" s="44" t="s">
-        <v>606</v>
-      </c>
-      <c r="D382" s="44"/>
-      <c r="E382" s="44"/>
-      <c r="F382" s="44"/>
-      <c r="G382" s="44"/>
-    </row>
-    <row r="383" spans="1:7" ht="30">
+        <v>646</v>
+      </c>
+      <c r="C382" s="47" t="s">
+        <v>611</v>
+      </c>
+      <c r="D382" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="E382" s="42"/>
+      <c r="F382" s="42" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G382" s="47"/>
+    </row>
+    <row r="383" spans="1:7">
       <c r="A383" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B383" s="42" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C383" s="47" t="s">
-        <v>570</v>
+        <v>613</v>
       </c>
       <c r="D383" s="42" t="s">
-        <v>571</v>
+        <v>1066</v>
       </c>
       <c r="E383" s="42"/>
       <c r="F383" s="42" t="s">
         <v>1176</v>
       </c>
-      <c r="G383" s="47" t="s">
-        <v>1109</v>
-      </c>
+      <c r="G383" s="42"/>
     </row>
     <row r="384" spans="1:7">
       <c r="A384" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B384" s="42" t="s">
-        <v>644</v>
-      </c>
-      <c r="C384" s="47" t="s">
-        <v>645</v>
+        <v>648</v>
+      </c>
+      <c r="C384" s="42" t="s">
+        <v>615</v>
       </c>
       <c r="D384" s="42" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E384" s="50"/>
+        <v>1064</v>
+      </c>
+      <c r="E384" s="42" t="s">
+        <v>616</v>
+      </c>
       <c r="F384" s="42" t="s">
         <v>1176</v>
       </c>
-      <c r="G384" s="47"/>
+      <c r="G384" s="42"/>
     </row>
     <row r="385" spans="1:7">
       <c r="A385" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B385" s="42" t="s">
-        <v>646</v>
-      </c>
-      <c r="C385" s="47" t="s">
-        <v>611</v>
-      </c>
-      <c r="D385" s="42" t="s">
-        <v>577</v>
-      </c>
-      <c r="E385" s="42"/>
-      <c r="F385" s="42" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G385" s="47"/>
+      <c r="B385" s="42">
+        <v>11.3</v>
+      </c>
+      <c r="C385" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D385" s="44"/>
+      <c r="E385" s="44"/>
+      <c r="F385" s="44"/>
+      <c r="G385" s="44"/>
     </row>
     <row r="386" spans="1:7">
       <c r="A386" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B386" s="42" t="s">
-        <v>647</v>
-      </c>
-      <c r="C386" s="47" t="s">
-        <v>613</v>
-      </c>
-      <c r="D386" s="42" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E386" s="42"/>
-      <c r="F386" s="42" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G386" s="42"/>
-    </row>
-    <row r="387" spans="1:7">
+        <v>649</v>
+      </c>
+      <c r="C386" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D386" s="44"/>
+      <c r="E386" s="44"/>
+      <c r="F386" s="44"/>
+      <c r="G386" s="44"/>
+    </row>
+    <row r="387" spans="1:7" ht="45">
       <c r="A387" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B387" s="42" t="s">
-        <v>648</v>
-      </c>
-      <c r="C387" s="42" t="s">
-        <v>615</v>
-      </c>
-      <c r="D387" s="42" t="s">
-        <v>1064</v>
+        <v>650</v>
+      </c>
+      <c r="C387" s="47" t="s">
+        <v>651</v>
+      </c>
+      <c r="D387" s="42">
+        <v>78.3</v>
       </c>
       <c r="E387" s="42" t="s">
-        <v>616</v>
+        <v>1207</v>
       </c>
       <c r="F387" s="42" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G387" s="42"/>
-    </row>
-    <row r="388" spans="1:7">
+        <v>1179</v>
+      </c>
+      <c r="G387" s="47" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" ht="60">
       <c r="A388" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B388" s="42">
-        <v>11.3</v>
-      </c>
-      <c r="C388" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D388" s="44"/>
-      <c r="E388" s="44"/>
-      <c r="F388" s="44"/>
-      <c r="G388" s="44"/>
-    </row>
-    <row r="389" spans="1:7">
+      <c r="B388" s="42" t="s">
+        <v>652</v>
+      </c>
+      <c r="C388" s="42" t="s">
+        <v>653</v>
+      </c>
+      <c r="D388" s="42" t="s">
+        <v>998</v>
+      </c>
+      <c r="E388" s="42" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F388" s="42" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G388" s="42"/>
+    </row>
+    <row r="389" spans="1:7" ht="30">
       <c r="A389" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B389" s="42" t="s">
-        <v>649</v>
-      </c>
-      <c r="C389" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D389" s="44"/>
-      <c r="E389" s="44"/>
-      <c r="F389" s="44"/>
-      <c r="G389" s="44"/>
-    </row>
-    <row r="390" spans="1:7" ht="45">
+        <v>654</v>
+      </c>
+      <c r="C389" s="47" t="s">
+        <v>655</v>
+      </c>
+      <c r="D389" s="42">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E389" s="42" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F389" s="42" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G389" s="47"/>
+    </row>
+    <row r="390" spans="1:7">
       <c r="A390" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B390" s="42" t="s">
-        <v>650</v>
-      </c>
-      <c r="C390" s="47" t="s">
-        <v>651</v>
-      </c>
-      <c r="D390" s="42">
-        <v>78.3</v>
-      </c>
-      <c r="E390" s="42" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F390" s="42" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G390" s="47" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7" ht="60">
+        <v>656</v>
+      </c>
+      <c r="C390" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D390" s="44"/>
+      <c r="E390" s="44"/>
+      <c r="F390" s="44"/>
+      <c r="G390" s="44"/>
+    </row>
+    <row r="391" spans="1:7">
       <c r="A391" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B391" s="42" t="s">
-        <v>652</v>
-      </c>
-      <c r="C391" s="42" t="s">
-        <v>653</v>
-      </c>
-      <c r="D391" s="42" t="s">
-        <v>998</v>
-      </c>
-      <c r="E391" s="42" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F391" s="42" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G391" s="42"/>
+        <v>657</v>
+      </c>
+      <c r="C391" s="44" t="s">
+        <v>624</v>
+      </c>
+      <c r="D391" s="44"/>
+      <c r="E391" s="44"/>
+      <c r="F391" s="44"/>
+      <c r="G391" s="44"/>
     </row>
     <row r="392" spans="1:7" ht="30">
       <c r="A392" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B392" s="42" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C392" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="D392" s="42">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E392" s="42" t="s">
-        <v>1207</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="D392" s="42" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E392" s="42"/>
       <c r="F392" s="42" t="s">
         <v>1179</v>
       </c>
-      <c r="G392" s="47"/>
+      <c r="G392" s="47" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="393" spans="1:7">
       <c r="A393" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B393" s="42" t="s">
-        <v>656</v>
-      </c>
-      <c r="C393" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D393" s="44"/>
-      <c r="E393" s="44"/>
-      <c r="F393" s="44"/>
-      <c r="G393" s="44"/>
+        <v>660</v>
+      </c>
+      <c r="C393" s="47" t="s">
+        <v>661</v>
+      </c>
+      <c r="D393" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="E393" s="42"/>
+      <c r="F393" s="42" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G393" s="47"/>
     </row>
     <row r="394" spans="1:7">
       <c r="A394" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B394" s="42" t="s">
-        <v>657</v>
-      </c>
-      <c r="C394" s="44" t="s">
-        <v>624</v>
-      </c>
-      <c r="D394" s="44"/>
-      <c r="E394" s="44"/>
-      <c r="F394" s="44"/>
-      <c r="G394" s="44"/>
-    </row>
-    <row r="395" spans="1:7" ht="30">
+        <v>663</v>
+      </c>
+      <c r="C394" s="47" t="s">
+        <v>664</v>
+      </c>
+      <c r="D394" s="42" t="s">
+        <v>560</v>
+      </c>
+      <c r="E394" s="42"/>
+      <c r="F394" s="42" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G394" s="47"/>
+    </row>
+    <row r="395" spans="1:7">
       <c r="A395" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B395" s="42" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="C395" s="47" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="D395" s="42" t="s">
-        <v>1034</v>
+        <v>583</v>
       </c>
       <c r="E395" s="42"/>
       <c r="F395" s="42" t="s">
         <v>1179</v>
       </c>
-      <c r="G395" s="47" t="s">
-        <v>1111</v>
-      </c>
+      <c r="G395" s="47"/>
     </row>
     <row r="396" spans="1:7">
       <c r="A396" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B396" s="42" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="C396" s="47" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="D396" s="42" t="s">
-        <v>662</v>
+        <v>598</v>
       </c>
       <c r="E396" s="42"/>
       <c r="F396" s="42" t="s">
@@ -15603,18 +15609,18 @@
       </c>
       <c r="G396" s="47"/>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" ht="30">
       <c r="A397" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B397" s="42" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="C397" s="47" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
       <c r="D397" s="42" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="E397" s="42"/>
       <c r="F397" s="42" t="s">
@@ -15627,92 +15633,92 @@
         <v>56</v>
       </c>
       <c r="B398" s="42" t="s">
-        <v>665</v>
-      </c>
-      <c r="C398" s="47" t="s">
-        <v>666</v>
-      </c>
-      <c r="D398" s="42" t="s">
-        <v>583</v>
-      </c>
-      <c r="E398" s="42"/>
-      <c r="F398" s="42" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G398" s="47"/>
+        <v>670</v>
+      </c>
+      <c r="C398" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="D398" s="44"/>
+      <c r="E398" s="44"/>
+      <c r="F398" s="44"/>
+      <c r="G398" s="44"/>
     </row>
     <row r="399" spans="1:7">
       <c r="A399" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B399" s="42" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C399" s="47" t="s">
-        <v>668</v>
+        <v>602</v>
       </c>
       <c r="D399" s="42" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="E399" s="42"/>
       <c r="F399" s="42" t="s">
         <v>1179</v>
       </c>
-      <c r="G399" s="47"/>
-    </row>
-    <row r="400" spans="1:7" ht="30">
+      <c r="G399" s="47" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
       <c r="A400" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B400" s="42" t="s">
-        <v>669</v>
-      </c>
-      <c r="C400" s="47" t="s">
-        <v>638</v>
+        <v>672</v>
+      </c>
+      <c r="C400" s="42" t="s">
+        <v>604</v>
       </c>
       <c r="D400" s="42" t="s">
-        <v>566</v>
-      </c>
-      <c r="E400" s="42"/>
+        <v>1063</v>
+      </c>
+      <c r="E400" s="42" t="s">
+        <v>1222</v>
+      </c>
       <c r="F400" s="42" t="s">
         <v>1179</v>
       </c>
-      <c r="G400" s="47"/>
+      <c r="G400" s="42"/>
     </row>
     <row r="401" spans="1:7">
       <c r="A401" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B401" s="42" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C401" s="44" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D401" s="44"/>
       <c r="E401" s="44"/>
       <c r="F401" s="44"/>
       <c r="G401" s="44"/>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" ht="30">
       <c r="A402" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B402" s="42" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C402" s="47" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="D402" s="42" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E402" s="42"/>
       <c r="F402" s="42" t="s">
         <v>1179</v>
       </c>
       <c r="G402" s="47" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -15720,332 +15726,330 @@
         <v>56</v>
       </c>
       <c r="B403" s="42" t="s">
-        <v>672</v>
-      </c>
-      <c r="C403" s="42" t="s">
-        <v>604</v>
+        <v>675</v>
+      </c>
+      <c r="C403" s="47" t="s">
+        <v>645</v>
       </c>
       <c r="D403" s="42" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E403" s="42" t="s">
-        <v>1222</v>
-      </c>
+        <v>1068</v>
+      </c>
+      <c r="E403" s="50"/>
       <c r="F403" s="42" t="s">
         <v>1179</v>
       </c>
-      <c r="G403" s="42"/>
+      <c r="G403" s="47"/>
     </row>
     <row r="404" spans="1:7">
       <c r="A404" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B404" s="42" t="s">
-        <v>673</v>
-      </c>
-      <c r="C404" s="44" t="s">
-        <v>606</v>
-      </c>
-      <c r="D404" s="44"/>
-      <c r="E404" s="44"/>
-      <c r="F404" s="44"/>
-      <c r="G404" s="44"/>
-    </row>
-    <row r="405" spans="1:7" ht="30">
+        <v>676</v>
+      </c>
+      <c r="C404" s="47" t="s">
+        <v>611</v>
+      </c>
+      <c r="D404" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="E404" s="42"/>
+      <c r="F404" s="42" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G404" s="47"/>
+    </row>
+    <row r="405" spans="1:7">
       <c r="A405" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B405" s="42" t="s">
-        <v>674</v>
-      </c>
-      <c r="C405" s="47" t="s">
-        <v>570</v>
+        <v>677</v>
+      </c>
+      <c r="C405" s="42" t="s">
+        <v>613</v>
       </c>
       <c r="D405" s="42" t="s">
-        <v>571</v>
+        <v>1066</v>
       </c>
       <c r="E405" s="42"/>
       <c r="F405" s="42" t="s">
         <v>1179</v>
       </c>
-      <c r="G405" s="47" t="s">
-        <v>1109</v>
-      </c>
+      <c r="G405" s="42"/>
     </row>
     <row r="406" spans="1:7">
       <c r="A406" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B406" s="42" t="s">
-        <v>675</v>
-      </c>
-      <c r="C406" s="47" t="s">
-        <v>645</v>
+        <v>678</v>
+      </c>
+      <c r="C406" s="42" t="s">
+        <v>615</v>
       </c>
       <c r="D406" s="42" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E406" s="50"/>
+        <v>1064</v>
+      </c>
+      <c r="E406" s="42" t="s">
+        <v>616</v>
+      </c>
       <c r="F406" s="42" t="s">
         <v>1179</v>
       </c>
-      <c r="G406" s="47"/>
+      <c r="G406" s="42"/>
     </row>
     <row r="407" spans="1:7">
       <c r="A407" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B407" s="42" t="s">
-        <v>676</v>
-      </c>
-      <c r="C407" s="47" t="s">
-        <v>611</v>
-      </c>
-      <c r="D407" s="42" t="s">
-        <v>577</v>
-      </c>
-      <c r="E407" s="42"/>
-      <c r="F407" s="42" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G407" s="47"/>
+      <c r="B407" s="42">
+        <v>11.4</v>
+      </c>
+      <c r="C407" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D407" s="44"/>
+      <c r="E407" s="44"/>
+      <c r="F407" s="44"/>
+      <c r="G407" s="44"/>
     </row>
     <row r="408" spans="1:7">
       <c r="A408" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B408" s="42" t="s">
-        <v>677</v>
-      </c>
-      <c r="C408" s="42" t="s">
-        <v>613</v>
-      </c>
-      <c r="D408" s="42" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E408" s="42"/>
-      <c r="F408" s="42" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G408" s="42"/>
-    </row>
-    <row r="409" spans="1:7">
+        <v>679</v>
+      </c>
+      <c r="C408" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D408" s="44"/>
+      <c r="E408" s="44"/>
+      <c r="F408" s="44"/>
+      <c r="G408" s="44"/>
+    </row>
+    <row r="409" spans="1:7" ht="78.75">
       <c r="A409" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B409" s="42" t="s">
-        <v>678</v>
-      </c>
-      <c r="C409" s="42" t="s">
-        <v>615</v>
-      </c>
-      <c r="D409" s="42" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E409" s="42" t="s">
-        <v>616</v>
+        <v>680</v>
+      </c>
+      <c r="C409" s="47" t="s">
+        <v>651</v>
+      </c>
+      <c r="D409" s="42">
+        <v>78.3</v>
+      </c>
+      <c r="E409" s="6" t="s">
+        <v>1224</v>
       </c>
       <c r="F409" s="42" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G409" s="42"/>
-    </row>
-    <row r="410" spans="1:7">
+        <v>1182</v>
+      </c>
+      <c r="G409" s="47" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" ht="90">
       <c r="A410" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B410" s="42">
-        <v>11.4</v>
-      </c>
-      <c r="C410" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D410" s="44"/>
-      <c r="E410" s="44"/>
-      <c r="F410" s="44"/>
-      <c r="G410" s="44"/>
-    </row>
-    <row r="411" spans="1:7">
+      <c r="B410" s="42" t="s">
+        <v>681</v>
+      </c>
+      <c r="C410" s="47" t="s">
+        <v>682</v>
+      </c>
+      <c r="D410" s="42">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E410" s="42" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F410" s="42" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G410" s="47"/>
+    </row>
+    <row r="411" spans="1:7" ht="30">
       <c r="A411" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B411" s="42" t="s">
-        <v>679</v>
-      </c>
-      <c r="C411" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D411" s="44"/>
-      <c r="E411" s="44"/>
-      <c r="F411" s="44"/>
-      <c r="G411" s="44"/>
-    </row>
-    <row r="412" spans="1:7" ht="78.75">
+        <v>683</v>
+      </c>
+      <c r="C411" s="47" t="s">
+        <v>655</v>
+      </c>
+      <c r="D411" s="42">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E411" s="42" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F411" s="42" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G411" s="47"/>
+    </row>
+    <row r="412" spans="1:7">
       <c r="A412" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B412" s="42" t="s">
-        <v>680</v>
-      </c>
-      <c r="C412" s="47" t="s">
-        <v>651</v>
-      </c>
-      <c r="D412" s="42">
-        <v>78.3</v>
-      </c>
-      <c r="E412" s="6" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F412" s="42" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G412" s="47" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7" ht="90">
+        <v>684</v>
+      </c>
+      <c r="C412" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D412" s="44"/>
+      <c r="E412" s="44"/>
+      <c r="F412" s="44"/>
+      <c r="G412" s="44"/>
+    </row>
+    <row r="413" spans="1:7">
       <c r="A413" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B413" s="42" t="s">
-        <v>681</v>
-      </c>
-      <c r="C413" s="47" t="s">
-        <v>682</v>
-      </c>
-      <c r="D413" s="42">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E413" s="42" t="s">
-        <v>1225</v>
-      </c>
-      <c r="F413" s="42" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G413" s="47"/>
-    </row>
-    <row r="414" spans="1:7" ht="30">
+        <v>685</v>
+      </c>
+      <c r="C413" s="44" t="s">
+        <v>624</v>
+      </c>
+      <c r="D413" s="44"/>
+      <c r="E413" s="44"/>
+      <c r="F413" s="44"/>
+      <c r="G413" s="44"/>
+    </row>
+    <row r="414" spans="1:7">
       <c r="A414" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B414" s="42" t="s">
-        <v>683</v>
-      </c>
-      <c r="C414" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="D414" s="42">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E414" s="42" t="s">
-        <v>1207</v>
-      </c>
+        <v>686</v>
+      </c>
+      <c r="C414" s="42" t="s">
+        <v>626</v>
+      </c>
+      <c r="D414" s="42" t="s">
+        <v>627</v>
+      </c>
+      <c r="E414" s="42"/>
       <c r="F414" s="42" t="s">
         <v>1182</v>
       </c>
-      <c r="G414" s="47"/>
+      <c r="G414" s="42" t="s">
+        <v>1112</v>
+      </c>
     </row>
     <row r="415" spans="1:7">
       <c r="A415" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B415" s="42" t="s">
-        <v>684</v>
-      </c>
-      <c r="C415" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D415" s="44"/>
-      <c r="E415" s="44"/>
-      <c r="F415" s="44"/>
-      <c r="G415" s="44"/>
+        <v>687</v>
+      </c>
+      <c r="C415" s="47" t="s">
+        <v>688</v>
+      </c>
+      <c r="D415" s="42" t="s">
+        <v>557</v>
+      </c>
+      <c r="E415" s="42"/>
+      <c r="F415" s="42" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G415" s="47"/>
     </row>
     <row r="416" spans="1:7">
       <c r="A416" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B416" s="42" t="s">
-        <v>685</v>
-      </c>
-      <c r="C416" s="44" t="s">
-        <v>624</v>
-      </c>
-      <c r="D416" s="44"/>
-      <c r="E416" s="44"/>
-      <c r="F416" s="44"/>
-      <c r="G416" s="44"/>
+        <v>689</v>
+      </c>
+      <c r="C416" s="47" t="s">
+        <v>690</v>
+      </c>
+      <c r="D416" s="42" t="s">
+        <v>560</v>
+      </c>
+      <c r="E416" s="42"/>
+      <c r="F416" s="42" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G416" s="47"/>
     </row>
     <row r="417" spans="1:7">
       <c r="A417" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B417" s="42" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="C417" s="42" t="s">
-        <v>626</v>
+        <v>692</v>
       </c>
       <c r="D417" s="42" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="E417" s="42"/>
       <c r="F417" s="42" t="s">
         <v>1182</v>
       </c>
-      <c r="G417" s="42" t="s">
-        <v>1112</v>
-      </c>
+      <c r="G417" s="42"/>
     </row>
     <row r="418" spans="1:7">
       <c r="A418" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B418" s="42" t="s">
-        <v>687</v>
-      </c>
-      <c r="C418" s="47" t="s">
-        <v>688</v>
-      </c>
-      <c r="D418" s="42" t="s">
-        <v>557</v>
-      </c>
-      <c r="E418" s="42"/>
-      <c r="F418" s="42" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G418" s="47"/>
+        <v>693</v>
+      </c>
+      <c r="C418" s="44" t="s">
+        <v>694</v>
+      </c>
+      <c r="D418" s="44"/>
+      <c r="E418" s="44"/>
+      <c r="F418" s="44"/>
+      <c r="G418" s="44"/>
     </row>
     <row r="419" spans="1:7">
       <c r="A419" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B419" s="42" t="s">
-        <v>689</v>
-      </c>
-      <c r="C419" s="47" t="s">
-        <v>690</v>
+        <v>695</v>
+      </c>
+      <c r="C419" s="61" t="s">
+        <v>1294</v>
       </c>
       <c r="D419" s="42" t="s">
-        <v>560</v>
+        <v>1039</v>
       </c>
       <c r="E419" s="42"/>
       <c r="F419" s="42" t="s">
         <v>1182</v>
       </c>
-      <c r="G419" s="47"/>
+      <c r="G419" s="42" t="s">
+        <v>1113</v>
+      </c>
     </row>
     <row r="420" spans="1:7">
       <c r="A420" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B420" s="42" t="s">
-        <v>691</v>
-      </c>
-      <c r="C420" s="42" t="s">
-        <v>692</v>
+        <v>698</v>
+      </c>
+      <c r="C420" s="61" t="s">
+        <v>1295</v>
       </c>
       <c r="D420" s="42" t="s">
-        <v>566</v>
+        <v>697</v>
       </c>
       <c r="E420" s="42"/>
       <c r="F420" s="42" t="s">
@@ -16058,123 +16062,125 @@
         <v>56</v>
       </c>
       <c r="B421" s="42" t="s">
-        <v>693</v>
-      </c>
-      <c r="C421" s="44" t="s">
-        <v>694</v>
-      </c>
-      <c r="D421" s="44"/>
-      <c r="E421" s="44"/>
-      <c r="F421" s="44"/>
-      <c r="G421" s="44"/>
+        <v>701</v>
+      </c>
+      <c r="C421" s="61" t="s">
+        <v>702</v>
+      </c>
+      <c r="D421" s="42" t="s">
+        <v>700</v>
+      </c>
+      <c r="E421" s="42"/>
+      <c r="F421" s="42" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G421" s="42"/>
     </row>
     <row r="422" spans="1:7">
       <c r="A422" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B422" s="42" t="s">
-        <v>695</v>
-      </c>
-      <c r="C422" s="61" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D422" s="42" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E422" s="42"/>
-      <c r="F422" s="42" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G422" s="42" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7">
+        <v>703</v>
+      </c>
+      <c r="C422" s="44" t="s">
+        <v>606</v>
+      </c>
+      <c r="D422" s="44"/>
+      <c r="E422" s="44"/>
+      <c r="F422" s="44"/>
+      <c r="G422" s="44"/>
+    </row>
+    <row r="423" spans="1:7" ht="30">
       <c r="A423" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B423" s="42" t="s">
-        <v>698</v>
-      </c>
-      <c r="C423" s="61" t="s">
-        <v>1295</v>
+        <v>704</v>
+      </c>
+      <c r="C423" s="47" t="s">
+        <v>570</v>
       </c>
       <c r="D423" s="42" t="s">
-        <v>697</v>
+        <v>571</v>
       </c>
       <c r="E423" s="42"/>
       <c r="F423" s="42" t="s">
         <v>1182</v>
       </c>
-      <c r="G423" s="42"/>
+      <c r="G423" s="47" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="424" spans="1:7">
       <c r="A424" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B424" s="42" t="s">
-        <v>701</v>
-      </c>
-      <c r="C424" s="61" t="s">
-        <v>702</v>
+        <v>705</v>
+      </c>
+      <c r="C424" s="47" t="s">
+        <v>706</v>
       </c>
       <c r="D424" s="42" t="s">
-        <v>700</v>
+        <v>574</v>
       </c>
       <c r="E424" s="42"/>
       <c r="F424" s="42" t="s">
         <v>1182</v>
       </c>
-      <c r="G424" s="42"/>
+      <c r="G424" s="47"/>
     </row>
     <row r="425" spans="1:7">
       <c r="A425" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B425" s="42" t="s">
-        <v>703</v>
-      </c>
-      <c r="C425" s="44" t="s">
-        <v>606</v>
-      </c>
-      <c r="D425" s="44"/>
-      <c r="E425" s="44"/>
-      <c r="F425" s="44"/>
-      <c r="G425" s="44"/>
-    </row>
-    <row r="426" spans="1:7" ht="30">
+        <v>707</v>
+      </c>
+      <c r="C425" s="47" t="s">
+        <v>611</v>
+      </c>
+      <c r="D425" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="E425" s="42"/>
+      <c r="F425" s="42" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G425" s="47"/>
+    </row>
+    <row r="426" spans="1:7">
       <c r="A426" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B426" s="42" t="s">
-        <v>704</v>
-      </c>
-      <c r="C426" s="47" t="s">
-        <v>570</v>
+        <v>708</v>
+      </c>
+      <c r="C426" s="42" t="s">
+        <v>613</v>
       </c>
       <c r="D426" s="42" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="E426" s="42"/>
       <c r="F426" s="42" t="s">
         <v>1182</v>
       </c>
-      <c r="G426" s="47" t="s">
-        <v>1114</v>
-      </c>
+      <c r="G426" s="42"/>
     </row>
     <row r="427" spans="1:7">
       <c r="A427" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B427" s="42" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="C427" s="47" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
       <c r="D427" s="42" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="E427" s="42"/>
       <c r="F427" s="42" t="s">
@@ -16187,51 +16193,51 @@
         <v>56</v>
       </c>
       <c r="B428" s="42" t="s">
-        <v>707</v>
-      </c>
-      <c r="C428" s="47" t="s">
-        <v>611</v>
-      </c>
-      <c r="D428" s="42" t="s">
-        <v>577</v>
-      </c>
-      <c r="E428" s="42"/>
+        <v>711</v>
+      </c>
+      <c r="C428" s="44" t="s">
+        <v>585</v>
+      </c>
+      <c r="D428" s="44"/>
+      <c r="E428" s="44"/>
       <c r="F428" s="42" t="s">
         <v>1182</v>
       </c>
-      <c r="G428" s="47"/>
-    </row>
-    <row r="429" spans="1:7">
+      <c r="G428" s="44"/>
+    </row>
+    <row r="429" spans="1:7" ht="30">
       <c r="A429" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B429" s="42" t="s">
-        <v>708</v>
-      </c>
-      <c r="C429" s="42" t="s">
-        <v>613</v>
+        <v>712</v>
+      </c>
+      <c r="C429" s="47" t="s">
+        <v>588</v>
       </c>
       <c r="D429" s="42" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="E429" s="42"/>
       <c r="F429" s="42" t="s">
         <v>1182</v>
       </c>
-      <c r="G429" s="42"/>
-    </row>
-    <row r="430" spans="1:7">
+      <c r="G429" s="47" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" ht="30">
       <c r="A430" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B430" s="42" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C430" s="47" t="s">
-        <v>666</v>
+        <v>590</v>
       </c>
       <c r="D430" s="42" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E430" s="42"/>
       <c r="F430" s="42" t="s">
@@ -16244,77 +16250,77 @@
         <v>56</v>
       </c>
       <c r="B431" s="42" t="s">
-        <v>711</v>
-      </c>
-      <c r="C431" s="44" t="s">
-        <v>585</v>
-      </c>
-      <c r="D431" s="44"/>
-      <c r="E431" s="44"/>
+        <v>714</v>
+      </c>
+      <c r="C431" s="47" t="s">
+        <v>715</v>
+      </c>
+      <c r="D431" s="42" t="s">
+        <v>586</v>
+      </c>
+      <c r="E431" s="42"/>
       <c r="F431" s="42" t="s">
         <v>1182</v>
       </c>
-      <c r="G431" s="44"/>
-    </row>
-    <row r="432" spans="1:7" ht="30">
+      <c r="G431" s="47" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7">
       <c r="A432" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B432" s="42" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C432" s="47" t="s">
-        <v>588</v>
+        <v>668</v>
       </c>
       <c r="D432" s="42" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="E432" s="42"/>
       <c r="F432" s="42" t="s">
         <v>1182</v>
       </c>
-      <c r="G432" s="47" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7" ht="30">
+      <c r="G432" s="47"/>
+    </row>
+    <row r="433" spans="1:7">
       <c r="A433" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B433" s="42" t="s">
-        <v>713</v>
-      </c>
-      <c r="C433" s="47" t="s">
-        <v>590</v>
-      </c>
-      <c r="D433" s="42" t="s">
-        <v>586</v>
-      </c>
-      <c r="E433" s="42"/>
+        <v>717</v>
+      </c>
+      <c r="C433" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="D433" s="44"/>
+      <c r="E433" s="44"/>
       <c r="F433" s="42" t="s">
         <v>1182</v>
       </c>
-      <c r="G433" s="47"/>
+      <c r="G433" s="44"/>
     </row>
     <row r="434" spans="1:7">
       <c r="A434" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B434" s="42" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C434" s="47" t="s">
-        <v>715</v>
+        <v>602</v>
       </c>
       <c r="D434" s="42" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="E434" s="42"/>
       <c r="F434" s="42" t="s">
         <v>1182</v>
       </c>
       <c r="G434" s="47" t="s">
-        <v>586</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -16322,29 +16328,31 @@
         <v>56</v>
       </c>
       <c r="B435" s="42" t="s">
-        <v>716</v>
-      </c>
-      <c r="C435" s="47" t="s">
-        <v>668</v>
+        <v>719</v>
+      </c>
+      <c r="C435" s="42" t="s">
+        <v>604</v>
       </c>
       <c r="D435" s="42" t="s">
-        <v>598</v>
-      </c>
-      <c r="E435" s="42"/>
+        <v>1063</v>
+      </c>
+      <c r="E435" s="42" t="s">
+        <v>1222</v>
+      </c>
       <c r="F435" s="42" t="s">
         <v>1182</v>
       </c>
-      <c r="G435" s="47"/>
+      <c r="G435" s="42"/>
     </row>
     <row r="436" spans="1:7">
       <c r="A436" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B436" s="42" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C436" s="44" t="s">
-        <v>600</v>
+        <v>1073</v>
       </c>
       <c r="D436" s="44"/>
       <c r="E436" s="44"/>
@@ -16358,126 +16366,122 @@
         <v>56</v>
       </c>
       <c r="B437" s="42" t="s">
-        <v>718</v>
-      </c>
-      <c r="C437" s="47" t="s">
-        <v>602</v>
+        <v>725</v>
+      </c>
+      <c r="C437" s="42" t="s">
+        <v>615</v>
       </c>
       <c r="D437" s="42" t="s">
-        <v>577</v>
-      </c>
-      <c r="E437" s="42"/>
+        <v>1064</v>
+      </c>
+      <c r="E437" s="42" t="s">
+        <v>616</v>
+      </c>
       <c r="F437" s="42" t="s">
         <v>1182</v>
       </c>
-      <c r="G437" s="47" t="s">
-        <v>1108</v>
-      </c>
+      <c r="G437" s="42"/>
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B438" s="42" t="s">
-        <v>719</v>
-      </c>
-      <c r="C438" s="42" t="s">
-        <v>604</v>
-      </c>
-      <c r="D438" s="42" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E438" s="42" t="s">
-        <v>1222</v>
-      </c>
+      <c r="B438" s="42">
+        <v>11.5</v>
+      </c>
+      <c r="C438" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D438" s="44"/>
+      <c r="E438" s="44"/>
       <c r="F438" s="42" t="s">
         <v>1182</v>
       </c>
-      <c r="G438" s="42"/>
+      <c r="G438" s="41"/>
     </row>
     <row r="439" spans="1:7">
       <c r="A439" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B439" s="42" t="s">
-        <v>720</v>
-      </c>
-      <c r="C439" s="44" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D439" s="44"/>
-      <c r="E439" s="44"/>
+        <v>726</v>
+      </c>
+      <c r="C439" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D439" s="42"/>
+      <c r="E439" s="47" t="s">
+        <v>268</v>
+      </c>
       <c r="F439" s="42" t="s">
         <v>1182</v>
       </c>
-      <c r="G439" s="44"/>
+      <c r="G439" s="47"/>
     </row>
     <row r="440" spans="1:7">
       <c r="A440" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B440" s="42" t="s">
-        <v>725</v>
-      </c>
-      <c r="C440" s="42" t="s">
-        <v>615</v>
-      </c>
-      <c r="D440" s="42" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E440" s="42" t="s">
-        <v>616</v>
+        <v>727</v>
+      </c>
+      <c r="C440" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D440" s="42"/>
+      <c r="E440" s="47" t="s">
+        <v>268</v>
       </c>
       <c r="F440" s="42" t="s">
         <v>1182</v>
       </c>
-      <c r="G440" s="42"/>
+      <c r="G440" s="47"/>
     </row>
     <row r="441" spans="1:7">
       <c r="A441" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B441" s="42">
-        <v>11.5</v>
-      </c>
-      <c r="C441" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D441" s="44"/>
-      <c r="E441" s="44"/>
+      <c r="B441" s="42" t="s">
+        <v>728</v>
+      </c>
+      <c r="C441" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D441" s="42"/>
+      <c r="E441" s="47" t="s">
+        <v>268</v>
+      </c>
       <c r="F441" s="42" t="s">
         <v>1182</v>
       </c>
-      <c r="G441" s="41"/>
+      <c r="G441" s="47"/>
     </row>
     <row r="442" spans="1:7">
       <c r="A442" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B442" s="42" t="s">
-        <v>726</v>
-      </c>
-      <c r="C442" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D442" s="42"/>
-      <c r="E442" s="47" t="s">
-        <v>268</v>
-      </c>
+      <c r="B442" s="42">
+        <v>11.6</v>
+      </c>
+      <c r="C442" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D442" s="44"/>
+      <c r="E442" s="41"/>
       <c r="F442" s="42" t="s">
         <v>1182</v>
       </c>
-      <c r="G442" s="47"/>
+      <c r="G442" s="41"/>
     </row>
     <row r="443" spans="1:7">
       <c r="A443" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B443" s="42" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C443" s="47" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D443" s="42"/>
       <c r="E443" s="47" t="s">
@@ -16493,10 +16497,10 @@
         <v>56</v>
       </c>
       <c r="B444" s="42" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C444" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D444" s="42"/>
       <c r="E444" s="47" t="s">
@@ -16512,16 +16516,14 @@
         <v>56</v>
       </c>
       <c r="B445" s="42">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C445" s="41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D445" s="44"/>
-      <c r="E445" s="41"/>
-      <c r="F445" s="42" t="s">
-        <v>1182</v>
-      </c>
+      <c r="E445" s="44"/>
+      <c r="F445" s="44"/>
       <c r="G445" s="41"/>
     </row>
     <row r="446" spans="1:7">
@@ -16529,210 +16531,212 @@
         <v>56</v>
       </c>
       <c r="B446" s="42" t="s">
-        <v>729</v>
-      </c>
-      <c r="C446" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D446" s="42"/>
-      <c r="E446" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="F446" s="42" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G446" s="47"/>
-    </row>
-    <row r="447" spans="1:7">
+        <v>731</v>
+      </c>
+      <c r="C446" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D446" s="44"/>
+      <c r="E446" s="44"/>
+      <c r="F446" s="44"/>
+      <c r="G446" s="44"/>
+    </row>
+    <row r="447" spans="1:7" ht="45">
       <c r="A447" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B447" s="42" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C447" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D447" s="42"/>
-      <c r="E447" s="47" t="s">
-        <v>268</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="D447" s="42">
+        <v>78.3</v>
+      </c>
+      <c r="E447" s="42"/>
       <c r="F447" s="42" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G447" s="47"/>
+        <v>1126</v>
+      </c>
+      <c r="G447" s="47" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="448" spans="1:7">
       <c r="A448" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B448" s="42">
-        <v>11.7</v>
-      </c>
-      <c r="C448" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D448" s="44"/>
-      <c r="E448" s="44"/>
-      <c r="F448" s="44"/>
-      <c r="G448" s="41"/>
+      <c r="B448" s="42" t="s">
+        <v>733</v>
+      </c>
+      <c r="C448" s="47" t="s">
+        <v>682</v>
+      </c>
+      <c r="D448" s="42">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E448" s="42"/>
+      <c r="F448" s="42" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G448" s="47"/>
     </row>
     <row r="449" spans="1:7">
       <c r="A449" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B449" s="42" t="s">
-        <v>731</v>
-      </c>
-      <c r="C449" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D449" s="44"/>
-      <c r="E449" s="44"/>
-      <c r="F449" s="44"/>
-      <c r="G449" s="44"/>
-    </row>
-    <row r="450" spans="1:7" ht="45">
+        <v>734</v>
+      </c>
+      <c r="C449" s="47" t="s">
+        <v>655</v>
+      </c>
+      <c r="D449" s="42">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E449" s="42"/>
+      <c r="F449" s="42" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G449" s="47"/>
+    </row>
+    <row r="450" spans="1:7">
       <c r="A450" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B450" s="42" t="s">
-        <v>732</v>
-      </c>
-      <c r="C450" s="47" t="s">
-        <v>651</v>
-      </c>
-      <c r="D450" s="42">
-        <v>78.3</v>
-      </c>
-      <c r="E450" s="42"/>
-      <c r="F450" s="42" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G450" s="47" t="s">
-        <v>1105</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="C450" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D450" s="44"/>
+      <c r="E450" s="44"/>
+      <c r="F450" s="44"/>
+      <c r="G450" s="44"/>
     </row>
     <row r="451" spans="1:7">
       <c r="A451" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B451" s="42" t="s">
-        <v>733</v>
-      </c>
-      <c r="C451" s="47" t="s">
-        <v>682</v>
-      </c>
-      <c r="D451" s="42">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E451" s="42"/>
-      <c r="F451" s="42" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G451" s="47"/>
-    </row>
-    <row r="452" spans="1:7">
+        <v>736</v>
+      </c>
+      <c r="C451" s="44" t="s">
+        <v>624</v>
+      </c>
+      <c r="D451" s="44"/>
+      <c r="E451" s="44"/>
+      <c r="F451" s="44"/>
+      <c r="G451" s="44"/>
+    </row>
+    <row r="452" spans="1:7" ht="30">
       <c r="A452" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B452" s="42" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C452" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="D452" s="42">
-        <v>78.099999999999994</v>
+        <v>738</v>
+      </c>
+      <c r="D452" s="42" t="s">
+        <v>557</v>
       </c>
       <c r="E452" s="42"/>
       <c r="F452" s="42" t="s">
         <v>1126</v>
       </c>
-      <c r="G452" s="47"/>
+      <c r="G452" s="47" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="453" spans="1:7">
       <c r="A453" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B453" s="42" t="s">
-        <v>735</v>
-      </c>
-      <c r="C453" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D453" s="44"/>
-      <c r="E453" s="44"/>
-      <c r="F453" s="44"/>
-      <c r="G453" s="44"/>
+        <v>739</v>
+      </c>
+      <c r="C453" s="47" t="s">
+        <v>690</v>
+      </c>
+      <c r="D453" s="42" t="s">
+        <v>560</v>
+      </c>
+      <c r="E453" s="42"/>
+      <c r="F453" s="42" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G453" s="47"/>
     </row>
     <row r="454" spans="1:7">
       <c r="A454" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B454" s="42" t="s">
-        <v>736</v>
-      </c>
-      <c r="C454" s="44" t="s">
-        <v>624</v>
-      </c>
-      <c r="D454" s="44"/>
-      <c r="E454" s="44"/>
-      <c r="F454" s="44"/>
-      <c r="G454" s="44"/>
-    </row>
-    <row r="455" spans="1:7" ht="30">
+        <v>740</v>
+      </c>
+      <c r="C454" s="42" t="s">
+        <v>741</v>
+      </c>
+      <c r="D454" s="42" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E454" s="42"/>
+      <c r="F454" s="42" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G454" s="42"/>
+    </row>
+    <row r="455" spans="1:7">
       <c r="A455" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B455" s="42" t="s">
-        <v>737</v>
-      </c>
-      <c r="C455" s="47" t="s">
-        <v>738</v>
+        <v>742</v>
+      </c>
+      <c r="C455" s="42" t="s">
+        <v>743</v>
       </c>
       <c r="D455" s="42" t="s">
-        <v>557</v>
+        <v>598</v>
       </c>
       <c r="E455" s="42"/>
       <c r="F455" s="42" t="s">
         <v>1126</v>
       </c>
-      <c r="G455" s="47" t="s">
-        <v>1116</v>
-      </c>
+      <c r="G455" s="42"/>
     </row>
     <row r="456" spans="1:7">
       <c r="A456" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B456" s="42" t="s">
-        <v>739</v>
-      </c>
-      <c r="C456" s="47" t="s">
-        <v>690</v>
-      </c>
-      <c r="D456" s="42" t="s">
-        <v>560</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="C456" s="42" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D456" s="42"/>
       <c r="E456" s="42"/>
       <c r="F456" s="42" t="s">
         <v>1126</v>
       </c>
-      <c r="G456" s="47"/>
-    </row>
-    <row r="457" spans="1:7">
+      <c r="G456" s="42"/>
+    </row>
+    <row r="457" spans="1:7" ht="30">
       <c r="A457" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B457" s="42" t="s">
-        <v>740</v>
+        <v>1081</v>
       </c>
       <c r="C457" s="42" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D457" s="42" t="s">
-        <v>1065</v>
+        <v>566</v>
       </c>
       <c r="E457" s="42"/>
       <c r="F457" s="42" t="s">
@@ -16745,13 +16749,13 @@
         <v>56</v>
       </c>
       <c r="B458" s="42" t="s">
-        <v>742</v>
+        <v>1082</v>
       </c>
       <c r="C458" s="42" t="s">
-        <v>743</v>
+        <v>1079</v>
       </c>
       <c r="D458" s="42" t="s">
-        <v>598</v>
+        <v>700</v>
       </c>
       <c r="E458" s="42"/>
       <c r="F458" s="42" t="s">
@@ -16764,49 +16768,49 @@
         <v>56</v>
       </c>
       <c r="B459" s="42" t="s">
-        <v>744</v>
-      </c>
-      <c r="C459" s="42" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D459" s="42"/>
-      <c r="E459" s="42"/>
-      <c r="F459" s="42" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G459" s="42"/>
-    </row>
-    <row r="460" spans="1:7" ht="30">
+        <v>747</v>
+      </c>
+      <c r="C459" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="D459" s="44"/>
+      <c r="E459" s="44"/>
+      <c r="F459" s="44"/>
+      <c r="G459" s="44"/>
+    </row>
+    <row r="460" spans="1:7">
       <c r="A460" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B460" s="42" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C460" s="42" t="s">
-        <v>745</v>
+        <v>748</v>
+      </c>
+      <c r="C460" s="47" t="s">
+        <v>602</v>
       </c>
       <c r="D460" s="42" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="E460" s="42"/>
       <c r="F460" s="42" t="s">
         <v>1126</v>
       </c>
-      <c r="G460" s="42"/>
+      <c r="G460" s="47" t="s">
+        <v>1108</v>
+      </c>
     </row>
     <row r="461" spans="1:7">
       <c r="A461" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B461" s="42" t="s">
-        <v>1082</v>
+        <v>749</v>
       </c>
       <c r="C461" s="42" t="s">
-        <v>1079</v>
+        <v>604</v>
       </c>
       <c r="D461" s="42" t="s">
-        <v>700</v>
+        <v>1063</v>
       </c>
       <c r="E461" s="42"/>
       <c r="F461" s="42" t="s">
@@ -16819,35 +16823,35 @@
         <v>56</v>
       </c>
       <c r="B462" s="42" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C462" s="44" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D462" s="44"/>
       <c r="E462" s="44"/>
       <c r="F462" s="44"/>
       <c r="G462" s="44"/>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" ht="30">
       <c r="A463" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B463" s="42" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C463" s="47" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="D463" s="42" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E463" s="42"/>
       <c r="F463" s="42" t="s">
         <v>1126</v>
       </c>
       <c r="G463" s="47" t="s">
-        <v>1108</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -16855,131 +16859,76 @@
         <v>56</v>
       </c>
       <c r="B464" s="42" t="s">
-        <v>749</v>
-      </c>
-      <c r="C464" s="42" t="s">
-        <v>604</v>
+        <v>752</v>
+      </c>
+      <c r="C464" s="47" t="s">
+        <v>645</v>
       </c>
       <c r="D464" s="42" t="s">
-        <v>1063</v>
+        <v>574</v>
       </c>
       <c r="E464" s="42"/>
       <c r="F464" s="42" t="s">
         <v>1126</v>
       </c>
-      <c r="G464" s="42"/>
+      <c r="G464" s="47"/>
     </row>
     <row r="465" spans="1:7">
       <c r="A465" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B465" s="42" t="s">
-        <v>750</v>
-      </c>
-      <c r="C465" s="44" t="s">
-        <v>606</v>
-      </c>
-      <c r="D465" s="44"/>
-      <c r="E465" s="44"/>
-      <c r="F465" s="44"/>
-      <c r="G465" s="44"/>
-    </row>
-    <row r="466" spans="1:7" ht="30">
+        <v>753</v>
+      </c>
+      <c r="C465" s="47" t="s">
+        <v>611</v>
+      </c>
+      <c r="D465" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="E465" s="42"/>
+      <c r="F465" s="42" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G465" s="47"/>
+    </row>
+    <row r="466" spans="1:7">
       <c r="A466" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B466" s="42" t="s">
-        <v>751</v>
-      </c>
-      <c r="C466" s="47" t="s">
-        <v>570</v>
+        <v>754</v>
+      </c>
+      <c r="C466" s="42" t="s">
+        <v>613</v>
       </c>
       <c r="D466" s="42" t="s">
-        <v>571</v>
+        <v>1066</v>
       </c>
       <c r="E466" s="42"/>
       <c r="F466" s="42" t="s">
         <v>1126</v>
       </c>
-      <c r="G466" s="47" t="s">
-        <v>1117</v>
-      </c>
+      <c r="G466" s="42"/>
     </row>
     <row r="467" spans="1:7">
       <c r="A467" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B467" s="42" t="s">
-        <v>752</v>
-      </c>
-      <c r="C467" s="47" t="s">
-        <v>645</v>
+        <v>755</v>
+      </c>
+      <c r="C467" s="42" t="s">
+        <v>615</v>
       </c>
       <c r="D467" s="42" t="s">
-        <v>574</v>
+        <v>1064</v>
       </c>
       <c r="E467" s="42"/>
       <c r="F467" s="42" t="s">
         <v>1126</v>
       </c>
-      <c r="G467" s="47"/>
-    </row>
-    <row r="468" spans="1:7">
-      <c r="A468" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B468" s="42" t="s">
-        <v>753</v>
-      </c>
-      <c r="C468" s="47" t="s">
-        <v>611</v>
-      </c>
-      <c r="D468" s="42" t="s">
-        <v>577</v>
-      </c>
-      <c r="E468" s="42"/>
-      <c r="F468" s="42" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G468" s="47"/>
-    </row>
-    <row r="469" spans="1:7">
-      <c r="A469" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B469" s="42" t="s">
-        <v>754</v>
-      </c>
-      <c r="C469" s="42" t="s">
-        <v>613</v>
-      </c>
-      <c r="D469" s="42" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E469" s="42"/>
-      <c r="F469" s="42" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G469" s="42"/>
-    </row>
-    <row r="470" spans="1:7">
-      <c r="A470" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B470" s="42" t="s">
-        <v>755</v>
-      </c>
-      <c r="C470" s="42" t="s">
-        <v>615</v>
-      </c>
-      <c r="D470" s="42" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E470" s="42"/>
-      <c r="F470" s="42" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G470" s="42"/>
+      <c r="G467" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
